--- a/6.Schedule/Schedule.xlsx
+++ b/6.Schedule/Schedule.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="126">
   <si>
     <t>○</t>
     <phoneticPr fontId="5"/>
@@ -471,6 +471,15 @@
   </si>
   <si>
     <t>Thiết kế menu</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
 </sst>
 </file>
@@ -2042,6 +2051,29 @@
     <xf numFmtId="168" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2050,21 +2082,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2078,30 +2106,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2110,50 +2114,61 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2201,57 +2216,51 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2272,7 +2281,448 @@
     <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="97">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2452,27 +2902,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3034,10 +3463,10 @@
   <dimension ref="A1:EL120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="10" topLeftCell="S17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="10" topLeftCell="AD89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11:H12"/>
+      <selection pane="bottomRight" activeCell="P103" sqref="P103:P106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -3047,15 +3476,15 @@
     <col min="3" max="3" width="22.875" style="115" customWidth="1"/>
     <col min="4" max="4" width="7.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="131" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="115" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="115" customWidth="1"/>
     <col min="7" max="7" width="10" style="9" customWidth="1"/>
     <col min="8" max="9" width="9.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="4.5" style="17" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.125" style="115" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="115" customWidth="1"/>
     <col min="17" max="17" width="5.5" style="115" customWidth="1"/>
-    <col min="18" max="18" width="5" style="115" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.875" style="115" customWidth="1"/>
     <col min="19" max="19" width="2.875" style="2" customWidth="1"/>
     <col min="20" max="141" width="3.125" style="39" customWidth="1"/>
     <col min="142" max="142" width="6.875" style="2" customWidth="1"/>
@@ -3165,20 +3594,20 @@
       <c r="K2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="173" t="s">
+      <c r="L2" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="174"/>
-      <c r="N2" s="173" t="s">
+      <c r="M2" s="177"/>
+      <c r="N2" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="174"/>
+      <c r="O2" s="177"/>
       <c r="P2" s="118"/>
-      <c r="Q2" s="170">
+      <c r="Q2" s="198">
         <f ca="1">TODAY()</f>
         <v>43297</v>
       </c>
-      <c r="R2" s="171"/>
+      <c r="R2" s="199"/>
       <c r="S2" s="35"/>
       <c r="T2" s="69"/>
       <c r="U2" s="30"/>
@@ -3238,21 +3667,21 @@
       <c r="BW2" s="38"/>
       <c r="BX2" s="38"/>
       <c r="BY2" s="38"/>
-      <c r="BZ2" s="164">
+      <c r="BZ2" s="192">
         <v>0.05</v>
       </c>
-      <c r="CA2" s="165"/>
-      <c r="CB2" s="165"/>
-      <c r="CC2" s="164">
+      <c r="CA2" s="193"/>
+      <c r="CB2" s="193"/>
+      <c r="CC2" s="192">
         <v>0.15</v>
       </c>
-      <c r="CD2" s="165"/>
-      <c r="CE2" s="165"/>
-      <c r="CF2" s="164">
+      <c r="CD2" s="193"/>
+      <c r="CE2" s="193"/>
+      <c r="CF2" s="192">
         <v>0.8</v>
       </c>
-      <c r="CG2" s="165"/>
-      <c r="CH2" s="165"/>
+      <c r="CG2" s="193"/>
+      <c r="CH2" s="193"/>
       <c r="CI2" s="40"/>
       <c r="CJ2" s="40"/>
       <c r="CK2" s="40"/>
@@ -3337,19 +3766,19 @@
         <f>COUNTIF(R11:R12,"=◇")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="175">
+      <c r="L3" s="178">
         <f>COUNTIF(R11:R12,"=▲")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="176"/>
-      <c r="N3" s="175">
+      <c r="M3" s="179"/>
+      <c r="N3" s="178">
         <f>COUNTIF(R11:R12,"=★")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="176"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="136"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
       <c r="S3" s="35"/>
       <c r="T3" s="70"/>
       <c r="U3" s="107"/>
@@ -3409,21 +3838,21 @@
       <c r="BW3" s="38"/>
       <c r="BX3" s="38"/>
       <c r="BY3" s="38"/>
-      <c r="BZ3" s="167" t="s">
+      <c r="BZ3" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="CA3" s="168"/>
-      <c r="CB3" s="169"/>
-      <c r="CC3" s="166" t="s">
+      <c r="CA3" s="196"/>
+      <c r="CB3" s="197"/>
+      <c r="CC3" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="CD3" s="166"/>
-      <c r="CE3" s="166"/>
-      <c r="CF3" s="167" t="s">
+      <c r="CD3" s="194"/>
+      <c r="CE3" s="194"/>
+      <c r="CF3" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="CG3" s="168"/>
-      <c r="CH3" s="169"/>
+      <c r="CG3" s="196"/>
+      <c r="CH3" s="197"/>
       <c r="EL3" s="31">
         <f>B2</f>
         <v>0</v>
@@ -3607,16 +4036,16 @@
       <c r="E7" s="133"/>
       <c r="F7" s="126"/>
       <c r="G7" s="108"/>
-      <c r="H7" s="184" t="s">
+      <c r="H7" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="186"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="189"/>
       <c r="P7" s="126"/>
       <c r="Q7" s="138"/>
       <c r="R7" s="138"/>
@@ -3636,24 +4065,24 @@
       <c r="I8" s="78">
         <v>43374</v>
       </c>
-      <c r="J8" s="78" t="str">
+      <c r="J8" s="78">
         <f>IF(MIN(J11:J12)=DATE(1900,1,0),"",MIN(J11:J12))</f>
-        <v/>
-      </c>
-      <c r="K8" s="78" t="str">
+        <v>43291</v>
+      </c>
+      <c r="K8" s="78">
         <f>IF(MAX(K11:K12)=DATE(1900,1,0),"",MAX(K11:K12))</f>
-        <v/>
-      </c>
-      <c r="L8" s="162">
+        <v>43292</v>
+      </c>
+      <c r="L8" s="190">
         <f>SUM(M11:M110)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="163"/>
-      <c r="N8" s="162">
+        <v>43293</v>
+      </c>
+      <c r="M8" s="191"/>
+      <c r="N8" s="190">
         <f>SUM(O11:O110)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="163"/>
+        <v>43293</v>
+      </c>
+      <c r="O8" s="191"/>
       <c r="P8" s="124"/>
       <c r="Q8" s="139"/>
       <c r="R8" s="140" t="str">
@@ -3999,52 +4428,52 @@
       <c r="EI8" s="88"/>
       <c r="EJ8" s="88"/>
       <c r="EK8" s="88"/>
-      <c r="EL8" s="161" t="s">
+      <c r="EL8" s="201" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="192" t="s">
+      <c r="D9" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="194" t="s">
+      <c r="E9" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="198" t="s">
+      <c r="G9" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="189" t="s">
+      <c r="H9" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="190"/>
-      <c r="J9" s="196" t="s">
+      <c r="I9" s="166"/>
+      <c r="J9" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="197"/>
-      <c r="L9" s="177" t="s">
+      <c r="K9" s="174"/>
+      <c r="L9" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="178"/>
-      <c r="N9" s="183" t="s">
+      <c r="M9" s="181"/>
+      <c r="N9" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="178"/>
-      <c r="P9" s="143" t="s">
+      <c r="O9" s="181"/>
+      <c r="P9" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="179" t="s">
+      <c r="Q9" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="180"/>
+      <c r="R9" s="183"/>
       <c r="S9" s="29">
         <v>43282</v>
       </c>
@@ -4536,15 +4965,15 @@
         <f t="shared" si="2"/>
         <v>43404</v>
       </c>
-      <c r="EL9" s="161"/>
+      <c r="EL9" s="201"/>
     </row>
     <row r="10" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B10" s="188"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="198"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="175"/>
       <c r="H10" s="112" t="s">
         <v>20</v>
       </c>
@@ -4569,9 +4998,9 @@
       <c r="O10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="182"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="185"/>
       <c r="S10" s="22">
         <f>S9</f>
         <v>43282</v>
@@ -4902,38 +5331,44 @@
       <c r="EI10" s="89"/>
       <c r="EJ10" s="89"/>
       <c r="EK10" s="89"/>
-      <c r="EL10" s="161"/>
+      <c r="EL10" s="201"/>
     </row>
     <row r="11" spans="1:142" ht="9" customHeight="1">
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C11" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="155"/>
-      <c r="E11" s="145" t="s">
+      <c r="D11" s="146"/>
+      <c r="E11" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="141" t="s">
+      <c r="F11" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="G11" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="147">
-        <v>10</v>
-      </c>
-      <c r="I11" s="147"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="159"/>
-      <c r="R11" s="157"/>
+      <c r="H11" s="154">
+        <v>43291</v>
+      </c>
+      <c r="I11" s="154">
+        <v>43292</v>
+      </c>
+      <c r="J11" s="154">
+        <v>43291</v>
+      </c>
+      <c r="K11" s="154">
+        <v>43292</v>
+      </c>
+      <c r="L11" s="152"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="161"/>
       <c r="S11" s="84"/>
       <c r="T11" s="87"/>
       <c r="U11" s="86"/>
@@ -4943,8 +5378,12 @@
       <c r="Y11" s="86"/>
       <c r="Z11" s="86"/>
       <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
+      <c r="AB11" s="86">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="86">
+        <v>1</v>
+      </c>
       <c r="AD11" s="86"/>
       <c r="AE11" s="86"/>
       <c r="AF11" s="86"/>
@@ -5060,23 +5499,23 @@
       <c r="EL11" s="95"/>
     </row>
     <row r="12" spans="1:142" ht="9" customHeight="1">
-      <c r="B12" s="200"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="158"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="162"/>
       <c r="S12" s="84"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
@@ -5203,27 +5642,35 @@
       <c r="EL12" s="96"/>
     </row>
     <row r="13" spans="1:142" ht="9" customHeight="1">
-      <c r="B13" s="199"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="141" t="s">
+      <c r="B13" s="141"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="147" t="s">
+      <c r="G13" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="159"/>
-      <c r="R13" s="157"/>
+      <c r="H13" s="154">
+        <v>43291</v>
+      </c>
+      <c r="I13" s="154">
+        <v>43292</v>
+      </c>
+      <c r="J13" s="154">
+        <v>43291</v>
+      </c>
+      <c r="K13" s="154">
+        <v>43292</v>
+      </c>
+      <c r="L13" s="152"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="161"/>
       <c r="S13" s="84"/>
       <c r="T13" s="87"/>
       <c r="U13" s="86"/>
@@ -5233,8 +5680,12 @@
       <c r="Y13" s="86"/>
       <c r="Z13" s="86"/>
       <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
+      <c r="AB13" s="86">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="86">
+        <v>1</v>
+      </c>
       <c r="AD13" s="86"/>
       <c r="AE13" s="86"/>
       <c r="AF13" s="86"/>
@@ -5350,23 +5801,23 @@
       <c r="EL13" s="95"/>
     </row>
     <row r="14" spans="1:142" ht="9" customHeight="1">
-      <c r="B14" s="200"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="158"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="162"/>
       <c r="S14" s="84"/>
       <c r="T14" s="85"/>
       <c r="U14" s="85"/>
@@ -5493,27 +5944,35 @@
       <c r="EL14" s="96"/>
     </row>
     <row r="15" spans="1:142" ht="9" customHeight="1">
-      <c r="B15" s="199"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="141" t="s">
+      <c r="B15" s="141"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="147" t="s">
+      <c r="G15" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="157"/>
+      <c r="H15" s="154">
+        <v>43291</v>
+      </c>
+      <c r="I15" s="154">
+        <v>43292</v>
+      </c>
+      <c r="J15" s="154">
+        <v>43291</v>
+      </c>
+      <c r="K15" s="154">
+        <v>43292</v>
+      </c>
+      <c r="L15" s="152"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="158"/>
+      <c r="R15" s="161"/>
       <c r="S15" s="84"/>
       <c r="T15" s="87"/>
       <c r="U15" s="86"/>
@@ -5640,23 +6099,23 @@
       <c r="EL15" s="95"/>
     </row>
     <row r="16" spans="1:142" ht="9" customHeight="1">
-      <c r="B16" s="200"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="158"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="162"/>
       <c r="S16" s="84"/>
       <c r="T16" s="85"/>
       <c r="U16" s="85"/>
@@ -5666,8 +6125,12 @@
       <c r="Y16" s="85"/>
       <c r="Z16" s="85"/>
       <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="85"/>
+      <c r="AB16" s="85">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="85">
+        <v>1</v>
+      </c>
       <c r="AD16" s="85"/>
       <c r="AE16" s="85"/>
       <c r="AF16" s="85"/>
@@ -5783,29 +6246,37 @@
       <c r="EL16" s="96"/>
     </row>
     <row r="17" spans="2:142" ht="9" customHeight="1">
-      <c r="B17" s="199"/>
-      <c r="C17" s="191" t="s">
+      <c r="B17" s="141"/>
+      <c r="C17" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="155"/>
-      <c r="E17" s="145" t="s">
+      <c r="D17" s="146"/>
+      <c r="E17" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="147" t="s">
+      <c r="F17" s="148"/>
+      <c r="G17" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="157"/>
+      <c r="H17" s="154">
+        <v>43291</v>
+      </c>
+      <c r="I17" s="154">
+        <v>43292</v>
+      </c>
+      <c r="J17" s="154">
+        <v>43291</v>
+      </c>
+      <c r="K17" s="154">
+        <v>43292</v>
+      </c>
+      <c r="L17" s="152"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="161"/>
       <c r="S17" s="84"/>
       <c r="T17" s="87"/>
       <c r="U17" s="86"/>
@@ -5815,7 +6286,9 @@
       <c r="Y17" s="86"/>
       <c r="Z17" s="86"/>
       <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
+      <c r="AB17" s="86">
+        <v>1</v>
+      </c>
       <c r="AC17" s="86"/>
       <c r="AD17" s="86"/>
       <c r="AE17" s="86"/>
@@ -5932,23 +6405,23 @@
       <c r="EL17" s="95"/>
     </row>
     <row r="18" spans="2:142" ht="9" customHeight="1">
-      <c r="B18" s="200"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="158"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="162"/>
       <c r="S18" s="84"/>
       <c r="T18" s="85"/>
       <c r="U18" s="85"/>
@@ -5959,7 +6432,9 @@
       <c r="Z18" s="85"/>
       <c r="AA18" s="85"/>
       <c r="AB18" s="85"/>
-      <c r="AC18" s="85"/>
+      <c r="AC18" s="85">
+        <v>1</v>
+      </c>
       <c r="AD18" s="85"/>
       <c r="AE18" s="85"/>
       <c r="AF18" s="85"/>
@@ -6075,29 +6550,37 @@
       <c r="EL18" s="96"/>
     </row>
     <row r="19" spans="2:142" ht="9" customHeight="1">
-      <c r="B19" s="199"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="145" t="s">
+      <c r="B19" s="141"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="141" t="s">
+      <c r="F19" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="147" t="s">
+      <c r="G19" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="159"/>
-      <c r="R19" s="157"/>
+      <c r="H19" s="154">
+        <v>43291</v>
+      </c>
+      <c r="I19" s="154">
+        <v>43292</v>
+      </c>
+      <c r="J19" s="154">
+        <v>43291</v>
+      </c>
+      <c r="K19" s="154">
+        <v>43292</v>
+      </c>
+      <c r="L19" s="152"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="161"/>
       <c r="S19" s="84"/>
       <c r="T19" s="87"/>
       <c r="U19" s="86"/>
@@ -6107,7 +6590,9 @@
       <c r="Y19" s="86"/>
       <c r="Z19" s="86"/>
       <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
+      <c r="AB19" s="86">
+        <v>1</v>
+      </c>
       <c r="AC19" s="86"/>
       <c r="AD19" s="86"/>
       <c r="AE19" s="86"/>
@@ -6224,23 +6709,23 @@
       <c r="EL19" s="95"/>
     </row>
     <row r="20" spans="2:142" ht="9" customHeight="1">
-      <c r="B20" s="200"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="158"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="159"/>
+      <c r="R20" s="162"/>
       <c r="S20" s="84"/>
       <c r="T20" s="85"/>
       <c r="U20" s="85"/>
@@ -6251,7 +6736,9 @@
       <c r="Z20" s="85"/>
       <c r="AA20" s="85"/>
       <c r="AB20" s="85"/>
-      <c r="AC20" s="85"/>
+      <c r="AC20" s="85">
+        <v>1</v>
+      </c>
       <c r="AD20" s="85"/>
       <c r="AE20" s="85"/>
       <c r="AF20" s="85"/>
@@ -6367,27 +6854,35 @@
       <c r="EL20" s="96"/>
     </row>
     <row r="21" spans="2:142" ht="9" customHeight="1">
-      <c r="B21" s="199"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="141" t="s">
+      <c r="B21" s="141"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="147" t="s">
+      <c r="G21" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="157"/>
+      <c r="H21" s="154">
+        <v>43291</v>
+      </c>
+      <c r="I21" s="154">
+        <v>43292</v>
+      </c>
+      <c r="J21" s="154">
+        <v>43291</v>
+      </c>
+      <c r="K21" s="154">
+        <v>43292</v>
+      </c>
+      <c r="L21" s="152"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="158"/>
+      <c r="R21" s="161"/>
       <c r="S21" s="84"/>
       <c r="T21" s="87"/>
       <c r="U21" s="86"/>
@@ -6397,7 +6892,9 @@
       <c r="Y21" s="86"/>
       <c r="Z21" s="86"/>
       <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
+      <c r="AB21" s="86">
+        <v>1</v>
+      </c>
       <c r="AC21" s="86"/>
       <c r="AD21" s="86"/>
       <c r="AE21" s="86"/>
@@ -6514,23 +7011,23 @@
       <c r="EL21" s="95"/>
     </row>
     <row r="22" spans="2:142" ht="9" customHeight="1">
-      <c r="B22" s="200"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="158"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="162"/>
       <c r="S22" s="84"/>
       <c r="T22" s="85"/>
       <c r="U22" s="85"/>
@@ -6657,29 +7154,37 @@
       <c r="EL22" s="96"/>
     </row>
     <row r="23" spans="2:142" ht="9" customHeight="1">
-      <c r="B23" s="199"/>
-      <c r="C23" s="191" t="s">
+      <c r="B23" s="141"/>
+      <c r="C23" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="155"/>
-      <c r="E23" s="145" t="s">
+      <c r="D23" s="146"/>
+      <c r="E23" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="141"/>
-      <c r="G23" s="147" t="s">
+      <c r="F23" s="148"/>
+      <c r="G23" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="159"/>
-      <c r="R23" s="157"/>
+      <c r="H23" s="154">
+        <v>43291</v>
+      </c>
+      <c r="I23" s="154">
+        <v>43292</v>
+      </c>
+      <c r="J23" s="154">
+        <v>43291</v>
+      </c>
+      <c r="K23" s="154">
+        <v>43292</v>
+      </c>
+      <c r="L23" s="152"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="161"/>
       <c r="S23" s="84"/>
       <c r="T23" s="87"/>
       <c r="U23" s="86"/>
@@ -6689,7 +7194,9 @@
       <c r="Y23" s="86"/>
       <c r="Z23" s="86"/>
       <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
+      <c r="AB23" s="86">
+        <v>1</v>
+      </c>
       <c r="AC23" s="86"/>
       <c r="AD23" s="86"/>
       <c r="AE23" s="86"/>
@@ -6806,23 +7313,23 @@
       <c r="EL23" s="95"/>
     </row>
     <row r="24" spans="2:142" ht="9" customHeight="1">
-      <c r="B24" s="200"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="158"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="159"/>
+      <c r="R24" s="162"/>
       <c r="S24" s="84"/>
       <c r="T24" s="85"/>
       <c r="U24" s="85"/>
@@ -6949,27 +7456,35 @@
       <c r="EL24" s="96"/>
     </row>
     <row r="25" spans="2:142" ht="9" customHeight="1">
-      <c r="B25" s="199"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="145" t="s">
+      <c r="B25" s="141"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="141"/>
-      <c r="G25" s="147" t="s">
+      <c r="F25" s="148"/>
+      <c r="G25" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="159"/>
-      <c r="R25" s="157"/>
+      <c r="H25" s="154">
+        <v>43291</v>
+      </c>
+      <c r="I25" s="154">
+        <v>43292</v>
+      </c>
+      <c r="J25" s="154">
+        <v>43291</v>
+      </c>
+      <c r="K25" s="154">
+        <v>43292</v>
+      </c>
+      <c r="L25" s="152"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="161"/>
       <c r="S25" s="84"/>
       <c r="T25" s="87"/>
       <c r="U25" s="86"/>
@@ -6979,7 +7494,9 @@
       <c r="Y25" s="86"/>
       <c r="Z25" s="86"/>
       <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
+      <c r="AB25" s="86">
+        <v>1</v>
+      </c>
       <c r="AC25" s="86"/>
       <c r="AD25" s="86"/>
       <c r="AE25" s="86"/>
@@ -7096,23 +7613,23 @@
       <c r="EL25" s="95"/>
     </row>
     <row r="26" spans="2:142" ht="9" customHeight="1">
-      <c r="B26" s="200"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="158"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="149"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="162"/>
       <c r="S26" s="84"/>
       <c r="T26" s="85"/>
       <c r="U26" s="85"/>
@@ -7239,27 +7756,35 @@
       <c r="EL26" s="96"/>
     </row>
     <row r="27" spans="2:142" ht="9" customHeight="1">
-      <c r="B27" s="199"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="145" t="s">
+      <c r="B27" s="141"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="141"/>
-      <c r="G27" s="147" t="s">
+      <c r="F27" s="148"/>
+      <c r="G27" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="159"/>
-      <c r="R27" s="157"/>
+      <c r="H27" s="154">
+        <v>43291</v>
+      </c>
+      <c r="I27" s="154">
+        <v>43292</v>
+      </c>
+      <c r="J27" s="154">
+        <v>43291</v>
+      </c>
+      <c r="K27" s="154">
+        <v>43292</v>
+      </c>
+      <c r="L27" s="152"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="161"/>
       <c r="S27" s="84"/>
       <c r="T27" s="87"/>
       <c r="U27" s="86"/>
@@ -7270,7 +7795,9 @@
       <c r="Z27" s="86"/>
       <c r="AA27" s="86"/>
       <c r="AB27" s="86"/>
-      <c r="AC27" s="86"/>
+      <c r="AC27" s="86">
+        <v>1</v>
+      </c>
       <c r="AD27" s="86"/>
       <c r="AE27" s="86"/>
       <c r="AF27" s="86"/>
@@ -7386,23 +7913,23 @@
       <c r="EL27" s="95"/>
     </row>
     <row r="28" spans="2:142" ht="9" customHeight="1">
-      <c r="B28" s="200"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="158"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="162"/>
       <c r="S28" s="84"/>
       <c r="T28" s="85"/>
       <c r="U28" s="85"/>
@@ -7529,31 +8056,39 @@
       <c r="EL28" s="96"/>
     </row>
     <row r="29" spans="2:142" ht="9" customHeight="1">
-      <c r="B29" s="199" t="s">
+      <c r="B29" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="191" t="s">
+      <c r="C29" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="155"/>
-      <c r="E29" s="145" t="s">
+      <c r="D29" s="146"/>
+      <c r="E29" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="141"/>
-      <c r="G29" s="147" t="s">
+      <c r="F29" s="148"/>
+      <c r="G29" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="159"/>
-      <c r="R29" s="157"/>
+      <c r="H29" s="154">
+        <v>43293</v>
+      </c>
+      <c r="I29" s="154">
+        <v>43144</v>
+      </c>
+      <c r="J29" s="154">
+        <v>43293</v>
+      </c>
+      <c r="K29" s="154">
+        <v>43144</v>
+      </c>
+      <c r="L29" s="152"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="161"/>
       <c r="S29" s="84"/>
       <c r="T29" s="87"/>
       <c r="U29" s="86"/>
@@ -7565,7 +8100,9 @@
       <c r="AA29" s="86"/>
       <c r="AB29" s="86"/>
       <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
+      <c r="AD29" s="86">
+        <v>1</v>
+      </c>
       <c r="AE29" s="86"/>
       <c r="AF29" s="86"/>
       <c r="AG29" s="86"/>
@@ -7680,23 +8217,23 @@
       <c r="EL29" s="95"/>
     </row>
     <row r="30" spans="2:142" ht="9" customHeight="1">
-      <c r="B30" s="200"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="158"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="159"/>
+      <c r="R30" s="162"/>
       <c r="S30" s="84"/>
       <c r="T30" s="85"/>
       <c r="U30" s="85"/>
@@ -7823,27 +8360,35 @@
       <c r="EL30" s="96"/>
     </row>
     <row r="31" spans="2:142" ht="9" customHeight="1">
-      <c r="B31" s="199"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="145" t="s">
+      <c r="B31" s="141"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="141"/>
-      <c r="G31" s="147" t="s">
+      <c r="F31" s="148"/>
+      <c r="G31" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="159"/>
-      <c r="R31" s="157"/>
+      <c r="H31" s="154">
+        <v>43293</v>
+      </c>
+      <c r="I31" s="154">
+        <v>43144</v>
+      </c>
+      <c r="J31" s="154">
+        <v>43293</v>
+      </c>
+      <c r="K31" s="154">
+        <v>43144</v>
+      </c>
+      <c r="L31" s="152"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="161"/>
       <c r="S31" s="84"/>
       <c r="T31" s="87"/>
       <c r="U31" s="86"/>
@@ -7855,7 +8400,9 @@
       <c r="AA31" s="86"/>
       <c r="AB31" s="86"/>
       <c r="AC31" s="86"/>
-      <c r="AD31" s="86"/>
+      <c r="AD31" s="86">
+        <v>1</v>
+      </c>
       <c r="AE31" s="86"/>
       <c r="AF31" s="86"/>
       <c r="AG31" s="86"/>
@@ -7970,23 +8517,23 @@
       <c r="EL31" s="95"/>
     </row>
     <row r="32" spans="2:142" ht="9" customHeight="1">
-      <c r="B32" s="200"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="154"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="154"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="158"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="159"/>
+      <c r="R32" s="162"/>
       <c r="S32" s="84"/>
       <c r="T32" s="85"/>
       <c r="U32" s="85"/>
@@ -8113,29 +8660,37 @@
       <c r="EL32" s="96"/>
     </row>
     <row r="33" spans="2:142" ht="9" customHeight="1">
-      <c r="B33" s="199"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="145" t="s">
+      <c r="B33" s="141"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="141" t="s">
+      <c r="F33" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="147" t="s">
+      <c r="G33" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="159"/>
-      <c r="R33" s="157"/>
+      <c r="H33" s="154">
+        <v>43293</v>
+      </c>
+      <c r="I33" s="154">
+        <v>43144</v>
+      </c>
+      <c r="J33" s="154">
+        <v>43293</v>
+      </c>
+      <c r="K33" s="154">
+        <v>43144</v>
+      </c>
+      <c r="L33" s="152"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="161"/>
       <c r="S33" s="84"/>
       <c r="T33" s="87"/>
       <c r="U33" s="86"/>
@@ -8262,23 +8817,23 @@
       <c r="EL33" s="95"/>
     </row>
     <row r="34" spans="2:142" ht="9" customHeight="1">
-      <c r="B34" s="200"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="152"/>
-      <c r="P34" s="142"/>
-      <c r="Q34" s="160"/>
-      <c r="R34" s="158"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="153"/>
+      <c r="O34" s="151"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="162"/>
       <c r="S34" s="84"/>
       <c r="T34" s="85"/>
       <c r="U34" s="85"/>
@@ -8290,7 +8845,9 @@
       <c r="AA34" s="85"/>
       <c r="AB34" s="85"/>
       <c r="AC34" s="85"/>
-      <c r="AD34" s="85"/>
+      <c r="AD34" s="85">
+        <v>1</v>
+      </c>
       <c r="AE34" s="85"/>
       <c r="AF34" s="85"/>
       <c r="AG34" s="85"/>
@@ -8405,27 +8962,35 @@
       <c r="EL34" s="96"/>
     </row>
     <row r="35" spans="2:142" ht="9" customHeight="1">
-      <c r="B35" s="199"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="141" t="s">
+      <c r="B35" s="141"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="147" t="s">
+      <c r="G35" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="159"/>
-      <c r="R35" s="157"/>
+      <c r="H35" s="154">
+        <v>43293</v>
+      </c>
+      <c r="I35" s="154">
+        <v>43144</v>
+      </c>
+      <c r="J35" s="154">
+        <v>43293</v>
+      </c>
+      <c r="K35" s="154">
+        <v>43144</v>
+      </c>
+      <c r="L35" s="152"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="150"/>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="158"/>
+      <c r="R35" s="161"/>
       <c r="S35" s="84"/>
       <c r="T35" s="87"/>
       <c r="U35" s="86"/>
@@ -8552,23 +9117,23 @@
       <c r="EL35" s="95"/>
     </row>
     <row r="36" spans="2:142" ht="9" customHeight="1">
-      <c r="B36" s="200"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="142"/>
-      <c r="Q36" s="160"/>
-      <c r="R36" s="158"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="159"/>
+      <c r="R36" s="162"/>
       <c r="S36" s="84"/>
       <c r="T36" s="85"/>
       <c r="U36" s="85"/>
@@ -8580,7 +9145,9 @@
       <c r="AA36" s="85"/>
       <c r="AB36" s="85"/>
       <c r="AC36" s="85"/>
-      <c r="AD36" s="85"/>
+      <c r="AD36" s="85">
+        <v>1</v>
+      </c>
       <c r="AE36" s="85"/>
       <c r="AF36" s="85"/>
       <c r="AG36" s="85"/>
@@ -8695,27 +9262,35 @@
       <c r="EL36" s="96"/>
     </row>
     <row r="37" spans="2:142" ht="9" customHeight="1">
-      <c r="B37" s="199"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="141" t="s">
+      <c r="B37" s="141"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="147" t="s">
+      <c r="G37" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="159"/>
-      <c r="R37" s="157"/>
+      <c r="H37" s="154">
+        <v>43293</v>
+      </c>
+      <c r="I37" s="154">
+        <v>43144</v>
+      </c>
+      <c r="J37" s="154">
+        <v>43293</v>
+      </c>
+      <c r="K37" s="154">
+        <v>43144</v>
+      </c>
+      <c r="L37" s="152"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="152"/>
+      <c r="O37" s="150"/>
+      <c r="P37" s="148"/>
+      <c r="Q37" s="158"/>
+      <c r="R37" s="161"/>
       <c r="S37" s="84"/>
       <c r="T37" s="87"/>
       <c r="U37" s="86"/>
@@ -8842,23 +9417,23 @@
       <c r="EL37" s="95"/>
     </row>
     <row r="38" spans="2:142" ht="9" customHeight="1">
-      <c r="B38" s="200"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="152"/>
-      <c r="N38" s="154"/>
-      <c r="O38" s="152"/>
-      <c r="P38" s="142"/>
-      <c r="Q38" s="160"/>
-      <c r="R38" s="158"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="153"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="159"/>
+      <c r="R38" s="162"/>
       <c r="S38" s="84"/>
       <c r="T38" s="85"/>
       <c r="U38" s="85"/>
@@ -8870,7 +9445,9 @@
       <c r="AA38" s="85"/>
       <c r="AB38" s="85"/>
       <c r="AC38" s="85"/>
-      <c r="AD38" s="85"/>
+      <c r="AD38" s="85">
+        <v>1</v>
+      </c>
       <c r="AE38" s="85"/>
       <c r="AF38" s="85"/>
       <c r="AG38" s="85"/>
@@ -8985,29 +9562,37 @@
       <c r="EL38" s="96"/>
     </row>
     <row r="39" spans="2:142" ht="9" customHeight="1">
-      <c r="B39" s="199"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="145" t="s">
+      <c r="B39" s="141"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="141" t="s">
+      <c r="F39" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="147" t="s">
+      <c r="G39" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="141"/>
-      <c r="Q39" s="159"/>
-      <c r="R39" s="157"/>
+      <c r="H39" s="154">
+        <v>43293</v>
+      </c>
+      <c r="I39" s="154">
+        <v>43144</v>
+      </c>
+      <c r="J39" s="154">
+        <v>43293</v>
+      </c>
+      <c r="K39" s="154">
+        <v>43144</v>
+      </c>
+      <c r="L39" s="152"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="152"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="158"/>
+      <c r="R39" s="161"/>
       <c r="S39" s="84"/>
       <c r="T39" s="87"/>
       <c r="U39" s="86"/>
@@ -9134,23 +9719,23 @@
       <c r="EL39" s="95"/>
     </row>
     <row r="40" spans="2:142" ht="9" customHeight="1">
-      <c r="B40" s="200"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="152"/>
-      <c r="N40" s="154"/>
-      <c r="O40" s="152"/>
-      <c r="P40" s="142"/>
-      <c r="Q40" s="160"/>
-      <c r="R40" s="158"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="151"/>
+      <c r="N40" s="153"/>
+      <c r="O40" s="151"/>
+      <c r="P40" s="149"/>
+      <c r="Q40" s="159"/>
+      <c r="R40" s="162"/>
       <c r="S40" s="84"/>
       <c r="T40" s="85"/>
       <c r="U40" s="85"/>
@@ -9163,7 +9748,9 @@
       <c r="AB40" s="85"/>
       <c r="AC40" s="85"/>
       <c r="AD40" s="85"/>
-      <c r="AE40" s="85"/>
+      <c r="AE40" s="85">
+        <v>1</v>
+      </c>
       <c r="AF40" s="85"/>
       <c r="AG40" s="85"/>
       <c r="AH40" s="111"/>
@@ -9277,27 +9864,35 @@
       <c r="EL40" s="96"/>
     </row>
     <row r="41" spans="2:142" ht="9" customHeight="1">
-      <c r="B41" s="199"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="141" t="s">
+      <c r="B41" s="141"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="147" t="s">
+      <c r="G41" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="151"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="151"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="159"/>
-      <c r="R41" s="157"/>
+      <c r="H41" s="154">
+        <v>43293</v>
+      </c>
+      <c r="I41" s="154">
+        <v>43144</v>
+      </c>
+      <c r="J41" s="154">
+        <v>43293</v>
+      </c>
+      <c r="K41" s="154">
+        <v>43144</v>
+      </c>
+      <c r="L41" s="152"/>
+      <c r="M41" s="150"/>
+      <c r="N41" s="152"/>
+      <c r="O41" s="150"/>
+      <c r="P41" s="148"/>
+      <c r="Q41" s="158"/>
+      <c r="R41" s="161"/>
       <c r="S41" s="84"/>
       <c r="T41" s="87"/>
       <c r="U41" s="86"/>
@@ -9424,23 +10019,23 @@
       <c r="EL41" s="95"/>
     </row>
     <row r="42" spans="2:142" ht="9" customHeight="1">
-      <c r="B42" s="200"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="152"/>
-      <c r="N42" s="154"/>
-      <c r="O42" s="152"/>
-      <c r="P42" s="142"/>
-      <c r="Q42" s="160"/>
-      <c r="R42" s="158"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="153"/>
+      <c r="O42" s="151"/>
+      <c r="P42" s="149"/>
+      <c r="Q42" s="159"/>
+      <c r="R42" s="162"/>
       <c r="S42" s="84"/>
       <c r="T42" s="85"/>
       <c r="U42" s="85"/>
@@ -9453,7 +10048,9 @@
       <c r="AB42" s="85"/>
       <c r="AC42" s="85"/>
       <c r="AD42" s="85"/>
-      <c r="AE42" s="85"/>
+      <c r="AE42" s="85">
+        <v>1</v>
+      </c>
       <c r="AF42" s="85"/>
       <c r="AG42" s="85"/>
       <c r="AH42" s="111"/>
@@ -9567,31 +10164,39 @@
       <c r="EL42" s="96"/>
     </row>
     <row r="43" spans="2:142" ht="9" customHeight="1">
-      <c r="B43" s="199" t="s">
+      <c r="B43" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="191" t="s">
+      <c r="C43" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="155"/>
-      <c r="E43" s="145" t="s">
+      <c r="D43" s="146"/>
+      <c r="E43" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="141"/>
-      <c r="G43" s="147" t="s">
+      <c r="F43" s="148"/>
+      <c r="G43" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="151"/>
-      <c r="P43" s="141"/>
-      <c r="Q43" s="159"/>
-      <c r="R43" s="157"/>
+      <c r="H43" s="154">
+        <v>43145</v>
+      </c>
+      <c r="I43" s="154">
+        <v>43146</v>
+      </c>
+      <c r="J43" s="154">
+        <v>43144</v>
+      </c>
+      <c r="K43" s="154">
+        <v>43145</v>
+      </c>
+      <c r="L43" s="152"/>
+      <c r="M43" s="150"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="158"/>
+      <c r="R43" s="161"/>
       <c r="S43" s="84"/>
       <c r="T43" s="87"/>
       <c r="U43" s="86"/>
@@ -9605,7 +10210,9 @@
       <c r="AC43" s="86"/>
       <c r="AD43" s="86"/>
       <c r="AE43" s="86"/>
-      <c r="AF43" s="86"/>
+      <c r="AF43" s="86">
+        <v>1</v>
+      </c>
       <c r="AG43" s="86"/>
       <c r="AH43" s="110"/>
       <c r="AI43" s="110"/>
@@ -9718,23 +10325,23 @@
       <c r="EL43" s="95"/>
     </row>
     <row r="44" spans="2:142" ht="9" customHeight="1">
-      <c r="B44" s="200"/>
-      <c r="C44" s="191"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="152"/>
-      <c r="N44" s="154"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="142"/>
-      <c r="Q44" s="160"/>
-      <c r="R44" s="158"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="155"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="155"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="153"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="149"/>
+      <c r="Q44" s="159"/>
+      <c r="R44" s="162"/>
       <c r="S44" s="84"/>
       <c r="T44" s="85"/>
       <c r="U44" s="85"/>
@@ -9861,29 +10468,37 @@
       <c r="EL44" s="96"/>
     </row>
     <row r="45" spans="2:142" ht="9" customHeight="1">
-      <c r="B45" s="199"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="145" t="s">
+      <c r="B45" s="141"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="141" t="s">
+      <c r="F45" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="147" t="s">
+      <c r="G45" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="151"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="151"/>
-      <c r="P45" s="141"/>
-      <c r="Q45" s="159"/>
-      <c r="R45" s="157"/>
+      <c r="H45" s="154">
+        <v>43145</v>
+      </c>
+      <c r="I45" s="154">
+        <v>43146</v>
+      </c>
+      <c r="J45" s="154">
+        <v>43144</v>
+      </c>
+      <c r="K45" s="154">
+        <v>43145</v>
+      </c>
+      <c r="L45" s="152"/>
+      <c r="M45" s="150"/>
+      <c r="N45" s="152"/>
+      <c r="O45" s="150"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="158"/>
+      <c r="R45" s="161"/>
       <c r="S45" s="84"/>
       <c r="T45" s="87"/>
       <c r="U45" s="86"/>
@@ -9897,7 +10512,9 @@
       <c r="AC45" s="86"/>
       <c r="AD45" s="86"/>
       <c r="AE45" s="86"/>
-      <c r="AF45" s="86"/>
+      <c r="AF45" s="86">
+        <v>1</v>
+      </c>
       <c r="AG45" s="86"/>
       <c r="AH45" s="110"/>
       <c r="AI45" s="110"/>
@@ -10010,23 +10627,23 @@
       <c r="EL45" s="95"/>
     </row>
     <row r="46" spans="2:142" ht="9" customHeight="1">
-      <c r="B46" s="200"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="150"/>
-      <c r="K46" s="150"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="154"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="142"/>
-      <c r="Q46" s="160"/>
-      <c r="R46" s="158"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="151"/>
+      <c r="N46" s="153"/>
+      <c r="O46" s="151"/>
+      <c r="P46" s="149"/>
+      <c r="Q46" s="159"/>
+      <c r="R46" s="162"/>
       <c r="S46" s="84"/>
       <c r="T46" s="85"/>
       <c r="U46" s="85"/>
@@ -10153,27 +10770,35 @@
       <c r="EL46" s="96"/>
     </row>
     <row r="47" spans="2:142" ht="9" customHeight="1">
-      <c r="B47" s="199"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="141" t="s">
+      <c r="B47" s="141"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="147" t="s">
+      <c r="G47" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="149"/>
-      <c r="L47" s="153"/>
-      <c r="M47" s="151"/>
-      <c r="N47" s="153"/>
-      <c r="O47" s="151"/>
-      <c r="P47" s="141"/>
-      <c r="Q47" s="159"/>
-      <c r="R47" s="157"/>
+      <c r="H47" s="154">
+        <v>43145</v>
+      </c>
+      <c r="I47" s="154">
+        <v>43146</v>
+      </c>
+      <c r="J47" s="154">
+        <v>43144</v>
+      </c>
+      <c r="K47" s="154">
+        <v>43145</v>
+      </c>
+      <c r="L47" s="152"/>
+      <c r="M47" s="150"/>
+      <c r="N47" s="152"/>
+      <c r="O47" s="150"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="158"/>
+      <c r="R47" s="161"/>
       <c r="S47" s="84"/>
       <c r="T47" s="87"/>
       <c r="U47" s="86"/>
@@ -10187,7 +10812,9 @@
       <c r="AC47" s="86"/>
       <c r="AD47" s="86"/>
       <c r="AE47" s="86"/>
-      <c r="AF47" s="86"/>
+      <c r="AF47" s="86">
+        <v>1</v>
+      </c>
       <c r="AG47" s="86"/>
       <c r="AH47" s="110"/>
       <c r="AI47" s="110"/>
@@ -10300,23 +10927,23 @@
       <c r="EL47" s="95"/>
     </row>
     <row r="48" spans="2:142" ht="9" customHeight="1">
-      <c r="B48" s="200"/>
-      <c r="C48" s="191"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="150"/>
-      <c r="L48" s="154"/>
-      <c r="M48" s="152"/>
-      <c r="N48" s="154"/>
-      <c r="O48" s="152"/>
-      <c r="P48" s="142"/>
-      <c r="Q48" s="160"/>
-      <c r="R48" s="158"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="153"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="159"/>
+      <c r="R48" s="162"/>
       <c r="S48" s="84"/>
       <c r="T48" s="85"/>
       <c r="U48" s="85"/>
@@ -10331,7 +10958,9 @@
       <c r="AD48" s="85"/>
       <c r="AE48" s="85"/>
       <c r="AF48" s="85"/>
-      <c r="AG48" s="85"/>
+      <c r="AG48" s="85">
+        <v>1</v>
+      </c>
       <c r="AH48" s="111"/>
       <c r="AI48" s="111"/>
       <c r="AJ48" s="105"/>
@@ -10443,27 +11072,35 @@
       <c r="EL48" s="96"/>
     </row>
     <row r="49" spans="2:142" ht="9" customHeight="1">
-      <c r="B49" s="199"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="141" t="s">
+      <c r="B49" s="141"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="147" t="s">
+      <c r="G49" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="153"/>
-      <c r="O49" s="151"/>
-      <c r="P49" s="141"/>
-      <c r="Q49" s="159"/>
-      <c r="R49" s="157"/>
+      <c r="H49" s="154">
+        <v>43145</v>
+      </c>
+      <c r="I49" s="154">
+        <v>43146</v>
+      </c>
+      <c r="J49" s="154">
+        <v>43144</v>
+      </c>
+      <c r="K49" s="154">
+        <v>43145</v>
+      </c>
+      <c r="L49" s="152"/>
+      <c r="M49" s="150"/>
+      <c r="N49" s="152"/>
+      <c r="O49" s="150"/>
+      <c r="P49" s="148"/>
+      <c r="Q49" s="158"/>
+      <c r="R49" s="161"/>
       <c r="S49" s="84"/>
       <c r="T49" s="87"/>
       <c r="U49" s="86"/>
@@ -10590,23 +11227,23 @@
       <c r="EL49" s="95"/>
     </row>
     <row r="50" spans="2:142" ht="9" customHeight="1">
-      <c r="B50" s="200"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="154"/>
-      <c r="M50" s="152"/>
-      <c r="N50" s="154"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="142"/>
-      <c r="Q50" s="160"/>
-      <c r="R50" s="158"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="153"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="153"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="149"/>
+      <c r="Q50" s="159"/>
+      <c r="R50" s="162"/>
       <c r="S50" s="84"/>
       <c r="T50" s="85"/>
       <c r="U50" s="85"/>
@@ -10620,8 +11257,12 @@
       <c r="AC50" s="85"/>
       <c r="AD50" s="85"/>
       <c r="AE50" s="85"/>
-      <c r="AF50" s="85"/>
-      <c r="AG50" s="85"/>
+      <c r="AF50" s="85">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="85">
+        <v>1</v>
+      </c>
       <c r="AH50" s="111"/>
       <c r="AI50" s="111"/>
       <c r="AJ50" s="105"/>
@@ -10733,27 +11374,35 @@
       <c r="EL50" s="96"/>
     </row>
     <row r="51" spans="2:142" ht="9" customHeight="1">
-      <c r="B51" s="199"/>
-      <c r="C51" s="191"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="141" t="s">
+      <c r="B51" s="141"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="147" t="s">
+      <c r="G51" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="149"/>
-      <c r="K51" s="149"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="151"/>
-      <c r="N51" s="153"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="141"/>
-      <c r="Q51" s="159"/>
-      <c r="R51" s="157"/>
+      <c r="H51" s="154">
+        <v>43145</v>
+      </c>
+      <c r="I51" s="154">
+        <v>43146</v>
+      </c>
+      <c r="J51" s="154">
+        <v>43144</v>
+      </c>
+      <c r="K51" s="154">
+        <v>43145</v>
+      </c>
+      <c r="L51" s="152"/>
+      <c r="M51" s="150"/>
+      <c r="N51" s="152"/>
+      <c r="O51" s="150"/>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="158"/>
+      <c r="R51" s="161"/>
       <c r="S51" s="84"/>
       <c r="T51" s="87"/>
       <c r="U51" s="86"/>
@@ -10880,23 +11529,23 @@
       <c r="EL51" s="95"/>
     </row>
     <row r="52" spans="2:142" ht="9" customHeight="1">
-      <c r="B52" s="200"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="146"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="148"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="148"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="152"/>
-      <c r="N52" s="154"/>
-      <c r="O52" s="152"/>
-      <c r="P52" s="142"/>
-      <c r="Q52" s="160"/>
-      <c r="R52" s="158"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="149"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="151"/>
+      <c r="N52" s="153"/>
+      <c r="O52" s="151"/>
+      <c r="P52" s="149"/>
+      <c r="Q52" s="159"/>
+      <c r="R52" s="162"/>
       <c r="S52" s="84"/>
       <c r="T52" s="85"/>
       <c r="U52" s="85"/>
@@ -10911,7 +11560,9 @@
       <c r="AD52" s="85"/>
       <c r="AE52" s="85"/>
       <c r="AF52" s="85"/>
-      <c r="AG52" s="85"/>
+      <c r="AG52" s="85">
+        <v>1</v>
+      </c>
       <c r="AH52" s="111"/>
       <c r="AI52" s="111"/>
       <c r="AJ52" s="105"/>
@@ -11023,27 +11674,35 @@
       <c r="EL52" s="96"/>
     </row>
     <row r="53" spans="2:142" ht="9" customHeight="1">
-      <c r="B53" s="199"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="145" t="s">
+      <c r="B53" s="141"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="141"/>
-      <c r="G53" s="147" t="s">
+      <c r="F53" s="148"/>
+      <c r="G53" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H53" s="147"/>
-      <c r="I53" s="147"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="149"/>
-      <c r="L53" s="153"/>
-      <c r="M53" s="151"/>
-      <c r="N53" s="153"/>
-      <c r="O53" s="151"/>
-      <c r="P53" s="141"/>
-      <c r="Q53" s="159"/>
-      <c r="R53" s="157"/>
+      <c r="H53" s="154">
+        <v>43145</v>
+      </c>
+      <c r="I53" s="154">
+        <v>43146</v>
+      </c>
+      <c r="J53" s="154">
+        <v>43144</v>
+      </c>
+      <c r="K53" s="154">
+        <v>43145</v>
+      </c>
+      <c r="L53" s="152"/>
+      <c r="M53" s="150"/>
+      <c r="N53" s="152"/>
+      <c r="O53" s="150"/>
+      <c r="P53" s="148"/>
+      <c r="Q53" s="158"/>
+      <c r="R53" s="161"/>
       <c r="S53" s="84"/>
       <c r="T53" s="87"/>
       <c r="U53" s="86"/>
@@ -11057,7 +11716,9 @@
       <c r="AC53" s="86"/>
       <c r="AD53" s="86"/>
       <c r="AE53" s="86"/>
-      <c r="AF53" s="86"/>
+      <c r="AF53" s="86">
+        <v>1</v>
+      </c>
       <c r="AG53" s="86"/>
       <c r="AH53" s="110"/>
       <c r="AI53" s="110"/>
@@ -11170,23 +11831,23 @@
       <c r="EL53" s="95"/>
     </row>
     <row r="54" spans="2:142" ht="9" customHeight="1">
-      <c r="B54" s="200"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="150"/>
-      <c r="L54" s="154"/>
-      <c r="M54" s="152"/>
-      <c r="N54" s="154"/>
-      <c r="O54" s="152"/>
-      <c r="P54" s="142"/>
-      <c r="Q54" s="160"/>
-      <c r="R54" s="158"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="149"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="153"/>
+      <c r="M54" s="151"/>
+      <c r="N54" s="153"/>
+      <c r="O54" s="151"/>
+      <c r="P54" s="149"/>
+      <c r="Q54" s="159"/>
+      <c r="R54" s="162"/>
       <c r="S54" s="84"/>
       <c r="T54" s="85"/>
       <c r="U54" s="85"/>
@@ -11201,7 +11862,9 @@
       <c r="AD54" s="85"/>
       <c r="AE54" s="85"/>
       <c r="AF54" s="85"/>
-      <c r="AG54" s="85"/>
+      <c r="AG54" s="85">
+        <v>1</v>
+      </c>
       <c r="AH54" s="111"/>
       <c r="AI54" s="111"/>
       <c r="AJ54" s="105"/>
@@ -11313,29 +11976,37 @@
       <c r="EL54" s="96"/>
     </row>
     <row r="55" spans="2:142" ht="9" customHeight="1">
-      <c r="B55" s="199"/>
-      <c r="C55" s="191" t="s">
+      <c r="B55" s="141"/>
+      <c r="C55" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="155"/>
-      <c r="E55" s="145" t="s">
+      <c r="D55" s="146"/>
+      <c r="E55" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="141"/>
-      <c r="G55" s="147" t="s">
+      <c r="F55" s="148"/>
+      <c r="G55" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="149"/>
-      <c r="K55" s="149"/>
-      <c r="L55" s="153"/>
-      <c r="M55" s="151"/>
-      <c r="N55" s="153"/>
-      <c r="O55" s="151"/>
-      <c r="P55" s="141"/>
-      <c r="Q55" s="159"/>
-      <c r="R55" s="157"/>
+      <c r="H55" s="154">
+        <v>43145</v>
+      </c>
+      <c r="I55" s="154">
+        <v>43146</v>
+      </c>
+      <c r="J55" s="154">
+        <v>43144</v>
+      </c>
+      <c r="K55" s="154">
+        <v>43145</v>
+      </c>
+      <c r="L55" s="152"/>
+      <c r="M55" s="150"/>
+      <c r="N55" s="152"/>
+      <c r="O55" s="150"/>
+      <c r="P55" s="148"/>
+      <c r="Q55" s="158"/>
+      <c r="R55" s="161"/>
       <c r="S55" s="84"/>
       <c r="T55" s="87"/>
       <c r="U55" s="86"/>
@@ -11462,23 +12133,23 @@
       <c r="EL55" s="95"/>
     </row>
     <row r="56" spans="2:142" ht="15.75" customHeight="1">
-      <c r="B56" s="200"/>
-      <c r="C56" s="191"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="148"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="148"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
-      <c r="L56" s="154"/>
-      <c r="M56" s="152"/>
-      <c r="N56" s="154"/>
-      <c r="O56" s="152"/>
-      <c r="P56" s="142"/>
-      <c r="Q56" s="160"/>
-      <c r="R56" s="158"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="149"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="151"/>
+      <c r="N56" s="153"/>
+      <c r="O56" s="151"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="159"/>
+      <c r="R56" s="162"/>
       <c r="S56" s="84"/>
       <c r="T56" s="85"/>
       <c r="U56" s="85"/>
@@ -11491,8 +12162,12 @@
       <c r="AB56" s="85"/>
       <c r="AC56" s="85"/>
       <c r="AD56" s="85"/>
-      <c r="AE56" s="85"/>
-      <c r="AF56" s="85"/>
+      <c r="AE56" s="85">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="85">
+        <v>1</v>
+      </c>
       <c r="AG56" s="85"/>
       <c r="AH56" s="111"/>
       <c r="AI56" s="111"/>
@@ -11605,27 +12280,35 @@
       <c r="EL56" s="96"/>
     </row>
     <row r="57" spans="2:142" ht="9" customHeight="1">
-      <c r="B57" s="199"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="145" t="s">
+      <c r="B57" s="141"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="141"/>
-      <c r="G57" s="147" t="s">
+      <c r="F57" s="148"/>
+      <c r="G57" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="149"/>
-      <c r="K57" s="149"/>
-      <c r="L57" s="153"/>
-      <c r="M57" s="151"/>
-      <c r="N57" s="153"/>
-      <c r="O57" s="151"/>
-      <c r="P57" s="141"/>
-      <c r="Q57" s="159"/>
-      <c r="R57" s="157"/>
+      <c r="H57" s="154">
+        <v>43145</v>
+      </c>
+      <c r="I57" s="154">
+        <v>43146</v>
+      </c>
+      <c r="J57" s="154">
+        <v>43144</v>
+      </c>
+      <c r="K57" s="154">
+        <v>43145</v>
+      </c>
+      <c r="L57" s="152"/>
+      <c r="M57" s="150"/>
+      <c r="N57" s="152"/>
+      <c r="O57" s="150"/>
+      <c r="P57" s="148"/>
+      <c r="Q57" s="158"/>
+      <c r="R57" s="161"/>
       <c r="S57" s="84"/>
       <c r="T57" s="87"/>
       <c r="U57" s="86"/>
@@ -11752,23 +12435,23 @@
       <c r="EL57" s="95"/>
     </row>
     <row r="58" spans="2:142" ht="19.5" customHeight="1">
-      <c r="B58" s="200"/>
-      <c r="C58" s="191"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="142"/>
-      <c r="G58" s="148"/>
-      <c r="H58" s="148"/>
-      <c r="I58" s="148"/>
-      <c r="J58" s="150"/>
-      <c r="K58" s="150"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="152"/>
-      <c r="N58" s="154"/>
-      <c r="O58" s="152"/>
-      <c r="P58" s="142"/>
-      <c r="Q58" s="160"/>
-      <c r="R58" s="158"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="151"/>
+      <c r="N58" s="153"/>
+      <c r="O58" s="151"/>
+      <c r="P58" s="149"/>
+      <c r="Q58" s="159"/>
+      <c r="R58" s="162"/>
       <c r="S58" s="84"/>
       <c r="T58" s="85"/>
       <c r="U58" s="85"/>
@@ -11781,8 +12464,12 @@
       <c r="AB58" s="85"/>
       <c r="AC58" s="85"/>
       <c r="AD58" s="85"/>
-      <c r="AE58" s="85"/>
-      <c r="AF58" s="85"/>
+      <c r="AE58" s="85">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="85">
+        <v>1</v>
+      </c>
       <c r="AG58" s="85"/>
       <c r="AH58" s="111"/>
       <c r="AI58" s="111"/>
@@ -11895,27 +12582,35 @@
       <c r="EL58" s="96"/>
     </row>
     <row r="59" spans="2:142" ht="9" customHeight="1">
-      <c r="B59" s="199"/>
-      <c r="C59" s="191"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="145" t="s">
+      <c r="B59" s="141"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="F59" s="141"/>
-      <c r="G59" s="147" t="s">
+      <c r="F59" s="148"/>
+      <c r="G59" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
-      <c r="J59" s="149"/>
-      <c r="K59" s="149"/>
-      <c r="L59" s="153"/>
-      <c r="M59" s="151"/>
-      <c r="N59" s="153"/>
-      <c r="O59" s="151"/>
-      <c r="P59" s="141"/>
-      <c r="Q59" s="159"/>
-      <c r="R59" s="157"/>
+      <c r="H59" s="154">
+        <v>43145</v>
+      </c>
+      <c r="I59" s="154">
+        <v>43146</v>
+      </c>
+      <c r="J59" s="154">
+        <v>43144</v>
+      </c>
+      <c r="K59" s="154">
+        <v>43145</v>
+      </c>
+      <c r="L59" s="152"/>
+      <c r="M59" s="150"/>
+      <c r="N59" s="152"/>
+      <c r="O59" s="150"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="158"/>
+      <c r="R59" s="161"/>
       <c r="S59" s="84"/>
       <c r="T59" s="87"/>
       <c r="U59" s="86"/>
@@ -11928,8 +12623,12 @@
       <c r="AB59" s="86"/>
       <c r="AC59" s="86"/>
       <c r="AD59" s="86"/>
-      <c r="AE59" s="86"/>
-      <c r="AF59" s="86"/>
+      <c r="AE59" s="86">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="86">
+        <v>1</v>
+      </c>
       <c r="AG59" s="86"/>
       <c r="AH59" s="110"/>
       <c r="AI59" s="110"/>
@@ -12042,23 +12741,23 @@
       <c r="EL59" s="95"/>
     </row>
     <row r="60" spans="2:142" ht="9" customHeight="1">
-      <c r="B60" s="200"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="150"/>
-      <c r="K60" s="150"/>
-      <c r="L60" s="154"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="154"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="142"/>
-      <c r="Q60" s="160"/>
-      <c r="R60" s="158"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="149"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="151"/>
+      <c r="N60" s="153"/>
+      <c r="O60" s="151"/>
+      <c r="P60" s="149"/>
+      <c r="Q60" s="159"/>
+      <c r="R60" s="162"/>
       <c r="S60" s="84"/>
       <c r="T60" s="85"/>
       <c r="U60" s="85"/>
@@ -12185,27 +12884,35 @@
       <c r="EL60" s="96"/>
     </row>
     <row r="61" spans="2:142" ht="9" customHeight="1">
-      <c r="B61" s="199"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="145" t="s">
+      <c r="B61" s="141"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="141"/>
-      <c r="G61" s="147" t="s">
+      <c r="F61" s="148"/>
+      <c r="G61" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H61" s="147"/>
-      <c r="I61" s="147"/>
-      <c r="J61" s="149"/>
-      <c r="K61" s="149"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="151"/>
-      <c r="N61" s="153"/>
-      <c r="O61" s="151"/>
-      <c r="P61" s="141"/>
-      <c r="Q61" s="159"/>
-      <c r="R61" s="157"/>
+      <c r="H61" s="154">
+        <v>43145</v>
+      </c>
+      <c r="I61" s="154">
+        <v>43146</v>
+      </c>
+      <c r="J61" s="154">
+        <v>43144</v>
+      </c>
+      <c r="K61" s="154">
+        <v>43145</v>
+      </c>
+      <c r="L61" s="152"/>
+      <c r="M61" s="150"/>
+      <c r="N61" s="152"/>
+      <c r="O61" s="150"/>
+      <c r="P61" s="148"/>
+      <c r="Q61" s="158"/>
+      <c r="R61" s="161"/>
       <c r="S61" s="84"/>
       <c r="T61" s="87"/>
       <c r="U61" s="86"/>
@@ -12332,23 +13039,23 @@
       <c r="EL61" s="95"/>
     </row>
     <row r="62" spans="2:142" ht="9" customHeight="1">
-      <c r="B62" s="200"/>
-      <c r="C62" s="191"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="148"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="150"/>
-      <c r="K62" s="150"/>
-      <c r="L62" s="154"/>
-      <c r="M62" s="152"/>
-      <c r="N62" s="154"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="142"/>
-      <c r="Q62" s="160"/>
-      <c r="R62" s="158"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="149"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="151"/>
+      <c r="N62" s="153"/>
+      <c r="O62" s="151"/>
+      <c r="P62" s="149"/>
+      <c r="Q62" s="159"/>
+      <c r="R62" s="162"/>
       <c r="S62" s="84"/>
       <c r="T62" s="85"/>
       <c r="U62" s="85"/>
@@ -12475,31 +13182,39 @@
       <c r="EL62" s="96"/>
     </row>
     <row r="63" spans="2:142" ht="9" customHeight="1">
-      <c r="B63" s="199" t="s">
+      <c r="B63" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="191" t="s">
+      <c r="C63" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="155"/>
-      <c r="E63" s="145" t="s">
+      <c r="D63" s="146"/>
+      <c r="E63" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="F63" s="141"/>
-      <c r="G63" s="147" t="s">
+      <c r="F63" s="148"/>
+      <c r="G63" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="149"/>
-      <c r="K63" s="149"/>
-      <c r="L63" s="153"/>
-      <c r="M63" s="151"/>
-      <c r="N63" s="153"/>
-      <c r="O63" s="151"/>
-      <c r="P63" s="141"/>
-      <c r="Q63" s="159"/>
-      <c r="R63" s="157"/>
+      <c r="H63" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I63" s="154">
+        <v>43148</v>
+      </c>
+      <c r="J63" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K63" s="154">
+        <v>43147</v>
+      </c>
+      <c r="L63" s="152"/>
+      <c r="M63" s="150"/>
+      <c r="N63" s="152"/>
+      <c r="O63" s="150"/>
+      <c r="P63" s="148"/>
+      <c r="Q63" s="158"/>
+      <c r="R63" s="161"/>
       <c r="S63" s="84"/>
       <c r="T63" s="87"/>
       <c r="U63" s="86"/>
@@ -12626,23 +13341,23 @@
       <c r="EL63" s="95"/>
     </row>
     <row r="64" spans="2:142" ht="15" customHeight="1">
-      <c r="B64" s="200"/>
-      <c r="C64" s="191"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="142"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="150"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="152"/>
-      <c r="N64" s="154"/>
-      <c r="O64" s="152"/>
-      <c r="P64" s="142"/>
-      <c r="Q64" s="160"/>
-      <c r="R64" s="158"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="149"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="155"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="151"/>
+      <c r="N64" s="153"/>
+      <c r="O64" s="151"/>
+      <c r="P64" s="149"/>
+      <c r="Q64" s="159"/>
+      <c r="R64" s="162"/>
       <c r="S64" s="84"/>
       <c r="T64" s="85"/>
       <c r="U64" s="85"/>
@@ -12769,27 +13484,35 @@
       <c r="EL64" s="96"/>
     </row>
     <row r="65" spans="2:142" ht="9" customHeight="1">
-      <c r="B65" s="199"/>
-      <c r="C65" s="191"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="145" t="s">
+      <c r="B65" s="141"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="F65" s="141"/>
-      <c r="G65" s="147" t="s">
+      <c r="F65" s="148"/>
+      <c r="G65" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
-      <c r="J65" s="149"/>
-      <c r="K65" s="149"/>
-      <c r="L65" s="153"/>
-      <c r="M65" s="151"/>
-      <c r="N65" s="153"/>
-      <c r="O65" s="151"/>
-      <c r="P65" s="141"/>
-      <c r="Q65" s="159"/>
-      <c r="R65" s="157"/>
+      <c r="H65" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I65" s="154">
+        <v>43148</v>
+      </c>
+      <c r="J65" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K65" s="154">
+        <v>43147</v>
+      </c>
+      <c r="L65" s="152"/>
+      <c r="M65" s="150"/>
+      <c r="N65" s="152"/>
+      <c r="O65" s="150"/>
+      <c r="P65" s="148"/>
+      <c r="Q65" s="158"/>
+      <c r="R65" s="161"/>
       <c r="S65" s="84"/>
       <c r="T65" s="87"/>
       <c r="U65" s="86"/>
@@ -12916,23 +13639,23 @@
       <c r="EL65" s="95"/>
     </row>
     <row r="66" spans="2:142" ht="9" customHeight="1">
-      <c r="B66" s="200"/>
-      <c r="C66" s="191"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="148"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="150"/>
-      <c r="K66" s="150"/>
-      <c r="L66" s="154"/>
-      <c r="M66" s="152"/>
-      <c r="N66" s="154"/>
-      <c r="O66" s="152"/>
-      <c r="P66" s="142"/>
-      <c r="Q66" s="160"/>
-      <c r="R66" s="158"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="155"/>
+      <c r="H66" s="155"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="155"/>
+      <c r="K66" s="155"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="151"/>
+      <c r="N66" s="153"/>
+      <c r="O66" s="151"/>
+      <c r="P66" s="149"/>
+      <c r="Q66" s="159"/>
+      <c r="R66" s="162"/>
       <c r="S66" s="84"/>
       <c r="T66" s="85"/>
       <c r="U66" s="85"/>
@@ -13059,27 +13782,35 @@
       <c r="EL66" s="96"/>
     </row>
     <row r="67" spans="2:142" ht="9" customHeight="1">
-      <c r="B67" s="199"/>
-      <c r="C67" s="191"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="145" t="s">
+      <c r="B67" s="141"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="F67" s="141"/>
-      <c r="G67" s="147" t="s">
+      <c r="F67" s="148"/>
+      <c r="G67" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H67" s="147"/>
-      <c r="I67" s="147"/>
-      <c r="J67" s="149"/>
-      <c r="K67" s="149"/>
-      <c r="L67" s="153"/>
-      <c r="M67" s="151"/>
-      <c r="N67" s="153"/>
-      <c r="O67" s="151"/>
-      <c r="P67" s="141"/>
-      <c r="Q67" s="159"/>
-      <c r="R67" s="157"/>
+      <c r="H67" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I67" s="154">
+        <v>43148</v>
+      </c>
+      <c r="J67" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K67" s="154">
+        <v>43147</v>
+      </c>
+      <c r="L67" s="152"/>
+      <c r="M67" s="150"/>
+      <c r="N67" s="152"/>
+      <c r="O67" s="150"/>
+      <c r="P67" s="148"/>
+      <c r="Q67" s="158"/>
+      <c r="R67" s="161"/>
       <c r="S67" s="84"/>
       <c r="T67" s="87"/>
       <c r="U67" s="86"/>
@@ -13206,23 +13937,23 @@
       <c r="EL67" s="95"/>
     </row>
     <row r="68" spans="2:142" ht="9" customHeight="1">
-      <c r="B68" s="200"/>
-      <c r="C68" s="191"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="150"/>
-      <c r="K68" s="150"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="152"/>
-      <c r="N68" s="154"/>
-      <c r="O68" s="152"/>
-      <c r="P68" s="142"/>
-      <c r="Q68" s="160"/>
-      <c r="R68" s="158"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="145"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="155"/>
+      <c r="H68" s="155"/>
+      <c r="I68" s="155"/>
+      <c r="J68" s="155"/>
+      <c r="K68" s="155"/>
+      <c r="L68" s="153"/>
+      <c r="M68" s="151"/>
+      <c r="N68" s="153"/>
+      <c r="O68" s="151"/>
+      <c r="P68" s="149"/>
+      <c r="Q68" s="159"/>
+      <c r="R68" s="162"/>
       <c r="S68" s="84"/>
       <c r="T68" s="85"/>
       <c r="U68" s="85"/>
@@ -13349,27 +14080,37 @@
       <c r="EL68" s="96"/>
     </row>
     <row r="69" spans="2:142" ht="9" customHeight="1">
-      <c r="B69" s="199"/>
-      <c r="C69" s="191" t="s">
+      <c r="B69" s="141"/>
+      <c r="C69" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="155"/>
-      <c r="E69" s="145"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="147" t="s">
+      <c r="D69" s="146"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="148"/>
+      <c r="G69" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H69" s="147"/>
-      <c r="I69" s="147"/>
-      <c r="J69" s="149"/>
-      <c r="K69" s="149"/>
-      <c r="L69" s="153"/>
-      <c r="M69" s="151"/>
-      <c r="N69" s="153"/>
-      <c r="O69" s="151"/>
-      <c r="P69" s="141"/>
-      <c r="Q69" s="159"/>
-      <c r="R69" s="157"/>
+      <c r="H69" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I69" s="154">
+        <v>43148</v>
+      </c>
+      <c r="J69" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K69" s="154">
+        <v>43147</v>
+      </c>
+      <c r="L69" s="152"/>
+      <c r="M69" s="150"/>
+      <c r="N69" s="152"/>
+      <c r="O69" s="150"/>
+      <c r="P69" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q69" s="158"/>
+      <c r="R69" s="161"/>
       <c r="S69" s="84"/>
       <c r="T69" s="87"/>
       <c r="U69" s="86"/>
@@ -13496,23 +14237,23 @@
       <c r="EL69" s="95"/>
     </row>
     <row r="70" spans="2:142" ht="9" customHeight="1">
-      <c r="B70" s="200"/>
-      <c r="C70" s="191"/>
-      <c r="D70" s="156"/>
-      <c r="E70" s="146"/>
-      <c r="F70" s="142"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="150"/>
-      <c r="K70" s="150"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="152"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="152"/>
-      <c r="P70" s="142"/>
-      <c r="Q70" s="160"/>
-      <c r="R70" s="158"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="147"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="149"/>
+      <c r="G70" s="155"/>
+      <c r="H70" s="155"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="155"/>
+      <c r="K70" s="155"/>
+      <c r="L70" s="153"/>
+      <c r="M70" s="151"/>
+      <c r="N70" s="153"/>
+      <c r="O70" s="151"/>
+      <c r="P70" s="149"/>
+      <c r="Q70" s="159"/>
+      <c r="R70" s="162"/>
       <c r="S70" s="84"/>
       <c r="T70" s="85"/>
       <c r="U70" s="85"/>
@@ -13639,29 +14380,37 @@
       <c r="EL70" s="96"/>
     </row>
     <row r="71" spans="2:142" ht="9" customHeight="1">
-      <c r="B71" s="199"/>
-      <c r="C71" s="191" t="s">
+      <c r="B71" s="141"/>
+      <c r="C71" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="155"/>
-      <c r="E71" s="145" t="s">
+      <c r="D71" s="146"/>
+      <c r="E71" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="141"/>
-      <c r="G71" s="147" t="s">
+      <c r="F71" s="148"/>
+      <c r="G71" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H71" s="147"/>
-      <c r="I71" s="147"/>
-      <c r="J71" s="149"/>
-      <c r="K71" s="149"/>
-      <c r="L71" s="153"/>
-      <c r="M71" s="151"/>
-      <c r="N71" s="153"/>
-      <c r="O71" s="151"/>
-      <c r="P71" s="141"/>
-      <c r="Q71" s="159"/>
-      <c r="R71" s="157"/>
+      <c r="H71" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I71" s="154">
+        <v>43148</v>
+      </c>
+      <c r="J71" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K71" s="156"/>
+      <c r="L71" s="152"/>
+      <c r="M71" s="150"/>
+      <c r="N71" s="152"/>
+      <c r="O71" s="150"/>
+      <c r="P71" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q71" s="158"/>
+      <c r="R71" s="161"/>
       <c r="S71" s="84"/>
       <c r="T71" s="87"/>
       <c r="U71" s="86"/>
@@ -13788,23 +14537,23 @@
       <c r="EL71" s="95"/>
     </row>
     <row r="72" spans="2:142" ht="9" customHeight="1">
-      <c r="B72" s="200"/>
-      <c r="C72" s="191"/>
-      <c r="D72" s="156"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="142"/>
-      <c r="G72" s="148"/>
-      <c r="H72" s="148"/>
-      <c r="I72" s="148"/>
-      <c r="J72" s="150"/>
-      <c r="K72" s="150"/>
-      <c r="L72" s="154"/>
-      <c r="M72" s="152"/>
-      <c r="N72" s="154"/>
-      <c r="O72" s="152"/>
-      <c r="P72" s="142"/>
-      <c r="Q72" s="160"/>
-      <c r="R72" s="158"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="145"/>
+      <c r="F72" s="149"/>
+      <c r="G72" s="155"/>
+      <c r="H72" s="155"/>
+      <c r="I72" s="155"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="157"/>
+      <c r="L72" s="153"/>
+      <c r="M72" s="151"/>
+      <c r="N72" s="153"/>
+      <c r="O72" s="151"/>
+      <c r="P72" s="149"/>
+      <c r="Q72" s="159"/>
+      <c r="R72" s="162"/>
       <c r="S72" s="84"/>
       <c r="T72" s="85"/>
       <c r="U72" s="85"/>
@@ -13931,29 +14680,37 @@
       <c r="EL72" s="96"/>
     </row>
     <row r="73" spans="2:142" ht="9" customHeight="1">
-      <c r="B73" s="199"/>
-      <c r="C73" s="191"/>
-      <c r="D73" s="155"/>
-      <c r="E73" s="145" t="s">
+      <c r="B73" s="141"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="146"/>
+      <c r="E73" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="141" t="s">
+      <c r="F73" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="G73" s="147" t="s">
+      <c r="G73" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H73" s="147"/>
-      <c r="I73" s="147"/>
-      <c r="J73" s="149"/>
-      <c r="K73" s="149"/>
-      <c r="L73" s="153"/>
-      <c r="M73" s="151"/>
-      <c r="N73" s="153"/>
-      <c r="O73" s="151"/>
-      <c r="P73" s="141"/>
-      <c r="Q73" s="159"/>
-      <c r="R73" s="157"/>
+      <c r="H73" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I73" s="154">
+        <v>43148</v>
+      </c>
+      <c r="J73" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K73" s="156"/>
+      <c r="L73" s="152"/>
+      <c r="M73" s="150"/>
+      <c r="N73" s="152"/>
+      <c r="O73" s="150"/>
+      <c r="P73" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q73" s="158"/>
+      <c r="R73" s="161"/>
       <c r="S73" s="84"/>
       <c r="T73" s="87"/>
       <c r="U73" s="86"/>
@@ -14080,23 +14837,23 @@
       <c r="EL73" s="95"/>
     </row>
     <row r="74" spans="2:142" ht="9" customHeight="1">
-      <c r="B74" s="200"/>
-      <c r="C74" s="191"/>
-      <c r="D74" s="156"/>
-      <c r="E74" s="146"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="148"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="150"/>
-      <c r="K74" s="150"/>
-      <c r="L74" s="154"/>
-      <c r="M74" s="152"/>
-      <c r="N74" s="154"/>
-      <c r="O74" s="152"/>
-      <c r="P74" s="142"/>
-      <c r="Q74" s="160"/>
-      <c r="R74" s="158"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="145"/>
+      <c r="F74" s="149"/>
+      <c r="G74" s="155"/>
+      <c r="H74" s="155"/>
+      <c r="I74" s="155"/>
+      <c r="J74" s="155"/>
+      <c r="K74" s="157"/>
+      <c r="L74" s="153"/>
+      <c r="M74" s="151"/>
+      <c r="N74" s="153"/>
+      <c r="O74" s="151"/>
+      <c r="P74" s="149"/>
+      <c r="Q74" s="159"/>
+      <c r="R74" s="162"/>
       <c r="S74" s="84"/>
       <c r="T74" s="85"/>
       <c r="U74" s="85"/>
@@ -14223,27 +14980,35 @@
       <c r="EL74" s="96"/>
     </row>
     <row r="75" spans="2:142" ht="9" customHeight="1">
-      <c r="B75" s="199"/>
-      <c r="C75" s="191"/>
-      <c r="D75" s="155"/>
-      <c r="E75" s="145"/>
-      <c r="F75" s="141" t="s">
+      <c r="B75" s="141"/>
+      <c r="C75" s="143"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="144"/>
+      <c r="F75" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="G75" s="147" t="s">
+      <c r="G75" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H75" s="147"/>
-      <c r="I75" s="147"/>
-      <c r="J75" s="149"/>
-      <c r="K75" s="149"/>
-      <c r="L75" s="153"/>
-      <c r="M75" s="151"/>
-      <c r="N75" s="153"/>
-      <c r="O75" s="151"/>
-      <c r="P75" s="141"/>
-      <c r="Q75" s="159"/>
-      <c r="R75" s="157"/>
+      <c r="H75" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I75" s="154">
+        <v>43148</v>
+      </c>
+      <c r="J75" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K75" s="156"/>
+      <c r="L75" s="152"/>
+      <c r="M75" s="150"/>
+      <c r="N75" s="152"/>
+      <c r="O75" s="150"/>
+      <c r="P75" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q75" s="158"/>
+      <c r="R75" s="161"/>
       <c r="S75" s="84"/>
       <c r="T75" s="87"/>
       <c r="U75" s="86"/>
@@ -14370,23 +15135,23 @@
       <c r="EL75" s="95"/>
     </row>
     <row r="76" spans="2:142" ht="9" customHeight="1">
-      <c r="B76" s="200"/>
-      <c r="C76" s="191"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="142"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="150"/>
-      <c r="K76" s="150"/>
-      <c r="L76" s="154"/>
-      <c r="M76" s="152"/>
-      <c r="N76" s="154"/>
-      <c r="O76" s="152"/>
-      <c r="P76" s="142"/>
-      <c r="Q76" s="160"/>
-      <c r="R76" s="158"/>
+      <c r="B76" s="142"/>
+      <c r="C76" s="143"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="145"/>
+      <c r="F76" s="149"/>
+      <c r="G76" s="155"/>
+      <c r="H76" s="155"/>
+      <c r="I76" s="155"/>
+      <c r="J76" s="155"/>
+      <c r="K76" s="157"/>
+      <c r="L76" s="153"/>
+      <c r="M76" s="151"/>
+      <c r="N76" s="153"/>
+      <c r="O76" s="151"/>
+      <c r="P76" s="149"/>
+      <c r="Q76" s="159"/>
+      <c r="R76" s="162"/>
       <c r="S76" s="84"/>
       <c r="T76" s="85"/>
       <c r="U76" s="85"/>
@@ -14513,29 +15278,37 @@
       <c r="EL76" s="96"/>
     </row>
     <row r="77" spans="2:142" ht="9" customHeight="1">
-      <c r="B77" s="199"/>
-      <c r="C77" s="191"/>
-      <c r="D77" s="155"/>
-      <c r="E77" s="145" t="s">
+      <c r="B77" s="141"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="F77" s="141" t="s">
+      <c r="F77" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="G77" s="147" t="s">
+      <c r="G77" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H77" s="147"/>
-      <c r="I77" s="147"/>
-      <c r="J77" s="149"/>
-      <c r="K77" s="149"/>
-      <c r="L77" s="153"/>
-      <c r="M77" s="151"/>
-      <c r="N77" s="153"/>
-      <c r="O77" s="151"/>
-      <c r="P77" s="141"/>
-      <c r="Q77" s="159"/>
-      <c r="R77" s="157"/>
+      <c r="H77" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I77" s="154">
+        <v>43148</v>
+      </c>
+      <c r="J77" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K77" s="156"/>
+      <c r="L77" s="152"/>
+      <c r="M77" s="150"/>
+      <c r="N77" s="152"/>
+      <c r="O77" s="150"/>
+      <c r="P77" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q77" s="158"/>
+      <c r="R77" s="161"/>
       <c r="S77" s="84"/>
       <c r="T77" s="87"/>
       <c r="U77" s="86"/>
@@ -14662,23 +15435,23 @@
       <c r="EL77" s="95"/>
     </row>
     <row r="78" spans="2:142" ht="9" customHeight="1">
-      <c r="B78" s="200"/>
-      <c r="C78" s="191"/>
-      <c r="D78" s="156"/>
-      <c r="E78" s="146"/>
-      <c r="F78" s="142"/>
-      <c r="G78" s="148"/>
-      <c r="H78" s="148"/>
-      <c r="I78" s="148"/>
-      <c r="J78" s="150"/>
-      <c r="K78" s="150"/>
-      <c r="L78" s="154"/>
-      <c r="M78" s="152"/>
-      <c r="N78" s="154"/>
-      <c r="O78" s="152"/>
-      <c r="P78" s="142"/>
-      <c r="Q78" s="160"/>
-      <c r="R78" s="158"/>
+      <c r="B78" s="142"/>
+      <c r="C78" s="143"/>
+      <c r="D78" s="147"/>
+      <c r="E78" s="145"/>
+      <c r="F78" s="149"/>
+      <c r="G78" s="155"/>
+      <c r="H78" s="155"/>
+      <c r="I78" s="155"/>
+      <c r="J78" s="155"/>
+      <c r="K78" s="157"/>
+      <c r="L78" s="153"/>
+      <c r="M78" s="151"/>
+      <c r="N78" s="153"/>
+      <c r="O78" s="151"/>
+      <c r="P78" s="149"/>
+      <c r="Q78" s="159"/>
+      <c r="R78" s="162"/>
       <c r="S78" s="84"/>
       <c r="T78" s="85"/>
       <c r="U78" s="85"/>
@@ -14805,27 +15578,35 @@
       <c r="EL78" s="96"/>
     </row>
     <row r="79" spans="2:142" ht="9" customHeight="1">
-      <c r="B79" s="199"/>
-      <c r="C79" s="191"/>
-      <c r="D79" s="155"/>
-      <c r="E79" s="145"/>
-      <c r="F79" s="141" t="s">
+      <c r="B79" s="141"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="146"/>
+      <c r="E79" s="144"/>
+      <c r="F79" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="G79" s="147" t="s">
+      <c r="G79" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H79" s="147"/>
-      <c r="I79" s="147"/>
-      <c r="J79" s="149"/>
-      <c r="K79" s="149"/>
-      <c r="L79" s="153"/>
-      <c r="M79" s="151"/>
-      <c r="N79" s="153"/>
-      <c r="O79" s="151"/>
-      <c r="P79" s="141"/>
-      <c r="Q79" s="159"/>
-      <c r="R79" s="157"/>
+      <c r="H79" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I79" s="154">
+        <v>43148</v>
+      </c>
+      <c r="J79" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K79" s="156"/>
+      <c r="L79" s="152"/>
+      <c r="M79" s="150"/>
+      <c r="N79" s="152"/>
+      <c r="O79" s="150"/>
+      <c r="P79" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q79" s="158"/>
+      <c r="R79" s="161"/>
       <c r="S79" s="84"/>
       <c r="T79" s="87"/>
       <c r="U79" s="86"/>
@@ -14952,23 +15733,23 @@
       <c r="EL79" s="95"/>
     </row>
     <row r="80" spans="2:142" ht="9" customHeight="1">
-      <c r="B80" s="200"/>
-      <c r="C80" s="191"/>
-      <c r="D80" s="156"/>
-      <c r="E80" s="146"/>
-      <c r="F80" s="142"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="148"/>
-      <c r="I80" s="148"/>
-      <c r="J80" s="150"/>
-      <c r="K80" s="150"/>
-      <c r="L80" s="154"/>
-      <c r="M80" s="152"/>
-      <c r="N80" s="154"/>
-      <c r="O80" s="152"/>
-      <c r="P80" s="142"/>
-      <c r="Q80" s="160"/>
-      <c r="R80" s="158"/>
+      <c r="B80" s="142"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="147"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="149"/>
+      <c r="G80" s="155"/>
+      <c r="H80" s="155"/>
+      <c r="I80" s="155"/>
+      <c r="J80" s="155"/>
+      <c r="K80" s="157"/>
+      <c r="L80" s="153"/>
+      <c r="M80" s="151"/>
+      <c r="N80" s="153"/>
+      <c r="O80" s="151"/>
+      <c r="P80" s="149"/>
+      <c r="Q80" s="159"/>
+      <c r="R80" s="162"/>
       <c r="S80" s="84"/>
       <c r="T80" s="85"/>
       <c r="U80" s="85"/>
@@ -15095,29 +15876,37 @@
       <c r="EL80" s="96"/>
     </row>
     <row r="81" spans="2:142" ht="9" customHeight="1">
-      <c r="B81" s="199"/>
-      <c r="C81" s="191"/>
-      <c r="D81" s="155"/>
-      <c r="E81" s="145" t="s">
+      <c r="B81" s="141"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="146"/>
+      <c r="E81" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="F81" s="141" t="s">
+      <c r="F81" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="G81" s="147" t="s">
+      <c r="G81" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H81" s="147"/>
-      <c r="I81" s="147"/>
-      <c r="J81" s="149"/>
-      <c r="K81" s="149"/>
-      <c r="L81" s="153"/>
-      <c r="M81" s="151"/>
-      <c r="N81" s="153"/>
-      <c r="O81" s="151"/>
-      <c r="P81" s="141"/>
-      <c r="Q81" s="159"/>
-      <c r="R81" s="157"/>
+      <c r="H81" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I81" s="154">
+        <v>43148</v>
+      </c>
+      <c r="J81" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K81" s="156"/>
+      <c r="L81" s="152"/>
+      <c r="M81" s="150"/>
+      <c r="N81" s="152"/>
+      <c r="O81" s="150"/>
+      <c r="P81" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q81" s="158"/>
+      <c r="R81" s="161"/>
       <c r="S81" s="84"/>
       <c r="T81" s="87"/>
       <c r="U81" s="86"/>
@@ -15244,23 +16033,23 @@
       <c r="EL81" s="95"/>
     </row>
     <row r="82" spans="2:142" ht="9" customHeight="1">
-      <c r="B82" s="200"/>
-      <c r="C82" s="191"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="146"/>
-      <c r="F82" s="142"/>
-      <c r="G82" s="148"/>
-      <c r="H82" s="148"/>
-      <c r="I82" s="148"/>
-      <c r="J82" s="150"/>
-      <c r="K82" s="150"/>
-      <c r="L82" s="154"/>
-      <c r="M82" s="152"/>
-      <c r="N82" s="154"/>
-      <c r="O82" s="152"/>
-      <c r="P82" s="142"/>
-      <c r="Q82" s="160"/>
-      <c r="R82" s="158"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="145"/>
+      <c r="F82" s="149"/>
+      <c r="G82" s="155"/>
+      <c r="H82" s="155"/>
+      <c r="I82" s="155"/>
+      <c r="J82" s="155"/>
+      <c r="K82" s="157"/>
+      <c r="L82" s="153"/>
+      <c r="M82" s="151"/>
+      <c r="N82" s="153"/>
+      <c r="O82" s="151"/>
+      <c r="P82" s="149"/>
+      <c r="Q82" s="159"/>
+      <c r="R82" s="162"/>
       <c r="S82" s="84"/>
       <c r="T82" s="85"/>
       <c r="U82" s="85"/>
@@ -15387,27 +16176,35 @@
       <c r="EL82" s="96"/>
     </row>
     <row r="83" spans="2:142" ht="9" customHeight="1">
-      <c r="B83" s="199"/>
-      <c r="C83" s="191"/>
-      <c r="D83" s="155"/>
-      <c r="E83" s="145"/>
-      <c r="F83" s="141" t="s">
+      <c r="B83" s="141"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="146"/>
+      <c r="E83" s="144"/>
+      <c r="F83" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="G83" s="147" t="s">
+      <c r="G83" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H83" s="147"/>
-      <c r="I83" s="147"/>
-      <c r="J83" s="149"/>
-      <c r="K83" s="149"/>
-      <c r="L83" s="153"/>
-      <c r="M83" s="151"/>
-      <c r="N83" s="153"/>
-      <c r="O83" s="151"/>
-      <c r="P83" s="141"/>
-      <c r="Q83" s="159"/>
-      <c r="R83" s="157"/>
+      <c r="H83" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I83" s="154">
+        <v>43148</v>
+      </c>
+      <c r="J83" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K83" s="156"/>
+      <c r="L83" s="152"/>
+      <c r="M83" s="150"/>
+      <c r="N83" s="152"/>
+      <c r="O83" s="150"/>
+      <c r="P83" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q83" s="158"/>
+      <c r="R83" s="161"/>
       <c r="S83" s="84"/>
       <c r="T83" s="87"/>
       <c r="U83" s="86"/>
@@ -15534,23 +16331,23 @@
       <c r="EL83" s="95"/>
     </row>
     <row r="84" spans="2:142" ht="9" customHeight="1">
-      <c r="B84" s="200"/>
-      <c r="C84" s="191"/>
-      <c r="D84" s="156"/>
-      <c r="E84" s="146"/>
-      <c r="F84" s="142"/>
-      <c r="G84" s="148"/>
-      <c r="H84" s="148"/>
-      <c r="I84" s="148"/>
-      <c r="J84" s="150"/>
-      <c r="K84" s="150"/>
-      <c r="L84" s="154"/>
-      <c r="M84" s="152"/>
-      <c r="N84" s="154"/>
-      <c r="O84" s="152"/>
-      <c r="P84" s="142"/>
-      <c r="Q84" s="160"/>
-      <c r="R84" s="158"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="149"/>
+      <c r="G84" s="155"/>
+      <c r="H84" s="155"/>
+      <c r="I84" s="155"/>
+      <c r="J84" s="155"/>
+      <c r="K84" s="157"/>
+      <c r="L84" s="153"/>
+      <c r="M84" s="151"/>
+      <c r="N84" s="153"/>
+      <c r="O84" s="151"/>
+      <c r="P84" s="149"/>
+      <c r="Q84" s="159"/>
+      <c r="R84" s="162"/>
       <c r="S84" s="84"/>
       <c r="T84" s="85"/>
       <c r="U84" s="85"/>
@@ -15677,27 +16474,35 @@
       <c r="EL84" s="96"/>
     </row>
     <row r="85" spans="2:142" ht="9" customHeight="1">
-      <c r="B85" s="199"/>
-      <c r="C85" s="191" t="s">
+      <c r="B85" s="141"/>
+      <c r="C85" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="D85" s="155"/>
-      <c r="E85" s="145"/>
-      <c r="F85" s="141"/>
-      <c r="G85" s="147" t="s">
+      <c r="D85" s="146"/>
+      <c r="E85" s="144"/>
+      <c r="F85" s="148"/>
+      <c r="G85" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H85" s="147"/>
-      <c r="I85" s="147"/>
-      <c r="J85" s="149"/>
-      <c r="K85" s="149"/>
-      <c r="L85" s="153"/>
-      <c r="M85" s="151"/>
-      <c r="N85" s="153"/>
-      <c r="O85" s="151"/>
-      <c r="P85" s="141"/>
-      <c r="Q85" s="159"/>
-      <c r="R85" s="157"/>
+      <c r="H85" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I85" s="154">
+        <v>43149</v>
+      </c>
+      <c r="J85" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K85" s="156"/>
+      <c r="L85" s="152"/>
+      <c r="M85" s="150"/>
+      <c r="N85" s="152"/>
+      <c r="O85" s="150"/>
+      <c r="P85" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q85" s="158"/>
+      <c r="R85" s="161"/>
       <c r="S85" s="84"/>
       <c r="T85" s="87"/>
       <c r="U85" s="86"/>
@@ -15824,23 +16629,23 @@
       <c r="EL85" s="95"/>
     </row>
     <row r="86" spans="2:142" ht="9" customHeight="1">
-      <c r="B86" s="200"/>
-      <c r="C86" s="191"/>
-      <c r="D86" s="156"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="142"/>
-      <c r="G86" s="148"/>
-      <c r="H86" s="148"/>
-      <c r="I86" s="148"/>
-      <c r="J86" s="150"/>
-      <c r="K86" s="150"/>
-      <c r="L86" s="154"/>
-      <c r="M86" s="152"/>
-      <c r="N86" s="154"/>
-      <c r="O86" s="152"/>
-      <c r="P86" s="142"/>
-      <c r="Q86" s="160"/>
-      <c r="R86" s="158"/>
+      <c r="B86" s="142"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="145"/>
+      <c r="F86" s="149"/>
+      <c r="G86" s="155"/>
+      <c r="H86" s="155"/>
+      <c r="I86" s="155"/>
+      <c r="J86" s="155"/>
+      <c r="K86" s="157"/>
+      <c r="L86" s="153"/>
+      <c r="M86" s="151"/>
+      <c r="N86" s="153"/>
+      <c r="O86" s="151"/>
+      <c r="P86" s="149"/>
+      <c r="Q86" s="159"/>
+      <c r="R86" s="162"/>
       <c r="S86" s="84"/>
       <c r="T86" s="85"/>
       <c r="U86" s="85"/>
@@ -15967,29 +16772,37 @@
       <c r="EL86" s="96"/>
     </row>
     <row r="87" spans="2:142" ht="9" customHeight="1">
-      <c r="B87" s="199"/>
-      <c r="C87" s="191" t="s">
+      <c r="B87" s="141"/>
+      <c r="C87" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="D87" s="155"/>
-      <c r="E87" s="145" t="s">
+      <c r="D87" s="146"/>
+      <c r="E87" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="F87" s="141"/>
-      <c r="G87" s="147" t="s">
+      <c r="F87" s="148"/>
+      <c r="G87" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H87" s="147"/>
-      <c r="I87" s="147"/>
-      <c r="J87" s="149"/>
-      <c r="K87" s="149"/>
-      <c r="L87" s="153"/>
-      <c r="M87" s="151"/>
-      <c r="N87" s="153"/>
-      <c r="O87" s="151"/>
-      <c r="P87" s="141"/>
-      <c r="Q87" s="159"/>
-      <c r="R87" s="157"/>
+      <c r="H87" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I87" s="154">
+        <v>43149</v>
+      </c>
+      <c r="J87" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K87" s="156"/>
+      <c r="L87" s="152"/>
+      <c r="M87" s="150"/>
+      <c r="N87" s="152"/>
+      <c r="O87" s="150"/>
+      <c r="P87" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q87" s="158"/>
+      <c r="R87" s="161"/>
       <c r="S87" s="84"/>
       <c r="T87" s="87"/>
       <c r="U87" s="86"/>
@@ -16116,23 +16929,23 @@
       <c r="EL87" s="95"/>
     </row>
     <row r="88" spans="2:142" ht="9" customHeight="1">
-      <c r="B88" s="200"/>
-      <c r="C88" s="191"/>
-      <c r="D88" s="156"/>
-      <c r="E88" s="146"/>
-      <c r="F88" s="142"/>
-      <c r="G88" s="148"/>
-      <c r="H88" s="148"/>
-      <c r="I88" s="148"/>
-      <c r="J88" s="150"/>
-      <c r="K88" s="150"/>
-      <c r="L88" s="154"/>
-      <c r="M88" s="152"/>
-      <c r="N88" s="154"/>
-      <c r="O88" s="152"/>
-      <c r="P88" s="142"/>
-      <c r="Q88" s="160"/>
-      <c r="R88" s="158"/>
+      <c r="B88" s="142"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="147"/>
+      <c r="E88" s="145"/>
+      <c r="F88" s="149"/>
+      <c r="G88" s="155"/>
+      <c r="H88" s="155"/>
+      <c r="I88" s="155"/>
+      <c r="J88" s="155"/>
+      <c r="K88" s="157"/>
+      <c r="L88" s="153"/>
+      <c r="M88" s="151"/>
+      <c r="N88" s="153"/>
+      <c r="O88" s="151"/>
+      <c r="P88" s="149"/>
+      <c r="Q88" s="159"/>
+      <c r="R88" s="162"/>
       <c r="S88" s="84"/>
       <c r="T88" s="85"/>
       <c r="U88" s="85"/>
@@ -16259,27 +17072,35 @@
       <c r="EL88" s="96"/>
     </row>
     <row r="89" spans="2:142" ht="9" customHeight="1">
-      <c r="B89" s="199"/>
-      <c r="C89" s="191"/>
-      <c r="D89" s="155"/>
-      <c r="E89" s="145" t="s">
+      <c r="B89" s="141"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="F89" s="141"/>
-      <c r="G89" s="147" t="s">
+      <c r="F89" s="148"/>
+      <c r="G89" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H89" s="147"/>
-      <c r="I89" s="147"/>
-      <c r="J89" s="149"/>
-      <c r="K89" s="149"/>
-      <c r="L89" s="153"/>
-      <c r="M89" s="151"/>
-      <c r="N89" s="153"/>
-      <c r="O89" s="151"/>
-      <c r="P89" s="141"/>
-      <c r="Q89" s="159"/>
-      <c r="R89" s="157"/>
+      <c r="H89" s="154">
+        <v>43147</v>
+      </c>
+      <c r="I89" s="154">
+        <v>43149</v>
+      </c>
+      <c r="J89" s="154">
+        <v>43146</v>
+      </c>
+      <c r="K89" s="156"/>
+      <c r="L89" s="152"/>
+      <c r="M89" s="150"/>
+      <c r="N89" s="152"/>
+      <c r="O89" s="150"/>
+      <c r="P89" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q89" s="158"/>
+      <c r="R89" s="161"/>
       <c r="S89" s="84"/>
       <c r="T89" s="87"/>
       <c r="U89" s="86"/>
@@ -16406,23 +17227,23 @@
       <c r="EL89" s="95"/>
     </row>
     <row r="90" spans="2:142" ht="9" customHeight="1">
-      <c r="B90" s="200"/>
-      <c r="C90" s="191"/>
-      <c r="D90" s="156"/>
-      <c r="E90" s="146"/>
-      <c r="F90" s="142"/>
-      <c r="G90" s="148"/>
-      <c r="H90" s="148"/>
-      <c r="I90" s="148"/>
-      <c r="J90" s="150"/>
-      <c r="K90" s="150"/>
-      <c r="L90" s="154"/>
-      <c r="M90" s="152"/>
-      <c r="N90" s="154"/>
-      <c r="O90" s="152"/>
-      <c r="P90" s="142"/>
-      <c r="Q90" s="160"/>
-      <c r="R90" s="158"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="147"/>
+      <c r="E90" s="145"/>
+      <c r="F90" s="149"/>
+      <c r="G90" s="155"/>
+      <c r="H90" s="155"/>
+      <c r="I90" s="155"/>
+      <c r="J90" s="155"/>
+      <c r="K90" s="157"/>
+      <c r="L90" s="153"/>
+      <c r="M90" s="151"/>
+      <c r="N90" s="153"/>
+      <c r="O90" s="151"/>
+      <c r="P90" s="149"/>
+      <c r="Q90" s="159"/>
+      <c r="R90" s="162"/>
       <c r="S90" s="84"/>
       <c r="T90" s="85"/>
       <c r="U90" s="85"/>
@@ -16549,33 +17370,43 @@
       <c r="EL90" s="96"/>
     </row>
     <row r="91" spans="2:142" ht="9" customHeight="1">
-      <c r="B91" s="199" t="s">
+      <c r="B91" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="191" t="s">
+      <c r="C91" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="D91" s="155"/>
-      <c r="E91" s="145" t="s">
+      <c r="D91" s="146"/>
+      <c r="E91" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="F91" s="141" t="s">
+      <c r="F91" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="G91" s="147" t="s">
+      <c r="G91" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H91" s="147"/>
-      <c r="I91" s="147"/>
-      <c r="J91" s="149"/>
-      <c r="K91" s="149"/>
-      <c r="L91" s="153"/>
-      <c r="M91" s="151"/>
-      <c r="N91" s="153"/>
-      <c r="O91" s="151"/>
-      <c r="P91" s="141"/>
-      <c r="Q91" s="159"/>
-      <c r="R91" s="157"/>
+      <c r="H91" s="154">
+        <v>43292</v>
+      </c>
+      <c r="I91" s="154">
+        <v>43293</v>
+      </c>
+      <c r="J91" s="154">
+        <v>43292</v>
+      </c>
+      <c r="K91" s="154">
+        <v>43293</v>
+      </c>
+      <c r="L91" s="152"/>
+      <c r="M91" s="150"/>
+      <c r="N91" s="152"/>
+      <c r="O91" s="150"/>
+      <c r="P91" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q91" s="158"/>
+      <c r="R91" s="161"/>
       <c r="S91" s="84"/>
       <c r="T91" s="87"/>
       <c r="U91" s="86"/>
@@ -16702,23 +17533,23 @@
       <c r="EL91" s="95"/>
     </row>
     <row r="92" spans="2:142" ht="9" customHeight="1">
-      <c r="B92" s="200"/>
-      <c r="C92" s="191"/>
-      <c r="D92" s="156"/>
-      <c r="E92" s="146"/>
-      <c r="F92" s="142"/>
-      <c r="G92" s="148"/>
-      <c r="H92" s="148"/>
-      <c r="I92" s="148"/>
-      <c r="J92" s="150"/>
-      <c r="K92" s="150"/>
-      <c r="L92" s="154"/>
-      <c r="M92" s="152"/>
-      <c r="N92" s="154"/>
-      <c r="O92" s="152"/>
-      <c r="P92" s="142"/>
-      <c r="Q92" s="160"/>
-      <c r="R92" s="158"/>
+      <c r="B92" s="142"/>
+      <c r="C92" s="143"/>
+      <c r="D92" s="147"/>
+      <c r="E92" s="145"/>
+      <c r="F92" s="149"/>
+      <c r="G92" s="155"/>
+      <c r="H92" s="155"/>
+      <c r="I92" s="155"/>
+      <c r="J92" s="155"/>
+      <c r="K92" s="155"/>
+      <c r="L92" s="153"/>
+      <c r="M92" s="151"/>
+      <c r="N92" s="153"/>
+      <c r="O92" s="151"/>
+      <c r="P92" s="149"/>
+      <c r="Q92" s="159"/>
+      <c r="R92" s="162"/>
       <c r="S92" s="84"/>
       <c r="T92" s="85"/>
       <c r="U92" s="85"/>
@@ -16845,29 +17676,39 @@
       <c r="EL92" s="96"/>
     </row>
     <row r="93" spans="2:142" ht="9" customHeight="1">
-      <c r="B93" s="199"/>
-      <c r="C93" s="191" t="s">
+      <c r="B93" s="141"/>
+      <c r="C93" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="155"/>
-      <c r="E93" s="145" t="s">
+      <c r="D93" s="146"/>
+      <c r="E93" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="F93" s="141"/>
-      <c r="G93" s="147" t="s">
+      <c r="F93" s="148"/>
+      <c r="G93" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H93" s="147"/>
-      <c r="I93" s="147"/>
-      <c r="J93" s="149"/>
-      <c r="K93" s="149"/>
-      <c r="L93" s="153"/>
-      <c r="M93" s="151"/>
-      <c r="N93" s="153"/>
-      <c r="O93" s="151"/>
-      <c r="P93" s="141"/>
-      <c r="Q93" s="159"/>
-      <c r="R93" s="157"/>
+      <c r="H93" s="154">
+        <v>43293</v>
+      </c>
+      <c r="I93" s="154">
+        <v>43296</v>
+      </c>
+      <c r="J93" s="154">
+        <v>43293</v>
+      </c>
+      <c r="K93" s="154">
+        <v>43296</v>
+      </c>
+      <c r="L93" s="152"/>
+      <c r="M93" s="150"/>
+      <c r="N93" s="152"/>
+      <c r="O93" s="150"/>
+      <c r="P93" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q93" s="158"/>
+      <c r="R93" s="161"/>
       <c r="S93" s="84"/>
       <c r="T93" s="87"/>
       <c r="U93" s="86"/>
@@ -16994,23 +17835,23 @@
       <c r="EL93" s="95"/>
     </row>
     <row r="94" spans="2:142" ht="9" customHeight="1">
-      <c r="B94" s="200"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="156"/>
-      <c r="E94" s="146"/>
-      <c r="F94" s="142"/>
-      <c r="G94" s="148"/>
-      <c r="H94" s="148"/>
-      <c r="I94" s="148"/>
-      <c r="J94" s="150"/>
-      <c r="K94" s="150"/>
-      <c r="L94" s="154"/>
-      <c r="M94" s="152"/>
-      <c r="N94" s="154"/>
-      <c r="O94" s="152"/>
-      <c r="P94" s="142"/>
-      <c r="Q94" s="160"/>
-      <c r="R94" s="158"/>
+      <c r="B94" s="142"/>
+      <c r="C94" s="143"/>
+      <c r="D94" s="147"/>
+      <c r="E94" s="145"/>
+      <c r="F94" s="149"/>
+      <c r="G94" s="155"/>
+      <c r="H94" s="155"/>
+      <c r="I94" s="155"/>
+      <c r="J94" s="155"/>
+      <c r="K94" s="155"/>
+      <c r="L94" s="153"/>
+      <c r="M94" s="151"/>
+      <c r="N94" s="153"/>
+      <c r="O94" s="151"/>
+      <c r="P94" s="149"/>
+      <c r="Q94" s="159"/>
+      <c r="R94" s="162"/>
       <c r="S94" s="84"/>
       <c r="T94" s="85"/>
       <c r="U94" s="85"/>
@@ -17137,29 +17978,39 @@
       <c r="EL94" s="96"/>
     </row>
     <row r="95" spans="2:142" ht="9" customHeight="1">
-      <c r="B95" s="199"/>
-      <c r="C95" s="191" t="s">
+      <c r="B95" s="141"/>
+      <c r="C95" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="155"/>
-      <c r="E95" s="145" t="s">
+      <c r="D95" s="146"/>
+      <c r="E95" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="F95" s="141"/>
-      <c r="G95" s="147" t="s">
+      <c r="F95" s="148"/>
+      <c r="G95" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H95" s="147"/>
-      <c r="I95" s="147"/>
-      <c r="J95" s="149"/>
-      <c r="K95" s="149"/>
-      <c r="L95" s="153"/>
-      <c r="M95" s="151"/>
-      <c r="N95" s="153"/>
-      <c r="O95" s="151"/>
-      <c r="P95" s="141"/>
-      <c r="Q95" s="159"/>
-      <c r="R95" s="157"/>
+      <c r="H95" s="154">
+        <v>43294</v>
+      </c>
+      <c r="I95" s="154">
+        <v>43295</v>
+      </c>
+      <c r="J95" s="154">
+        <v>43294</v>
+      </c>
+      <c r="K95" s="154">
+        <v>43296</v>
+      </c>
+      <c r="L95" s="152"/>
+      <c r="M95" s="150"/>
+      <c r="N95" s="152"/>
+      <c r="O95" s="150"/>
+      <c r="P95" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q95" s="158"/>
+      <c r="R95" s="161"/>
       <c r="S95" s="84"/>
       <c r="T95" s="87"/>
       <c r="U95" s="86"/>
@@ -17286,23 +18137,23 @@
       <c r="EL95" s="95"/>
     </row>
     <row r="96" spans="2:142" ht="9" customHeight="1">
-      <c r="B96" s="200"/>
-      <c r="C96" s="191"/>
-      <c r="D96" s="156"/>
-      <c r="E96" s="146"/>
-      <c r="F96" s="142"/>
-      <c r="G96" s="148"/>
-      <c r="H96" s="148"/>
-      <c r="I96" s="148"/>
-      <c r="J96" s="150"/>
-      <c r="K96" s="150"/>
-      <c r="L96" s="154"/>
-      <c r="M96" s="152"/>
-      <c r="N96" s="154"/>
-      <c r="O96" s="152"/>
-      <c r="P96" s="142"/>
-      <c r="Q96" s="160"/>
-      <c r="R96" s="158"/>
+      <c r="B96" s="142"/>
+      <c r="C96" s="143"/>
+      <c r="D96" s="147"/>
+      <c r="E96" s="145"/>
+      <c r="F96" s="149"/>
+      <c r="G96" s="155"/>
+      <c r="H96" s="155"/>
+      <c r="I96" s="155"/>
+      <c r="J96" s="155"/>
+      <c r="K96" s="155"/>
+      <c r="L96" s="153"/>
+      <c r="M96" s="151"/>
+      <c r="N96" s="153"/>
+      <c r="O96" s="151"/>
+      <c r="P96" s="149"/>
+      <c r="Q96" s="159"/>
+      <c r="R96" s="162"/>
       <c r="S96" s="84"/>
       <c r="T96" s="85"/>
       <c r="U96" s="85"/>
@@ -17429,29 +18280,39 @@
       <c r="EL96" s="96"/>
     </row>
     <row r="97" spans="2:142" ht="9" customHeight="1">
-      <c r="B97" s="199"/>
-      <c r="C97" s="191" t="s">
+      <c r="B97" s="141"/>
+      <c r="C97" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="D97" s="155"/>
-      <c r="E97" s="145" t="s">
+      <c r="D97" s="146"/>
+      <c r="E97" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="F97" s="141"/>
-      <c r="G97" s="147" t="s">
+      <c r="F97" s="148"/>
+      <c r="G97" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H97" s="147"/>
-      <c r="I97" s="147"/>
-      <c r="J97" s="149"/>
-      <c r="K97" s="149"/>
-      <c r="L97" s="153"/>
-      <c r="M97" s="151"/>
-      <c r="N97" s="153"/>
-      <c r="O97" s="151"/>
-      <c r="P97" s="141"/>
-      <c r="Q97" s="159"/>
-      <c r="R97" s="157"/>
+      <c r="H97" s="154">
+        <v>43295</v>
+      </c>
+      <c r="I97" s="154">
+        <v>43296</v>
+      </c>
+      <c r="J97" s="154">
+        <v>43295</v>
+      </c>
+      <c r="K97" s="154">
+        <v>43296</v>
+      </c>
+      <c r="L97" s="152"/>
+      <c r="M97" s="150"/>
+      <c r="N97" s="152"/>
+      <c r="O97" s="150"/>
+      <c r="P97" s="148" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q97" s="158"/>
+      <c r="R97" s="161"/>
       <c r="S97" s="84"/>
       <c r="T97" s="87"/>
       <c r="U97" s="86"/>
@@ -17578,23 +18439,23 @@
       <c r="EL97" s="95"/>
     </row>
     <row r="98" spans="2:142" ht="9" customHeight="1">
-      <c r="B98" s="200"/>
-      <c r="C98" s="191"/>
-      <c r="D98" s="156"/>
-      <c r="E98" s="146"/>
-      <c r="F98" s="142"/>
-      <c r="G98" s="148"/>
-      <c r="H98" s="148"/>
-      <c r="I98" s="148"/>
-      <c r="J98" s="150"/>
-      <c r="K98" s="150"/>
-      <c r="L98" s="154"/>
-      <c r="M98" s="152"/>
-      <c r="N98" s="154"/>
-      <c r="O98" s="152"/>
-      <c r="P98" s="142"/>
-      <c r="Q98" s="160"/>
-      <c r="R98" s="158"/>
+      <c r="B98" s="142"/>
+      <c r="C98" s="143"/>
+      <c r="D98" s="147"/>
+      <c r="E98" s="145"/>
+      <c r="F98" s="149"/>
+      <c r="G98" s="155"/>
+      <c r="H98" s="155"/>
+      <c r="I98" s="155"/>
+      <c r="J98" s="155"/>
+      <c r="K98" s="155"/>
+      <c r="L98" s="153"/>
+      <c r="M98" s="151"/>
+      <c r="N98" s="153"/>
+      <c r="O98" s="151"/>
+      <c r="P98" s="149"/>
+      <c r="Q98" s="159"/>
+      <c r="R98" s="162"/>
       <c r="S98" s="84"/>
       <c r="T98" s="85"/>
       <c r="U98" s="85"/>
@@ -17721,29 +18582,39 @@
       <c r="EL98" s="96"/>
     </row>
     <row r="99" spans="2:142" ht="9" customHeight="1">
-      <c r="B99" s="199"/>
-      <c r="C99" s="191" t="s">
+      <c r="B99" s="141"/>
+      <c r="C99" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="D99" s="155"/>
-      <c r="E99" s="145" t="s">
+      <c r="D99" s="146"/>
+      <c r="E99" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="F99" s="141"/>
-      <c r="G99" s="147" t="s">
+      <c r="F99" s="148"/>
+      <c r="G99" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H99" s="147"/>
-      <c r="I99" s="147"/>
-      <c r="J99" s="149"/>
-      <c r="K99" s="149"/>
-      <c r="L99" s="153"/>
-      <c r="M99" s="151"/>
-      <c r="N99" s="153"/>
-      <c r="O99" s="151"/>
-      <c r="P99" s="141"/>
-      <c r="Q99" s="159"/>
-      <c r="R99" s="157"/>
+      <c r="H99" s="154">
+        <v>43296</v>
+      </c>
+      <c r="I99" s="154">
+        <v>43296</v>
+      </c>
+      <c r="J99" s="154">
+        <v>43296</v>
+      </c>
+      <c r="K99" s="154">
+        <v>43296</v>
+      </c>
+      <c r="L99" s="152"/>
+      <c r="M99" s="150"/>
+      <c r="N99" s="152"/>
+      <c r="O99" s="150"/>
+      <c r="P99" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q99" s="158"/>
+      <c r="R99" s="161"/>
       <c r="S99" s="84"/>
       <c r="T99" s="87"/>
       <c r="U99" s="86"/>
@@ -17870,23 +18741,23 @@
       <c r="EL99" s="95"/>
     </row>
     <row r="100" spans="2:142" ht="9" customHeight="1">
-      <c r="B100" s="200"/>
-      <c r="C100" s="191"/>
-      <c r="D100" s="156"/>
-      <c r="E100" s="146"/>
-      <c r="F100" s="142"/>
-      <c r="G100" s="148"/>
-      <c r="H100" s="148"/>
-      <c r="I100" s="148"/>
-      <c r="J100" s="150"/>
-      <c r="K100" s="150"/>
-      <c r="L100" s="154"/>
-      <c r="M100" s="152"/>
-      <c r="N100" s="154"/>
-      <c r="O100" s="152"/>
-      <c r="P100" s="142"/>
-      <c r="Q100" s="160"/>
-      <c r="R100" s="158"/>
+      <c r="B100" s="142"/>
+      <c r="C100" s="143"/>
+      <c r="D100" s="147"/>
+      <c r="E100" s="145"/>
+      <c r="F100" s="149"/>
+      <c r="G100" s="155"/>
+      <c r="H100" s="155"/>
+      <c r="I100" s="155"/>
+      <c r="J100" s="155"/>
+      <c r="K100" s="155"/>
+      <c r="L100" s="153"/>
+      <c r="M100" s="151"/>
+      <c r="N100" s="153"/>
+      <c r="O100" s="151"/>
+      <c r="P100" s="149"/>
+      <c r="Q100" s="159"/>
+      <c r="R100" s="162"/>
       <c r="S100" s="84"/>
       <c r="T100" s="85"/>
       <c r="U100" s="85"/>
@@ -18013,29 +18884,39 @@
       <c r="EL100" s="96"/>
     </row>
     <row r="101" spans="2:142" ht="9" customHeight="1">
-      <c r="B101" s="199"/>
-      <c r="C101" s="191" t="s">
+      <c r="B101" s="141"/>
+      <c r="C101" s="143" t="s">
         <v>112</v>
       </c>
-      <c r="D101" s="155"/>
-      <c r="E101" s="145" t="s">
+      <c r="D101" s="146"/>
+      <c r="E101" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="F101" s="141"/>
-      <c r="G101" s="147" t="s">
+      <c r="F101" s="148"/>
+      <c r="G101" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H101" s="147"/>
-      <c r="I101" s="147"/>
-      <c r="J101" s="149"/>
-      <c r="K101" s="149"/>
-      <c r="L101" s="153"/>
-      <c r="M101" s="151"/>
-      <c r="N101" s="153"/>
-      <c r="O101" s="151"/>
-      <c r="P101" s="141"/>
-      <c r="Q101" s="159"/>
-      <c r="R101" s="157"/>
+      <c r="H101" s="154">
+        <v>43292</v>
+      </c>
+      <c r="I101" s="154">
+        <v>43293</v>
+      </c>
+      <c r="J101" s="154">
+        <v>43292</v>
+      </c>
+      <c r="K101" s="154">
+        <v>43293</v>
+      </c>
+      <c r="L101" s="152"/>
+      <c r="M101" s="150"/>
+      <c r="N101" s="152"/>
+      <c r="O101" s="150"/>
+      <c r="P101" s="148" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q101" s="158"/>
+      <c r="R101" s="161"/>
       <c r="S101" s="84"/>
       <c r="T101" s="87"/>
       <c r="U101" s="86"/>
@@ -18162,23 +19043,23 @@
       <c r="EL101" s="95"/>
     </row>
     <row r="102" spans="2:142" ht="9" customHeight="1">
-      <c r="B102" s="200"/>
-      <c r="C102" s="191"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="146"/>
-      <c r="F102" s="142"/>
-      <c r="G102" s="148"/>
-      <c r="H102" s="148"/>
-      <c r="I102" s="148"/>
-      <c r="J102" s="150"/>
-      <c r="K102" s="150"/>
-      <c r="L102" s="154"/>
-      <c r="M102" s="152"/>
-      <c r="N102" s="154"/>
-      <c r="O102" s="152"/>
-      <c r="P102" s="142"/>
-      <c r="Q102" s="160"/>
-      <c r="R102" s="158"/>
+      <c r="B102" s="142"/>
+      <c r="C102" s="143"/>
+      <c r="D102" s="147"/>
+      <c r="E102" s="145"/>
+      <c r="F102" s="149"/>
+      <c r="G102" s="155"/>
+      <c r="H102" s="155"/>
+      <c r="I102" s="155"/>
+      <c r="J102" s="155"/>
+      <c r="K102" s="155"/>
+      <c r="L102" s="153"/>
+      <c r="M102" s="151"/>
+      <c r="N102" s="153"/>
+      <c r="O102" s="151"/>
+      <c r="P102" s="149"/>
+      <c r="Q102" s="159"/>
+      <c r="R102" s="162"/>
       <c r="S102" s="84"/>
       <c r="T102" s="85"/>
       <c r="U102" s="85"/>
@@ -18305,29 +19186,47 @@
       <c r="EL102" s="96"/>
     </row>
     <row r="103" spans="2:142" ht="9" customHeight="1">
-      <c r="B103" s="199"/>
-      <c r="C103" s="191" t="s">
+      <c r="B103" s="141"/>
+      <c r="C103" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="D103" s="155"/>
-      <c r="E103" s="145" t="s">
+      <c r="D103" s="146"/>
+      <c r="E103" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="F103" s="141"/>
-      <c r="G103" s="147" t="s">
+      <c r="F103" s="148"/>
+      <c r="G103" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H103" s="147"/>
-      <c r="I103" s="147"/>
-      <c r="J103" s="149"/>
-      <c r="K103" s="149"/>
-      <c r="L103" s="153"/>
-      <c r="M103" s="151"/>
-      <c r="N103" s="153"/>
-      <c r="O103" s="151"/>
-      <c r="P103" s="141"/>
-      <c r="Q103" s="159"/>
-      <c r="R103" s="157"/>
+      <c r="H103" s="154">
+        <v>43293</v>
+      </c>
+      <c r="I103" s="154">
+        <v>43293</v>
+      </c>
+      <c r="J103" s="154">
+        <v>43293</v>
+      </c>
+      <c r="K103" s="154">
+        <v>43293</v>
+      </c>
+      <c r="L103" s="154">
+        <v>43293</v>
+      </c>
+      <c r="M103" s="154">
+        <v>43293</v>
+      </c>
+      <c r="N103" s="154">
+        <v>43293</v>
+      </c>
+      <c r="O103" s="154">
+        <v>43293</v>
+      </c>
+      <c r="P103" s="148" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q103" s="158"/>
+      <c r="R103" s="161"/>
       <c r="S103" s="84"/>
       <c r="T103" s="87"/>
       <c r="U103" s="86"/>
@@ -18454,23 +19353,23 @@
       <c r="EL103" s="95"/>
     </row>
     <row r="104" spans="2:142" ht="9" customHeight="1">
-      <c r="B104" s="200"/>
-      <c r="C104" s="191"/>
-      <c r="D104" s="156"/>
-      <c r="E104" s="146"/>
-      <c r="F104" s="142"/>
-      <c r="G104" s="148"/>
-      <c r="H104" s="148"/>
-      <c r="I104" s="148"/>
-      <c r="J104" s="150"/>
-      <c r="K104" s="150"/>
-      <c r="L104" s="154"/>
-      <c r="M104" s="152"/>
-      <c r="N104" s="154"/>
-      <c r="O104" s="152"/>
-      <c r="P104" s="142"/>
-      <c r="Q104" s="160"/>
-      <c r="R104" s="158"/>
+      <c r="B104" s="142"/>
+      <c r="C104" s="143"/>
+      <c r="D104" s="147"/>
+      <c r="E104" s="145"/>
+      <c r="F104" s="149"/>
+      <c r="G104" s="155"/>
+      <c r="H104" s="155"/>
+      <c r="I104" s="155"/>
+      <c r="J104" s="155"/>
+      <c r="K104" s="155"/>
+      <c r="L104" s="155"/>
+      <c r="M104" s="155"/>
+      <c r="N104" s="155"/>
+      <c r="O104" s="155"/>
+      <c r="P104" s="149"/>
+      <c r="Q104" s="159"/>
+      <c r="R104" s="162"/>
       <c r="S104" s="84"/>
       <c r="T104" s="85"/>
       <c r="U104" s="85"/>
@@ -18597,29 +19496,39 @@
       <c r="EL104" s="96"/>
     </row>
     <row r="105" spans="2:142" ht="9" customHeight="1">
-      <c r="B105" s="199"/>
-      <c r="C105" s="191" t="s">
+      <c r="B105" s="141"/>
+      <c r="C105" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="D105" s="155"/>
-      <c r="E105" s="145" t="s">
+      <c r="D105" s="146"/>
+      <c r="E105" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="F105" s="141"/>
-      <c r="G105" s="147" t="s">
+      <c r="F105" s="148"/>
+      <c r="G105" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H105" s="147"/>
-      <c r="I105" s="147"/>
-      <c r="J105" s="149"/>
-      <c r="K105" s="149"/>
-      <c r="L105" s="153"/>
-      <c r="M105" s="151"/>
-      <c r="N105" s="153"/>
-      <c r="O105" s="151"/>
-      <c r="P105" s="141"/>
-      <c r="Q105" s="159"/>
-      <c r="R105" s="157"/>
+      <c r="H105" s="154">
+        <v>43292</v>
+      </c>
+      <c r="I105" s="154">
+        <v>43293</v>
+      </c>
+      <c r="J105" s="154">
+        <v>43292</v>
+      </c>
+      <c r="K105" s="154">
+        <v>43294</v>
+      </c>
+      <c r="L105" s="152"/>
+      <c r="M105" s="150"/>
+      <c r="N105" s="152"/>
+      <c r="O105" s="150"/>
+      <c r="P105" s="148" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q105" s="158"/>
+      <c r="R105" s="161"/>
       <c r="S105" s="84"/>
       <c r="T105" s="87"/>
       <c r="U105" s="86"/>
@@ -18746,23 +19655,23 @@
       <c r="EL105" s="95"/>
     </row>
     <row r="106" spans="2:142" ht="9" customHeight="1">
-      <c r="B106" s="200"/>
-      <c r="C106" s="191"/>
-      <c r="D106" s="156"/>
-      <c r="E106" s="146"/>
-      <c r="F106" s="142"/>
-      <c r="G106" s="148"/>
-      <c r="H106" s="148"/>
-      <c r="I106" s="148"/>
-      <c r="J106" s="150"/>
-      <c r="K106" s="150"/>
-      <c r="L106" s="154"/>
-      <c r="M106" s="152"/>
-      <c r="N106" s="154"/>
-      <c r="O106" s="152"/>
-      <c r="P106" s="142"/>
-      <c r="Q106" s="160"/>
-      <c r="R106" s="158"/>
+      <c r="B106" s="142"/>
+      <c r="C106" s="143"/>
+      <c r="D106" s="147"/>
+      <c r="E106" s="145"/>
+      <c r="F106" s="149"/>
+      <c r="G106" s="155"/>
+      <c r="H106" s="155"/>
+      <c r="I106" s="155"/>
+      <c r="J106" s="155"/>
+      <c r="K106" s="155"/>
+      <c r="L106" s="153"/>
+      <c r="M106" s="151"/>
+      <c r="N106" s="153"/>
+      <c r="O106" s="151"/>
+      <c r="P106" s="149"/>
+      <c r="Q106" s="159"/>
+      <c r="R106" s="162"/>
       <c r="S106" s="84"/>
       <c r="T106" s="85"/>
       <c r="U106" s="85"/>
@@ -18889,23 +19798,23 @@
       <c r="EL106" s="96"/>
     </row>
     <row r="107" spans="2:142" ht="9" customHeight="1">
-      <c r="B107" s="199"/>
-      <c r="C107" s="191"/>
-      <c r="D107" s="155"/>
-      <c r="E107" s="145"/>
-      <c r="F107" s="141"/>
-      <c r="G107" s="147"/>
-      <c r="H107" s="147"/>
-      <c r="I107" s="147"/>
-      <c r="J107" s="149"/>
-      <c r="K107" s="149"/>
-      <c r="L107" s="153"/>
-      <c r="M107" s="151"/>
-      <c r="N107" s="153"/>
-      <c r="O107" s="151"/>
-      <c r="P107" s="141"/>
-      <c r="Q107" s="159"/>
-      <c r="R107" s="157"/>
+      <c r="B107" s="141"/>
+      <c r="C107" s="143"/>
+      <c r="D107" s="146"/>
+      <c r="E107" s="144"/>
+      <c r="F107" s="148"/>
+      <c r="G107" s="154"/>
+      <c r="H107" s="154"/>
+      <c r="I107" s="154"/>
+      <c r="J107" s="156"/>
+      <c r="K107" s="156"/>
+      <c r="L107" s="152"/>
+      <c r="M107" s="150"/>
+      <c r="N107" s="152"/>
+      <c r="O107" s="150"/>
+      <c r="P107" s="148"/>
+      <c r="Q107" s="158"/>
+      <c r="R107" s="161"/>
       <c r="S107" s="84"/>
       <c r="T107" s="87"/>
       <c r="U107" s="86"/>
@@ -19032,23 +19941,23 @@
       <c r="EL107" s="95"/>
     </row>
     <row r="108" spans="2:142" ht="9" customHeight="1">
-      <c r="B108" s="200"/>
-      <c r="C108" s="191"/>
-      <c r="D108" s="156"/>
-      <c r="E108" s="146"/>
-      <c r="F108" s="142"/>
-      <c r="G108" s="148"/>
-      <c r="H108" s="148"/>
-      <c r="I108" s="148"/>
-      <c r="J108" s="150"/>
-      <c r="K108" s="150"/>
-      <c r="L108" s="154"/>
-      <c r="M108" s="152"/>
-      <c r="N108" s="154"/>
-      <c r="O108" s="152"/>
-      <c r="P108" s="142"/>
-      <c r="Q108" s="160"/>
-      <c r="R108" s="158"/>
+      <c r="B108" s="142"/>
+      <c r="C108" s="143"/>
+      <c r="D108" s="147"/>
+      <c r="E108" s="145"/>
+      <c r="F108" s="149"/>
+      <c r="G108" s="155"/>
+      <c r="H108" s="155"/>
+      <c r="I108" s="155"/>
+      <c r="J108" s="157"/>
+      <c r="K108" s="157"/>
+      <c r="L108" s="153"/>
+      <c r="M108" s="151"/>
+      <c r="N108" s="153"/>
+      <c r="O108" s="151"/>
+      <c r="P108" s="149"/>
+      <c r="Q108" s="159"/>
+      <c r="R108" s="162"/>
       <c r="S108" s="84"/>
       <c r="T108" s="85"/>
       <c r="U108" s="85"/>
@@ -19175,23 +20084,23 @@
       <c r="EL108" s="96"/>
     </row>
     <row r="109" spans="2:142" ht="9" customHeight="1">
-      <c r="B109" s="199"/>
-      <c r="C109" s="191"/>
-      <c r="D109" s="155"/>
-      <c r="E109" s="145"/>
-      <c r="F109" s="141"/>
-      <c r="G109" s="147"/>
-      <c r="H109" s="147"/>
-      <c r="I109" s="147"/>
-      <c r="J109" s="149"/>
-      <c r="K109" s="149"/>
-      <c r="L109" s="153"/>
-      <c r="M109" s="151"/>
-      <c r="N109" s="153"/>
-      <c r="O109" s="151"/>
-      <c r="P109" s="141"/>
-      <c r="Q109" s="159"/>
-      <c r="R109" s="157"/>
+      <c r="B109" s="141"/>
+      <c r="C109" s="143"/>
+      <c r="D109" s="146"/>
+      <c r="E109" s="144"/>
+      <c r="F109" s="148"/>
+      <c r="G109" s="154"/>
+      <c r="H109" s="154"/>
+      <c r="I109" s="154"/>
+      <c r="J109" s="156"/>
+      <c r="K109" s="156"/>
+      <c r="L109" s="152"/>
+      <c r="M109" s="150"/>
+      <c r="N109" s="152"/>
+      <c r="O109" s="150"/>
+      <c r="P109" s="148"/>
+      <c r="Q109" s="158"/>
+      <c r="R109" s="161"/>
       <c r="S109" s="84"/>
       <c r="T109" s="87"/>
       <c r="U109" s="86"/>
@@ -19318,23 +20227,23 @@
       <c r="EL109" s="95"/>
     </row>
     <row r="110" spans="2:142" ht="9" customHeight="1">
-      <c r="B110" s="200"/>
-      <c r="C110" s="191"/>
-      <c r="D110" s="156"/>
-      <c r="E110" s="146"/>
-      <c r="F110" s="142"/>
-      <c r="G110" s="148"/>
-      <c r="H110" s="148"/>
-      <c r="I110" s="148"/>
-      <c r="J110" s="150"/>
-      <c r="K110" s="150"/>
-      <c r="L110" s="154"/>
-      <c r="M110" s="152"/>
-      <c r="N110" s="154"/>
-      <c r="O110" s="152"/>
-      <c r="P110" s="142"/>
-      <c r="Q110" s="160"/>
-      <c r="R110" s="158"/>
+      <c r="B110" s="142"/>
+      <c r="C110" s="143"/>
+      <c r="D110" s="147"/>
+      <c r="E110" s="145"/>
+      <c r="F110" s="149"/>
+      <c r="G110" s="155"/>
+      <c r="H110" s="155"/>
+      <c r="I110" s="155"/>
+      <c r="J110" s="157"/>
+      <c r="K110" s="157"/>
+      <c r="L110" s="153"/>
+      <c r="M110" s="151"/>
+      <c r="N110" s="153"/>
+      <c r="O110" s="151"/>
+      <c r="P110" s="149"/>
+      <c r="Q110" s="159"/>
+      <c r="R110" s="162"/>
       <c r="S110" s="84"/>
       <c r="T110" s="85"/>
       <c r="U110" s="85"/>
@@ -19461,23 +20370,23 @@
       <c r="EL110" s="96"/>
     </row>
     <row r="111" spans="2:142" ht="9" customHeight="1">
-      <c r="B111" s="199"/>
-      <c r="C111" s="191"/>
-      <c r="D111" s="155"/>
-      <c r="E111" s="145"/>
-      <c r="F111" s="141"/>
-      <c r="G111" s="147"/>
-      <c r="H111" s="147"/>
-      <c r="I111" s="147"/>
-      <c r="J111" s="149"/>
-      <c r="K111" s="149"/>
-      <c r="L111" s="153"/>
-      <c r="M111" s="151"/>
-      <c r="N111" s="153"/>
-      <c r="O111" s="151"/>
-      <c r="P111" s="141"/>
-      <c r="Q111" s="159"/>
-      <c r="R111" s="157"/>
+      <c r="B111" s="141"/>
+      <c r="C111" s="143"/>
+      <c r="D111" s="146"/>
+      <c r="E111" s="144"/>
+      <c r="F111" s="148"/>
+      <c r="G111" s="154"/>
+      <c r="H111" s="154"/>
+      <c r="I111" s="154"/>
+      <c r="J111" s="156"/>
+      <c r="K111" s="156"/>
+      <c r="L111" s="152"/>
+      <c r="M111" s="150"/>
+      <c r="N111" s="152"/>
+      <c r="O111" s="150"/>
+      <c r="P111" s="148"/>
+      <c r="Q111" s="158"/>
+      <c r="R111" s="161"/>
       <c r="S111" s="84"/>
       <c r="T111" s="87"/>
       <c r="U111" s="86"/>
@@ -19604,23 +20513,23 @@
       <c r="EL111" s="95"/>
     </row>
     <row r="112" spans="2:142" ht="9" customHeight="1">
-      <c r="B112" s="200"/>
-      <c r="C112" s="191"/>
-      <c r="D112" s="156"/>
-      <c r="E112" s="146"/>
-      <c r="F112" s="142"/>
-      <c r="G112" s="148"/>
-      <c r="H112" s="148"/>
-      <c r="I112" s="148"/>
-      <c r="J112" s="150"/>
-      <c r="K112" s="150"/>
-      <c r="L112" s="154"/>
-      <c r="M112" s="152"/>
-      <c r="N112" s="154"/>
-      <c r="O112" s="152"/>
-      <c r="P112" s="142"/>
-      <c r="Q112" s="160"/>
-      <c r="R112" s="158"/>
+      <c r="B112" s="142"/>
+      <c r="C112" s="143"/>
+      <c r="D112" s="147"/>
+      <c r="E112" s="145"/>
+      <c r="F112" s="149"/>
+      <c r="G112" s="155"/>
+      <c r="H112" s="155"/>
+      <c r="I112" s="155"/>
+      <c r="J112" s="157"/>
+      <c r="K112" s="157"/>
+      <c r="L112" s="153"/>
+      <c r="M112" s="151"/>
+      <c r="N112" s="153"/>
+      <c r="O112" s="151"/>
+      <c r="P112" s="149"/>
+      <c r="Q112" s="159"/>
+      <c r="R112" s="162"/>
       <c r="S112" s="84"/>
       <c r="T112" s="85"/>
       <c r="U112" s="85"/>
@@ -19747,23 +20656,23 @@
       <c r="EL112" s="96"/>
     </row>
     <row r="113" spans="2:142" ht="9" customHeight="1">
-      <c r="B113" s="199"/>
-      <c r="C113" s="191"/>
-      <c r="D113" s="155"/>
-      <c r="E113" s="145"/>
-      <c r="F113" s="141"/>
-      <c r="G113" s="147"/>
-      <c r="H113" s="147"/>
-      <c r="I113" s="147"/>
-      <c r="J113" s="149"/>
-      <c r="K113" s="149"/>
-      <c r="L113" s="153"/>
-      <c r="M113" s="151"/>
-      <c r="N113" s="153"/>
-      <c r="O113" s="151"/>
-      <c r="P113" s="141"/>
-      <c r="Q113" s="159"/>
-      <c r="R113" s="157"/>
+      <c r="B113" s="141"/>
+      <c r="C113" s="143"/>
+      <c r="D113" s="146"/>
+      <c r="E113" s="144"/>
+      <c r="F113" s="148"/>
+      <c r="G113" s="154"/>
+      <c r="H113" s="154"/>
+      <c r="I113" s="154"/>
+      <c r="J113" s="156"/>
+      <c r="K113" s="156"/>
+      <c r="L113" s="152"/>
+      <c r="M113" s="150"/>
+      <c r="N113" s="152"/>
+      <c r="O113" s="150"/>
+      <c r="P113" s="148"/>
+      <c r="Q113" s="158"/>
+      <c r="R113" s="161"/>
       <c r="S113" s="84"/>
       <c r="T113" s="87"/>
       <c r="U113" s="86"/>
@@ -19890,23 +20799,23 @@
       <c r="EL113" s="95"/>
     </row>
     <row r="114" spans="2:142" ht="9" customHeight="1">
-      <c r="B114" s="200"/>
-      <c r="C114" s="191"/>
-      <c r="D114" s="156"/>
-      <c r="E114" s="146"/>
-      <c r="F114" s="142"/>
-      <c r="G114" s="148"/>
-      <c r="H114" s="148"/>
-      <c r="I114" s="148"/>
-      <c r="J114" s="150"/>
-      <c r="K114" s="150"/>
-      <c r="L114" s="154"/>
-      <c r="M114" s="152"/>
-      <c r="N114" s="154"/>
-      <c r="O114" s="152"/>
-      <c r="P114" s="142"/>
-      <c r="Q114" s="160"/>
-      <c r="R114" s="158"/>
+      <c r="B114" s="142"/>
+      <c r="C114" s="143"/>
+      <c r="D114" s="147"/>
+      <c r="E114" s="145"/>
+      <c r="F114" s="149"/>
+      <c r="G114" s="155"/>
+      <c r="H114" s="155"/>
+      <c r="I114" s="155"/>
+      <c r="J114" s="157"/>
+      <c r="K114" s="157"/>
+      <c r="L114" s="153"/>
+      <c r="M114" s="151"/>
+      <c r="N114" s="153"/>
+      <c r="O114" s="151"/>
+      <c r="P114" s="149"/>
+      <c r="Q114" s="159"/>
+      <c r="R114" s="162"/>
       <c r="S114" s="84"/>
       <c r="T114" s="85"/>
       <c r="U114" s="85"/>
@@ -20033,23 +20942,23 @@
       <c r="EL114" s="96"/>
     </row>
     <row r="115" spans="2:142" ht="9" customHeight="1">
-      <c r="B115" s="199"/>
-      <c r="C115" s="191"/>
-      <c r="D115" s="155"/>
-      <c r="E115" s="145"/>
-      <c r="F115" s="141"/>
-      <c r="G115" s="147"/>
-      <c r="H115" s="147"/>
-      <c r="I115" s="147"/>
-      <c r="J115" s="149"/>
-      <c r="K115" s="149"/>
-      <c r="L115" s="153"/>
-      <c r="M115" s="151"/>
-      <c r="N115" s="153"/>
-      <c r="O115" s="151"/>
-      <c r="P115" s="141"/>
-      <c r="Q115" s="159"/>
-      <c r="R115" s="157"/>
+      <c r="B115" s="141"/>
+      <c r="C115" s="143"/>
+      <c r="D115" s="146"/>
+      <c r="E115" s="144"/>
+      <c r="F115" s="148"/>
+      <c r="G115" s="154"/>
+      <c r="H115" s="154"/>
+      <c r="I115" s="154"/>
+      <c r="J115" s="156"/>
+      <c r="K115" s="156"/>
+      <c r="L115" s="152"/>
+      <c r="M115" s="150"/>
+      <c r="N115" s="152"/>
+      <c r="O115" s="150"/>
+      <c r="P115" s="148"/>
+      <c r="Q115" s="158"/>
+      <c r="R115" s="161"/>
       <c r="S115" s="84"/>
       <c r="T115" s="87"/>
       <c r="U115" s="86"/>
@@ -20176,23 +21085,23 @@
       <c r="EL115" s="95"/>
     </row>
     <row r="116" spans="2:142" ht="9" customHeight="1">
-      <c r="B116" s="200"/>
-      <c r="C116" s="191"/>
-      <c r="D116" s="156"/>
-      <c r="E116" s="146"/>
-      <c r="F116" s="142"/>
-      <c r="G116" s="148"/>
-      <c r="H116" s="148"/>
-      <c r="I116" s="148"/>
-      <c r="J116" s="150"/>
-      <c r="K116" s="150"/>
-      <c r="L116" s="154"/>
-      <c r="M116" s="152"/>
-      <c r="N116" s="154"/>
-      <c r="O116" s="152"/>
-      <c r="P116" s="142"/>
-      <c r="Q116" s="160"/>
-      <c r="R116" s="158"/>
+      <c r="B116" s="142"/>
+      <c r="C116" s="143"/>
+      <c r="D116" s="147"/>
+      <c r="E116" s="145"/>
+      <c r="F116" s="149"/>
+      <c r="G116" s="155"/>
+      <c r="H116" s="155"/>
+      <c r="I116" s="155"/>
+      <c r="J116" s="157"/>
+      <c r="K116" s="157"/>
+      <c r="L116" s="153"/>
+      <c r="M116" s="151"/>
+      <c r="N116" s="153"/>
+      <c r="O116" s="151"/>
+      <c r="P116" s="149"/>
+      <c r="Q116" s="159"/>
+      <c r="R116" s="162"/>
       <c r="S116" s="84"/>
       <c r="T116" s="85"/>
       <c r="U116" s="85"/>
@@ -20319,23 +21228,23 @@
       <c r="EL116" s="96"/>
     </row>
     <row r="117" spans="2:142" ht="9" customHeight="1">
-      <c r="B117" s="199"/>
-      <c r="C117" s="191"/>
-      <c r="D117" s="155"/>
-      <c r="E117" s="145"/>
-      <c r="F117" s="141"/>
-      <c r="G117" s="147"/>
-      <c r="H117" s="147"/>
-      <c r="I117" s="147"/>
-      <c r="J117" s="149"/>
-      <c r="K117" s="149"/>
-      <c r="L117" s="153"/>
-      <c r="M117" s="151"/>
-      <c r="N117" s="153"/>
-      <c r="O117" s="151"/>
-      <c r="P117" s="141"/>
-      <c r="Q117" s="159"/>
-      <c r="R117" s="157"/>
+      <c r="B117" s="141"/>
+      <c r="C117" s="143"/>
+      <c r="D117" s="146"/>
+      <c r="E117" s="144"/>
+      <c r="F117" s="148"/>
+      <c r="G117" s="154"/>
+      <c r="H117" s="154"/>
+      <c r="I117" s="154"/>
+      <c r="J117" s="156"/>
+      <c r="K117" s="156"/>
+      <c r="L117" s="152"/>
+      <c r="M117" s="150"/>
+      <c r="N117" s="152"/>
+      <c r="O117" s="150"/>
+      <c r="P117" s="148"/>
+      <c r="Q117" s="158"/>
+      <c r="R117" s="161"/>
       <c r="S117" s="84"/>
       <c r="T117" s="87"/>
       <c r="U117" s="86"/>
@@ -20462,23 +21371,23 @@
       <c r="EL117" s="95"/>
     </row>
     <row r="118" spans="2:142" ht="9" customHeight="1">
-      <c r="B118" s="200"/>
-      <c r="C118" s="191"/>
-      <c r="D118" s="156"/>
-      <c r="E118" s="146"/>
-      <c r="F118" s="142"/>
-      <c r="G118" s="148"/>
-      <c r="H118" s="148"/>
-      <c r="I118" s="148"/>
-      <c r="J118" s="150"/>
-      <c r="K118" s="150"/>
-      <c r="L118" s="154"/>
-      <c r="M118" s="152"/>
-      <c r="N118" s="154"/>
-      <c r="O118" s="152"/>
-      <c r="P118" s="142"/>
-      <c r="Q118" s="160"/>
-      <c r="R118" s="158"/>
+      <c r="B118" s="142"/>
+      <c r="C118" s="143"/>
+      <c r="D118" s="147"/>
+      <c r="E118" s="145"/>
+      <c r="F118" s="149"/>
+      <c r="G118" s="155"/>
+      <c r="H118" s="155"/>
+      <c r="I118" s="155"/>
+      <c r="J118" s="157"/>
+      <c r="K118" s="157"/>
+      <c r="L118" s="153"/>
+      <c r="M118" s="151"/>
+      <c r="N118" s="153"/>
+      <c r="O118" s="151"/>
+      <c r="P118" s="149"/>
+      <c r="Q118" s="159"/>
+      <c r="R118" s="162"/>
       <c r="S118" s="84"/>
       <c r="T118" s="85"/>
       <c r="U118" s="85"/>
@@ -20605,23 +21514,23 @@
       <c r="EL118" s="96"/>
     </row>
     <row r="119" spans="2:142" ht="9" customHeight="1">
-      <c r="B119" s="199"/>
-      <c r="C119" s="191"/>
-      <c r="D119" s="155"/>
-      <c r="E119" s="145"/>
-      <c r="F119" s="141"/>
-      <c r="G119" s="147"/>
-      <c r="H119" s="147"/>
-      <c r="I119" s="147"/>
-      <c r="J119" s="149"/>
-      <c r="K119" s="149"/>
-      <c r="L119" s="153"/>
-      <c r="M119" s="151"/>
-      <c r="N119" s="153"/>
-      <c r="O119" s="151"/>
-      <c r="P119" s="141"/>
-      <c r="Q119" s="159"/>
-      <c r="R119" s="157"/>
+      <c r="B119" s="141"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="146"/>
+      <c r="E119" s="144"/>
+      <c r="F119" s="148"/>
+      <c r="G119" s="154"/>
+      <c r="H119" s="154"/>
+      <c r="I119" s="154"/>
+      <c r="J119" s="156"/>
+      <c r="K119" s="156"/>
+      <c r="L119" s="152"/>
+      <c r="M119" s="150"/>
+      <c r="N119" s="152"/>
+      <c r="O119" s="150"/>
+      <c r="P119" s="148"/>
+      <c r="Q119" s="158"/>
+      <c r="R119" s="161"/>
       <c r="S119" s="84"/>
       <c r="T119" s="87"/>
       <c r="U119" s="86"/>
@@ -20748,23 +21657,23 @@
       <c r="EL119" s="95"/>
     </row>
     <row r="120" spans="2:142" ht="9" customHeight="1">
-      <c r="B120" s="200"/>
-      <c r="C120" s="191"/>
-      <c r="D120" s="156"/>
-      <c r="E120" s="146"/>
-      <c r="F120" s="142"/>
-      <c r="G120" s="148"/>
-      <c r="H120" s="148"/>
-      <c r="I120" s="148"/>
-      <c r="J120" s="150"/>
-      <c r="K120" s="150"/>
-      <c r="L120" s="154"/>
-      <c r="M120" s="152"/>
-      <c r="N120" s="154"/>
-      <c r="O120" s="152"/>
-      <c r="P120" s="142"/>
-      <c r="Q120" s="160"/>
-      <c r="R120" s="158"/>
+      <c r="B120" s="142"/>
+      <c r="C120" s="143"/>
+      <c r="D120" s="147"/>
+      <c r="E120" s="145"/>
+      <c r="F120" s="149"/>
+      <c r="G120" s="155"/>
+      <c r="H120" s="155"/>
+      <c r="I120" s="155"/>
+      <c r="J120" s="157"/>
+      <c r="K120" s="157"/>
+      <c r="L120" s="153"/>
+      <c r="M120" s="151"/>
+      <c r="N120" s="153"/>
+      <c r="O120" s="151"/>
+      <c r="P120" s="149"/>
+      <c r="Q120" s="159"/>
+      <c r="R120" s="162"/>
       <c r="S120" s="84"/>
       <c r="T120" s="85"/>
       <c r="U120" s="85"/>
@@ -20897,36 +21806,915 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="963">
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="N97:N98"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="Q97:Q98"/>
+    <mergeCell ref="R97:R98"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="Q115:Q116"/>
+    <mergeCell ref="R115:R116"/>
+    <mergeCell ref="P115:P116"/>
+    <mergeCell ref="P117:P118"/>
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="N117:N118"/>
+    <mergeCell ref="O117:O118"/>
+    <mergeCell ref="Q117:Q118"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="O119:O120"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="R119:R120"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="Q111:Q112"/>
+    <mergeCell ref="R111:R112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="N113:N114"/>
+    <mergeCell ref="O113:O114"/>
+    <mergeCell ref="Q113:Q114"/>
+    <mergeCell ref="R113:R114"/>
+    <mergeCell ref="P111:P112"/>
+    <mergeCell ref="P113:P114"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="P109:P110"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="N111:N112"/>
+    <mergeCell ref="O111:O112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="N115:N116"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="Q107:Q108"/>
+    <mergeCell ref="R107:R108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="Q109:Q110"/>
+    <mergeCell ref="R109:R110"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="O105:O106"/>
+    <mergeCell ref="Q105:Q106"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="P91:P92"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="P99:P100"/>
+    <mergeCell ref="P101:P102"/>
+    <mergeCell ref="P103:P104"/>
+    <mergeCell ref="P105:P106"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="Q91:Q92"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="N91:N92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="O103:O104"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="R103:R104"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="N99:N100"/>
+    <mergeCell ref="O99:O100"/>
+    <mergeCell ref="Q99:Q100"/>
+    <mergeCell ref="R101:R102"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="Q101:Q102"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="EL8:EL10"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="R71:R72"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CC2:CE2"/>
+    <mergeCell ref="CF2:CH2"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="Q93:Q94"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="R93:R94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="P107:P108"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="N95:N96"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:C102"/>
     <mergeCell ref="E101:E102"/>
@@ -20951,1052 +22739,371 @@
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="E87:E88"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="R93:R94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="P107:P108"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="Q93:Q94"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CC2:CE2"/>
-    <mergeCell ref="CF2:CH2"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="R71:R72"/>
-    <mergeCell ref="R65:R66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="EL8:EL10"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="R69:R70"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="R87:R88"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="Q85:Q86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="O103:O104"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="R103:R104"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="N99:N100"/>
-    <mergeCell ref="O99:O100"/>
-    <mergeCell ref="Q99:Q100"/>
-    <mergeCell ref="R101:R102"/>
-    <mergeCell ref="O101:O102"/>
-    <mergeCell ref="Q101:Q102"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="N91:N92"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="O105:O106"/>
-    <mergeCell ref="Q105:Q106"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="P91:P92"/>
-    <mergeCell ref="P93:P94"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="P99:P100"/>
-    <mergeCell ref="P101:P102"/>
-    <mergeCell ref="P103:P104"/>
-    <mergeCell ref="P105:P106"/>
-    <mergeCell ref="O91:O92"/>
-    <mergeCell ref="Q91:Q92"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="O107:O108"/>
-    <mergeCell ref="Q107:Q108"/>
-    <mergeCell ref="R107:R108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="N109:N110"/>
-    <mergeCell ref="O109:O110"/>
-    <mergeCell ref="Q109:Q110"/>
-    <mergeCell ref="R109:R110"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="P109:P110"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="N111:N112"/>
-    <mergeCell ref="O111:O112"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="N115:N116"/>
-    <mergeCell ref="Q111:Q112"/>
-    <mergeCell ref="R111:R112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="M113:M114"/>
-    <mergeCell ref="N113:N114"/>
-    <mergeCell ref="O113:O114"/>
-    <mergeCell ref="Q113:Q114"/>
-    <mergeCell ref="R113:R114"/>
-    <mergeCell ref="P111:P112"/>
-    <mergeCell ref="P113:P114"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="Q115:Q116"/>
-    <mergeCell ref="R115:R116"/>
-    <mergeCell ref="P115:P116"/>
-    <mergeCell ref="P117:P118"/>
-    <mergeCell ref="P119:P120"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="N117:N118"/>
-    <mergeCell ref="O117:O118"/>
-    <mergeCell ref="Q117:Q118"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="O119:O120"/>
-    <mergeCell ref="Q119:Q120"/>
-    <mergeCell ref="R119:R120"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="N119:N120"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="N97:N98"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="Q97:Q98"/>
-    <mergeCell ref="R97:R98"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="S8:EK8">
-    <cfRule type="expression" dxfId="36" priority="1697" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="1757" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="1698" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="1758" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:EK10">
-    <cfRule type="expression" dxfId="34" priority="1705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="1765" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="1706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="1766" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="1767" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:EK120">
-    <cfRule type="expression" dxfId="31" priority="3387" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="3447" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3388" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="3448" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="3389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="3449" stopIfTrue="1">
       <formula>IF(AND($D11="",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:K11 B11:F11 J13:K13 B13:F13 J15:K15 J17:K17 J19:K19 J21:K21 J23:K23 J25:K25 B15:F15 B17:F17 B19:F19 B21:F21 B23:F23 B25:F25 J27:K27 J29:K29 J31:K31 J33:K33 J35:K35 B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 J37:K37 B37:F37 J39:K39 J41:K41 J43:K43 J45:K45 J47:K47 B39:F39 B41:F41 B43:F43 B45:F45 B47:F47 J49:K49 B49:F49 J51:K51 J53:K53 J55:K55 J57:K57 J59:K59 B51:F51 B53:F53 B55:F55 B57:F57 B59:F59 J61:K61 B61:F61 J63:K63 J65:K65 J67:K67 J69:K69 J71:K71 B63:F63 B65:F65 B67:F67 B69:F69 B71:F71 J73:K73 B73:F73 J75:K75 J77:K77 J79:K79 J81:K81 J83:K83 B75:F75 B77:E77 B79:E79 B81:E81 B83:E83 J85:K85 B85:F85 J87:K87 J89:K89 J91:K91 J93:K93 J95:K95 B87:F87 B89:F89 B91:F91 B93:D93 B95:F95 J97:K97 B97:F97 J99:K99 J101:K101 J103:K103 J105:K105 J107:K107 B99:D99 B101:D101 B103:F103 B105:F105 B107:F107 J109:K109 B109:F109 J111:K111 J113:K113 J115:K115 J117:K117 J119:K119 B111:F111 B113:F113 B115:F115 B117:F117 B119:F119 L11:O120 Q11:R120 F101 F99 F93 G11:I120">
-    <cfRule type="expression" dxfId="28" priority="4840" stopIfTrue="1">
+  <conditionalFormatting sqref="B11:F11 B13:F13 B15:F15 B17:F17 B19:F19 B21:F21 B23:F23 B25:F25 B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 B37:F37 B39:F39 B41:F41 B43:F43 B45:F45 B47:F47 B49:F49 B51:F51 B53:F53 B55:F55 B57:F57 B59:F59 B61:F61 K71 B63:F63 B65:F65 B67:F67 B69:F69 B71:F71 K73 B73:F73 K75 K77 K79 K81 K83 B75:F75 B77:E77 B79:E79 B81:E81 B83:E83 K85 B85:F85 K87 K89 B87:F87 B89:F89 B91:F91 B93:D93 B95:F95 B97:F97 J107:K107 B99:D99 B101:D101 B103:F103 B105:F105 B107:F107 J109:K109 B109:F109 J111:K111 J113:K113 J115:K115 J117:K117 J119:K119 B111:F111 B113:F113 B115:F115 B117:F117 B119:F119 L11:O102 Q11:R120 F101 F99 F93 G11:I28 I13:I42 G29:G90 G91:I120 L105:O120">
+    <cfRule type="expression" dxfId="14" priority="4900" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="4841" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4901" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="4842" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4902" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ11:DM120">
-    <cfRule type="expression" dxfId="25" priority="5920" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="5980" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(CJ$9)=7,WEEKDAY(CJ$9)=1,IF(ISNA(MATCH(CJ$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="5921" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="5981" stopIfTrue="1">
       <formula>IF(AND($D11="",$S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11 P13 P15 P17 P19 P21 P23 P25 P27 P29 P31 P33 P35 P37 P39 P41 P43 P45 P47 P49 P51 P53 P55 P57 P59 P61 P63 P65 P67 P69 P71 P73 P75 P77 P79 P81 P83 P85 P87 P89 P91 P93 P95 P97 P99 P101 P103 P105 P107 P109 P111 P113 P115 P117 P119">
-    <cfRule type="expression" dxfId="23" priority="89" stopIfTrue="1">
+  <conditionalFormatting sqref="P11 P13 P15 P17 P19 P21 P23 P25 P27 P29 P31 P33 P35 P37 P39 P41 P43 P45 P47 P49 P51 P53 P55 P57 P59 P61 P63 P65 P67 P69 P71 P87 P107 P109 P111 P113 P115 P117 P119 P73 P75 P77 P79 P81 P83 P85 P89 P91 P93 P95 P99 P103 P101 P105">
+    <cfRule type="expression" dxfId="86" priority="149" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="150" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="151" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
       <formula>IF(AND($D77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="80" stopIfTrue="1">
       <formula>IF(AND($D77&lt;&gt;"",$K77="",$I77&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
       <formula>IF(OR(AND($D77&lt;&gt;"",$J77&lt;&gt;"",$Q77&lt;100),TODAY()&gt;=$H77),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="76" stopIfTrue="1">
       <formula>IF(AND($D79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
       <formula>IF(AND($D79&lt;&gt;"",$K79="",$I79&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
       <formula>IF(OR(AND($D79&lt;&gt;"",$J79&lt;&gt;"",$Q79&lt;100),TODAY()&gt;=$H79),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="73" stopIfTrue="1">
       <formula>IF(AND($D81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
       <formula>IF(AND($D81&lt;&gt;"",$K81="",$I81&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
       <formula>IF(OR(AND($D81&lt;&gt;"",$J81&lt;&gt;"",$Q81&lt;100),TODAY()&gt;=$H81),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="70" stopIfTrue="1">
       <formula>IF(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="71" stopIfTrue="1">
       <formula>IF(AND($D83&lt;&gt;"",$K83="",$I83&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="72" stopIfTrue="1">
       <formula>IF(OR(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$Q83&lt;100),TODAY()&gt;=$H83),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
       <formula>IF(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
       <formula>IF(AND($D101&lt;&gt;"",$K101="",$I101&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
       <formula>IF(OR(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$Q101&lt;100),TODAY()&gt;=$H101),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
       <formula>IF(AND($D99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
       <formula>IF(AND($D99&lt;&gt;"",$K99="",$I99&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
       <formula>IF(OR(AND($D99&lt;&gt;"",$J99&lt;&gt;"",$Q99&lt;100),TODAY()&gt;=$H99),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="61" stopIfTrue="1">
       <formula>IF(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
       <formula>IF(AND($D93&lt;&gt;"",$K93="",$I93&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
       <formula>IF(OR(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$Q93&lt;100),TODAY()&gt;=$H93),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J28">
+    <cfRule type="expression" dxfId="62" priority="58" stopIfTrue="1">
+      <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
+      <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
+      <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K28">
+    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
+      <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
+      <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
+      <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H42">
+    <cfRule type="expression" dxfId="59" priority="52" stopIfTrue="1">
+      <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="53" stopIfTrue="1">
+      <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="54" stopIfTrue="1">
+      <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J42">
+    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
+      <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
+      <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
+      <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K42">
+    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
+      <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
+      <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+      <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H90 I63:I90">
+    <cfRule type="expression" dxfId="35" priority="43" stopIfTrue="1">
+      <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="44" stopIfTrue="1">
+      <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="45" stopIfTrue="1">
+      <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:I62">
+    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
+      <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="41" stopIfTrue="1">
+      <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="42" stopIfTrue="1">
+      <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:J62">
+    <cfRule type="expression" dxfId="44" priority="37" stopIfTrue="1">
+      <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="38" stopIfTrue="1">
+      <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
+      <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:K62">
+    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+      <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
+      <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
+      <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63:J90">
+    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
+      <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+      <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+      <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:K70">
+    <cfRule type="expression" dxfId="38" priority="28" stopIfTrue="1">
+      <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="29" stopIfTrue="1">
+      <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
+      <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91:J92">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+      <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K91:K92">
+    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+      <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K105:K106">
+    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
+      <formula>IF(AND($D105&lt;&gt;"",$J105&lt;&gt;"",$K105&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+      <formula>IF(AND($D105&lt;&gt;"",$K105="",$I105&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+      <formula>IF(OR(AND($D105&lt;&gt;"",$J105&lt;&gt;"",$Q105&lt;100),TODAY()&gt;=$H105),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93:J106 K103:O104">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
+      <formula>IF(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
+      <formula>IF(AND($D93&lt;&gt;"",$K93="",$I93&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
+      <formula>IF(OR(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$Q93&lt;100),TODAY()&gt;=$H93),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P97">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+      <formula>IF(AND($D97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+      <formula>IF(AND($D97&lt;&gt;"",$K97="",$I97&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>IF(OR(AND($D97&lt;&gt;"",$J97&lt;&gt;"",$Q97&lt;100),TODAY()&gt;=$H97),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K93:K100">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>IF(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>IF(AND($D93&lt;&gt;"",$K93="",$I93&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>IF(OR(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$Q93&lt;100),TODAY()&gt;=$H93),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K101:K102">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+      <formula>IF(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+      <formula>IF(AND($D101&lt;&gt;"",$K101="",$I101&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+      <formula>IF(OR(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$Q101&lt;100),TODAY()&gt;=$H101),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/6.Schedule/Schedule.xlsx
+++ b/6.Schedule/Schedule.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="141">
   <si>
     <t>○</t>
     <phoneticPr fontId="5"/>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>doing</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2349,6 +2352,43 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2370,6 +2410,21 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,6 +2502,15 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2470,6 +2534,12 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2619,73 +2689,6 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calc Currency (0)" xfId="1"/>
@@ -2697,27 +2700,6 @@
     <cellStyle name="Normal 3" xfId="5"/>
   </cellStyles>
   <dxfs count="166">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3806,6 +3788,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -4361,17 +4364,17 @@
   <dimension ref="A1:EL147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="10" topLeftCell="AD122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="10" topLeftCell="AD113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I136" sqref="I136:I138"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="237" customWidth="1"/>
-    <col min="3" max="3" width="15" style="249" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="154" customWidth="1"/>
+    <col min="3" max="3" width="15" style="160" customWidth="1"/>
     <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="123" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="112" customWidth="1"/>
@@ -4475,8 +4478,8 @@
       <c r="CG1" s="36"/>
     </row>
     <row r="2" spans="1:142" ht="19.5" customHeight="1">
-      <c r="B2" s="238"/>
-      <c r="C2" s="250"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="161"/>
       <c r="E2" s="120"/>
       <c r="F2" s="114"/>
       <c r="G2" s="80"/>
@@ -4492,20 +4495,20 @@
       <c r="K2" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="204" t="s">
+      <c r="L2" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="205"/>
-      <c r="N2" s="204" t="s">
+      <c r="M2" s="226"/>
+      <c r="N2" s="225" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="205"/>
+      <c r="O2" s="226"/>
       <c r="P2" s="114"/>
-      <c r="Q2" s="226">
+      <c r="Q2" s="247">
         <f ca="1">TODAY()</f>
-        <v>43304</v>
-      </c>
-      <c r="R2" s="227"/>
+        <v>43305</v>
+      </c>
+      <c r="R2" s="248"/>
       <c r="S2" s="33"/>
       <c r="T2" s="67"/>
       <c r="U2" s="28"/>
@@ -4565,21 +4568,21 @@
       <c r="BW2" s="36"/>
       <c r="BX2" s="36"/>
       <c r="BY2" s="36"/>
-      <c r="BZ2" s="220">
+      <c r="BZ2" s="241">
         <v>0.05</v>
       </c>
-      <c r="CA2" s="221"/>
-      <c r="CB2" s="221"/>
-      <c r="CC2" s="220">
+      <c r="CA2" s="242"/>
+      <c r="CB2" s="242"/>
+      <c r="CC2" s="241">
         <v>0.15</v>
       </c>
-      <c r="CD2" s="221"/>
-      <c r="CE2" s="221"/>
-      <c r="CF2" s="220">
+      <c r="CD2" s="242"/>
+      <c r="CE2" s="242"/>
+      <c r="CF2" s="241">
         <v>0.8</v>
       </c>
-      <c r="CG2" s="221"/>
-      <c r="CH2" s="221"/>
+      <c r="CG2" s="242"/>
+      <c r="CH2" s="242"/>
       <c r="CI2" s="38"/>
       <c r="CJ2" s="38"/>
       <c r="CK2" s="38"/>
@@ -4637,14 +4640,14 @@
       <c r="EK2" s="38"/>
       <c r="EL2" s="14" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," yyyy/mm/dd")</f>
-        <v>Date： 2018/07/23</v>
+        <v>Date： 2018/07/24</v>
       </c>
     </row>
     <row r="3" spans="1:142" ht="18.75" customHeight="1">
-      <c r="B3" s="239" t="s">
+      <c r="B3" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="251"/>
+      <c r="C3" s="162"/>
       <c r="E3" s="121"/>
       <c r="F3" s="117"/>
       <c r="G3" s="81"/>
@@ -4664,19 +4667,19 @@
         <f>COUNTIF(R11:R12,"=◇")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="206">
+      <c r="L3" s="227">
         <f>COUNTIF(R11:R12,"=▲")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="207"/>
-      <c r="N3" s="206">
+      <c r="M3" s="228"/>
+      <c r="N3" s="227">
         <f>COUNTIF(R11:R12,"=★")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="207"/>
+      <c r="O3" s="228"/>
       <c r="P3" s="128"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
       <c r="S3" s="33"/>
       <c r="T3" s="68"/>
       <c r="U3" s="105"/>
@@ -4736,29 +4739,29 @@
       <c r="BW3" s="36"/>
       <c r="BX3" s="36"/>
       <c r="BY3" s="36"/>
-      <c r="BZ3" s="223" t="s">
+      <c r="BZ3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="CA3" s="224"/>
-      <c r="CB3" s="225"/>
-      <c r="CC3" s="222" t="s">
+      <c r="CA3" s="245"/>
+      <c r="CB3" s="246"/>
+      <c r="CC3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="CD3" s="222"/>
-      <c r="CE3" s="222"/>
-      <c r="CF3" s="223" t="s">
+      <c r="CD3" s="243"/>
+      <c r="CE3" s="243"/>
+      <c r="CF3" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="CG3" s="224"/>
-      <c r="CH3" s="225"/>
+      <c r="CG3" s="245"/>
+      <c r="CH3" s="246"/>
       <c r="EL3" s="29">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:142" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B4" s="240"/>
-      <c r="C4" s="252"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="4"/>
       <c r="E4" s="122"/>
       <c r="F4" s="115"/>
@@ -4900,7 +4903,7 @@
       <c r="EL4" s="6"/>
     </row>
     <row r="5" spans="1:142" ht="18.75" customHeight="1" thickTop="1">
-      <c r="C5" s="253"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="2"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -4928,22 +4931,22 @@
     </row>
     <row r="7" spans="1:142" ht="14.25" customHeight="1">
       <c r="A7" s="26"/>
-      <c r="B7" s="241"/>
-      <c r="C7" s="241"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
       <c r="D7" s="124"/>
       <c r="E7" s="125"/>
       <c r="F7" s="118"/>
       <c r="G7" s="106"/>
-      <c r="H7" s="215" t="s">
+      <c r="H7" s="236" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="216"/>
-      <c r="J7" s="216"/>
-      <c r="K7" s="216"/>
-      <c r="L7" s="216"/>
-      <c r="M7" s="216"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="217"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="237"/>
+      <c r="K7" s="237"/>
+      <c r="L7" s="237"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="237"/>
+      <c r="O7" s="238"/>
       <c r="P7" s="118"/>
       <c r="Q7" s="130"/>
       <c r="R7" s="130"/>
@@ -4951,8 +4954,8 @@
     </row>
     <row r="8" spans="1:142" ht="14.25" customHeight="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="242"/>
-      <c r="C8" s="242"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
       <c r="D8" s="126"/>
       <c r="E8" s="127"/>
       <c r="F8" s="116"/>
@@ -4971,16 +4974,16 @@
         <f>IF(MAX(K11:K12)=DATE(1900,1,0),"",MAX(K11:K12))</f>
         <v>43292</v>
       </c>
-      <c r="L8" s="218">
+      <c r="L8" s="239">
         <f>SUM(M11:M115)</f>
         <v>43293</v>
       </c>
-      <c r="M8" s="219"/>
-      <c r="N8" s="218">
+      <c r="M8" s="240"/>
+      <c r="N8" s="239">
         <f>SUM(O11:O115)</f>
         <v>43293</v>
       </c>
-      <c r="O8" s="219"/>
+      <c r="O8" s="240"/>
       <c r="P8" s="116"/>
       <c r="Q8" s="131"/>
       <c r="R8" s="132" t="str">
@@ -5326,52 +5329,52 @@
       <c r="EI8" s="86"/>
       <c r="EJ8" s="86"/>
       <c r="EK8" s="86"/>
-      <c r="EL8" s="229" t="s">
+      <c r="EL8" s="250" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="197" t="s">
+      <c r="D9" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="199" t="s">
+      <c r="E9" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="195" t="s">
+      <c r="F9" s="216" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="203" t="s">
+      <c r="G9" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="193" t="s">
+      <c r="H9" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="194"/>
-      <c r="J9" s="201" t="s">
+      <c r="I9" s="215"/>
+      <c r="J9" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="202"/>
-      <c r="L9" s="208" t="s">
+      <c r="K9" s="223"/>
+      <c r="L9" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="209"/>
-      <c r="N9" s="214" t="s">
+      <c r="M9" s="230"/>
+      <c r="N9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="209"/>
-      <c r="P9" s="195" t="s">
+      <c r="O9" s="230"/>
+      <c r="P9" s="216" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="210" t="s">
+      <c r="Q9" s="231" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="211"/>
+      <c r="R9" s="232"/>
       <c r="S9" s="27">
         <v>43282</v>
       </c>
@@ -5863,15 +5866,15 @@
         <f t="shared" si="2"/>
         <v>43404</v>
       </c>
-      <c r="EL9" s="229"/>
+      <c r="EL9" s="250"/>
     </row>
     <row r="10" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B10" s="192"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="203"/>
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="224"/>
       <c r="H10" s="110" t="s">
         <v>20</v>
       </c>
@@ -5896,9 +5899,9 @@
       <c r="O10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="212"/>
-      <c r="R10" s="213"/>
+      <c r="P10" s="217"/>
+      <c r="Q10" s="233"/>
+      <c r="R10" s="234"/>
       <c r="S10" s="21">
         <f>S9</f>
         <v>43282</v>
@@ -6229,44 +6232,44 @@
       <c r="EI10" s="87"/>
       <c r="EJ10" s="87"/>
       <c r="EK10" s="87"/>
-      <c r="EL10" s="229"/>
+      <c r="EL10" s="250"/>
     </row>
     <row r="11" spans="1:142" ht="9" customHeight="1">
-      <c r="B11" s="243" t="s">
+      <c r="B11" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="187" t="s">
+      <c r="D11" s="203"/>
+      <c r="E11" s="206" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="173" t="s">
+      <c r="F11" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="182" t="s">
+      <c r="G11" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="182">
+      <c r="H11" s="198">
         <v>43291</v>
       </c>
-      <c r="I11" s="182">
+      <c r="I11" s="198">
         <v>43292</v>
       </c>
-      <c r="J11" s="182">
+      <c r="J11" s="198">
         <v>43291</v>
       </c>
-      <c r="K11" s="182">
+      <c r="K11" s="198">
         <v>43292</v>
       </c>
-      <c r="L11" s="167"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="176"/>
-      <c r="R11" s="179"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="195"/>
       <c r="S11" s="82"/>
       <c r="T11" s="85"/>
       <c r="U11" s="84"/>
@@ -6397,23 +6400,23 @@
       <c r="EL11" s="93"/>
     </row>
     <row r="12" spans="1:142" ht="9" customHeight="1">
-      <c r="B12" s="236"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="175"/>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="181"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="208"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="188"/>
+      <c r="P12" s="191"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="197"/>
       <c r="S12" s="82"/>
       <c r="T12" s="83"/>
       <c r="U12" s="83"/>
@@ -6540,35 +6543,35 @@
       <c r="EL12" s="94"/>
     </row>
     <row r="13" spans="1:142" ht="9" customHeight="1">
-      <c r="B13" s="244"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="173" t="s">
+      <c r="B13" s="200"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="189" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="182" t="s">
+      <c r="G13" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="182">
+      <c r="H13" s="198">
         <v>43291</v>
       </c>
-      <c r="I13" s="182">
+      <c r="I13" s="198">
         <v>43292</v>
       </c>
-      <c r="J13" s="182">
+      <c r="J13" s="198">
         <v>43291</v>
       </c>
-      <c r="K13" s="182">
+      <c r="K13" s="198">
         <v>43292</v>
       </c>
-      <c r="L13" s="167"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="179"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="186"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="192"/>
+      <c r="R13" s="195"/>
       <c r="S13" s="82"/>
       <c r="T13" s="85"/>
       <c r="U13" s="84"/>
@@ -6699,23 +6702,23 @@
       <c r="EL13" s="93"/>
     </row>
     <row r="14" spans="1:142" ht="9" customHeight="1">
-      <c r="B14" s="236"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="178"/>
-      <c r="R14" s="181"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="199"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="185"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="185"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="191"/>
+      <c r="Q14" s="194"/>
+      <c r="R14" s="197"/>
       <c r="S14" s="82"/>
       <c r="T14" s="83"/>
       <c r="U14" s="83"/>
@@ -6842,35 +6845,35 @@
       <c r="EL14" s="94"/>
     </row>
     <row r="15" spans="1:142" ht="9" customHeight="1">
-      <c r="B15" s="244"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="173" t="s">
+      <c r="B15" s="200"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="189" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="182" t="s">
+      <c r="G15" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="182">
+      <c r="H15" s="198">
         <v>43291</v>
       </c>
-      <c r="I15" s="182">
+      <c r="I15" s="198">
         <v>43292</v>
       </c>
-      <c r="J15" s="182">
+      <c r="J15" s="198">
         <v>43291</v>
       </c>
-      <c r="K15" s="182">
+      <c r="K15" s="198">
         <v>43292</v>
       </c>
-      <c r="L15" s="167"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="179"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="186"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="192"/>
+      <c r="R15" s="195"/>
       <c r="S15" s="82"/>
       <c r="T15" s="85"/>
       <c r="U15" s="84"/>
@@ -6997,23 +7000,23 @@
       <c r="EL15" s="93"/>
     </row>
     <row r="16" spans="1:142" ht="9" customHeight="1">
-      <c r="B16" s="236"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="169"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="178"/>
-      <c r="R16" s="181"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="185"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="185"/>
+      <c r="O16" s="188"/>
+      <c r="P16" s="191"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="197"/>
       <c r="S16" s="82"/>
       <c r="T16" s="83"/>
       <c r="U16" s="83"/>
@@ -7144,37 +7147,37 @@
       <c r="EL16" s="94"/>
     </row>
     <row r="17" spans="2:142" ht="9" customHeight="1">
-      <c r="B17" s="244"/>
-      <c r="C17" s="160" t="s">
+      <c r="B17" s="200"/>
+      <c r="C17" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="184"/>
-      <c r="E17" s="187" t="s">
+      <c r="D17" s="203"/>
+      <c r="E17" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="173"/>
-      <c r="G17" s="182" t="s">
+      <c r="F17" s="189"/>
+      <c r="G17" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="182">
+      <c r="H17" s="198">
         <v>43291</v>
       </c>
-      <c r="I17" s="182">
+      <c r="I17" s="198">
         <v>43292</v>
       </c>
-      <c r="J17" s="182">
+      <c r="J17" s="198">
         <v>43291</v>
       </c>
-      <c r="K17" s="182">
+      <c r="K17" s="198">
         <v>43292</v>
       </c>
-      <c r="L17" s="167"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="179"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="186"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="195"/>
       <c r="S17" s="82"/>
       <c r="T17" s="85"/>
       <c r="U17" s="84"/>
@@ -7303,23 +7306,23 @@
       <c r="EL17" s="93"/>
     </row>
     <row r="18" spans="2:142" ht="9" customHeight="1">
-      <c r="B18" s="236"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="175"/>
-      <c r="Q18" s="178"/>
-      <c r="R18" s="181"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="185"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="191"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="197"/>
       <c r="S18" s="82"/>
       <c r="T18" s="83"/>
       <c r="U18" s="83"/>
@@ -7448,37 +7451,37 @@
       <c r="EL18" s="94"/>
     </row>
     <row r="19" spans="2:142" ht="9" customHeight="1">
-      <c r="B19" s="244"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="187" t="s">
+      <c r="B19" s="200"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="173" t="s">
+      <c r="F19" s="189" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="182" t="s">
+      <c r="G19" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="182">
+      <c r="H19" s="198">
         <v>43291</v>
       </c>
-      <c r="I19" s="182">
+      <c r="I19" s="198">
         <v>43292</v>
       </c>
-      <c r="J19" s="182">
+      <c r="J19" s="198">
         <v>43291</v>
       </c>
-      <c r="K19" s="182">
+      <c r="K19" s="198">
         <v>43292</v>
       </c>
-      <c r="L19" s="167"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="167"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="176"/>
-      <c r="R19" s="179"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="186"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="195"/>
       <c r="S19" s="82"/>
       <c r="T19" s="85"/>
       <c r="U19" s="84"/>
@@ -7607,23 +7610,23 @@
       <c r="EL19" s="93"/>
     </row>
     <row r="20" spans="2:142" ht="9" customHeight="1">
-      <c r="B20" s="236"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="172"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="178"/>
-      <c r="R20" s="181"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="199"/>
+      <c r="K20" s="199"/>
+      <c r="L20" s="185"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="185"/>
+      <c r="O20" s="188"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="197"/>
       <c r="S20" s="82"/>
       <c r="T20" s="83"/>
       <c r="U20" s="83"/>
@@ -7752,35 +7755,35 @@
       <c r="EL20" s="94"/>
     </row>
     <row r="21" spans="2:142" ht="9" customHeight="1">
-      <c r="B21" s="244"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="173" t="s">
+      <c r="B21" s="200"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="182" t="s">
+      <c r="G21" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="182">
+      <c r="H21" s="198">
         <v>43291</v>
       </c>
-      <c r="I21" s="182">
+      <c r="I21" s="198">
         <v>43292</v>
       </c>
-      <c r="J21" s="182">
+      <c r="J21" s="198">
         <v>43291</v>
       </c>
-      <c r="K21" s="182">
+      <c r="K21" s="198">
         <v>43292</v>
       </c>
-      <c r="L21" s="167"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="179"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="186"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="186"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="195"/>
       <c r="S21" s="82"/>
       <c r="T21" s="85"/>
       <c r="U21" s="84"/>
@@ -7909,23 +7912,23 @@
       <c r="EL21" s="93"/>
     </row>
     <row r="22" spans="2:142" ht="9" customHeight="1">
-      <c r="B22" s="236"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="172"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="172"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="181"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="199"/>
+      <c r="L22" s="185"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="185"/>
+      <c r="O22" s="188"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="197"/>
       <c r="S22" s="82"/>
       <c r="T22" s="83"/>
       <c r="U22" s="83"/>
@@ -8052,37 +8055,37 @@
       <c r="EL22" s="94"/>
     </row>
     <row r="23" spans="2:142" ht="9" customHeight="1">
-      <c r="B23" s="244"/>
-      <c r="C23" s="160" t="s">
+      <c r="B23" s="200"/>
+      <c r="C23" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="187" t="s">
+      <c r="D23" s="203"/>
+      <c r="E23" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="173"/>
-      <c r="G23" s="182" t="s">
+      <c r="F23" s="189"/>
+      <c r="G23" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="182">
+      <c r="H23" s="198">
         <v>43291</v>
       </c>
-      <c r="I23" s="182">
+      <c r="I23" s="198">
         <v>43292</v>
       </c>
-      <c r="J23" s="182">
+      <c r="J23" s="198">
         <v>43291</v>
       </c>
-      <c r="K23" s="182">
+      <c r="K23" s="198">
         <v>43292</v>
       </c>
-      <c r="L23" s="167"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="167"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="179"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="186"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="186"/>
+      <c r="P23" s="189"/>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="195"/>
       <c r="S23" s="82"/>
       <c r="T23" s="85"/>
       <c r="U23" s="84"/>
@@ -8211,23 +8214,23 @@
       <c r="EL23" s="93"/>
     </row>
     <row r="24" spans="2:142" ht="9" customHeight="1">
-      <c r="B24" s="236"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="178"/>
-      <c r="R24" s="181"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="199"/>
+      <c r="L24" s="185"/>
+      <c r="M24" s="188"/>
+      <c r="N24" s="185"/>
+      <c r="O24" s="188"/>
+      <c r="P24" s="191"/>
+      <c r="Q24" s="194"/>
+      <c r="R24" s="197"/>
       <c r="S24" s="82"/>
       <c r="T24" s="83"/>
       <c r="U24" s="83"/>
@@ -8354,35 +8357,35 @@
       <c r="EL24" s="94"/>
     </row>
     <row r="25" spans="2:142" ht="9" customHeight="1">
-      <c r="B25" s="244"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="187" t="s">
+      <c r="B25" s="200"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="173"/>
-      <c r="G25" s="182" t="s">
+      <c r="F25" s="189"/>
+      <c r="G25" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="182">
+      <c r="H25" s="198">
         <v>43291</v>
       </c>
-      <c r="I25" s="182">
+      <c r="I25" s="198">
         <v>43292</v>
       </c>
-      <c r="J25" s="182">
+      <c r="J25" s="198">
         <v>43291</v>
       </c>
-      <c r="K25" s="182">
+      <c r="K25" s="198">
         <v>43292</v>
       </c>
-      <c r="L25" s="167"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="167"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="173"/>
-      <c r="Q25" s="176"/>
-      <c r="R25" s="179"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="186"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="189"/>
+      <c r="Q25" s="192"/>
+      <c r="R25" s="195"/>
       <c r="S25" s="82"/>
       <c r="T25" s="85"/>
       <c r="U25" s="84"/>
@@ -8511,23 +8514,23 @@
       <c r="EL25" s="93"/>
     </row>
     <row r="26" spans="2:142" ht="9" customHeight="1">
-      <c r="B26" s="236"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="178"/>
-      <c r="R26" s="181"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="185"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="185"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="197"/>
       <c r="S26" s="82"/>
       <c r="T26" s="83"/>
       <c r="U26" s="83"/>
@@ -8654,35 +8657,35 @@
       <c r="EL26" s="94"/>
     </row>
     <row r="27" spans="2:142" ht="9" customHeight="1">
-      <c r="B27" s="244"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="187" t="s">
+      <c r="B27" s="200"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="206" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="173"/>
-      <c r="G27" s="182" t="s">
+      <c r="F27" s="189"/>
+      <c r="G27" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="182">
+      <c r="H27" s="198">
         <v>43291</v>
       </c>
-      <c r="I27" s="182">
+      <c r="I27" s="198">
         <v>43292</v>
       </c>
-      <c r="J27" s="182">
+      <c r="J27" s="198">
         <v>43291</v>
       </c>
-      <c r="K27" s="182">
+      <c r="K27" s="198">
         <v>43292</v>
       </c>
-      <c r="L27" s="167"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="173"/>
-      <c r="Q27" s="176"/>
-      <c r="R27" s="179"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="186"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="189"/>
+      <c r="Q27" s="192"/>
+      <c r="R27" s="195"/>
       <c r="S27" s="82"/>
       <c r="T27" s="85"/>
       <c r="U27" s="84"/>
@@ -8811,23 +8814,23 @@
       <c r="EL27" s="93"/>
     </row>
     <row r="28" spans="2:142" ht="9" customHeight="1">
-      <c r="B28" s="236"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="178"/>
-      <c r="R28" s="181"/>
+      <c r="B28" s="202"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="199"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="191"/>
+      <c r="Q28" s="194"/>
+      <c r="R28" s="197"/>
       <c r="S28" s="82"/>
       <c r="T28" s="83"/>
       <c r="U28" s="83"/>
@@ -8954,39 +8957,39 @@
       <c r="EL28" s="94"/>
     </row>
     <row r="29" spans="2:142" ht="9" customHeight="1">
-      <c r="B29" s="244" t="s">
+      <c r="B29" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="160" t="s">
+      <c r="C29" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="184"/>
-      <c r="E29" s="187" t="s">
+      <c r="D29" s="203"/>
+      <c r="E29" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="173"/>
-      <c r="G29" s="182" t="s">
+      <c r="F29" s="189"/>
+      <c r="G29" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="182">
+      <c r="H29" s="198">
         <v>43293</v>
       </c>
-      <c r="I29" s="182">
+      <c r="I29" s="198">
         <v>43144</v>
       </c>
-      <c r="J29" s="182">
+      <c r="J29" s="198">
         <v>43293</v>
       </c>
-      <c r="K29" s="182">
+      <c r="K29" s="198">
         <v>43144</v>
       </c>
-      <c r="L29" s="167"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="167"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="176"/>
-      <c r="R29" s="179"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="189"/>
+      <c r="Q29" s="192"/>
+      <c r="R29" s="195"/>
       <c r="S29" s="82"/>
       <c r="T29" s="85"/>
       <c r="U29" s="84"/>
@@ -9115,23 +9118,23 @@
       <c r="EL29" s="93"/>
     </row>
     <row r="30" spans="2:142" ht="9" customHeight="1">
-      <c r="B30" s="236"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="169"/>
-      <c r="O30" s="172"/>
-      <c r="P30" s="175"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="181"/>
+      <c r="B30" s="202"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="185"/>
+      <c r="M30" s="188"/>
+      <c r="N30" s="185"/>
+      <c r="O30" s="188"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="197"/>
       <c r="S30" s="82"/>
       <c r="T30" s="83"/>
       <c r="U30" s="83"/>
@@ -9258,35 +9261,35 @@
       <c r="EL30" s="94"/>
     </row>
     <row r="31" spans="2:142" ht="9" customHeight="1">
-      <c r="B31" s="244"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="187" t="s">
+      <c r="B31" s="200"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="173"/>
-      <c r="G31" s="182" t="s">
+      <c r="F31" s="189"/>
+      <c r="G31" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="182">
+      <c r="H31" s="198">
         <v>43293</v>
       </c>
-      <c r="I31" s="182">
+      <c r="I31" s="198">
         <v>43144</v>
       </c>
-      <c r="J31" s="182">
+      <c r="J31" s="198">
         <v>43293</v>
       </c>
-      <c r="K31" s="182">
+      <c r="K31" s="198">
         <v>43144</v>
       </c>
-      <c r="L31" s="167"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="176"/>
-      <c r="R31" s="179"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="186"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="189"/>
+      <c r="Q31" s="192"/>
+      <c r="R31" s="195"/>
       <c r="S31" s="82"/>
       <c r="T31" s="85"/>
       <c r="U31" s="84"/>
@@ -9415,23 +9418,23 @@
       <c r="EL31" s="93"/>
     </row>
     <row r="32" spans="2:142" ht="9" customHeight="1">
-      <c r="B32" s="236"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="183"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="178"/>
-      <c r="R32" s="181"/>
+      <c r="B32" s="202"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="199"/>
+      <c r="L32" s="185"/>
+      <c r="M32" s="188"/>
+      <c r="N32" s="185"/>
+      <c r="O32" s="188"/>
+      <c r="P32" s="191"/>
+      <c r="Q32" s="194"/>
+      <c r="R32" s="197"/>
       <c r="S32" s="82"/>
       <c r="T32" s="83"/>
       <c r="U32" s="83"/>
@@ -9558,37 +9561,37 @@
       <c r="EL32" s="94"/>
     </row>
     <row r="33" spans="2:142" ht="9" customHeight="1">
-      <c r="B33" s="244"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="187" t="s">
+      <c r="B33" s="200"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="173" t="s">
+      <c r="F33" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="182" t="s">
+      <c r="G33" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="182">
+      <c r="H33" s="198">
         <v>43293</v>
       </c>
-      <c r="I33" s="182">
+      <c r="I33" s="198">
         <v>43144</v>
       </c>
-      <c r="J33" s="182">
+      <c r="J33" s="198">
         <v>43293</v>
       </c>
-      <c r="K33" s="182">
+      <c r="K33" s="198">
         <v>43144</v>
       </c>
-      <c r="L33" s="167"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="173"/>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="179"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="186"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="186"/>
+      <c r="P33" s="189"/>
+      <c r="Q33" s="192"/>
+      <c r="R33" s="195"/>
       <c r="S33" s="82"/>
       <c r="T33" s="85"/>
       <c r="U33" s="84"/>
@@ -9715,23 +9718,23 @@
       <c r="EL33" s="93"/>
     </row>
     <row r="34" spans="2:142" ht="9" customHeight="1">
-      <c r="B34" s="236"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="169"/>
-      <c r="M34" s="172"/>
-      <c r="N34" s="169"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="181"/>
+      <c r="B34" s="202"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="185"/>
+      <c r="M34" s="188"/>
+      <c r="N34" s="185"/>
+      <c r="O34" s="188"/>
+      <c r="P34" s="191"/>
+      <c r="Q34" s="194"/>
+      <c r="R34" s="197"/>
       <c r="S34" s="82"/>
       <c r="T34" s="83"/>
       <c r="U34" s="83"/>
@@ -9860,35 +9863,35 @@
       <c r="EL34" s="94"/>
     </row>
     <row r="35" spans="2:142" ht="9" customHeight="1">
-      <c r="B35" s="244"/>
-      <c r="C35" s="160"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="173" t="s">
+      <c r="B35" s="200"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="182" t="s">
+      <c r="G35" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="182">
+      <c r="H35" s="198">
         <v>43293</v>
       </c>
-      <c r="I35" s="182">
+      <c r="I35" s="198">
         <v>43144</v>
       </c>
-      <c r="J35" s="182">
+      <c r="J35" s="198">
         <v>43293</v>
       </c>
-      <c r="K35" s="182">
+      <c r="K35" s="198">
         <v>43144</v>
       </c>
-      <c r="L35" s="167"/>
-      <c r="M35" s="170"/>
-      <c r="N35" s="167"/>
-      <c r="O35" s="170"/>
-      <c r="P35" s="173"/>
-      <c r="Q35" s="176"/>
-      <c r="R35" s="179"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="186"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="189"/>
+      <c r="Q35" s="192"/>
+      <c r="R35" s="195"/>
       <c r="S35" s="82"/>
       <c r="T35" s="85"/>
       <c r="U35" s="84"/>
@@ -10015,23 +10018,23 @@
       <c r="EL35" s="93"/>
     </row>
     <row r="36" spans="2:142" ht="9" customHeight="1">
-      <c r="B36" s="236"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="183"/>
-      <c r="L36" s="169"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="169"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="175"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="181"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="199"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="199"/>
+      <c r="L36" s="185"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="185"/>
+      <c r="O36" s="188"/>
+      <c r="P36" s="191"/>
+      <c r="Q36" s="194"/>
+      <c r="R36" s="197"/>
       <c r="S36" s="82"/>
       <c r="T36" s="83"/>
       <c r="U36" s="83"/>
@@ -10160,35 +10163,35 @@
       <c r="EL36" s="94"/>
     </row>
     <row r="37" spans="2:142" ht="9" customHeight="1">
-      <c r="B37" s="244"/>
-      <c r="C37" s="160"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="173" t="s">
+      <c r="B37" s="200"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="189" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="182" t="s">
+      <c r="G37" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="182">
+      <c r="H37" s="198">
         <v>43293</v>
       </c>
-      <c r="I37" s="182">
+      <c r="I37" s="198">
         <v>43144</v>
       </c>
-      <c r="J37" s="182">
+      <c r="J37" s="198">
         <v>43293</v>
       </c>
-      <c r="K37" s="182">
+      <c r="K37" s="198">
         <v>43144</v>
       </c>
-      <c r="L37" s="167"/>
-      <c r="M37" s="170"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="170"/>
-      <c r="P37" s="173"/>
-      <c r="Q37" s="176"/>
-      <c r="R37" s="179"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="186"/>
+      <c r="N37" s="183"/>
+      <c r="O37" s="186"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="192"/>
+      <c r="R37" s="195"/>
       <c r="S37" s="82"/>
       <c r="T37" s="85"/>
       <c r="U37" s="84"/>
@@ -10315,23 +10318,23 @@
       <c r="EL37" s="93"/>
     </row>
     <row r="38" spans="2:142" ht="9" customHeight="1">
-      <c r="B38" s="236"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="183"/>
-      <c r="L38" s="169"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="169"/>
-      <c r="O38" s="172"/>
-      <c r="P38" s="175"/>
-      <c r="Q38" s="178"/>
-      <c r="R38" s="181"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="199"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="199"/>
+      <c r="K38" s="199"/>
+      <c r="L38" s="185"/>
+      <c r="M38" s="188"/>
+      <c r="N38" s="185"/>
+      <c r="O38" s="188"/>
+      <c r="P38" s="191"/>
+      <c r="Q38" s="194"/>
+      <c r="R38" s="197"/>
       <c r="S38" s="82"/>
       <c r="T38" s="83"/>
       <c r="U38" s="83"/>
@@ -10460,37 +10463,37 @@
       <c r="EL38" s="94"/>
     </row>
     <row r="39" spans="2:142" ht="9" customHeight="1">
-      <c r="B39" s="244"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="187" t="s">
+      <c r="B39" s="200"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="206" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="173" t="s">
+      <c r="F39" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="182" t="s">
+      <c r="G39" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="182">
+      <c r="H39" s="198">
         <v>43293</v>
       </c>
-      <c r="I39" s="182">
+      <c r="I39" s="198">
         <v>43144</v>
       </c>
-      <c r="J39" s="182">
+      <c r="J39" s="198">
         <v>43293</v>
       </c>
-      <c r="K39" s="182">
+      <c r="K39" s="198">
         <v>43144</v>
       </c>
-      <c r="L39" s="167"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="167"/>
-      <c r="O39" s="170"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="176"/>
-      <c r="R39" s="179"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="186"/>
+      <c r="N39" s="183"/>
+      <c r="O39" s="186"/>
+      <c r="P39" s="189"/>
+      <c r="Q39" s="192"/>
+      <c r="R39" s="195"/>
       <c r="S39" s="82"/>
       <c r="T39" s="85"/>
       <c r="U39" s="84"/>
@@ -10617,23 +10620,23 @@
       <c r="EL39" s="93"/>
     </row>
     <row r="40" spans="2:142" ht="9" customHeight="1">
-      <c r="B40" s="236"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="186"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="183"/>
-      <c r="K40" s="183"/>
-      <c r="L40" s="169"/>
-      <c r="M40" s="172"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="172"/>
-      <c r="P40" s="175"/>
-      <c r="Q40" s="178"/>
-      <c r="R40" s="181"/>
+      <c r="B40" s="202"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="199"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="199"/>
+      <c r="K40" s="199"/>
+      <c r="L40" s="185"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="185"/>
+      <c r="O40" s="188"/>
+      <c r="P40" s="191"/>
+      <c r="Q40" s="194"/>
+      <c r="R40" s="197"/>
       <c r="S40" s="82"/>
       <c r="T40" s="83"/>
       <c r="U40" s="83"/>
@@ -10762,35 +10765,35 @@
       <c r="EL40" s="94"/>
     </row>
     <row r="41" spans="2:142" ht="9" customHeight="1">
-      <c r="B41" s="244"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="184"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="173" t="s">
+      <c r="B41" s="200"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="189" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="182" t="s">
+      <c r="G41" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="182">
+      <c r="H41" s="198">
         <v>43293</v>
       </c>
-      <c r="I41" s="182">
+      <c r="I41" s="198">
         <v>43144</v>
       </c>
-      <c r="J41" s="182">
+      <c r="J41" s="198">
         <v>43293</v>
       </c>
-      <c r="K41" s="182">
+      <c r="K41" s="198">
         <v>43144</v>
       </c>
-      <c r="L41" s="167"/>
-      <c r="M41" s="170"/>
-      <c r="N41" s="167"/>
-      <c r="O41" s="170"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="176"/>
-      <c r="R41" s="179"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="186"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="186"/>
+      <c r="P41" s="189"/>
+      <c r="Q41" s="192"/>
+      <c r="R41" s="195"/>
       <c r="S41" s="82"/>
       <c r="T41" s="85"/>
       <c r="U41" s="84"/>
@@ -10917,23 +10920,23 @@
       <c r="EL41" s="93"/>
     </row>
     <row r="42" spans="2:142" ht="9" customHeight="1">
-      <c r="B42" s="236"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="183"/>
-      <c r="I42" s="183"/>
-      <c r="J42" s="183"/>
-      <c r="K42" s="183"/>
-      <c r="L42" s="169"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="169"/>
-      <c r="O42" s="172"/>
-      <c r="P42" s="175"/>
-      <c r="Q42" s="178"/>
-      <c r="R42" s="181"/>
+      <c r="B42" s="202"/>
+      <c r="C42" s="171"/>
+      <c r="D42" s="205"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="199"/>
+      <c r="K42" s="199"/>
+      <c r="L42" s="185"/>
+      <c r="M42" s="188"/>
+      <c r="N42" s="185"/>
+      <c r="O42" s="188"/>
+      <c r="P42" s="191"/>
+      <c r="Q42" s="194"/>
+      <c r="R42" s="197"/>
       <c r="S42" s="82"/>
       <c r="T42" s="83"/>
       <c r="U42" s="83"/>
@@ -11062,39 +11065,39 @@
       <c r="EL42" s="94"/>
     </row>
     <row r="43" spans="2:142" ht="9" customHeight="1">
-      <c r="B43" s="244" t="s">
+      <c r="B43" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="160" t="s">
+      <c r="C43" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="184"/>
-      <c r="E43" s="187" t="s">
+      <c r="D43" s="203"/>
+      <c r="E43" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="173"/>
-      <c r="G43" s="182" t="s">
+      <c r="F43" s="189"/>
+      <c r="G43" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H43" s="182">
+      <c r="H43" s="198">
         <v>43145</v>
       </c>
-      <c r="I43" s="182">
+      <c r="I43" s="198">
         <v>43146</v>
       </c>
-      <c r="J43" s="182">
+      <c r="J43" s="198">
         <v>43144</v>
       </c>
-      <c r="K43" s="182">
+      <c r="K43" s="198">
         <v>43145</v>
       </c>
-      <c r="L43" s="167"/>
-      <c r="M43" s="170"/>
-      <c r="N43" s="167"/>
-      <c r="O43" s="170"/>
-      <c r="P43" s="173"/>
-      <c r="Q43" s="176"/>
-      <c r="R43" s="179"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="186"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="186"/>
+      <c r="P43" s="189"/>
+      <c r="Q43" s="192"/>
+      <c r="R43" s="195"/>
       <c r="S43" s="82"/>
       <c r="T43" s="85"/>
       <c r="U43" s="84"/>
@@ -11223,23 +11226,23 @@
       <c r="EL43" s="93"/>
     </row>
     <row r="44" spans="2:142" ht="9" customHeight="1">
-      <c r="B44" s="236"/>
-      <c r="C44" s="160"/>
-      <c r="D44" s="186"/>
-      <c r="E44" s="189"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="183"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="183"/>
-      <c r="J44" s="183"/>
-      <c r="K44" s="183"/>
-      <c r="L44" s="169"/>
-      <c r="M44" s="172"/>
-      <c r="N44" s="169"/>
-      <c r="O44" s="172"/>
-      <c r="P44" s="175"/>
-      <c r="Q44" s="178"/>
-      <c r="R44" s="181"/>
+      <c r="B44" s="202"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="205"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="199"/>
+      <c r="H44" s="199"/>
+      <c r="I44" s="199"/>
+      <c r="J44" s="199"/>
+      <c r="K44" s="199"/>
+      <c r="L44" s="185"/>
+      <c r="M44" s="188"/>
+      <c r="N44" s="185"/>
+      <c r="O44" s="188"/>
+      <c r="P44" s="191"/>
+      <c r="Q44" s="194"/>
+      <c r="R44" s="197"/>
       <c r="S44" s="82"/>
       <c r="T44" s="83"/>
       <c r="U44" s="83"/>
@@ -11366,37 +11369,37 @@
       <c r="EL44" s="94"/>
     </row>
     <row r="45" spans="2:142" ht="9" customHeight="1">
-      <c r="B45" s="244"/>
-      <c r="C45" s="160"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="187" t="s">
+      <c r="B45" s="200"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="203"/>
+      <c r="E45" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="173" t="s">
+      <c r="F45" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="182" t="s">
+      <c r="G45" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="182">
+      <c r="H45" s="198">
         <v>43145</v>
       </c>
-      <c r="I45" s="182">
+      <c r="I45" s="198">
         <v>43146</v>
       </c>
-      <c r="J45" s="182">
+      <c r="J45" s="198">
         <v>43144</v>
       </c>
-      <c r="K45" s="182">
+      <c r="K45" s="198">
         <v>43145</v>
       </c>
-      <c r="L45" s="167"/>
-      <c r="M45" s="170"/>
-      <c r="N45" s="167"/>
-      <c r="O45" s="170"/>
-      <c r="P45" s="173"/>
-      <c r="Q45" s="176"/>
-      <c r="R45" s="179"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="186"/>
+      <c r="N45" s="183"/>
+      <c r="O45" s="186"/>
+      <c r="P45" s="189"/>
+      <c r="Q45" s="192"/>
+      <c r="R45" s="195"/>
       <c r="S45" s="82"/>
       <c r="T45" s="85"/>
       <c r="U45" s="84"/>
@@ -11525,23 +11528,23 @@
       <c r="EL45" s="93"/>
     </row>
     <row r="46" spans="2:142" ht="9" customHeight="1">
-      <c r="B46" s="236"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="186"/>
-      <c r="E46" s="189"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="183"/>
-      <c r="L46" s="169"/>
-      <c r="M46" s="172"/>
-      <c r="N46" s="169"/>
-      <c r="O46" s="172"/>
-      <c r="P46" s="175"/>
-      <c r="Q46" s="178"/>
-      <c r="R46" s="181"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="205"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="199"/>
+      <c r="K46" s="199"/>
+      <c r="L46" s="185"/>
+      <c r="M46" s="188"/>
+      <c r="N46" s="185"/>
+      <c r="O46" s="188"/>
+      <c r="P46" s="191"/>
+      <c r="Q46" s="194"/>
+      <c r="R46" s="197"/>
       <c r="S46" s="82"/>
       <c r="T46" s="83"/>
       <c r="U46" s="83"/>
@@ -11668,35 +11671,35 @@
       <c r="EL46" s="94"/>
     </row>
     <row r="47" spans="2:142" ht="9" customHeight="1">
-      <c r="B47" s="244"/>
-      <c r="C47" s="160"/>
-      <c r="D47" s="184"/>
-      <c r="E47" s="187"/>
-      <c r="F47" s="173" t="s">
+      <c r="B47" s="200"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="206"/>
+      <c r="F47" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="182" t="s">
+      <c r="G47" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H47" s="182">
+      <c r="H47" s="198">
         <v>43145</v>
       </c>
-      <c r="I47" s="182">
+      <c r="I47" s="198">
         <v>43146</v>
       </c>
-      <c r="J47" s="182">
+      <c r="J47" s="198">
         <v>43144</v>
       </c>
-      <c r="K47" s="182">
+      <c r="K47" s="198">
         <v>43145</v>
       </c>
-      <c r="L47" s="167"/>
-      <c r="M47" s="170"/>
-      <c r="N47" s="167"/>
-      <c r="O47" s="170"/>
-      <c r="P47" s="173"/>
-      <c r="Q47" s="176"/>
-      <c r="R47" s="179"/>
+      <c r="L47" s="183"/>
+      <c r="M47" s="186"/>
+      <c r="N47" s="183"/>
+      <c r="O47" s="186"/>
+      <c r="P47" s="189"/>
+      <c r="Q47" s="192"/>
+      <c r="R47" s="195"/>
       <c r="S47" s="82"/>
       <c r="T47" s="85"/>
       <c r="U47" s="84"/>
@@ -11825,23 +11828,23 @@
       <c r="EL47" s="93"/>
     </row>
     <row r="48" spans="2:142" ht="9" customHeight="1">
-      <c r="B48" s="236"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="186"/>
-      <c r="E48" s="189"/>
-      <c r="F48" s="175"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="183"/>
-      <c r="L48" s="169"/>
-      <c r="M48" s="172"/>
-      <c r="N48" s="169"/>
-      <c r="O48" s="172"/>
-      <c r="P48" s="175"/>
-      <c r="Q48" s="178"/>
-      <c r="R48" s="181"/>
+      <c r="B48" s="202"/>
+      <c r="C48" s="171"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="208"/>
+      <c r="F48" s="191"/>
+      <c r="G48" s="199"/>
+      <c r="H48" s="199"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="199"/>
+      <c r="K48" s="199"/>
+      <c r="L48" s="185"/>
+      <c r="M48" s="188"/>
+      <c r="N48" s="185"/>
+      <c r="O48" s="188"/>
+      <c r="P48" s="191"/>
+      <c r="Q48" s="194"/>
+      <c r="R48" s="197"/>
       <c r="S48" s="82"/>
       <c r="T48" s="83"/>
       <c r="U48" s="83"/>
@@ -11970,35 +11973,35 @@
       <c r="EL48" s="94"/>
     </row>
     <row r="49" spans="2:142" ht="9" customHeight="1">
-      <c r="B49" s="244"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="184"/>
-      <c r="E49" s="187"/>
-      <c r="F49" s="173" t="s">
+      <c r="B49" s="200"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="206"/>
+      <c r="F49" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="182" t="s">
+      <c r="G49" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="182">
+      <c r="H49" s="198">
         <v>43145</v>
       </c>
-      <c r="I49" s="182">
+      <c r="I49" s="198">
         <v>43146</v>
       </c>
-      <c r="J49" s="182">
+      <c r="J49" s="198">
         <v>43144</v>
       </c>
-      <c r="K49" s="182">
+      <c r="K49" s="198">
         <v>43145</v>
       </c>
-      <c r="L49" s="167"/>
-      <c r="M49" s="170"/>
-      <c r="N49" s="167"/>
-      <c r="O49" s="170"/>
-      <c r="P49" s="173"/>
-      <c r="Q49" s="176"/>
-      <c r="R49" s="179"/>
+      <c r="L49" s="183"/>
+      <c r="M49" s="186"/>
+      <c r="N49" s="183"/>
+      <c r="O49" s="186"/>
+      <c r="P49" s="189"/>
+      <c r="Q49" s="192"/>
+      <c r="R49" s="195"/>
       <c r="S49" s="82"/>
       <c r="T49" s="85"/>
       <c r="U49" s="84"/>
@@ -12125,23 +12128,23 @@
       <c r="EL49" s="93"/>
     </row>
     <row r="50" spans="2:142" ht="9" customHeight="1">
-      <c r="B50" s="236"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="186"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="183"/>
-      <c r="J50" s="183"/>
-      <c r="K50" s="183"/>
-      <c r="L50" s="169"/>
-      <c r="M50" s="172"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="172"/>
-      <c r="P50" s="175"/>
-      <c r="Q50" s="178"/>
-      <c r="R50" s="181"/>
+      <c r="B50" s="202"/>
+      <c r="C50" s="171"/>
+      <c r="D50" s="205"/>
+      <c r="E50" s="208"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="199"/>
+      <c r="H50" s="199"/>
+      <c r="I50" s="199"/>
+      <c r="J50" s="199"/>
+      <c r="K50" s="199"/>
+      <c r="L50" s="185"/>
+      <c r="M50" s="188"/>
+      <c r="N50" s="185"/>
+      <c r="O50" s="188"/>
+      <c r="P50" s="191"/>
+      <c r="Q50" s="194"/>
+      <c r="R50" s="197"/>
       <c r="S50" s="82"/>
       <c r="T50" s="83"/>
       <c r="U50" s="83"/>
@@ -12272,35 +12275,35 @@
       <c r="EL50" s="94"/>
     </row>
     <row r="51" spans="2:142" ht="9" customHeight="1">
-      <c r="B51" s="244"/>
-      <c r="C51" s="160"/>
-      <c r="D51" s="184"/>
-      <c r="E51" s="187"/>
-      <c r="F51" s="173" t="s">
+      <c r="B51" s="200"/>
+      <c r="C51" s="171"/>
+      <c r="D51" s="203"/>
+      <c r="E51" s="206"/>
+      <c r="F51" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="182" t="s">
+      <c r="G51" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="182">
+      <c r="H51" s="198">
         <v>43145</v>
       </c>
-      <c r="I51" s="182">
+      <c r="I51" s="198">
         <v>43146</v>
       </c>
-      <c r="J51" s="182">
+      <c r="J51" s="198">
         <v>43144</v>
       </c>
-      <c r="K51" s="182">
+      <c r="K51" s="198">
         <v>43145</v>
       </c>
-      <c r="L51" s="167"/>
-      <c r="M51" s="170"/>
-      <c r="N51" s="167"/>
-      <c r="O51" s="170"/>
-      <c r="P51" s="173"/>
-      <c r="Q51" s="176"/>
-      <c r="R51" s="179"/>
+      <c r="L51" s="183"/>
+      <c r="M51" s="186"/>
+      <c r="N51" s="183"/>
+      <c r="O51" s="186"/>
+      <c r="P51" s="189"/>
+      <c r="Q51" s="192"/>
+      <c r="R51" s="195"/>
       <c r="S51" s="82"/>
       <c r="T51" s="85"/>
       <c r="U51" s="84"/>
@@ -12427,23 +12430,23 @@
       <c r="EL51" s="93"/>
     </row>
     <row r="52" spans="2:142" ht="9" customHeight="1">
-      <c r="B52" s="236"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="186"/>
-      <c r="E52" s="189"/>
-      <c r="F52" s="175"/>
-      <c r="G52" s="183"/>
-      <c r="H52" s="183"/>
-      <c r="I52" s="183"/>
-      <c r="J52" s="183"/>
-      <c r="K52" s="183"/>
-      <c r="L52" s="169"/>
-      <c r="M52" s="172"/>
-      <c r="N52" s="169"/>
-      <c r="O52" s="172"/>
-      <c r="P52" s="175"/>
-      <c r="Q52" s="178"/>
-      <c r="R52" s="181"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="205"/>
+      <c r="E52" s="208"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="199"/>
+      <c r="K52" s="199"/>
+      <c r="L52" s="185"/>
+      <c r="M52" s="188"/>
+      <c r="N52" s="185"/>
+      <c r="O52" s="188"/>
+      <c r="P52" s="191"/>
+      <c r="Q52" s="194"/>
+      <c r="R52" s="197"/>
       <c r="S52" s="82"/>
       <c r="T52" s="83"/>
       <c r="U52" s="83"/>
@@ -12572,35 +12575,35 @@
       <c r="EL52" s="94"/>
     </row>
     <row r="53" spans="2:142" ht="9" customHeight="1">
-      <c r="B53" s="244"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="184"/>
-      <c r="E53" s="187" t="s">
+      <c r="B53" s="200"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="203"/>
+      <c r="E53" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="173"/>
-      <c r="G53" s="182" t="s">
+      <c r="F53" s="189"/>
+      <c r="G53" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H53" s="182">
+      <c r="H53" s="198">
         <v>43145</v>
       </c>
-      <c r="I53" s="182">
+      <c r="I53" s="198">
         <v>43146</v>
       </c>
-      <c r="J53" s="182">
+      <c r="J53" s="198">
         <v>43144</v>
       </c>
-      <c r="K53" s="182">
+      <c r="K53" s="198">
         <v>43145</v>
       </c>
-      <c r="L53" s="167"/>
-      <c r="M53" s="170"/>
-      <c r="N53" s="167"/>
-      <c r="O53" s="170"/>
-      <c r="P53" s="173"/>
-      <c r="Q53" s="176"/>
-      <c r="R53" s="179"/>
+      <c r="L53" s="183"/>
+      <c r="M53" s="186"/>
+      <c r="N53" s="183"/>
+      <c r="O53" s="186"/>
+      <c r="P53" s="189"/>
+      <c r="Q53" s="192"/>
+      <c r="R53" s="195"/>
       <c r="S53" s="82"/>
       <c r="T53" s="85"/>
       <c r="U53" s="84"/>
@@ -12729,23 +12732,23 @@
       <c r="EL53" s="93"/>
     </row>
     <row r="54" spans="2:142" ht="9" customHeight="1">
-      <c r="B54" s="236"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="186"/>
-      <c r="E54" s="189"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="183"/>
-      <c r="K54" s="183"/>
-      <c r="L54" s="169"/>
-      <c r="M54" s="172"/>
-      <c r="N54" s="169"/>
-      <c r="O54" s="172"/>
-      <c r="P54" s="175"/>
-      <c r="Q54" s="178"/>
-      <c r="R54" s="181"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="171"/>
+      <c r="D54" s="205"/>
+      <c r="E54" s="208"/>
+      <c r="F54" s="191"/>
+      <c r="G54" s="199"/>
+      <c r="H54" s="199"/>
+      <c r="I54" s="199"/>
+      <c r="J54" s="199"/>
+      <c r="K54" s="199"/>
+      <c r="L54" s="185"/>
+      <c r="M54" s="188"/>
+      <c r="N54" s="185"/>
+      <c r="O54" s="188"/>
+      <c r="P54" s="191"/>
+      <c r="Q54" s="194"/>
+      <c r="R54" s="197"/>
       <c r="S54" s="82"/>
       <c r="T54" s="83"/>
       <c r="U54" s="83"/>
@@ -12874,37 +12877,37 @@
       <c r="EL54" s="94"/>
     </row>
     <row r="55" spans="2:142" ht="9" customHeight="1">
-      <c r="B55" s="244"/>
-      <c r="C55" s="160" t="s">
+      <c r="B55" s="200"/>
+      <c r="C55" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="184"/>
-      <c r="E55" s="187" t="s">
+      <c r="D55" s="203"/>
+      <c r="E55" s="206" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="173"/>
-      <c r="G55" s="182" t="s">
+      <c r="F55" s="189"/>
+      <c r="G55" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H55" s="182">
+      <c r="H55" s="198">
         <v>43145</v>
       </c>
-      <c r="I55" s="182">
+      <c r="I55" s="198">
         <v>43146</v>
       </c>
-      <c r="J55" s="182">
+      <c r="J55" s="198">
         <v>43144</v>
       </c>
-      <c r="K55" s="182">
+      <c r="K55" s="198">
         <v>43145</v>
       </c>
-      <c r="L55" s="167"/>
-      <c r="M55" s="170"/>
-      <c r="N55" s="167"/>
-      <c r="O55" s="170"/>
-      <c r="P55" s="173"/>
-      <c r="Q55" s="176"/>
-      <c r="R55" s="179"/>
+      <c r="L55" s="183"/>
+      <c r="M55" s="186"/>
+      <c r="N55" s="183"/>
+      <c r="O55" s="186"/>
+      <c r="P55" s="189"/>
+      <c r="Q55" s="192"/>
+      <c r="R55" s="195"/>
       <c r="S55" s="82"/>
       <c r="T55" s="85"/>
       <c r="U55" s="84"/>
@@ -13031,23 +13034,23 @@
       <c r="EL55" s="93"/>
     </row>
     <row r="56" spans="2:142" ht="15.75" customHeight="1">
-      <c r="B56" s="236"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="186"/>
-      <c r="E56" s="189"/>
-      <c r="F56" s="175"/>
-      <c r="G56" s="183"/>
-      <c r="H56" s="183"/>
-      <c r="I56" s="183"/>
-      <c r="J56" s="183"/>
-      <c r="K56" s="183"/>
-      <c r="L56" s="169"/>
-      <c r="M56" s="172"/>
-      <c r="N56" s="169"/>
-      <c r="O56" s="172"/>
-      <c r="P56" s="175"/>
-      <c r="Q56" s="178"/>
-      <c r="R56" s="181"/>
+      <c r="B56" s="202"/>
+      <c r="C56" s="171"/>
+      <c r="D56" s="205"/>
+      <c r="E56" s="208"/>
+      <c r="F56" s="191"/>
+      <c r="G56" s="199"/>
+      <c r="H56" s="199"/>
+      <c r="I56" s="199"/>
+      <c r="J56" s="199"/>
+      <c r="K56" s="199"/>
+      <c r="L56" s="185"/>
+      <c r="M56" s="188"/>
+      <c r="N56" s="185"/>
+      <c r="O56" s="188"/>
+      <c r="P56" s="191"/>
+      <c r="Q56" s="194"/>
+      <c r="R56" s="197"/>
       <c r="S56" s="82"/>
       <c r="T56" s="83"/>
       <c r="U56" s="83"/>
@@ -13178,35 +13181,35 @@
       <c r="EL56" s="94"/>
     </row>
     <row r="57" spans="2:142" ht="9" customHeight="1">
-      <c r="B57" s="244"/>
-      <c r="C57" s="160"/>
-      <c r="D57" s="184"/>
-      <c r="E57" s="187" t="s">
+      <c r="B57" s="200"/>
+      <c r="C57" s="171"/>
+      <c r="D57" s="203"/>
+      <c r="E57" s="206" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="173"/>
-      <c r="G57" s="182" t="s">
+      <c r="F57" s="189"/>
+      <c r="G57" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="182">
+      <c r="H57" s="198">
         <v>43145</v>
       </c>
-      <c r="I57" s="182">
+      <c r="I57" s="198">
         <v>43146</v>
       </c>
-      <c r="J57" s="182">
+      <c r="J57" s="198">
         <v>43144</v>
       </c>
-      <c r="K57" s="182">
+      <c r="K57" s="198">
         <v>43145</v>
       </c>
-      <c r="L57" s="167"/>
-      <c r="M57" s="170"/>
-      <c r="N57" s="167"/>
-      <c r="O57" s="170"/>
-      <c r="P57" s="173"/>
-      <c r="Q57" s="176"/>
-      <c r="R57" s="179"/>
+      <c r="L57" s="183"/>
+      <c r="M57" s="186"/>
+      <c r="N57" s="183"/>
+      <c r="O57" s="186"/>
+      <c r="P57" s="189"/>
+      <c r="Q57" s="192"/>
+      <c r="R57" s="195"/>
       <c r="S57" s="82"/>
       <c r="T57" s="85"/>
       <c r="U57" s="84"/>
@@ -13333,23 +13336,23 @@
       <c r="EL57" s="93"/>
     </row>
     <row r="58" spans="2:142" ht="19.5" customHeight="1">
-      <c r="B58" s="236"/>
-      <c r="C58" s="160"/>
-      <c r="D58" s="186"/>
-      <c r="E58" s="189"/>
-      <c r="F58" s="175"/>
-      <c r="G58" s="183"/>
-      <c r="H58" s="183"/>
-      <c r="I58" s="183"/>
-      <c r="J58" s="183"/>
-      <c r="K58" s="183"/>
-      <c r="L58" s="169"/>
-      <c r="M58" s="172"/>
-      <c r="N58" s="169"/>
-      <c r="O58" s="172"/>
-      <c r="P58" s="175"/>
-      <c r="Q58" s="178"/>
-      <c r="R58" s="181"/>
+      <c r="B58" s="202"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="208"/>
+      <c r="F58" s="191"/>
+      <c r="G58" s="199"/>
+      <c r="H58" s="199"/>
+      <c r="I58" s="199"/>
+      <c r="J58" s="199"/>
+      <c r="K58" s="199"/>
+      <c r="L58" s="185"/>
+      <c r="M58" s="188"/>
+      <c r="N58" s="185"/>
+      <c r="O58" s="188"/>
+      <c r="P58" s="191"/>
+      <c r="Q58" s="194"/>
+      <c r="R58" s="197"/>
       <c r="S58" s="82"/>
       <c r="T58" s="83"/>
       <c r="U58" s="83"/>
@@ -13480,35 +13483,35 @@
       <c r="EL58" s="94"/>
     </row>
     <row r="59" spans="2:142" ht="9" customHeight="1">
-      <c r="B59" s="244"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="184"/>
-      <c r="E59" s="187" t="s">
+      <c r="B59" s="200"/>
+      <c r="C59" s="171"/>
+      <c r="D59" s="203"/>
+      <c r="E59" s="206" t="s">
         <v>87</v>
       </c>
-      <c r="F59" s="173"/>
-      <c r="G59" s="182" t="s">
+      <c r="F59" s="189"/>
+      <c r="G59" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="182">
+      <c r="H59" s="198">
         <v>43145</v>
       </c>
-      <c r="I59" s="182">
+      <c r="I59" s="198">
         <v>43146</v>
       </c>
-      <c r="J59" s="182">
+      <c r="J59" s="198">
         <v>43144</v>
       </c>
-      <c r="K59" s="182">
+      <c r="K59" s="198">
         <v>43145</v>
       </c>
-      <c r="L59" s="167"/>
-      <c r="M59" s="170"/>
-      <c r="N59" s="167"/>
-      <c r="O59" s="170"/>
-      <c r="P59" s="173"/>
-      <c r="Q59" s="176"/>
-      <c r="R59" s="179"/>
+      <c r="L59" s="183"/>
+      <c r="M59" s="186"/>
+      <c r="N59" s="183"/>
+      <c r="O59" s="186"/>
+      <c r="P59" s="189"/>
+      <c r="Q59" s="192"/>
+      <c r="R59" s="195"/>
       <c r="S59" s="82"/>
       <c r="T59" s="85"/>
       <c r="U59" s="84"/>
@@ -13639,23 +13642,23 @@
       <c r="EL59" s="93"/>
     </row>
     <row r="60" spans="2:142" ht="9" customHeight="1">
-      <c r="B60" s="236"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="186"/>
-      <c r="E60" s="189"/>
-      <c r="F60" s="175"/>
-      <c r="G60" s="183"/>
-      <c r="H60" s="183"/>
-      <c r="I60" s="183"/>
-      <c r="J60" s="183"/>
-      <c r="K60" s="183"/>
-      <c r="L60" s="169"/>
-      <c r="M60" s="172"/>
-      <c r="N60" s="169"/>
-      <c r="O60" s="172"/>
-      <c r="P60" s="175"/>
-      <c r="Q60" s="178"/>
-      <c r="R60" s="181"/>
+      <c r="B60" s="202"/>
+      <c r="C60" s="171"/>
+      <c r="D60" s="205"/>
+      <c r="E60" s="208"/>
+      <c r="F60" s="191"/>
+      <c r="G60" s="199"/>
+      <c r="H60" s="199"/>
+      <c r="I60" s="199"/>
+      <c r="J60" s="199"/>
+      <c r="K60" s="199"/>
+      <c r="L60" s="185"/>
+      <c r="M60" s="188"/>
+      <c r="N60" s="185"/>
+      <c r="O60" s="188"/>
+      <c r="P60" s="191"/>
+      <c r="Q60" s="194"/>
+      <c r="R60" s="197"/>
       <c r="S60" s="82"/>
       <c r="T60" s="83"/>
       <c r="U60" s="83"/>
@@ -13782,35 +13785,35 @@
       <c r="EL60" s="94"/>
     </row>
     <row r="61" spans="2:142" ht="9" customHeight="1">
-      <c r="B61" s="244"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="184"/>
-      <c r="E61" s="187" t="s">
+      <c r="B61" s="200"/>
+      <c r="C61" s="171"/>
+      <c r="D61" s="203"/>
+      <c r="E61" s="206" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="173"/>
-      <c r="G61" s="182" t="s">
+      <c r="F61" s="189"/>
+      <c r="G61" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H61" s="182">
+      <c r="H61" s="198">
         <v>43145</v>
       </c>
-      <c r="I61" s="182">
+      <c r="I61" s="198">
         <v>43146</v>
       </c>
-      <c r="J61" s="182">
+      <c r="J61" s="198">
         <v>43144</v>
       </c>
-      <c r="K61" s="182">
+      <c r="K61" s="198">
         <v>43145</v>
       </c>
-      <c r="L61" s="167"/>
-      <c r="M61" s="170"/>
-      <c r="N61" s="167"/>
-      <c r="O61" s="170"/>
-      <c r="P61" s="173"/>
-      <c r="Q61" s="176"/>
-      <c r="R61" s="179"/>
+      <c r="L61" s="183"/>
+      <c r="M61" s="186"/>
+      <c r="N61" s="183"/>
+      <c r="O61" s="186"/>
+      <c r="P61" s="189"/>
+      <c r="Q61" s="192"/>
+      <c r="R61" s="195"/>
       <c r="S61" s="82"/>
       <c r="T61" s="85"/>
       <c r="U61" s="84"/>
@@ -13937,23 +13940,23 @@
       <c r="EL61" s="93"/>
     </row>
     <row r="62" spans="2:142" ht="9" customHeight="1">
-      <c r="B62" s="236"/>
-      <c r="C62" s="160"/>
-      <c r="D62" s="186"/>
-      <c r="E62" s="189"/>
-      <c r="F62" s="175"/>
-      <c r="G62" s="183"/>
-      <c r="H62" s="183"/>
-      <c r="I62" s="183"/>
-      <c r="J62" s="183"/>
-      <c r="K62" s="183"/>
-      <c r="L62" s="169"/>
-      <c r="M62" s="172"/>
-      <c r="N62" s="169"/>
-      <c r="O62" s="172"/>
-      <c r="P62" s="175"/>
-      <c r="Q62" s="178"/>
-      <c r="R62" s="181"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="171"/>
+      <c r="D62" s="205"/>
+      <c r="E62" s="208"/>
+      <c r="F62" s="191"/>
+      <c r="G62" s="199"/>
+      <c r="H62" s="199"/>
+      <c r="I62" s="199"/>
+      <c r="J62" s="199"/>
+      <c r="K62" s="199"/>
+      <c r="L62" s="185"/>
+      <c r="M62" s="188"/>
+      <c r="N62" s="185"/>
+      <c r="O62" s="188"/>
+      <c r="P62" s="191"/>
+      <c r="Q62" s="194"/>
+      <c r="R62" s="197"/>
       <c r="S62" s="82"/>
       <c r="T62" s="83"/>
       <c r="U62" s="83"/>
@@ -14080,39 +14083,39 @@
       <c r="EL62" s="94"/>
     </row>
     <row r="63" spans="2:142" ht="9" customHeight="1">
-      <c r="B63" s="244" t="s">
+      <c r="B63" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="160" t="s">
+      <c r="C63" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="184"/>
-      <c r="E63" s="187" t="s">
+      <c r="D63" s="203"/>
+      <c r="E63" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="F63" s="173"/>
-      <c r="G63" s="182" t="s">
+      <c r="F63" s="189"/>
+      <c r="G63" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H63" s="182">
+      <c r="H63" s="198">
         <v>43147</v>
       </c>
-      <c r="I63" s="182">
+      <c r="I63" s="198">
         <v>43148</v>
       </c>
-      <c r="J63" s="182">
+      <c r="J63" s="198">
         <v>43146</v>
       </c>
-      <c r="K63" s="182">
+      <c r="K63" s="198">
         <v>43147</v>
       </c>
-      <c r="L63" s="167"/>
-      <c r="M63" s="170"/>
-      <c r="N63" s="167"/>
-      <c r="O63" s="170"/>
-      <c r="P63" s="173"/>
-      <c r="Q63" s="176"/>
-      <c r="R63" s="179"/>
+      <c r="L63" s="183"/>
+      <c r="M63" s="186"/>
+      <c r="N63" s="183"/>
+      <c r="O63" s="186"/>
+      <c r="P63" s="189"/>
+      <c r="Q63" s="192"/>
+      <c r="R63" s="195"/>
       <c r="S63" s="82"/>
       <c r="T63" s="85"/>
       <c r="U63" s="84"/>
@@ -14239,23 +14242,23 @@
       <c r="EL63" s="93"/>
     </row>
     <row r="64" spans="2:142" ht="15" customHeight="1">
-      <c r="B64" s="236"/>
-      <c r="C64" s="160"/>
-      <c r="D64" s="186"/>
-      <c r="E64" s="189"/>
-      <c r="F64" s="175"/>
-      <c r="G64" s="183"/>
-      <c r="H64" s="183"/>
-      <c r="I64" s="183"/>
-      <c r="J64" s="183"/>
-      <c r="K64" s="183"/>
-      <c r="L64" s="169"/>
-      <c r="M64" s="172"/>
-      <c r="N64" s="169"/>
-      <c r="O64" s="172"/>
-      <c r="P64" s="175"/>
-      <c r="Q64" s="178"/>
-      <c r="R64" s="181"/>
+      <c r="B64" s="202"/>
+      <c r="C64" s="171"/>
+      <c r="D64" s="205"/>
+      <c r="E64" s="208"/>
+      <c r="F64" s="191"/>
+      <c r="G64" s="199"/>
+      <c r="H64" s="199"/>
+      <c r="I64" s="199"/>
+      <c r="J64" s="199"/>
+      <c r="K64" s="199"/>
+      <c r="L64" s="185"/>
+      <c r="M64" s="188"/>
+      <c r="N64" s="185"/>
+      <c r="O64" s="188"/>
+      <c r="P64" s="191"/>
+      <c r="Q64" s="194"/>
+      <c r="R64" s="197"/>
       <c r="S64" s="82"/>
       <c r="T64" s="83"/>
       <c r="U64" s="83"/>
@@ -14382,35 +14385,35 @@
       <c r="EL64" s="94"/>
     </row>
     <row r="65" spans="2:142" ht="9" customHeight="1">
-      <c r="B65" s="244"/>
-      <c r="C65" s="160"/>
-      <c r="D65" s="184"/>
-      <c r="E65" s="187" t="s">
+      <c r="B65" s="200"/>
+      <c r="C65" s="171"/>
+      <c r="D65" s="203"/>
+      <c r="E65" s="206" t="s">
         <v>93</v>
       </c>
-      <c r="F65" s="173"/>
-      <c r="G65" s="182" t="s">
+      <c r="F65" s="189"/>
+      <c r="G65" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H65" s="182">
+      <c r="H65" s="198">
         <v>43147</v>
       </c>
-      <c r="I65" s="182">
+      <c r="I65" s="198">
         <v>43148</v>
       </c>
-      <c r="J65" s="182">
+      <c r="J65" s="198">
         <v>43146</v>
       </c>
-      <c r="K65" s="182">
+      <c r="K65" s="198">
         <v>43147</v>
       </c>
-      <c r="L65" s="167"/>
-      <c r="M65" s="170"/>
-      <c r="N65" s="167"/>
-      <c r="O65" s="170"/>
-      <c r="P65" s="173"/>
-      <c r="Q65" s="176"/>
-      <c r="R65" s="179"/>
+      <c r="L65" s="183"/>
+      <c r="M65" s="186"/>
+      <c r="N65" s="183"/>
+      <c r="O65" s="186"/>
+      <c r="P65" s="189"/>
+      <c r="Q65" s="192"/>
+      <c r="R65" s="195"/>
       <c r="S65" s="82"/>
       <c r="T65" s="85"/>
       <c r="U65" s="84"/>
@@ -14537,23 +14540,23 @@
       <c r="EL65" s="93"/>
     </row>
     <row r="66" spans="2:142" ht="9" customHeight="1">
-      <c r="B66" s="236"/>
-      <c r="C66" s="160"/>
-      <c r="D66" s="186"/>
-      <c r="E66" s="189"/>
-      <c r="F66" s="175"/>
-      <c r="G66" s="183"/>
-      <c r="H66" s="183"/>
-      <c r="I66" s="183"/>
-      <c r="J66" s="183"/>
-      <c r="K66" s="183"/>
-      <c r="L66" s="169"/>
-      <c r="M66" s="172"/>
-      <c r="N66" s="169"/>
-      <c r="O66" s="172"/>
-      <c r="P66" s="175"/>
-      <c r="Q66" s="178"/>
-      <c r="R66" s="181"/>
+      <c r="B66" s="202"/>
+      <c r="C66" s="171"/>
+      <c r="D66" s="205"/>
+      <c r="E66" s="208"/>
+      <c r="F66" s="191"/>
+      <c r="G66" s="199"/>
+      <c r="H66" s="199"/>
+      <c r="I66" s="199"/>
+      <c r="J66" s="199"/>
+      <c r="K66" s="199"/>
+      <c r="L66" s="185"/>
+      <c r="M66" s="188"/>
+      <c r="N66" s="185"/>
+      <c r="O66" s="188"/>
+      <c r="P66" s="191"/>
+      <c r="Q66" s="194"/>
+      <c r="R66" s="197"/>
       <c r="S66" s="82"/>
       <c r="T66" s="83"/>
       <c r="U66" s="83"/>
@@ -14680,35 +14683,35 @@
       <c r="EL66" s="94"/>
     </row>
     <row r="67" spans="2:142" ht="9" customHeight="1">
-      <c r="B67" s="244"/>
-      <c r="C67" s="160"/>
-      <c r="D67" s="184"/>
-      <c r="E67" s="187" t="s">
+      <c r="B67" s="200"/>
+      <c r="C67" s="171"/>
+      <c r="D67" s="203"/>
+      <c r="E67" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="F67" s="173"/>
-      <c r="G67" s="182" t="s">
+      <c r="F67" s="189"/>
+      <c r="G67" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H67" s="182">
+      <c r="H67" s="198">
         <v>43147</v>
       </c>
-      <c r="I67" s="182">
+      <c r="I67" s="198">
         <v>43148</v>
       </c>
-      <c r="J67" s="182">
+      <c r="J67" s="198">
         <v>43146</v>
       </c>
-      <c r="K67" s="182">
+      <c r="K67" s="198">
         <v>43147</v>
       </c>
-      <c r="L67" s="167"/>
-      <c r="M67" s="170"/>
-      <c r="N67" s="167"/>
-      <c r="O67" s="170"/>
-      <c r="P67" s="173"/>
-      <c r="Q67" s="176"/>
-      <c r="R67" s="179"/>
+      <c r="L67" s="183"/>
+      <c r="M67" s="186"/>
+      <c r="N67" s="183"/>
+      <c r="O67" s="186"/>
+      <c r="P67" s="189"/>
+      <c r="Q67" s="192"/>
+      <c r="R67" s="195"/>
       <c r="S67" s="82"/>
       <c r="T67" s="85"/>
       <c r="U67" s="84"/>
@@ -14835,23 +14838,23 @@
       <c r="EL67" s="93"/>
     </row>
     <row r="68" spans="2:142" ht="9" customHeight="1">
-      <c r="B68" s="236"/>
-      <c r="C68" s="160"/>
-      <c r="D68" s="186"/>
-      <c r="E68" s="189"/>
-      <c r="F68" s="175"/>
-      <c r="G68" s="183"/>
-      <c r="H68" s="183"/>
-      <c r="I68" s="183"/>
-      <c r="J68" s="183"/>
-      <c r="K68" s="183"/>
-      <c r="L68" s="169"/>
-      <c r="M68" s="172"/>
-      <c r="N68" s="169"/>
-      <c r="O68" s="172"/>
-      <c r="P68" s="175"/>
-      <c r="Q68" s="178"/>
-      <c r="R68" s="181"/>
+      <c r="B68" s="202"/>
+      <c r="C68" s="171"/>
+      <c r="D68" s="205"/>
+      <c r="E68" s="208"/>
+      <c r="F68" s="191"/>
+      <c r="G68" s="199"/>
+      <c r="H68" s="199"/>
+      <c r="I68" s="199"/>
+      <c r="J68" s="199"/>
+      <c r="K68" s="199"/>
+      <c r="L68" s="185"/>
+      <c r="M68" s="188"/>
+      <c r="N68" s="185"/>
+      <c r="O68" s="188"/>
+      <c r="P68" s="191"/>
+      <c r="Q68" s="194"/>
+      <c r="R68" s="197"/>
       <c r="S68" s="82"/>
       <c r="T68" s="83"/>
       <c r="U68" s="83"/>
@@ -14978,37 +14981,37 @@
       <c r="EL68" s="94"/>
     </row>
     <row r="69" spans="2:142" ht="9" customHeight="1">
-      <c r="B69" s="244"/>
-      <c r="C69" s="160" t="s">
+      <c r="B69" s="200"/>
+      <c r="C69" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="184"/>
-      <c r="E69" s="187"/>
-      <c r="F69" s="173"/>
-      <c r="G69" s="182" t="s">
+      <c r="D69" s="203"/>
+      <c r="E69" s="206"/>
+      <c r="F69" s="189"/>
+      <c r="G69" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H69" s="182">
+      <c r="H69" s="198">
         <v>43147</v>
       </c>
-      <c r="I69" s="182">
+      <c r="I69" s="198">
         <v>43148</v>
       </c>
-      <c r="J69" s="182">
+      <c r="J69" s="198">
         <v>43146</v>
       </c>
-      <c r="K69" s="182">
+      <c r="K69" s="198">
         <v>43147</v>
       </c>
-      <c r="L69" s="167"/>
-      <c r="M69" s="170"/>
-      <c r="N69" s="167"/>
-      <c r="O69" s="170"/>
-      <c r="P69" s="173" t="s">
+      <c r="L69" s="183"/>
+      <c r="M69" s="186"/>
+      <c r="N69" s="183"/>
+      <c r="O69" s="186"/>
+      <c r="P69" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Q69" s="176"/>
-      <c r="R69" s="179"/>
+      <c r="Q69" s="192"/>
+      <c r="R69" s="195"/>
       <c r="S69" s="82"/>
       <c r="T69" s="85"/>
       <c r="U69" s="84"/>
@@ -15135,23 +15138,23 @@
       <c r="EL69" s="93"/>
     </row>
     <row r="70" spans="2:142" ht="9" customHeight="1">
-      <c r="B70" s="236"/>
-      <c r="C70" s="160"/>
-      <c r="D70" s="186"/>
-      <c r="E70" s="189"/>
-      <c r="F70" s="175"/>
-      <c r="G70" s="183"/>
-      <c r="H70" s="183"/>
-      <c r="I70" s="183"/>
-      <c r="J70" s="183"/>
-      <c r="K70" s="183"/>
-      <c r="L70" s="169"/>
-      <c r="M70" s="172"/>
-      <c r="N70" s="169"/>
-      <c r="O70" s="172"/>
-      <c r="P70" s="175"/>
-      <c r="Q70" s="178"/>
-      <c r="R70" s="181"/>
+      <c r="B70" s="202"/>
+      <c r="C70" s="171"/>
+      <c r="D70" s="205"/>
+      <c r="E70" s="208"/>
+      <c r="F70" s="191"/>
+      <c r="G70" s="199"/>
+      <c r="H70" s="199"/>
+      <c r="I70" s="199"/>
+      <c r="J70" s="199"/>
+      <c r="K70" s="199"/>
+      <c r="L70" s="185"/>
+      <c r="M70" s="188"/>
+      <c r="N70" s="185"/>
+      <c r="O70" s="188"/>
+      <c r="P70" s="191"/>
+      <c r="Q70" s="194"/>
+      <c r="R70" s="197"/>
       <c r="S70" s="82"/>
       <c r="T70" s="83"/>
       <c r="U70" s="83"/>
@@ -15278,37 +15281,37 @@
       <c r="EL70" s="94"/>
     </row>
     <row r="71" spans="2:142" ht="9" customHeight="1">
-      <c r="B71" s="244"/>
-      <c r="C71" s="160" t="s">
+      <c r="B71" s="200"/>
+      <c r="C71" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="184"/>
-      <c r="E71" s="187" t="s">
+      <c r="D71" s="203"/>
+      <c r="E71" s="206" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="173"/>
-      <c r="G71" s="182" t="s">
+      <c r="F71" s="189"/>
+      <c r="G71" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H71" s="182">
+      <c r="H71" s="198">
         <v>43147</v>
       </c>
-      <c r="I71" s="182">
+      <c r="I71" s="198">
         <v>43148</v>
       </c>
-      <c r="J71" s="182">
+      <c r="J71" s="198">
         <v>43146</v>
       </c>
-      <c r="K71" s="164"/>
-      <c r="L71" s="167"/>
-      <c r="M71" s="170"/>
-      <c r="N71" s="167"/>
-      <c r="O71" s="170"/>
-      <c r="P71" s="173" t="s">
+      <c r="K71" s="180"/>
+      <c r="L71" s="183"/>
+      <c r="M71" s="186"/>
+      <c r="N71" s="183"/>
+      <c r="O71" s="186"/>
+      <c r="P71" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Q71" s="176"/>
-      <c r="R71" s="179"/>
+      <c r="Q71" s="192"/>
+      <c r="R71" s="195"/>
       <c r="S71" s="82"/>
       <c r="T71" s="85"/>
       <c r="U71" s="84"/>
@@ -15435,23 +15438,23 @@
       <c r="EL71" s="93"/>
     </row>
     <row r="72" spans="2:142" ht="9" customHeight="1">
-      <c r="B72" s="236"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="186"/>
-      <c r="E72" s="189"/>
-      <c r="F72" s="175"/>
-      <c r="G72" s="183"/>
-      <c r="H72" s="183"/>
-      <c r="I72" s="183"/>
-      <c r="J72" s="183"/>
-      <c r="K72" s="166"/>
-      <c r="L72" s="169"/>
-      <c r="M72" s="172"/>
-      <c r="N72" s="169"/>
-      <c r="O72" s="172"/>
-      <c r="P72" s="175"/>
-      <c r="Q72" s="178"/>
-      <c r="R72" s="181"/>
+      <c r="B72" s="202"/>
+      <c r="C72" s="171"/>
+      <c r="D72" s="205"/>
+      <c r="E72" s="208"/>
+      <c r="F72" s="191"/>
+      <c r="G72" s="199"/>
+      <c r="H72" s="199"/>
+      <c r="I72" s="199"/>
+      <c r="J72" s="199"/>
+      <c r="K72" s="182"/>
+      <c r="L72" s="185"/>
+      <c r="M72" s="188"/>
+      <c r="N72" s="185"/>
+      <c r="O72" s="188"/>
+      <c r="P72" s="191"/>
+      <c r="Q72" s="194"/>
+      <c r="R72" s="197"/>
       <c r="S72" s="82"/>
       <c r="T72" s="83"/>
       <c r="U72" s="83"/>
@@ -15578,37 +15581,37 @@
       <c r="EL72" s="94"/>
     </row>
     <row r="73" spans="2:142" ht="9" customHeight="1">
-      <c r="B73" s="244"/>
-      <c r="C73" s="160"/>
-      <c r="D73" s="184"/>
-      <c r="E73" s="187" t="s">
+      <c r="B73" s="200"/>
+      <c r="C73" s="171"/>
+      <c r="D73" s="203"/>
+      <c r="E73" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="173" t="s">
+      <c r="F73" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="G73" s="182" t="s">
+      <c r="G73" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H73" s="182">
+      <c r="H73" s="198">
         <v>43147</v>
       </c>
-      <c r="I73" s="182">
+      <c r="I73" s="198">
         <v>43148</v>
       </c>
-      <c r="J73" s="182">
+      <c r="J73" s="198">
         <v>43146</v>
       </c>
-      <c r="K73" s="164"/>
-      <c r="L73" s="167"/>
-      <c r="M73" s="170"/>
-      <c r="N73" s="167"/>
-      <c r="O73" s="170"/>
-      <c r="P73" s="173" t="s">
+      <c r="K73" s="180"/>
+      <c r="L73" s="183"/>
+      <c r="M73" s="186"/>
+      <c r="N73" s="183"/>
+      <c r="O73" s="186"/>
+      <c r="P73" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Q73" s="176"/>
-      <c r="R73" s="179"/>
+      <c r="Q73" s="192"/>
+      <c r="R73" s="195"/>
       <c r="S73" s="82"/>
       <c r="T73" s="85"/>
       <c r="U73" s="84"/>
@@ -15735,23 +15738,23 @@
       <c r="EL73" s="93"/>
     </row>
     <row r="74" spans="2:142" ht="9" customHeight="1">
-      <c r="B74" s="236"/>
-      <c r="C74" s="160"/>
-      <c r="D74" s="186"/>
-      <c r="E74" s="189"/>
-      <c r="F74" s="175"/>
-      <c r="G74" s="183"/>
-      <c r="H74" s="183"/>
-      <c r="I74" s="183"/>
-      <c r="J74" s="183"/>
-      <c r="K74" s="166"/>
-      <c r="L74" s="169"/>
-      <c r="M74" s="172"/>
-      <c r="N74" s="169"/>
-      <c r="O74" s="172"/>
-      <c r="P74" s="175"/>
-      <c r="Q74" s="178"/>
-      <c r="R74" s="181"/>
+      <c r="B74" s="202"/>
+      <c r="C74" s="171"/>
+      <c r="D74" s="205"/>
+      <c r="E74" s="208"/>
+      <c r="F74" s="191"/>
+      <c r="G74" s="199"/>
+      <c r="H74" s="199"/>
+      <c r="I74" s="199"/>
+      <c r="J74" s="199"/>
+      <c r="K74" s="182"/>
+      <c r="L74" s="185"/>
+      <c r="M74" s="188"/>
+      <c r="N74" s="185"/>
+      <c r="O74" s="188"/>
+      <c r="P74" s="191"/>
+      <c r="Q74" s="194"/>
+      <c r="R74" s="197"/>
       <c r="S74" s="82"/>
       <c r="T74" s="83"/>
       <c r="U74" s="83"/>
@@ -15878,35 +15881,35 @@
       <c r="EL74" s="94"/>
     </row>
     <row r="75" spans="2:142" ht="9" customHeight="1">
-      <c r="B75" s="244"/>
-      <c r="C75" s="160"/>
-      <c r="D75" s="184"/>
-      <c r="E75" s="187"/>
-      <c r="F75" s="173" t="s">
+      <c r="B75" s="200"/>
+      <c r="C75" s="171"/>
+      <c r="D75" s="203"/>
+      <c r="E75" s="206"/>
+      <c r="F75" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="G75" s="182" t="s">
+      <c r="G75" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H75" s="182">
+      <c r="H75" s="198">
         <v>43147</v>
       </c>
-      <c r="I75" s="182">
+      <c r="I75" s="198">
         <v>43148</v>
       </c>
-      <c r="J75" s="182">
+      <c r="J75" s="198">
         <v>43146</v>
       </c>
-      <c r="K75" s="164"/>
-      <c r="L75" s="167"/>
-      <c r="M75" s="170"/>
-      <c r="N75" s="167"/>
-      <c r="O75" s="170"/>
-      <c r="P75" s="173" t="s">
+      <c r="K75" s="180"/>
+      <c r="L75" s="183"/>
+      <c r="M75" s="186"/>
+      <c r="N75" s="183"/>
+      <c r="O75" s="186"/>
+      <c r="P75" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Q75" s="176"/>
-      <c r="R75" s="179"/>
+      <c r="Q75" s="192"/>
+      <c r="R75" s="195"/>
       <c r="S75" s="82"/>
       <c r="T75" s="85"/>
       <c r="U75" s="84"/>
@@ -16033,23 +16036,23 @@
       <c r="EL75" s="93"/>
     </row>
     <row r="76" spans="2:142" ht="9" customHeight="1">
-      <c r="B76" s="236"/>
-      <c r="C76" s="160"/>
-      <c r="D76" s="186"/>
-      <c r="E76" s="189"/>
-      <c r="F76" s="175"/>
-      <c r="G76" s="183"/>
-      <c r="H76" s="183"/>
-      <c r="I76" s="183"/>
-      <c r="J76" s="183"/>
-      <c r="K76" s="166"/>
-      <c r="L76" s="169"/>
-      <c r="M76" s="172"/>
-      <c r="N76" s="169"/>
-      <c r="O76" s="172"/>
-      <c r="P76" s="175"/>
-      <c r="Q76" s="178"/>
-      <c r="R76" s="181"/>
+      <c r="B76" s="202"/>
+      <c r="C76" s="171"/>
+      <c r="D76" s="205"/>
+      <c r="E76" s="208"/>
+      <c r="F76" s="191"/>
+      <c r="G76" s="199"/>
+      <c r="H76" s="199"/>
+      <c r="I76" s="199"/>
+      <c r="J76" s="199"/>
+      <c r="K76" s="182"/>
+      <c r="L76" s="185"/>
+      <c r="M76" s="188"/>
+      <c r="N76" s="185"/>
+      <c r="O76" s="188"/>
+      <c r="P76" s="191"/>
+      <c r="Q76" s="194"/>
+      <c r="R76" s="197"/>
       <c r="S76" s="82"/>
       <c r="T76" s="83"/>
       <c r="U76" s="83"/>
@@ -16176,37 +16179,37 @@
       <c r="EL76" s="94"/>
     </row>
     <row r="77" spans="2:142" ht="9" customHeight="1">
-      <c r="B77" s="244"/>
-      <c r="C77" s="160"/>
-      <c r="D77" s="184"/>
-      <c r="E77" s="187" t="s">
+      <c r="B77" s="200"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="203"/>
+      <c r="E77" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="F77" s="173" t="s">
+      <c r="F77" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="G77" s="182" t="s">
+      <c r="G77" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H77" s="182">
+      <c r="H77" s="198">
         <v>43147</v>
       </c>
-      <c r="I77" s="182">
+      <c r="I77" s="198">
         <v>43148</v>
       </c>
-      <c r="J77" s="182">
+      <c r="J77" s="198">
         <v>43146</v>
       </c>
-      <c r="K77" s="164"/>
-      <c r="L77" s="167"/>
-      <c r="M77" s="170"/>
-      <c r="N77" s="167"/>
-      <c r="O77" s="170"/>
-      <c r="P77" s="173" t="s">
+      <c r="K77" s="180"/>
+      <c r="L77" s="183"/>
+      <c r="M77" s="186"/>
+      <c r="N77" s="183"/>
+      <c r="O77" s="186"/>
+      <c r="P77" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Q77" s="176"/>
-      <c r="R77" s="179"/>
+      <c r="Q77" s="192"/>
+      <c r="R77" s="195"/>
       <c r="S77" s="82"/>
       <c r="T77" s="85"/>
       <c r="U77" s="84"/>
@@ -16333,23 +16336,23 @@
       <c r="EL77" s="93"/>
     </row>
     <row r="78" spans="2:142" ht="9" customHeight="1">
-      <c r="B78" s="236"/>
-      <c r="C78" s="160"/>
-      <c r="D78" s="186"/>
-      <c r="E78" s="189"/>
-      <c r="F78" s="175"/>
-      <c r="G78" s="183"/>
-      <c r="H78" s="183"/>
-      <c r="I78" s="183"/>
-      <c r="J78" s="183"/>
-      <c r="K78" s="166"/>
-      <c r="L78" s="169"/>
-      <c r="M78" s="172"/>
-      <c r="N78" s="169"/>
-      <c r="O78" s="172"/>
-      <c r="P78" s="175"/>
-      <c r="Q78" s="178"/>
-      <c r="R78" s="181"/>
+      <c r="B78" s="202"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="205"/>
+      <c r="E78" s="208"/>
+      <c r="F78" s="191"/>
+      <c r="G78" s="199"/>
+      <c r="H78" s="199"/>
+      <c r="I78" s="199"/>
+      <c r="J78" s="199"/>
+      <c r="K78" s="182"/>
+      <c r="L78" s="185"/>
+      <c r="M78" s="188"/>
+      <c r="N78" s="185"/>
+      <c r="O78" s="188"/>
+      <c r="P78" s="191"/>
+      <c r="Q78" s="194"/>
+      <c r="R78" s="197"/>
       <c r="S78" s="82"/>
       <c r="T78" s="83"/>
       <c r="U78" s="83"/>
@@ -16476,35 +16479,35 @@
       <c r="EL78" s="94"/>
     </row>
     <row r="79" spans="2:142" ht="9" customHeight="1">
-      <c r="B79" s="244"/>
-      <c r="C79" s="160"/>
-      <c r="D79" s="184"/>
-      <c r="E79" s="187"/>
-      <c r="F79" s="173" t="s">
+      <c r="B79" s="200"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="203"/>
+      <c r="E79" s="206"/>
+      <c r="F79" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="G79" s="182" t="s">
+      <c r="G79" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H79" s="182">
+      <c r="H79" s="198">
         <v>43147</v>
       </c>
-      <c r="I79" s="182">
+      <c r="I79" s="198">
         <v>43148</v>
       </c>
-      <c r="J79" s="182">
+      <c r="J79" s="198">
         <v>43146</v>
       </c>
-      <c r="K79" s="164"/>
-      <c r="L79" s="167"/>
-      <c r="M79" s="170"/>
-      <c r="N79" s="167"/>
-      <c r="O79" s="170"/>
-      <c r="P79" s="173" t="s">
+      <c r="K79" s="180"/>
+      <c r="L79" s="183"/>
+      <c r="M79" s="186"/>
+      <c r="N79" s="183"/>
+      <c r="O79" s="186"/>
+      <c r="P79" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Q79" s="176"/>
-      <c r="R79" s="179"/>
+      <c r="Q79" s="192"/>
+      <c r="R79" s="195"/>
       <c r="S79" s="82"/>
       <c r="T79" s="85"/>
       <c r="U79" s="84"/>
@@ -16631,23 +16634,23 @@
       <c r="EL79" s="93"/>
     </row>
     <row r="80" spans="2:142" ht="9" customHeight="1">
-      <c r="B80" s="236"/>
-      <c r="C80" s="160"/>
-      <c r="D80" s="186"/>
-      <c r="E80" s="189"/>
-      <c r="F80" s="175"/>
-      <c r="G80" s="183"/>
-      <c r="H80" s="183"/>
-      <c r="I80" s="183"/>
-      <c r="J80" s="183"/>
-      <c r="K80" s="166"/>
-      <c r="L80" s="169"/>
-      <c r="M80" s="172"/>
-      <c r="N80" s="169"/>
-      <c r="O80" s="172"/>
-      <c r="P80" s="175"/>
-      <c r="Q80" s="178"/>
-      <c r="R80" s="181"/>
+      <c r="B80" s="202"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="205"/>
+      <c r="E80" s="208"/>
+      <c r="F80" s="191"/>
+      <c r="G80" s="199"/>
+      <c r="H80" s="199"/>
+      <c r="I80" s="199"/>
+      <c r="J80" s="199"/>
+      <c r="K80" s="182"/>
+      <c r="L80" s="185"/>
+      <c r="M80" s="188"/>
+      <c r="N80" s="185"/>
+      <c r="O80" s="188"/>
+      <c r="P80" s="191"/>
+      <c r="Q80" s="194"/>
+      <c r="R80" s="197"/>
       <c r="S80" s="82"/>
       <c r="T80" s="83"/>
       <c r="U80" s="83"/>
@@ -16774,37 +16777,37 @@
       <c r="EL80" s="94"/>
     </row>
     <row r="81" spans="2:142" ht="9" customHeight="1">
-      <c r="B81" s="244"/>
-      <c r="C81" s="160"/>
-      <c r="D81" s="184"/>
-      <c r="E81" s="187" t="s">
+      <c r="B81" s="200"/>
+      <c r="C81" s="171"/>
+      <c r="D81" s="203"/>
+      <c r="E81" s="206" t="s">
         <v>101</v>
       </c>
-      <c r="F81" s="173" t="s">
+      <c r="F81" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="G81" s="182" t="s">
+      <c r="G81" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H81" s="182">
+      <c r="H81" s="198">
         <v>43147</v>
       </c>
-      <c r="I81" s="182">
+      <c r="I81" s="198">
         <v>43148</v>
       </c>
-      <c r="J81" s="182">
+      <c r="J81" s="198">
         <v>43146</v>
       </c>
-      <c r="K81" s="164"/>
-      <c r="L81" s="167"/>
-      <c r="M81" s="170"/>
-      <c r="N81" s="167"/>
-      <c r="O81" s="170"/>
-      <c r="P81" s="173" t="s">
+      <c r="K81" s="180"/>
+      <c r="L81" s="183"/>
+      <c r="M81" s="186"/>
+      <c r="N81" s="183"/>
+      <c r="O81" s="186"/>
+      <c r="P81" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Q81" s="176"/>
-      <c r="R81" s="179"/>
+      <c r="Q81" s="192"/>
+      <c r="R81" s="195"/>
       <c r="S81" s="82"/>
       <c r="T81" s="85"/>
       <c r="U81" s="84"/>
@@ -16931,23 +16934,23 @@
       <c r="EL81" s="93"/>
     </row>
     <row r="82" spans="2:142" ht="9" customHeight="1">
-      <c r="B82" s="236"/>
-      <c r="C82" s="160"/>
-      <c r="D82" s="186"/>
-      <c r="E82" s="189"/>
-      <c r="F82" s="175"/>
-      <c r="G82" s="183"/>
-      <c r="H82" s="183"/>
-      <c r="I82" s="183"/>
-      <c r="J82" s="183"/>
-      <c r="K82" s="166"/>
-      <c r="L82" s="169"/>
-      <c r="M82" s="172"/>
-      <c r="N82" s="169"/>
-      <c r="O82" s="172"/>
-      <c r="P82" s="175"/>
-      <c r="Q82" s="178"/>
-      <c r="R82" s="181"/>
+      <c r="B82" s="202"/>
+      <c r="C82" s="171"/>
+      <c r="D82" s="205"/>
+      <c r="E82" s="208"/>
+      <c r="F82" s="191"/>
+      <c r="G82" s="199"/>
+      <c r="H82" s="199"/>
+      <c r="I82" s="199"/>
+      <c r="J82" s="199"/>
+      <c r="K82" s="182"/>
+      <c r="L82" s="185"/>
+      <c r="M82" s="188"/>
+      <c r="N82" s="185"/>
+      <c r="O82" s="188"/>
+      <c r="P82" s="191"/>
+      <c r="Q82" s="194"/>
+      <c r="R82" s="197"/>
       <c r="S82" s="82"/>
       <c r="T82" s="83"/>
       <c r="U82" s="83"/>
@@ -17074,35 +17077,35 @@
       <c r="EL82" s="94"/>
     </row>
     <row r="83" spans="2:142" ht="9" customHeight="1">
-      <c r="B83" s="244"/>
-      <c r="C83" s="160"/>
-      <c r="D83" s="184"/>
-      <c r="E83" s="187"/>
-      <c r="F83" s="173" t="s">
+      <c r="B83" s="200"/>
+      <c r="C83" s="171"/>
+      <c r="D83" s="203"/>
+      <c r="E83" s="206"/>
+      <c r="F83" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="G83" s="182" t="s">
+      <c r="G83" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H83" s="182">
+      <c r="H83" s="198">
         <v>43147</v>
       </c>
-      <c r="I83" s="182">
+      <c r="I83" s="198">
         <v>43148</v>
       </c>
-      <c r="J83" s="182">
+      <c r="J83" s="198">
         <v>43146</v>
       </c>
-      <c r="K83" s="164"/>
-      <c r="L83" s="167"/>
-      <c r="M83" s="170"/>
-      <c r="N83" s="167"/>
-      <c r="O83" s="170"/>
-      <c r="P83" s="173" t="s">
+      <c r="K83" s="180"/>
+      <c r="L83" s="183"/>
+      <c r="M83" s="186"/>
+      <c r="N83" s="183"/>
+      <c r="O83" s="186"/>
+      <c r="P83" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Q83" s="176"/>
-      <c r="R83" s="179"/>
+      <c r="Q83" s="192"/>
+      <c r="R83" s="195"/>
       <c r="S83" s="82"/>
       <c r="T83" s="85"/>
       <c r="U83" s="84"/>
@@ -17229,23 +17232,23 @@
       <c r="EL83" s="93"/>
     </row>
     <row r="84" spans="2:142" ht="9" customHeight="1">
-      <c r="B84" s="236"/>
-      <c r="C84" s="160"/>
-      <c r="D84" s="186"/>
-      <c r="E84" s="189"/>
-      <c r="F84" s="175"/>
-      <c r="G84" s="183"/>
-      <c r="H84" s="183"/>
-      <c r="I84" s="183"/>
-      <c r="J84" s="183"/>
-      <c r="K84" s="166"/>
-      <c r="L84" s="169"/>
-      <c r="M84" s="172"/>
-      <c r="N84" s="169"/>
-      <c r="O84" s="172"/>
-      <c r="P84" s="175"/>
-      <c r="Q84" s="178"/>
-      <c r="R84" s="181"/>
+      <c r="B84" s="202"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="205"/>
+      <c r="E84" s="208"/>
+      <c r="F84" s="191"/>
+      <c r="G84" s="199"/>
+      <c r="H84" s="199"/>
+      <c r="I84" s="199"/>
+      <c r="J84" s="199"/>
+      <c r="K84" s="182"/>
+      <c r="L84" s="185"/>
+      <c r="M84" s="188"/>
+      <c r="N84" s="185"/>
+      <c r="O84" s="188"/>
+      <c r="P84" s="191"/>
+      <c r="Q84" s="194"/>
+      <c r="R84" s="197"/>
       <c r="S84" s="82"/>
       <c r="T84" s="83"/>
       <c r="U84" s="83"/>
@@ -17372,35 +17375,35 @@
       <c r="EL84" s="94"/>
     </row>
     <row r="85" spans="2:142" ht="9" customHeight="1">
-      <c r="B85" s="244"/>
-      <c r="C85" s="160" t="s">
+      <c r="B85" s="200"/>
+      <c r="C85" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="D85" s="184"/>
-      <c r="E85" s="187"/>
-      <c r="F85" s="173"/>
-      <c r="G85" s="182" t="s">
+      <c r="D85" s="203"/>
+      <c r="E85" s="206"/>
+      <c r="F85" s="189"/>
+      <c r="G85" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H85" s="182">
+      <c r="H85" s="198">
         <v>43147</v>
       </c>
-      <c r="I85" s="182">
+      <c r="I85" s="198">
         <v>43149</v>
       </c>
-      <c r="J85" s="182">
+      <c r="J85" s="198">
         <v>43146</v>
       </c>
-      <c r="K85" s="164"/>
-      <c r="L85" s="167"/>
-      <c r="M85" s="170"/>
-      <c r="N85" s="167"/>
-      <c r="O85" s="170"/>
-      <c r="P85" s="173" t="s">
+      <c r="K85" s="180"/>
+      <c r="L85" s="183"/>
+      <c r="M85" s="186"/>
+      <c r="N85" s="183"/>
+      <c r="O85" s="186"/>
+      <c r="P85" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Q85" s="176"/>
-      <c r="R85" s="179"/>
+      <c r="Q85" s="192"/>
+      <c r="R85" s="195"/>
       <c r="S85" s="82"/>
       <c r="T85" s="85"/>
       <c r="U85" s="84"/>
@@ -17527,23 +17530,23 @@
       <c r="EL85" s="93"/>
     </row>
     <row r="86" spans="2:142" ht="9" customHeight="1">
-      <c r="B86" s="236"/>
-      <c r="C86" s="160"/>
-      <c r="D86" s="186"/>
-      <c r="E86" s="189"/>
-      <c r="F86" s="175"/>
-      <c r="G86" s="183"/>
-      <c r="H86" s="183"/>
-      <c r="I86" s="183"/>
-      <c r="J86" s="183"/>
-      <c r="K86" s="166"/>
-      <c r="L86" s="169"/>
-      <c r="M86" s="172"/>
-      <c r="N86" s="169"/>
-      <c r="O86" s="172"/>
-      <c r="P86" s="175"/>
-      <c r="Q86" s="178"/>
-      <c r="R86" s="181"/>
+      <c r="B86" s="202"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="205"/>
+      <c r="E86" s="208"/>
+      <c r="F86" s="191"/>
+      <c r="G86" s="199"/>
+      <c r="H86" s="199"/>
+      <c r="I86" s="199"/>
+      <c r="J86" s="199"/>
+      <c r="K86" s="182"/>
+      <c r="L86" s="185"/>
+      <c r="M86" s="188"/>
+      <c r="N86" s="185"/>
+      <c r="O86" s="188"/>
+      <c r="P86" s="191"/>
+      <c r="Q86" s="194"/>
+      <c r="R86" s="197"/>
       <c r="S86" s="82"/>
       <c r="T86" s="83"/>
       <c r="U86" s="83"/>
@@ -17670,37 +17673,37 @@
       <c r="EL86" s="94"/>
     </row>
     <row r="87" spans="2:142" ht="9" customHeight="1">
-      <c r="B87" s="244"/>
-      <c r="C87" s="160" t="s">
+      <c r="B87" s="200"/>
+      <c r="C87" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="D87" s="184"/>
-      <c r="E87" s="187" t="s">
+      <c r="D87" s="203"/>
+      <c r="E87" s="206" t="s">
         <v>104</v>
       </c>
-      <c r="F87" s="173"/>
-      <c r="G87" s="182" t="s">
+      <c r="F87" s="189"/>
+      <c r="G87" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H87" s="182">
+      <c r="H87" s="198">
         <v>43147</v>
       </c>
-      <c r="I87" s="182">
+      <c r="I87" s="198">
         <v>43149</v>
       </c>
-      <c r="J87" s="182">
+      <c r="J87" s="198">
         <v>43146</v>
       </c>
-      <c r="K87" s="164"/>
-      <c r="L87" s="167"/>
-      <c r="M87" s="170"/>
-      <c r="N87" s="167"/>
-      <c r="O87" s="170"/>
-      <c r="P87" s="173" t="s">
+      <c r="K87" s="180"/>
+      <c r="L87" s="183"/>
+      <c r="M87" s="186"/>
+      <c r="N87" s="183"/>
+      <c r="O87" s="186"/>
+      <c r="P87" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Q87" s="176"/>
-      <c r="R87" s="179"/>
+      <c r="Q87" s="192"/>
+      <c r="R87" s="195"/>
       <c r="S87" s="82"/>
       <c r="T87" s="85"/>
       <c r="U87" s="84"/>
@@ -17827,23 +17830,23 @@
       <c r="EL87" s="93"/>
     </row>
     <row r="88" spans="2:142" ht="9" customHeight="1">
-      <c r="B88" s="236"/>
-      <c r="C88" s="160"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="189"/>
-      <c r="F88" s="175"/>
-      <c r="G88" s="183"/>
-      <c r="H88" s="183"/>
-      <c r="I88" s="183"/>
-      <c r="J88" s="183"/>
-      <c r="K88" s="166"/>
-      <c r="L88" s="169"/>
-      <c r="M88" s="172"/>
-      <c r="N88" s="169"/>
-      <c r="O88" s="172"/>
-      <c r="P88" s="175"/>
-      <c r="Q88" s="178"/>
-      <c r="R88" s="181"/>
+      <c r="B88" s="202"/>
+      <c r="C88" s="171"/>
+      <c r="D88" s="205"/>
+      <c r="E88" s="208"/>
+      <c r="F88" s="191"/>
+      <c r="G88" s="199"/>
+      <c r="H88" s="199"/>
+      <c r="I88" s="199"/>
+      <c r="J88" s="199"/>
+      <c r="K88" s="182"/>
+      <c r="L88" s="185"/>
+      <c r="M88" s="188"/>
+      <c r="N88" s="185"/>
+      <c r="O88" s="188"/>
+      <c r="P88" s="191"/>
+      <c r="Q88" s="194"/>
+      <c r="R88" s="197"/>
       <c r="S88" s="82"/>
       <c r="T88" s="83"/>
       <c r="U88" s="83"/>
@@ -17970,35 +17973,35 @@
       <c r="EL88" s="94"/>
     </row>
     <row r="89" spans="2:142" ht="9" customHeight="1">
-      <c r="B89" s="244"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="184"/>
-      <c r="E89" s="187" t="s">
+      <c r="B89" s="200"/>
+      <c r="C89" s="171"/>
+      <c r="D89" s="203"/>
+      <c r="E89" s="206" t="s">
         <v>105</v>
       </c>
-      <c r="F89" s="173"/>
-      <c r="G89" s="182" t="s">
+      <c r="F89" s="189"/>
+      <c r="G89" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H89" s="182">
+      <c r="H89" s="198">
         <v>43147</v>
       </c>
-      <c r="I89" s="182">
+      <c r="I89" s="198">
         <v>43149</v>
       </c>
-      <c r="J89" s="182">
+      <c r="J89" s="198">
         <v>43146</v>
       </c>
-      <c r="K89" s="164"/>
-      <c r="L89" s="167"/>
-      <c r="M89" s="170"/>
-      <c r="N89" s="167"/>
-      <c r="O89" s="170"/>
-      <c r="P89" s="173" t="s">
+      <c r="K89" s="180"/>
+      <c r="L89" s="183"/>
+      <c r="M89" s="186"/>
+      <c r="N89" s="183"/>
+      <c r="O89" s="186"/>
+      <c r="P89" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="Q89" s="176"/>
-      <c r="R89" s="179"/>
+      <c r="Q89" s="192"/>
+      <c r="R89" s="195"/>
       <c r="S89" s="82"/>
       <c r="T89" s="85"/>
       <c r="U89" s="84"/>
@@ -18125,23 +18128,23 @@
       <c r="EL89" s="93"/>
     </row>
     <row r="90" spans="2:142" ht="9" customHeight="1">
-      <c r="B90" s="236"/>
-      <c r="C90" s="160"/>
-      <c r="D90" s="186"/>
-      <c r="E90" s="189"/>
-      <c r="F90" s="175"/>
-      <c r="G90" s="183"/>
-      <c r="H90" s="183"/>
-      <c r="I90" s="183"/>
-      <c r="J90" s="183"/>
-      <c r="K90" s="166"/>
-      <c r="L90" s="169"/>
-      <c r="M90" s="172"/>
-      <c r="N90" s="169"/>
-      <c r="O90" s="172"/>
-      <c r="P90" s="175"/>
-      <c r="Q90" s="178"/>
-      <c r="R90" s="181"/>
+      <c r="B90" s="202"/>
+      <c r="C90" s="171"/>
+      <c r="D90" s="205"/>
+      <c r="E90" s="208"/>
+      <c r="F90" s="191"/>
+      <c r="G90" s="199"/>
+      <c r="H90" s="199"/>
+      <c r="I90" s="199"/>
+      <c r="J90" s="199"/>
+      <c r="K90" s="182"/>
+      <c r="L90" s="185"/>
+      <c r="M90" s="188"/>
+      <c r="N90" s="185"/>
+      <c r="O90" s="188"/>
+      <c r="P90" s="191"/>
+      <c r="Q90" s="194"/>
+      <c r="R90" s="197"/>
       <c r="S90" s="82"/>
       <c r="T90" s="83"/>
       <c r="U90" s="83"/>
@@ -18268,43 +18271,43 @@
       <c r="EL90" s="94"/>
     </row>
     <row r="91" spans="2:142" ht="9" customHeight="1">
-      <c r="B91" s="244" t="s">
+      <c r="B91" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="160" t="s">
+      <c r="C91" s="171" t="s">
         <v>106</v>
       </c>
-      <c r="D91" s="184"/>
-      <c r="E91" s="187" t="s">
+      <c r="D91" s="203"/>
+      <c r="E91" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="F91" s="173" t="s">
+      <c r="F91" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="G91" s="182" t="s">
+      <c r="G91" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H91" s="182">
+      <c r="H91" s="198">
         <v>43292</v>
       </c>
-      <c r="I91" s="182">
+      <c r="I91" s="198">
         <v>43293</v>
       </c>
-      <c r="J91" s="182">
+      <c r="J91" s="198">
         <v>43292</v>
       </c>
-      <c r="K91" s="182">
+      <c r="K91" s="198">
         <v>43293</v>
       </c>
-      <c r="L91" s="167"/>
-      <c r="M91" s="170"/>
-      <c r="N91" s="167"/>
-      <c r="O91" s="170"/>
-      <c r="P91" s="173" t="s">
+      <c r="L91" s="183"/>
+      <c r="M91" s="186"/>
+      <c r="N91" s="183"/>
+      <c r="O91" s="186"/>
+      <c r="P91" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="Q91" s="176"/>
-      <c r="R91" s="179"/>
+      <c r="Q91" s="192"/>
+      <c r="R91" s="195"/>
       <c r="S91" s="82"/>
       <c r="T91" s="85"/>
       <c r="U91" s="84"/>
@@ -18431,23 +18434,23 @@
       <c r="EL91" s="93"/>
     </row>
     <row r="92" spans="2:142" ht="9" customHeight="1">
-      <c r="B92" s="236"/>
-      <c r="C92" s="160"/>
-      <c r="D92" s="186"/>
-      <c r="E92" s="189"/>
-      <c r="F92" s="175"/>
-      <c r="G92" s="183"/>
-      <c r="H92" s="183"/>
-      <c r="I92" s="183"/>
-      <c r="J92" s="183"/>
-      <c r="K92" s="183"/>
-      <c r="L92" s="169"/>
-      <c r="M92" s="172"/>
-      <c r="N92" s="169"/>
-      <c r="O92" s="172"/>
-      <c r="P92" s="175"/>
-      <c r="Q92" s="178"/>
-      <c r="R92" s="181"/>
+      <c r="B92" s="202"/>
+      <c r="C92" s="171"/>
+      <c r="D92" s="205"/>
+      <c r="E92" s="208"/>
+      <c r="F92" s="191"/>
+      <c r="G92" s="199"/>
+      <c r="H92" s="199"/>
+      <c r="I92" s="199"/>
+      <c r="J92" s="199"/>
+      <c r="K92" s="199"/>
+      <c r="L92" s="185"/>
+      <c r="M92" s="188"/>
+      <c r="N92" s="185"/>
+      <c r="O92" s="188"/>
+      <c r="P92" s="191"/>
+      <c r="Q92" s="194"/>
+      <c r="R92" s="197"/>
       <c r="S92" s="82"/>
       <c r="T92" s="83"/>
       <c r="U92" s="83"/>
@@ -18574,39 +18577,39 @@
       <c r="EL92" s="94"/>
     </row>
     <row r="93" spans="2:142" ht="9" customHeight="1">
-      <c r="B93" s="244"/>
-      <c r="C93" s="160" t="s">
+      <c r="B93" s="200"/>
+      <c r="C93" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="184"/>
-      <c r="E93" s="187" t="s">
+      <c r="D93" s="203"/>
+      <c r="E93" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="F93" s="173"/>
-      <c r="G93" s="182" t="s">
+      <c r="F93" s="189"/>
+      <c r="G93" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H93" s="182">
+      <c r="H93" s="198">
         <v>43293</v>
       </c>
-      <c r="I93" s="182">
+      <c r="I93" s="198">
         <v>43296</v>
       </c>
-      <c r="J93" s="182">
+      <c r="J93" s="198">
         <v>43293</v>
       </c>
-      <c r="K93" s="182">
+      <c r="K93" s="198">
         <v>43296</v>
       </c>
-      <c r="L93" s="167"/>
-      <c r="M93" s="170"/>
-      <c r="N93" s="167"/>
-      <c r="O93" s="170"/>
-      <c r="P93" s="173" t="s">
+      <c r="L93" s="183"/>
+      <c r="M93" s="186"/>
+      <c r="N93" s="183"/>
+      <c r="O93" s="186"/>
+      <c r="P93" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="Q93" s="176"/>
-      <c r="R93" s="179"/>
+      <c r="Q93" s="192"/>
+      <c r="R93" s="195"/>
       <c r="S93" s="82"/>
       <c r="T93" s="85"/>
       <c r="U93" s="84"/>
@@ -18733,23 +18736,23 @@
       <c r="EL93" s="93"/>
     </row>
     <row r="94" spans="2:142" ht="9" customHeight="1">
-      <c r="B94" s="236"/>
-      <c r="C94" s="160"/>
-      <c r="D94" s="186"/>
-      <c r="E94" s="189"/>
-      <c r="F94" s="175"/>
-      <c r="G94" s="183"/>
-      <c r="H94" s="183"/>
-      <c r="I94" s="183"/>
-      <c r="J94" s="183"/>
-      <c r="K94" s="183"/>
-      <c r="L94" s="169"/>
-      <c r="M94" s="172"/>
-      <c r="N94" s="169"/>
-      <c r="O94" s="172"/>
-      <c r="P94" s="175"/>
-      <c r="Q94" s="178"/>
-      <c r="R94" s="181"/>
+      <c r="B94" s="202"/>
+      <c r="C94" s="171"/>
+      <c r="D94" s="205"/>
+      <c r="E94" s="208"/>
+      <c r="F94" s="191"/>
+      <c r="G94" s="199"/>
+      <c r="H94" s="199"/>
+      <c r="I94" s="199"/>
+      <c r="J94" s="199"/>
+      <c r="K94" s="199"/>
+      <c r="L94" s="185"/>
+      <c r="M94" s="188"/>
+      <c r="N94" s="185"/>
+      <c r="O94" s="188"/>
+      <c r="P94" s="191"/>
+      <c r="Q94" s="194"/>
+      <c r="R94" s="197"/>
       <c r="S94" s="82"/>
       <c r="T94" s="83"/>
       <c r="U94" s="83"/>
@@ -18876,39 +18879,39 @@
       <c r="EL94" s="94"/>
     </row>
     <row r="95" spans="2:142" ht="9" customHeight="1">
-      <c r="B95" s="244"/>
-      <c r="C95" s="160" t="s">
+      <c r="B95" s="200"/>
+      <c r="C95" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="184"/>
-      <c r="E95" s="187" t="s">
+      <c r="D95" s="203"/>
+      <c r="E95" s="206" t="s">
         <v>120</v>
       </c>
-      <c r="F95" s="173"/>
-      <c r="G95" s="182" t="s">
+      <c r="F95" s="189"/>
+      <c r="G95" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H95" s="182">
+      <c r="H95" s="198">
         <v>43294</v>
       </c>
-      <c r="I95" s="182">
+      <c r="I95" s="198">
         <v>43295</v>
       </c>
-      <c r="J95" s="182">
+      <c r="J95" s="198">
         <v>43294</v>
       </c>
-      <c r="K95" s="182">
+      <c r="K95" s="198">
         <v>43296</v>
       </c>
-      <c r="L95" s="167"/>
-      <c r="M95" s="170"/>
-      <c r="N95" s="167"/>
-      <c r="O95" s="170"/>
-      <c r="P95" s="173" t="s">
+      <c r="L95" s="183"/>
+      <c r="M95" s="186"/>
+      <c r="N95" s="183"/>
+      <c r="O95" s="186"/>
+      <c r="P95" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="Q95" s="176"/>
-      <c r="R95" s="179"/>
+      <c r="Q95" s="192"/>
+      <c r="R95" s="195"/>
       <c r="S95" s="82"/>
       <c r="T95" s="85"/>
       <c r="U95" s="84"/>
@@ -19035,23 +19038,23 @@
       <c r="EL95" s="93"/>
     </row>
     <row r="96" spans="2:142" ht="9" customHeight="1">
-      <c r="B96" s="236"/>
-      <c r="C96" s="160"/>
-      <c r="D96" s="186"/>
-      <c r="E96" s="189"/>
-      <c r="F96" s="175"/>
-      <c r="G96" s="183"/>
-      <c r="H96" s="183"/>
-      <c r="I96" s="183"/>
-      <c r="J96" s="183"/>
-      <c r="K96" s="183"/>
-      <c r="L96" s="169"/>
-      <c r="M96" s="172"/>
-      <c r="N96" s="169"/>
-      <c r="O96" s="172"/>
-      <c r="P96" s="175"/>
-      <c r="Q96" s="178"/>
-      <c r="R96" s="181"/>
+      <c r="B96" s="202"/>
+      <c r="C96" s="171"/>
+      <c r="D96" s="205"/>
+      <c r="E96" s="208"/>
+      <c r="F96" s="191"/>
+      <c r="G96" s="199"/>
+      <c r="H96" s="199"/>
+      <c r="I96" s="199"/>
+      <c r="J96" s="199"/>
+      <c r="K96" s="199"/>
+      <c r="L96" s="185"/>
+      <c r="M96" s="188"/>
+      <c r="N96" s="185"/>
+      <c r="O96" s="188"/>
+      <c r="P96" s="191"/>
+      <c r="Q96" s="194"/>
+      <c r="R96" s="197"/>
       <c r="S96" s="82"/>
       <c r="T96" s="83"/>
       <c r="U96" s="83"/>
@@ -19178,39 +19181,39 @@
       <c r="EL96" s="94"/>
     </row>
     <row r="97" spans="2:142" ht="9" customHeight="1">
-      <c r="B97" s="244"/>
-      <c r="C97" s="160" t="s">
+      <c r="B97" s="200"/>
+      <c r="C97" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="D97" s="184"/>
-      <c r="E97" s="187" t="s">
+      <c r="D97" s="203"/>
+      <c r="E97" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="F97" s="173"/>
-      <c r="G97" s="182" t="s">
+      <c r="F97" s="189"/>
+      <c r="G97" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H97" s="182">
+      <c r="H97" s="198">
         <v>43295</v>
       </c>
-      <c r="I97" s="182">
+      <c r="I97" s="198">
         <v>43296</v>
       </c>
-      <c r="J97" s="182">
+      <c r="J97" s="198">
         <v>43295</v>
       </c>
-      <c r="K97" s="182">
+      <c r="K97" s="198">
         <v>43296</v>
       </c>
-      <c r="L97" s="167"/>
-      <c r="M97" s="170"/>
-      <c r="N97" s="167"/>
-      <c r="O97" s="170"/>
-      <c r="P97" s="173" t="s">
+      <c r="L97" s="183"/>
+      <c r="M97" s="186"/>
+      <c r="N97" s="183"/>
+      <c r="O97" s="186"/>
+      <c r="P97" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="Q97" s="176"/>
-      <c r="R97" s="179"/>
+      <c r="Q97" s="192"/>
+      <c r="R97" s="195"/>
       <c r="S97" s="82"/>
       <c r="T97" s="85"/>
       <c r="U97" s="84"/>
@@ -19337,23 +19340,23 @@
       <c r="EL97" s="93"/>
     </row>
     <row r="98" spans="2:142" ht="9" customHeight="1">
-      <c r="B98" s="236"/>
-      <c r="C98" s="160"/>
-      <c r="D98" s="186"/>
-      <c r="E98" s="189"/>
-      <c r="F98" s="175"/>
-      <c r="G98" s="183"/>
-      <c r="H98" s="183"/>
-      <c r="I98" s="183"/>
-      <c r="J98" s="183"/>
-      <c r="K98" s="183"/>
-      <c r="L98" s="169"/>
-      <c r="M98" s="172"/>
-      <c r="N98" s="169"/>
-      <c r="O98" s="172"/>
-      <c r="P98" s="175"/>
-      <c r="Q98" s="178"/>
-      <c r="R98" s="181"/>
+      <c r="B98" s="202"/>
+      <c r="C98" s="171"/>
+      <c r="D98" s="205"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="191"/>
+      <c r="G98" s="199"/>
+      <c r="H98" s="199"/>
+      <c r="I98" s="199"/>
+      <c r="J98" s="199"/>
+      <c r="K98" s="199"/>
+      <c r="L98" s="185"/>
+      <c r="M98" s="188"/>
+      <c r="N98" s="185"/>
+      <c r="O98" s="188"/>
+      <c r="P98" s="191"/>
+      <c r="Q98" s="194"/>
+      <c r="R98" s="197"/>
       <c r="S98" s="82"/>
       <c r="T98" s="83"/>
       <c r="U98" s="83"/>
@@ -19480,39 +19483,39 @@
       <c r="EL98" s="94"/>
     </row>
     <row r="99" spans="2:142" ht="9" customHeight="1">
-      <c r="B99" s="244"/>
-      <c r="C99" s="160" t="s">
+      <c r="B99" s="200"/>
+      <c r="C99" s="171" t="s">
         <v>111</v>
       </c>
-      <c r="D99" s="184"/>
-      <c r="E99" s="187" t="s">
+      <c r="D99" s="203"/>
+      <c r="E99" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="F99" s="173"/>
-      <c r="G99" s="182" t="s">
+      <c r="F99" s="189"/>
+      <c r="G99" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H99" s="182">
+      <c r="H99" s="198">
         <v>43296</v>
       </c>
-      <c r="I99" s="182">
+      <c r="I99" s="198">
         <v>43296</v>
       </c>
-      <c r="J99" s="182">
+      <c r="J99" s="198">
         <v>43296</v>
       </c>
-      <c r="K99" s="182">
+      <c r="K99" s="198">
         <v>43296</v>
       </c>
-      <c r="L99" s="167"/>
-      <c r="M99" s="170"/>
-      <c r="N99" s="167"/>
-      <c r="O99" s="170"/>
-      <c r="P99" s="173" t="s">
+      <c r="L99" s="183"/>
+      <c r="M99" s="186"/>
+      <c r="N99" s="183"/>
+      <c r="O99" s="186"/>
+      <c r="P99" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="Q99" s="176"/>
-      <c r="R99" s="179"/>
+      <c r="Q99" s="192"/>
+      <c r="R99" s="195"/>
       <c r="S99" s="82"/>
       <c r="T99" s="85"/>
       <c r="U99" s="84"/>
@@ -19639,23 +19642,23 @@
       <c r="EL99" s="93"/>
     </row>
     <row r="100" spans="2:142" ht="9" customHeight="1">
-      <c r="B100" s="236"/>
-      <c r="C100" s="160"/>
-      <c r="D100" s="186"/>
-      <c r="E100" s="189"/>
-      <c r="F100" s="175"/>
-      <c r="G100" s="183"/>
-      <c r="H100" s="183"/>
-      <c r="I100" s="183"/>
-      <c r="J100" s="183"/>
-      <c r="K100" s="183"/>
-      <c r="L100" s="169"/>
-      <c r="M100" s="172"/>
-      <c r="N100" s="169"/>
-      <c r="O100" s="172"/>
-      <c r="P100" s="175"/>
-      <c r="Q100" s="178"/>
-      <c r="R100" s="181"/>
+      <c r="B100" s="202"/>
+      <c r="C100" s="171"/>
+      <c r="D100" s="205"/>
+      <c r="E100" s="208"/>
+      <c r="F100" s="191"/>
+      <c r="G100" s="199"/>
+      <c r="H100" s="199"/>
+      <c r="I100" s="199"/>
+      <c r="J100" s="199"/>
+      <c r="K100" s="199"/>
+      <c r="L100" s="185"/>
+      <c r="M100" s="188"/>
+      <c r="N100" s="185"/>
+      <c r="O100" s="188"/>
+      <c r="P100" s="191"/>
+      <c r="Q100" s="194"/>
+      <c r="R100" s="197"/>
       <c r="S100" s="82"/>
       <c r="T100" s="83"/>
       <c r="U100" s="83"/>
@@ -19782,39 +19785,39 @@
       <c r="EL100" s="94"/>
     </row>
     <row r="101" spans="2:142" ht="9" customHeight="1">
-      <c r="B101" s="244"/>
-      <c r="C101" s="160" t="s">
+      <c r="B101" s="200"/>
+      <c r="C101" s="171" t="s">
         <v>112</v>
       </c>
-      <c r="D101" s="184"/>
-      <c r="E101" s="187" t="s">
+      <c r="D101" s="203"/>
+      <c r="E101" s="206" t="s">
         <v>117</v>
       </c>
-      <c r="F101" s="173"/>
-      <c r="G101" s="182" t="s">
+      <c r="F101" s="189"/>
+      <c r="G101" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H101" s="182">
+      <c r="H101" s="198">
         <v>43292</v>
       </c>
-      <c r="I101" s="182">
+      <c r="I101" s="198">
         <v>43293</v>
       </c>
-      <c r="J101" s="182">
+      <c r="J101" s="198">
         <v>43292</v>
       </c>
-      <c r="K101" s="182">
+      <c r="K101" s="198">
         <v>43293</v>
       </c>
-      <c r="L101" s="167"/>
-      <c r="M101" s="170"/>
-      <c r="N101" s="167"/>
-      <c r="O101" s="170"/>
-      <c r="P101" s="173" t="s">
+      <c r="L101" s="183"/>
+      <c r="M101" s="186"/>
+      <c r="N101" s="183"/>
+      <c r="O101" s="186"/>
+      <c r="P101" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="Q101" s="176"/>
-      <c r="R101" s="179"/>
+      <c r="Q101" s="192"/>
+      <c r="R101" s="195"/>
       <c r="S101" s="82"/>
       <c r="T101" s="85"/>
       <c r="U101" s="84"/>
@@ -19941,23 +19944,23 @@
       <c r="EL101" s="93"/>
     </row>
     <row r="102" spans="2:142" ht="9" customHeight="1">
-      <c r="B102" s="236"/>
-      <c r="C102" s="160"/>
-      <c r="D102" s="186"/>
-      <c r="E102" s="189"/>
-      <c r="F102" s="175"/>
-      <c r="G102" s="183"/>
-      <c r="H102" s="183"/>
-      <c r="I102" s="183"/>
-      <c r="J102" s="183"/>
-      <c r="K102" s="183"/>
-      <c r="L102" s="169"/>
-      <c r="M102" s="172"/>
-      <c r="N102" s="169"/>
-      <c r="O102" s="172"/>
-      <c r="P102" s="175"/>
-      <c r="Q102" s="178"/>
-      <c r="R102" s="181"/>
+      <c r="B102" s="202"/>
+      <c r="C102" s="171"/>
+      <c r="D102" s="205"/>
+      <c r="E102" s="208"/>
+      <c r="F102" s="191"/>
+      <c r="G102" s="199"/>
+      <c r="H102" s="199"/>
+      <c r="I102" s="199"/>
+      <c r="J102" s="199"/>
+      <c r="K102" s="199"/>
+      <c r="L102" s="185"/>
+      <c r="M102" s="188"/>
+      <c r="N102" s="185"/>
+      <c r="O102" s="188"/>
+      <c r="P102" s="191"/>
+      <c r="Q102" s="194"/>
+      <c r="R102" s="197"/>
       <c r="S102" s="82"/>
       <c r="T102" s="83"/>
       <c r="U102" s="83"/>
@@ -20084,47 +20087,47 @@
       <c r="EL102" s="94"/>
     </row>
     <row r="103" spans="2:142" ht="9" customHeight="1">
-      <c r="B103" s="244"/>
-      <c r="C103" s="160" t="s">
+      <c r="B103" s="200"/>
+      <c r="C103" s="171" t="s">
         <v>113</v>
       </c>
-      <c r="D103" s="184"/>
-      <c r="E103" s="187" t="s">
+      <c r="D103" s="203"/>
+      <c r="E103" s="206" t="s">
         <v>115</v>
       </c>
-      <c r="F103" s="173"/>
-      <c r="G103" s="182" t="s">
+      <c r="F103" s="189"/>
+      <c r="G103" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H103" s="182">
+      <c r="H103" s="198">
         <v>43293</v>
       </c>
-      <c r="I103" s="182">
+      <c r="I103" s="198">
         <v>43293</v>
       </c>
-      <c r="J103" s="182">
+      <c r="J103" s="198">
         <v>43293</v>
       </c>
-      <c r="K103" s="182">
+      <c r="K103" s="198">
         <v>43293</v>
       </c>
-      <c r="L103" s="182">
+      <c r="L103" s="198">
         <v>43293</v>
       </c>
-      <c r="M103" s="182">
+      <c r="M103" s="198">
         <v>43293</v>
       </c>
-      <c r="N103" s="182">
+      <c r="N103" s="198">
         <v>43293</v>
       </c>
-      <c r="O103" s="182">
+      <c r="O103" s="198">
         <v>43293</v>
       </c>
-      <c r="P103" s="173" t="s">
+      <c r="P103" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="Q103" s="176"/>
-      <c r="R103" s="179"/>
+      <c r="Q103" s="192"/>
+      <c r="R103" s="195"/>
       <c r="S103" s="82"/>
       <c r="T103" s="85"/>
       <c r="U103" s="84"/>
@@ -20251,23 +20254,23 @@
       <c r="EL103" s="93"/>
     </row>
     <row r="104" spans="2:142" ht="9" customHeight="1">
-      <c r="B104" s="236"/>
-      <c r="C104" s="160"/>
-      <c r="D104" s="186"/>
-      <c r="E104" s="189"/>
-      <c r="F104" s="175"/>
-      <c r="G104" s="183"/>
-      <c r="H104" s="183"/>
-      <c r="I104" s="183"/>
-      <c r="J104" s="183"/>
-      <c r="K104" s="183"/>
-      <c r="L104" s="183"/>
-      <c r="M104" s="183"/>
-      <c r="N104" s="183"/>
-      <c r="O104" s="183"/>
-      <c r="P104" s="175"/>
-      <c r="Q104" s="178"/>
-      <c r="R104" s="181"/>
+      <c r="B104" s="202"/>
+      <c r="C104" s="171"/>
+      <c r="D104" s="205"/>
+      <c r="E104" s="208"/>
+      <c r="F104" s="191"/>
+      <c r="G104" s="199"/>
+      <c r="H104" s="199"/>
+      <c r="I104" s="199"/>
+      <c r="J104" s="199"/>
+      <c r="K104" s="199"/>
+      <c r="L104" s="199"/>
+      <c r="M104" s="199"/>
+      <c r="N104" s="199"/>
+      <c r="O104" s="199"/>
+      <c r="P104" s="191"/>
+      <c r="Q104" s="194"/>
+      <c r="R104" s="197"/>
       <c r="S104" s="82"/>
       <c r="T104" s="83"/>
       <c r="U104" s="83"/>
@@ -20394,39 +20397,39 @@
       <c r="EL104" s="94"/>
     </row>
     <row r="105" spans="2:142" ht="9" customHeight="1">
-      <c r="B105" s="244"/>
-      <c r="C105" s="160" t="s">
+      <c r="B105" s="200"/>
+      <c r="C105" s="171" t="s">
         <v>114</v>
       </c>
-      <c r="D105" s="184"/>
-      <c r="E105" s="187" t="s">
+      <c r="D105" s="203"/>
+      <c r="E105" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="F105" s="173"/>
-      <c r="G105" s="182" t="s">
+      <c r="F105" s="189"/>
+      <c r="G105" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H105" s="182">
+      <c r="H105" s="198">
         <v>43292</v>
       </c>
-      <c r="I105" s="182">
+      <c r="I105" s="198">
         <v>43293</v>
       </c>
-      <c r="J105" s="182">
+      <c r="J105" s="198">
         <v>43292</v>
       </c>
-      <c r="K105" s="182">
+      <c r="K105" s="198">
         <v>43294</v>
       </c>
-      <c r="L105" s="167"/>
-      <c r="M105" s="170"/>
-      <c r="N105" s="167"/>
-      <c r="O105" s="170"/>
-      <c r="P105" s="173" t="s">
+      <c r="L105" s="183"/>
+      <c r="M105" s="186"/>
+      <c r="N105" s="183"/>
+      <c r="O105" s="186"/>
+      <c r="P105" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="Q105" s="176"/>
-      <c r="R105" s="179"/>
+      <c r="Q105" s="192"/>
+      <c r="R105" s="195"/>
       <c r="S105" s="82"/>
       <c r="T105" s="85"/>
       <c r="U105" s="84"/>
@@ -20553,23 +20556,23 @@
       <c r="EL105" s="93"/>
     </row>
     <row r="106" spans="2:142" ht="9" customHeight="1">
-      <c r="B106" s="245"/>
-      <c r="C106" s="160"/>
-      <c r="D106" s="185"/>
-      <c r="E106" s="188"/>
-      <c r="F106" s="174"/>
-      <c r="G106" s="190"/>
-      <c r="H106" s="190"/>
-      <c r="I106" s="190"/>
-      <c r="J106" s="190"/>
-      <c r="K106" s="190"/>
-      <c r="L106" s="168"/>
-      <c r="M106" s="171"/>
-      <c r="N106" s="168"/>
-      <c r="O106" s="171"/>
-      <c r="P106" s="174"/>
-      <c r="Q106" s="177"/>
-      <c r="R106" s="180"/>
+      <c r="B106" s="201"/>
+      <c r="C106" s="171"/>
+      <c r="D106" s="204"/>
+      <c r="E106" s="207"/>
+      <c r="F106" s="190"/>
+      <c r="G106" s="209"/>
+      <c r="H106" s="209"/>
+      <c r="I106" s="209"/>
+      <c r="J106" s="209"/>
+      <c r="K106" s="209"/>
+      <c r="L106" s="184"/>
+      <c r="M106" s="187"/>
+      <c r="N106" s="184"/>
+      <c r="O106" s="187"/>
+      <c r="P106" s="190"/>
+      <c r="Q106" s="193"/>
+      <c r="R106" s="196"/>
       <c r="S106" s="82"/>
       <c r="T106" s="83"/>
       <c r="U106" s="83"/>
@@ -20696,23 +20699,23 @@
       <c r="EL106" s="136"/>
     </row>
     <row r="107" spans="2:142" ht="13.5" customHeight="1">
-      <c r="B107" s="236"/>
-      <c r="C107" s="160"/>
-      <c r="D107" s="186"/>
-      <c r="E107" s="189"/>
-      <c r="F107" s="175"/>
-      <c r="G107" s="183"/>
-      <c r="H107" s="183"/>
-      <c r="I107" s="183"/>
-      <c r="J107" s="183"/>
-      <c r="K107" s="183"/>
-      <c r="L107" s="169"/>
-      <c r="M107" s="172"/>
-      <c r="N107" s="169"/>
-      <c r="O107" s="172"/>
-      <c r="P107" s="175"/>
-      <c r="Q107" s="178"/>
-      <c r="R107" s="181"/>
+      <c r="B107" s="202"/>
+      <c r="C107" s="171"/>
+      <c r="D107" s="205"/>
+      <c r="E107" s="208"/>
+      <c r="F107" s="191"/>
+      <c r="G107" s="199"/>
+      <c r="H107" s="199"/>
+      <c r="I107" s="199"/>
+      <c r="J107" s="199"/>
+      <c r="K107" s="199"/>
+      <c r="L107" s="185"/>
+      <c r="M107" s="188"/>
+      <c r="N107" s="185"/>
+      <c r="O107" s="188"/>
+      <c r="P107" s="191"/>
+      <c r="Q107" s="194"/>
+      <c r="R107" s="197"/>
       <c r="S107" s="82"/>
       <c r="T107" s="83"/>
       <c r="U107" s="83"/>
@@ -20839,33 +20842,33 @@
       <c r="EL107" s="136"/>
     </row>
     <row r="108" spans="2:142" s="145" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B108" s="246"/>
-      <c r="C108" s="160" t="s">
+      <c r="B108" s="173"/>
+      <c r="C108" s="171" t="s">
         <v>137</v>
       </c>
-      <c r="D108" s="161"/>
-      <c r="E108" s="158"/>
-      <c r="F108" s="158"/>
-      <c r="G108" s="154" t="s">
+      <c r="D108" s="177"/>
+      <c r="E108" s="169"/>
+      <c r="F108" s="169"/>
+      <c r="G108" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="H108" s="154">
+      <c r="H108" s="165">
         <v>43298</v>
       </c>
-      <c r="I108" s="154">
+      <c r="I108" s="165">
         <v>43299</v>
       </c>
-      <c r="J108" s="154">
+      <c r="J108" s="165">
         <v>43298</v>
       </c>
-      <c r="K108" s="154">
+      <c r="K108" s="165">
         <v>43299</v>
       </c>
       <c r="L108" s="146"/>
       <c r="M108" s="146"/>
       <c r="N108" s="146"/>
       <c r="O108" s="146"/>
-      <c r="P108" s="173" t="s">
+      <c r="P108" s="189" t="s">
         <v>124</v>
       </c>
       <c r="Q108" s="147"/>
@@ -20996,21 +20999,21 @@
       <c r="EL108" s="153"/>
     </row>
     <row r="109" spans="2:142" s="145" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B109" s="247"/>
-      <c r="C109" s="160"/>
-      <c r="D109" s="162"/>
-      <c r="E109" s="159"/>
-      <c r="F109" s="159"/>
-      <c r="G109" s="155"/>
-      <c r="H109" s="155"/>
-      <c r="I109" s="155"/>
-      <c r="J109" s="155"/>
-      <c r="K109" s="155"/>
+      <c r="B109" s="174"/>
+      <c r="C109" s="171"/>
+      <c r="D109" s="178"/>
+      <c r="E109" s="170"/>
+      <c r="F109" s="170"/>
+      <c r="G109" s="166"/>
+      <c r="H109" s="166"/>
+      <c r="I109" s="166"/>
+      <c r="J109" s="166"/>
+      <c r="K109" s="166"/>
       <c r="L109" s="146"/>
       <c r="M109" s="146"/>
       <c r="N109" s="146"/>
       <c r="O109" s="146"/>
-      <c r="P109" s="175"/>
+      <c r="P109" s="191"/>
       <c r="Q109" s="147"/>
       <c r="R109" s="148"/>
       <c r="S109" s="149"/>
@@ -21139,31 +21142,31 @@
       <c r="EL109" s="153"/>
     </row>
     <row r="110" spans="2:142" s="145" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B110" s="248"/>
-      <c r="C110" s="233" t="s">
+      <c r="B110" s="172"/>
+      <c r="C110" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="163"/>
-      <c r="E110" s="158"/>
-      <c r="F110" s="158"/>
-      <c r="G110" s="156" t="s">
+      <c r="D110" s="179"/>
+      <c r="E110" s="169"/>
+      <c r="F110" s="169"/>
+      <c r="G110" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="H110" s="154">
+      <c r="H110" s="165">
         <v>43298</v>
       </c>
-      <c r="I110" s="154">
+      <c r="I110" s="165">
         <v>43299</v>
       </c>
-      <c r="J110" s="154">
+      <c r="J110" s="165">
         <v>43298</v>
       </c>
-      <c r="K110" s="156"/>
+      <c r="K110" s="167"/>
       <c r="L110" s="146"/>
       <c r="M110" s="146"/>
       <c r="N110" s="146"/>
       <c r="O110" s="146"/>
-      <c r="P110" s="173" t="s">
+      <c r="P110" s="189" t="s">
         <v>139</v>
       </c>
       <c r="Q110" s="147"/>
@@ -21294,21 +21297,21 @@
       <c r="EL110" s="153"/>
     </row>
     <row r="111" spans="2:142" s="145" customFormat="1" ht="21" customHeight="1">
-      <c r="B111" s="248"/>
-      <c r="C111" s="234"/>
-      <c r="D111" s="162"/>
-      <c r="E111" s="159"/>
-      <c r="F111" s="159"/>
-      <c r="G111" s="157"/>
-      <c r="H111" s="155"/>
-      <c r="I111" s="155"/>
-      <c r="J111" s="155"/>
-      <c r="K111" s="157"/>
+      <c r="B111" s="172"/>
+      <c r="C111" s="176"/>
+      <c r="D111" s="178"/>
+      <c r="E111" s="170"/>
+      <c r="F111" s="170"/>
+      <c r="G111" s="168"/>
+      <c r="H111" s="166"/>
+      <c r="I111" s="166"/>
+      <c r="J111" s="166"/>
+      <c r="K111" s="168"/>
       <c r="L111" s="146"/>
       <c r="M111" s="146"/>
       <c r="N111" s="146"/>
       <c r="O111" s="146"/>
-      <c r="P111" s="175"/>
+      <c r="P111" s="191"/>
       <c r="Q111" s="147"/>
       <c r="R111" s="148"/>
       <c r="S111" s="149"/>
@@ -21437,39 +21440,39 @@
       <c r="EL111" s="153"/>
     </row>
     <row r="112" spans="2:142" ht="9.75" customHeight="1">
-      <c r="B112" s="235" t="s">
+      <c r="B112" s="210" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="160" t="s">
+      <c r="C112" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="D112" s="184"/>
-      <c r="E112" s="187"/>
-      <c r="F112" s="173"/>
-      <c r="G112" s="182" t="s">
+      <c r="D112" s="203"/>
+      <c r="E112" s="206"/>
+      <c r="F112" s="189"/>
+      <c r="G112" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H112" s="182">
+      <c r="H112" s="198">
         <v>43298</v>
       </c>
-      <c r="I112" s="182">
+      <c r="I112" s="198">
         <v>37456</v>
       </c>
-      <c r="J112" s="182">
+      <c r="J112" s="198">
         <v>43302</v>
       </c>
-      <c r="K112" s="182">
+      <c r="K112" s="198">
         <v>37459</v>
       </c>
-      <c r="L112" s="167"/>
-      <c r="M112" s="170"/>
-      <c r="N112" s="167"/>
-      <c r="O112" s="170"/>
-      <c r="P112" s="173" t="s">
+      <c r="L112" s="183"/>
+      <c r="M112" s="186"/>
+      <c r="N112" s="183"/>
+      <c r="O112" s="186"/>
+      <c r="P112" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="Q112" s="176"/>
-      <c r="R112" s="179"/>
+      <c r="Q112" s="192"/>
+      <c r="R112" s="195"/>
       <c r="S112" s="82"/>
       <c r="T112" s="139"/>
       <c r="U112" s="140"/>
@@ -21595,24 +21598,24 @@
       <c r="EK112" s="144"/>
       <c r="EL112" s="136"/>
     </row>
-    <row r="113" spans="2:142" ht="9" customHeight="1">
-      <c r="B113" s="236"/>
-      <c r="C113" s="160"/>
-      <c r="D113" s="186"/>
-      <c r="E113" s="189"/>
-      <c r="F113" s="175"/>
-      <c r="G113" s="183"/>
-      <c r="H113" s="183"/>
-      <c r="I113" s="183"/>
-      <c r="J113" s="183"/>
-      <c r="K113" s="183"/>
-      <c r="L113" s="169"/>
-      <c r="M113" s="172"/>
-      <c r="N113" s="169"/>
-      <c r="O113" s="172"/>
-      <c r="P113" s="175"/>
-      <c r="Q113" s="178"/>
-      <c r="R113" s="181"/>
+    <row r="113" spans="2:142" ht="27" customHeight="1">
+      <c r="B113" s="202"/>
+      <c r="C113" s="171"/>
+      <c r="D113" s="205"/>
+      <c r="E113" s="208"/>
+      <c r="F113" s="191"/>
+      <c r="G113" s="199"/>
+      <c r="H113" s="199"/>
+      <c r="I113" s="199"/>
+      <c r="J113" s="199"/>
+      <c r="K113" s="199"/>
+      <c r="L113" s="185"/>
+      <c r="M113" s="188"/>
+      <c r="N113" s="185"/>
+      <c r="O113" s="188"/>
+      <c r="P113" s="191"/>
+      <c r="Q113" s="194"/>
+      <c r="R113" s="197"/>
       <c r="S113" s="82"/>
       <c r="T113" s="83"/>
       <c r="U113" s="83"/>
@@ -21739,35 +21742,35 @@
       <c r="EL113" s="94"/>
     </row>
     <row r="114" spans="2:142" ht="9" customHeight="1">
-      <c r="B114" s="244"/>
-      <c r="C114" s="160" t="s">
+      <c r="B114" s="200"/>
+      <c r="C114" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="D114" s="184"/>
-      <c r="E114" s="187"/>
-      <c r="F114" s="173"/>
-      <c r="G114" s="182" t="s">
+      <c r="D114" s="203"/>
+      <c r="E114" s="206"/>
+      <c r="F114" s="189"/>
+      <c r="G114" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H114" s="182">
+      <c r="H114" s="198">
         <v>37456</v>
       </c>
-      <c r="I114" s="182">
+      <c r="I114" s="198">
         <v>37457</v>
       </c>
-      <c r="J114" s="182">
+      <c r="J114" s="198">
         <v>43303</v>
       </c>
-      <c r="K114" s="164"/>
-      <c r="L114" s="167"/>
-      <c r="M114" s="170"/>
-      <c r="N114" s="167"/>
-      <c r="O114" s="170"/>
-      <c r="P114" s="173" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q114" s="176"/>
-      <c r="R114" s="179"/>
+      <c r="K114" s="180"/>
+      <c r="L114" s="183"/>
+      <c r="M114" s="186"/>
+      <c r="N114" s="183"/>
+      <c r="O114" s="186"/>
+      <c r="P114" s="189" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q114" s="192"/>
+      <c r="R114" s="195"/>
       <c r="S114" s="82"/>
       <c r="T114" s="85"/>
       <c r="U114" s="84"/>
@@ -21894,23 +21897,23 @@
       <c r="EL114" s="93"/>
     </row>
     <row r="115" spans="2:142" ht="9" customHeight="1">
-      <c r="B115" s="236"/>
-      <c r="C115" s="160"/>
-      <c r="D115" s="186"/>
-      <c r="E115" s="189"/>
-      <c r="F115" s="175"/>
-      <c r="G115" s="183"/>
-      <c r="H115" s="183"/>
-      <c r="I115" s="183"/>
-      <c r="J115" s="183"/>
-      <c r="K115" s="166"/>
-      <c r="L115" s="169"/>
-      <c r="M115" s="172"/>
-      <c r="N115" s="169"/>
-      <c r="O115" s="172"/>
-      <c r="P115" s="175"/>
-      <c r="Q115" s="178"/>
-      <c r="R115" s="181"/>
+      <c r="B115" s="202"/>
+      <c r="C115" s="171"/>
+      <c r="D115" s="205"/>
+      <c r="E115" s="208"/>
+      <c r="F115" s="191"/>
+      <c r="G115" s="199"/>
+      <c r="H115" s="199"/>
+      <c r="I115" s="199"/>
+      <c r="J115" s="199"/>
+      <c r="K115" s="182"/>
+      <c r="L115" s="185"/>
+      <c r="M115" s="188"/>
+      <c r="N115" s="185"/>
+      <c r="O115" s="188"/>
+      <c r="P115" s="191"/>
+      <c r="Q115" s="194"/>
+      <c r="R115" s="197"/>
       <c r="S115" s="82"/>
       <c r="T115" s="83"/>
       <c r="U115" s="83"/>
@@ -22037,33 +22040,33 @@
       <c r="EL115" s="94"/>
     </row>
     <row r="116" spans="2:142" ht="9" customHeight="1">
-      <c r="B116" s="244"/>
-      <c r="C116" s="160" t="s">
+      <c r="B116" s="200"/>
+      <c r="C116" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="D116" s="184"/>
-      <c r="E116" s="187"/>
-      <c r="F116" s="173"/>
-      <c r="G116" s="182" t="s">
+      <c r="D116" s="203"/>
+      <c r="E116" s="206"/>
+      <c r="F116" s="189"/>
+      <c r="G116" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H116" s="182">
+      <c r="H116" s="198">
         <v>37459</v>
       </c>
-      <c r="I116" s="182">
+      <c r="I116" s="198">
         <v>37460</v>
       </c>
-      <c r="J116" s="164"/>
-      <c r="K116" s="164"/>
-      <c r="L116" s="167"/>
-      <c r="M116" s="170"/>
-      <c r="N116" s="167"/>
-      <c r="O116" s="170"/>
-      <c r="P116" s="173" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q116" s="176"/>
-      <c r="R116" s="179"/>
+      <c r="J116" s="180"/>
+      <c r="K116" s="180"/>
+      <c r="L116" s="183"/>
+      <c r="M116" s="186"/>
+      <c r="N116" s="183"/>
+      <c r="O116" s="186"/>
+      <c r="P116" s="189" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q116" s="192"/>
+      <c r="R116" s="195"/>
       <c r="S116" s="82"/>
       <c r="T116" s="85"/>
       <c r="U116" s="84"/>
@@ -22190,23 +22193,23 @@
       <c r="EL116" s="93"/>
     </row>
     <row r="117" spans="2:142" ht="9" customHeight="1">
-      <c r="B117" s="236"/>
-      <c r="C117" s="160"/>
-      <c r="D117" s="186"/>
-      <c r="E117" s="189"/>
-      <c r="F117" s="175"/>
-      <c r="G117" s="183"/>
-      <c r="H117" s="183"/>
-      <c r="I117" s="183"/>
-      <c r="J117" s="166"/>
-      <c r="K117" s="166"/>
-      <c r="L117" s="169"/>
-      <c r="M117" s="172"/>
-      <c r="N117" s="169"/>
-      <c r="O117" s="172"/>
-      <c r="P117" s="175"/>
-      <c r="Q117" s="178"/>
-      <c r="R117" s="181"/>
+      <c r="B117" s="202"/>
+      <c r="C117" s="171"/>
+      <c r="D117" s="205"/>
+      <c r="E117" s="208"/>
+      <c r="F117" s="191"/>
+      <c r="G117" s="199"/>
+      <c r="H117" s="199"/>
+      <c r="I117" s="199"/>
+      <c r="J117" s="182"/>
+      <c r="K117" s="182"/>
+      <c r="L117" s="185"/>
+      <c r="M117" s="188"/>
+      <c r="N117" s="185"/>
+      <c r="O117" s="188"/>
+      <c r="P117" s="191"/>
+      <c r="Q117" s="194"/>
+      <c r="R117" s="197"/>
       <c r="S117" s="82"/>
       <c r="T117" s="83"/>
       <c r="U117" s="83"/>
@@ -22333,33 +22336,33 @@
       <c r="EL117" s="94"/>
     </row>
     <row r="118" spans="2:142" ht="9" customHeight="1">
-      <c r="B118" s="244"/>
-      <c r="C118" s="160" t="s">
+      <c r="B118" s="200"/>
+      <c r="C118" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="D118" s="184"/>
-      <c r="E118" s="187"/>
-      <c r="F118" s="173"/>
-      <c r="G118" s="182" t="s">
+      <c r="D118" s="203"/>
+      <c r="E118" s="206"/>
+      <c r="F118" s="189"/>
+      <c r="G118" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H118" s="182">
+      <c r="H118" s="198">
         <v>37460</v>
       </c>
-      <c r="I118" s="182">
+      <c r="I118" s="198">
         <v>37461</v>
       </c>
-      <c r="J118" s="164"/>
-      <c r="K118" s="164"/>
-      <c r="L118" s="167"/>
-      <c r="M118" s="170"/>
-      <c r="N118" s="167"/>
-      <c r="O118" s="170"/>
-      <c r="P118" s="173" t="s">
+      <c r="J118" s="180"/>
+      <c r="K118" s="180"/>
+      <c r="L118" s="183"/>
+      <c r="M118" s="186"/>
+      <c r="N118" s="183"/>
+      <c r="O118" s="186"/>
+      <c r="P118" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="Q118" s="176"/>
-      <c r="R118" s="179"/>
+      <c r="Q118" s="192"/>
+      <c r="R118" s="195"/>
       <c r="S118" s="82"/>
       <c r="T118" s="85"/>
       <c r="U118" s="84"/>
@@ -22486,23 +22489,23 @@
       <c r="EL118" s="93"/>
     </row>
     <row r="119" spans="2:142" ht="15.75" customHeight="1">
-      <c r="B119" s="236"/>
-      <c r="C119" s="160"/>
-      <c r="D119" s="186"/>
-      <c r="E119" s="189"/>
-      <c r="F119" s="175"/>
-      <c r="G119" s="183"/>
-      <c r="H119" s="183"/>
-      <c r="I119" s="183"/>
-      <c r="J119" s="166"/>
-      <c r="K119" s="166"/>
-      <c r="L119" s="169"/>
-      <c r="M119" s="172"/>
-      <c r="N119" s="169"/>
-      <c r="O119" s="172"/>
-      <c r="P119" s="175"/>
-      <c r="Q119" s="178"/>
-      <c r="R119" s="181"/>
+      <c r="B119" s="202"/>
+      <c r="C119" s="171"/>
+      <c r="D119" s="205"/>
+      <c r="E119" s="208"/>
+      <c r="F119" s="191"/>
+      <c r="G119" s="199"/>
+      <c r="H119" s="199"/>
+      <c r="I119" s="199"/>
+      <c r="J119" s="182"/>
+      <c r="K119" s="182"/>
+      <c r="L119" s="185"/>
+      <c r="M119" s="188"/>
+      <c r="N119" s="185"/>
+      <c r="O119" s="188"/>
+      <c r="P119" s="191"/>
+      <c r="Q119" s="194"/>
+      <c r="R119" s="197"/>
       <c r="S119" s="82"/>
       <c r="T119" s="83"/>
       <c r="U119" s="83"/>
@@ -22629,33 +22632,33 @@
       <c r="EL119" s="94"/>
     </row>
     <row r="120" spans="2:142" ht="9" customHeight="1">
-      <c r="B120" s="244"/>
-      <c r="C120" s="160" t="s">
+      <c r="B120" s="200"/>
+      <c r="C120" s="171" t="s">
         <v>130</v>
       </c>
-      <c r="D120" s="184"/>
-      <c r="E120" s="187"/>
-      <c r="F120" s="173"/>
-      <c r="G120" s="182" t="s">
+      <c r="D120" s="203"/>
+      <c r="E120" s="206"/>
+      <c r="F120" s="189"/>
+      <c r="G120" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H120" s="182">
+      <c r="H120" s="198">
         <v>37461</v>
       </c>
-      <c r="I120" s="182">
+      <c r="I120" s="198">
         <v>37462</v>
       </c>
-      <c r="J120" s="164"/>
-      <c r="K120" s="164"/>
-      <c r="L120" s="167"/>
-      <c r="M120" s="170"/>
-      <c r="N120" s="167"/>
-      <c r="O120" s="170"/>
-      <c r="P120" s="173" t="s">
+      <c r="J120" s="180"/>
+      <c r="K120" s="180"/>
+      <c r="L120" s="183"/>
+      <c r="M120" s="186"/>
+      <c r="N120" s="183"/>
+      <c r="O120" s="186"/>
+      <c r="P120" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="Q120" s="176"/>
-      <c r="R120" s="179"/>
+      <c r="Q120" s="192"/>
+      <c r="R120" s="195"/>
       <c r="S120" s="82"/>
       <c r="T120" s="85"/>
       <c r="U120" s="84"/>
@@ -22782,23 +22785,23 @@
       <c r="EL120" s="93"/>
     </row>
     <row r="121" spans="2:142" ht="9" customHeight="1">
-      <c r="B121" s="236"/>
-      <c r="C121" s="160"/>
-      <c r="D121" s="186"/>
-      <c r="E121" s="189"/>
-      <c r="F121" s="175"/>
-      <c r="G121" s="183"/>
-      <c r="H121" s="183"/>
-      <c r="I121" s="183"/>
-      <c r="J121" s="166"/>
-      <c r="K121" s="166"/>
-      <c r="L121" s="169"/>
-      <c r="M121" s="172"/>
-      <c r="N121" s="169"/>
-      <c r="O121" s="172"/>
-      <c r="P121" s="175"/>
-      <c r="Q121" s="178"/>
-      <c r="R121" s="181"/>
+      <c r="B121" s="202"/>
+      <c r="C121" s="171"/>
+      <c r="D121" s="205"/>
+      <c r="E121" s="208"/>
+      <c r="F121" s="191"/>
+      <c r="G121" s="199"/>
+      <c r="H121" s="199"/>
+      <c r="I121" s="199"/>
+      <c r="J121" s="182"/>
+      <c r="K121" s="182"/>
+      <c r="L121" s="185"/>
+      <c r="M121" s="188"/>
+      <c r="N121" s="185"/>
+      <c r="O121" s="188"/>
+      <c r="P121" s="191"/>
+      <c r="Q121" s="194"/>
+      <c r="R121" s="197"/>
       <c r="S121" s="82"/>
       <c r="T121" s="83"/>
       <c r="U121" s="83"/>
@@ -22925,35 +22928,35 @@
       <c r="EL121" s="94"/>
     </row>
     <row r="122" spans="2:142" ht="9" customHeight="1">
-      <c r="B122" s="235" t="s">
+      <c r="B122" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="C122" s="160" t="s">
+      <c r="C122" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="D122" s="184"/>
-      <c r="E122" s="187"/>
-      <c r="F122" s="173"/>
-      <c r="G122" s="182" t="s">
+      <c r="D122" s="203"/>
+      <c r="E122" s="206"/>
+      <c r="F122" s="189"/>
+      <c r="G122" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H122" s="182">
+      <c r="H122" s="198">
         <v>43307</v>
       </c>
-      <c r="I122" s="182">
+      <c r="I122" s="198">
         <v>43308</v>
       </c>
-      <c r="J122" s="164"/>
-      <c r="K122" s="164"/>
-      <c r="L122" s="167"/>
-      <c r="M122" s="170"/>
-      <c r="N122" s="167"/>
-      <c r="O122" s="170"/>
-      <c r="P122" s="173" t="s">
+      <c r="J122" s="180"/>
+      <c r="K122" s="180"/>
+      <c r="L122" s="183"/>
+      <c r="M122" s="186"/>
+      <c r="N122" s="183"/>
+      <c r="O122" s="186"/>
+      <c r="P122" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="Q122" s="176"/>
-      <c r="R122" s="179"/>
+      <c r="Q122" s="192"/>
+      <c r="R122" s="195"/>
       <c r="S122" s="82"/>
       <c r="T122" s="85"/>
       <c r="U122" s="84"/>
@@ -23080,23 +23083,23 @@
       <c r="EL122" s="93"/>
     </row>
     <row r="123" spans="2:142" ht="24" customHeight="1">
-      <c r="B123" s="236"/>
-      <c r="C123" s="160"/>
-      <c r="D123" s="186"/>
-      <c r="E123" s="189"/>
-      <c r="F123" s="175"/>
-      <c r="G123" s="183"/>
-      <c r="H123" s="183"/>
-      <c r="I123" s="183"/>
-      <c r="J123" s="166"/>
-      <c r="K123" s="166"/>
-      <c r="L123" s="169"/>
-      <c r="M123" s="172"/>
-      <c r="N123" s="169"/>
-      <c r="O123" s="172"/>
-      <c r="P123" s="175"/>
-      <c r="Q123" s="178"/>
-      <c r="R123" s="181"/>
+      <c r="B123" s="202"/>
+      <c r="C123" s="171"/>
+      <c r="D123" s="205"/>
+      <c r="E123" s="208"/>
+      <c r="F123" s="191"/>
+      <c r="G123" s="199"/>
+      <c r="H123" s="199"/>
+      <c r="I123" s="199"/>
+      <c r="J123" s="182"/>
+      <c r="K123" s="182"/>
+      <c r="L123" s="185"/>
+      <c r="M123" s="188"/>
+      <c r="N123" s="185"/>
+      <c r="O123" s="188"/>
+      <c r="P123" s="191"/>
+      <c r="Q123" s="194"/>
+      <c r="R123" s="197"/>
       <c r="S123" s="82"/>
       <c r="T123" s="83"/>
       <c r="U123" s="83"/>
@@ -23223,33 +23226,33 @@
       <c r="EL123" s="94"/>
     </row>
     <row r="124" spans="2:142" ht="9" customHeight="1">
-      <c r="B124" s="244"/>
-      <c r="C124" s="160" t="s">
+      <c r="B124" s="200"/>
+      <c r="C124" s="171" t="s">
         <v>133</v>
       </c>
-      <c r="D124" s="184"/>
-      <c r="E124" s="187"/>
-      <c r="F124" s="173"/>
-      <c r="G124" s="182" t="s">
+      <c r="D124" s="203"/>
+      <c r="E124" s="206"/>
+      <c r="F124" s="189"/>
+      <c r="G124" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H124" s="182">
+      <c r="H124" s="198">
         <v>43308</v>
       </c>
-      <c r="I124" s="182">
+      <c r="I124" s="198">
         <v>43309</v>
       </c>
-      <c r="J124" s="164"/>
-      <c r="K124" s="164"/>
-      <c r="L124" s="167"/>
-      <c r="M124" s="170"/>
-      <c r="N124" s="167"/>
-      <c r="O124" s="170"/>
-      <c r="P124" s="173" t="s">
+      <c r="J124" s="180"/>
+      <c r="K124" s="180"/>
+      <c r="L124" s="183"/>
+      <c r="M124" s="186"/>
+      <c r="N124" s="183"/>
+      <c r="O124" s="186"/>
+      <c r="P124" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="Q124" s="176"/>
-      <c r="R124" s="179"/>
+      <c r="Q124" s="192"/>
+      <c r="R124" s="195"/>
       <c r="S124" s="82"/>
       <c r="T124" s="85"/>
       <c r="U124" s="84"/>
@@ -23376,23 +23379,23 @@
       <c r="EL124" s="93"/>
     </row>
     <row r="125" spans="2:142" ht="9" customHeight="1">
-      <c r="B125" s="245"/>
-      <c r="C125" s="160"/>
-      <c r="D125" s="185"/>
-      <c r="E125" s="188"/>
-      <c r="F125" s="174"/>
-      <c r="G125" s="190"/>
-      <c r="H125" s="190"/>
-      <c r="I125" s="190"/>
-      <c r="J125" s="165"/>
-      <c r="K125" s="165"/>
-      <c r="L125" s="168"/>
-      <c r="M125" s="171"/>
-      <c r="N125" s="168"/>
-      <c r="O125" s="171"/>
-      <c r="P125" s="174"/>
-      <c r="Q125" s="177"/>
-      <c r="R125" s="180"/>
+      <c r="B125" s="201"/>
+      <c r="C125" s="171"/>
+      <c r="D125" s="204"/>
+      <c r="E125" s="207"/>
+      <c r="F125" s="190"/>
+      <c r="G125" s="209"/>
+      <c r="H125" s="209"/>
+      <c r="I125" s="209"/>
+      <c r="J125" s="181"/>
+      <c r="K125" s="181"/>
+      <c r="L125" s="184"/>
+      <c r="M125" s="187"/>
+      <c r="N125" s="184"/>
+      <c r="O125" s="187"/>
+      <c r="P125" s="190"/>
+      <c r="Q125" s="193"/>
+      <c r="R125" s="196"/>
       <c r="S125" s="82"/>
       <c r="T125" s="83"/>
       <c r="U125" s="83"/>
@@ -23519,23 +23522,23 @@
       <c r="EL125" s="136"/>
     </row>
     <row r="126" spans="2:142" ht="9" customHeight="1">
-      <c r="B126" s="236"/>
-      <c r="C126" s="160"/>
-      <c r="D126" s="186"/>
-      <c r="E126" s="189"/>
-      <c r="F126" s="175"/>
-      <c r="G126" s="183"/>
-      <c r="H126" s="183"/>
-      <c r="I126" s="183"/>
-      <c r="J126" s="166"/>
-      <c r="K126" s="166"/>
-      <c r="L126" s="169"/>
-      <c r="M126" s="172"/>
-      <c r="N126" s="169"/>
-      <c r="O126" s="172"/>
-      <c r="P126" s="175"/>
-      <c r="Q126" s="178"/>
-      <c r="R126" s="181"/>
+      <c r="B126" s="202"/>
+      <c r="C126" s="171"/>
+      <c r="D126" s="205"/>
+      <c r="E126" s="208"/>
+      <c r="F126" s="191"/>
+      <c r="G126" s="199"/>
+      <c r="H126" s="199"/>
+      <c r="I126" s="199"/>
+      <c r="J126" s="182"/>
+      <c r="K126" s="182"/>
+      <c r="L126" s="185"/>
+      <c r="M126" s="188"/>
+      <c r="N126" s="185"/>
+      <c r="O126" s="188"/>
+      <c r="P126" s="191"/>
+      <c r="Q126" s="194"/>
+      <c r="R126" s="197"/>
       <c r="S126" s="82"/>
       <c r="T126" s="83"/>
       <c r="U126" s="83"/>
@@ -23662,33 +23665,33 @@
       <c r="EL126" s="94"/>
     </row>
     <row r="127" spans="2:142" ht="9" customHeight="1">
-      <c r="B127" s="244"/>
-      <c r="C127" s="160" t="s">
+      <c r="B127" s="200"/>
+      <c r="C127" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="D127" s="184"/>
-      <c r="E127" s="187"/>
-      <c r="F127" s="173"/>
-      <c r="G127" s="182" t="s">
+      <c r="D127" s="203"/>
+      <c r="E127" s="206"/>
+      <c r="F127" s="189"/>
+      <c r="G127" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H127" s="182">
+      <c r="H127" s="198">
         <v>43309</v>
       </c>
-      <c r="I127" s="182">
+      <c r="I127" s="198">
         <v>43310</v>
       </c>
-      <c r="J127" s="164"/>
-      <c r="K127" s="164"/>
-      <c r="L127" s="167"/>
-      <c r="M127" s="170"/>
-      <c r="N127" s="167"/>
-      <c r="O127" s="170"/>
-      <c r="P127" s="173" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q127" s="176"/>
-      <c r="R127" s="179"/>
+      <c r="J127" s="180"/>
+      <c r="K127" s="180"/>
+      <c r="L127" s="183"/>
+      <c r="M127" s="186"/>
+      <c r="N127" s="183"/>
+      <c r="O127" s="186"/>
+      <c r="P127" s="189" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q127" s="192"/>
+      <c r="R127" s="195"/>
       <c r="S127" s="82"/>
       <c r="T127" s="85"/>
       <c r="U127" s="84"/>
@@ -23815,23 +23818,23 @@
       <c r="EL127" s="93"/>
     </row>
     <row r="128" spans="2:142" ht="9" customHeight="1">
-      <c r="B128" s="245"/>
-      <c r="C128" s="160"/>
-      <c r="D128" s="185"/>
-      <c r="E128" s="188"/>
-      <c r="F128" s="174"/>
-      <c r="G128" s="190"/>
-      <c r="H128" s="190"/>
-      <c r="I128" s="190"/>
-      <c r="J128" s="165"/>
-      <c r="K128" s="165"/>
-      <c r="L128" s="168"/>
-      <c r="M128" s="171"/>
-      <c r="N128" s="168"/>
-      <c r="O128" s="171"/>
-      <c r="P128" s="174"/>
-      <c r="Q128" s="177"/>
-      <c r="R128" s="180"/>
+      <c r="B128" s="201"/>
+      <c r="C128" s="171"/>
+      <c r="D128" s="204"/>
+      <c r="E128" s="207"/>
+      <c r="F128" s="190"/>
+      <c r="G128" s="209"/>
+      <c r="H128" s="209"/>
+      <c r="I128" s="209"/>
+      <c r="J128" s="181"/>
+      <c r="K128" s="181"/>
+      <c r="L128" s="184"/>
+      <c r="M128" s="187"/>
+      <c r="N128" s="184"/>
+      <c r="O128" s="187"/>
+      <c r="P128" s="190"/>
+      <c r="Q128" s="193"/>
+      <c r="R128" s="196"/>
       <c r="S128" s="82"/>
       <c r="T128" s="83"/>
       <c r="U128" s="83"/>
@@ -23958,23 +23961,23 @@
       <c r="EL128" s="136"/>
     </row>
     <row r="129" spans="2:142" ht="9" customHeight="1">
-      <c r="B129" s="236"/>
-      <c r="C129" s="160"/>
-      <c r="D129" s="186"/>
-      <c r="E129" s="189"/>
-      <c r="F129" s="175"/>
-      <c r="G129" s="183"/>
-      <c r="H129" s="183"/>
-      <c r="I129" s="183"/>
-      <c r="J129" s="166"/>
-      <c r="K129" s="166"/>
-      <c r="L129" s="169"/>
-      <c r="M129" s="172"/>
-      <c r="N129" s="169"/>
-      <c r="O129" s="172"/>
-      <c r="P129" s="175"/>
-      <c r="Q129" s="178"/>
-      <c r="R129" s="181"/>
+      <c r="B129" s="202"/>
+      <c r="C129" s="171"/>
+      <c r="D129" s="205"/>
+      <c r="E129" s="208"/>
+      <c r="F129" s="191"/>
+      <c r="G129" s="199"/>
+      <c r="H129" s="199"/>
+      <c r="I129" s="199"/>
+      <c r="J129" s="182"/>
+      <c r="K129" s="182"/>
+      <c r="L129" s="185"/>
+      <c r="M129" s="188"/>
+      <c r="N129" s="185"/>
+      <c r="O129" s="188"/>
+      <c r="P129" s="191"/>
+      <c r="Q129" s="194"/>
+      <c r="R129" s="197"/>
       <c r="S129" s="82"/>
       <c r="T129" s="83"/>
       <c r="U129" s="83"/>
@@ -24101,33 +24104,33 @@
       <c r="EL129" s="94"/>
     </row>
     <row r="130" spans="2:142" ht="9" customHeight="1">
-      <c r="B130" s="244"/>
-      <c r="C130" s="160" t="s">
+      <c r="B130" s="200"/>
+      <c r="C130" s="171" t="s">
         <v>135</v>
       </c>
-      <c r="D130" s="184"/>
-      <c r="E130" s="187"/>
-      <c r="F130" s="173"/>
-      <c r="G130" s="182" t="s">
+      <c r="D130" s="203"/>
+      <c r="E130" s="206"/>
+      <c r="F130" s="189"/>
+      <c r="G130" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="H130" s="182">
+      <c r="H130" s="198">
         <v>43310</v>
       </c>
-      <c r="I130" s="182">
+      <c r="I130" s="198">
         <v>43311</v>
       </c>
-      <c r="J130" s="164"/>
-      <c r="K130" s="164"/>
-      <c r="L130" s="167"/>
-      <c r="M130" s="170"/>
-      <c r="N130" s="167"/>
-      <c r="O130" s="170"/>
-      <c r="P130" s="173" t="s">
+      <c r="J130" s="180"/>
+      <c r="K130" s="180"/>
+      <c r="L130" s="183"/>
+      <c r="M130" s="186"/>
+      <c r="N130" s="183"/>
+      <c r="O130" s="186"/>
+      <c r="P130" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="Q130" s="176"/>
-      <c r="R130" s="179"/>
+      <c r="Q130" s="192"/>
+      <c r="R130" s="195"/>
       <c r="S130" s="82"/>
       <c r="T130" s="85"/>
       <c r="U130" s="84"/>
@@ -24254,23 +24257,23 @@
       <c r="EL130" s="93"/>
     </row>
     <row r="131" spans="2:142" ht="9" customHeight="1">
-      <c r="B131" s="245"/>
-      <c r="C131" s="160"/>
-      <c r="D131" s="185"/>
-      <c r="E131" s="188"/>
-      <c r="F131" s="174"/>
-      <c r="G131" s="190"/>
-      <c r="H131" s="190"/>
-      <c r="I131" s="190"/>
-      <c r="J131" s="165"/>
-      <c r="K131" s="165"/>
-      <c r="L131" s="168"/>
-      <c r="M131" s="171"/>
-      <c r="N131" s="168"/>
-      <c r="O131" s="171"/>
-      <c r="P131" s="174"/>
-      <c r="Q131" s="177"/>
-      <c r="R131" s="180"/>
+      <c r="B131" s="201"/>
+      <c r="C131" s="171"/>
+      <c r="D131" s="204"/>
+      <c r="E131" s="207"/>
+      <c r="F131" s="190"/>
+      <c r="G131" s="209"/>
+      <c r="H131" s="209"/>
+      <c r="I131" s="209"/>
+      <c r="J131" s="181"/>
+      <c r="K131" s="181"/>
+      <c r="L131" s="184"/>
+      <c r="M131" s="187"/>
+      <c r="N131" s="184"/>
+      <c r="O131" s="187"/>
+      <c r="P131" s="190"/>
+      <c r="Q131" s="193"/>
+      <c r="R131" s="196"/>
       <c r="S131" s="82"/>
       <c r="T131" s="83"/>
       <c r="U131" s="83"/>
@@ -24397,23 +24400,23 @@
       <c r="EL131" s="136"/>
     </row>
     <row r="132" spans="2:142" ht="9" customHeight="1">
-      <c r="B132" s="236"/>
-      <c r="C132" s="160"/>
-      <c r="D132" s="186"/>
-      <c r="E132" s="189"/>
-      <c r="F132" s="175"/>
-      <c r="G132" s="183"/>
-      <c r="H132" s="183"/>
-      <c r="I132" s="183"/>
-      <c r="J132" s="166"/>
-      <c r="K132" s="166"/>
-      <c r="L132" s="169"/>
-      <c r="M132" s="172"/>
-      <c r="N132" s="169"/>
-      <c r="O132" s="172"/>
-      <c r="P132" s="175"/>
-      <c r="Q132" s="178"/>
-      <c r="R132" s="181"/>
+      <c r="B132" s="202"/>
+      <c r="C132" s="171"/>
+      <c r="D132" s="205"/>
+      <c r="E132" s="208"/>
+      <c r="F132" s="191"/>
+      <c r="G132" s="199"/>
+      <c r="H132" s="199"/>
+      <c r="I132" s="199"/>
+      <c r="J132" s="182"/>
+      <c r="K132" s="182"/>
+      <c r="L132" s="185"/>
+      <c r="M132" s="188"/>
+      <c r="N132" s="185"/>
+      <c r="O132" s="188"/>
+      <c r="P132" s="191"/>
+      <c r="Q132" s="194"/>
+      <c r="R132" s="197"/>
       <c r="S132" s="82"/>
       <c r="T132" s="83"/>
       <c r="U132" s="83"/>
@@ -24540,23 +24543,23 @@
       <c r="EL132" s="94"/>
     </row>
     <row r="133" spans="2:142" ht="9" customHeight="1">
-      <c r="B133" s="244"/>
-      <c r="C133" s="160"/>
-      <c r="D133" s="184"/>
-      <c r="E133" s="187"/>
-      <c r="F133" s="173"/>
-      <c r="G133" s="182"/>
-      <c r="H133" s="182"/>
-      <c r="I133" s="182"/>
-      <c r="J133" s="164"/>
-      <c r="K133" s="164"/>
-      <c r="L133" s="167"/>
-      <c r="M133" s="170"/>
-      <c r="N133" s="167"/>
-      <c r="O133" s="170"/>
-      <c r="P133" s="173"/>
-      <c r="Q133" s="176"/>
-      <c r="R133" s="179"/>
+      <c r="B133" s="200"/>
+      <c r="C133" s="171"/>
+      <c r="D133" s="203"/>
+      <c r="E133" s="206"/>
+      <c r="F133" s="189"/>
+      <c r="G133" s="198"/>
+      <c r="H133" s="198"/>
+      <c r="I133" s="198"/>
+      <c r="J133" s="180"/>
+      <c r="K133" s="180"/>
+      <c r="L133" s="183"/>
+      <c r="M133" s="186"/>
+      <c r="N133" s="183"/>
+      <c r="O133" s="186"/>
+      <c r="P133" s="189"/>
+      <c r="Q133" s="192"/>
+      <c r="R133" s="195"/>
       <c r="S133" s="82"/>
       <c r="T133" s="85"/>
       <c r="U133" s="84"/>
@@ -24683,23 +24686,23 @@
       <c r="EL133" s="93"/>
     </row>
     <row r="134" spans="2:142" ht="9" customHeight="1">
-      <c r="B134" s="245"/>
-      <c r="C134" s="160"/>
-      <c r="D134" s="185"/>
-      <c r="E134" s="188"/>
-      <c r="F134" s="174"/>
-      <c r="G134" s="190"/>
-      <c r="H134" s="190"/>
-      <c r="I134" s="190"/>
-      <c r="J134" s="165"/>
-      <c r="K134" s="165"/>
-      <c r="L134" s="168"/>
-      <c r="M134" s="171"/>
-      <c r="N134" s="168"/>
-      <c r="O134" s="171"/>
-      <c r="P134" s="174"/>
-      <c r="Q134" s="177"/>
-      <c r="R134" s="180"/>
+      <c r="B134" s="201"/>
+      <c r="C134" s="171"/>
+      <c r="D134" s="204"/>
+      <c r="E134" s="207"/>
+      <c r="F134" s="190"/>
+      <c r="G134" s="209"/>
+      <c r="H134" s="209"/>
+      <c r="I134" s="209"/>
+      <c r="J134" s="181"/>
+      <c r="K134" s="181"/>
+      <c r="L134" s="184"/>
+      <c r="M134" s="187"/>
+      <c r="N134" s="184"/>
+      <c r="O134" s="187"/>
+      <c r="P134" s="190"/>
+      <c r="Q134" s="193"/>
+      <c r="R134" s="196"/>
       <c r="S134" s="82"/>
       <c r="T134" s="83"/>
       <c r="U134" s="83"/>
@@ -24826,23 +24829,23 @@
       <c r="EL134" s="136"/>
     </row>
     <row r="135" spans="2:142" ht="9" customHeight="1">
-      <c r="B135" s="236"/>
-      <c r="C135" s="160"/>
-      <c r="D135" s="186"/>
-      <c r="E135" s="189"/>
-      <c r="F135" s="175"/>
-      <c r="G135" s="183"/>
-      <c r="H135" s="183"/>
-      <c r="I135" s="183"/>
-      <c r="J135" s="166"/>
-      <c r="K135" s="166"/>
-      <c r="L135" s="169"/>
-      <c r="M135" s="172"/>
-      <c r="N135" s="169"/>
-      <c r="O135" s="172"/>
-      <c r="P135" s="175"/>
-      <c r="Q135" s="178"/>
-      <c r="R135" s="181"/>
+      <c r="B135" s="202"/>
+      <c r="C135" s="171"/>
+      <c r="D135" s="205"/>
+      <c r="E135" s="208"/>
+      <c r="F135" s="191"/>
+      <c r="G135" s="199"/>
+      <c r="H135" s="199"/>
+      <c r="I135" s="199"/>
+      <c r="J135" s="182"/>
+      <c r="K135" s="182"/>
+      <c r="L135" s="185"/>
+      <c r="M135" s="188"/>
+      <c r="N135" s="185"/>
+      <c r="O135" s="188"/>
+      <c r="P135" s="191"/>
+      <c r="Q135" s="194"/>
+      <c r="R135" s="197"/>
       <c r="S135" s="82"/>
       <c r="T135" s="83"/>
       <c r="U135" s="83"/>
@@ -24969,23 +24972,23 @@
       <c r="EL135" s="94"/>
     </row>
     <row r="136" spans="2:142" ht="9" customHeight="1">
-      <c r="B136" s="244"/>
-      <c r="C136" s="160"/>
-      <c r="D136" s="184"/>
-      <c r="E136" s="187"/>
-      <c r="F136" s="173"/>
-      <c r="G136" s="182"/>
-      <c r="H136" s="182"/>
-      <c r="I136" s="182"/>
-      <c r="J136" s="164"/>
-      <c r="K136" s="164"/>
-      <c r="L136" s="167"/>
-      <c r="M136" s="170"/>
-      <c r="N136" s="167"/>
-      <c r="O136" s="170"/>
-      <c r="P136" s="173"/>
-      <c r="Q136" s="176"/>
-      <c r="R136" s="179"/>
+      <c r="B136" s="200"/>
+      <c r="C136" s="171"/>
+      <c r="D136" s="203"/>
+      <c r="E136" s="206"/>
+      <c r="F136" s="189"/>
+      <c r="G136" s="198"/>
+      <c r="H136" s="198"/>
+      <c r="I136" s="198"/>
+      <c r="J136" s="180"/>
+      <c r="K136" s="180"/>
+      <c r="L136" s="183"/>
+      <c r="M136" s="186"/>
+      <c r="N136" s="183"/>
+      <c r="O136" s="186"/>
+      <c r="P136" s="189"/>
+      <c r="Q136" s="192"/>
+      <c r="R136" s="195"/>
       <c r="S136" s="82"/>
       <c r="T136" s="85"/>
       <c r="U136" s="84"/>
@@ -25112,23 +25115,23 @@
       <c r="EL136" s="93"/>
     </row>
     <row r="137" spans="2:142" ht="9" customHeight="1">
-      <c r="B137" s="245"/>
-      <c r="C137" s="160"/>
-      <c r="D137" s="185"/>
-      <c r="E137" s="188"/>
-      <c r="F137" s="174"/>
-      <c r="G137" s="190"/>
-      <c r="H137" s="190"/>
-      <c r="I137" s="190"/>
-      <c r="J137" s="165"/>
-      <c r="K137" s="165"/>
-      <c r="L137" s="168"/>
-      <c r="M137" s="171"/>
-      <c r="N137" s="168"/>
-      <c r="O137" s="171"/>
-      <c r="P137" s="174"/>
-      <c r="Q137" s="177"/>
-      <c r="R137" s="180"/>
+      <c r="B137" s="201"/>
+      <c r="C137" s="171"/>
+      <c r="D137" s="204"/>
+      <c r="E137" s="207"/>
+      <c r="F137" s="190"/>
+      <c r="G137" s="209"/>
+      <c r="H137" s="209"/>
+      <c r="I137" s="209"/>
+      <c r="J137" s="181"/>
+      <c r="K137" s="181"/>
+      <c r="L137" s="184"/>
+      <c r="M137" s="187"/>
+      <c r="N137" s="184"/>
+      <c r="O137" s="187"/>
+      <c r="P137" s="190"/>
+      <c r="Q137" s="193"/>
+      <c r="R137" s="196"/>
       <c r="S137" s="82"/>
       <c r="T137" s="83"/>
       <c r="U137" s="83"/>
@@ -25255,23 +25258,23 @@
       <c r="EL137" s="136"/>
     </row>
     <row r="138" spans="2:142" ht="9" customHeight="1">
-      <c r="B138" s="236"/>
-      <c r="C138" s="160"/>
-      <c r="D138" s="186"/>
-      <c r="E138" s="189"/>
-      <c r="F138" s="175"/>
-      <c r="G138" s="183"/>
-      <c r="H138" s="183"/>
-      <c r="I138" s="183"/>
-      <c r="J138" s="166"/>
-      <c r="K138" s="166"/>
-      <c r="L138" s="169"/>
-      <c r="M138" s="172"/>
-      <c r="N138" s="169"/>
-      <c r="O138" s="172"/>
-      <c r="P138" s="175"/>
-      <c r="Q138" s="178"/>
-      <c r="R138" s="181"/>
+      <c r="B138" s="202"/>
+      <c r="C138" s="171"/>
+      <c r="D138" s="205"/>
+      <c r="E138" s="208"/>
+      <c r="F138" s="191"/>
+      <c r="G138" s="199"/>
+      <c r="H138" s="199"/>
+      <c r="I138" s="199"/>
+      <c r="J138" s="182"/>
+      <c r="K138" s="182"/>
+      <c r="L138" s="185"/>
+      <c r="M138" s="188"/>
+      <c r="N138" s="185"/>
+      <c r="O138" s="188"/>
+      <c r="P138" s="191"/>
+      <c r="Q138" s="194"/>
+      <c r="R138" s="197"/>
       <c r="S138" s="82"/>
       <c r="T138" s="83"/>
       <c r="U138" s="83"/>
@@ -25398,23 +25401,23 @@
       <c r="EL138" s="94"/>
     </row>
     <row r="139" spans="2:142" ht="9" customHeight="1">
-      <c r="B139" s="244"/>
-      <c r="C139" s="160"/>
-      <c r="D139" s="184"/>
-      <c r="E139" s="187"/>
-      <c r="F139" s="173"/>
-      <c r="G139" s="182"/>
-      <c r="H139" s="182"/>
-      <c r="I139" s="182"/>
-      <c r="J139" s="164"/>
-      <c r="K139" s="164"/>
-      <c r="L139" s="167"/>
-      <c r="M139" s="170"/>
-      <c r="N139" s="167"/>
-      <c r="O139" s="170"/>
-      <c r="P139" s="173"/>
-      <c r="Q139" s="176"/>
-      <c r="R139" s="179"/>
+      <c r="B139" s="200"/>
+      <c r="C139" s="171"/>
+      <c r="D139" s="203"/>
+      <c r="E139" s="206"/>
+      <c r="F139" s="189"/>
+      <c r="G139" s="198"/>
+      <c r="H139" s="198"/>
+      <c r="I139" s="198"/>
+      <c r="J139" s="180"/>
+      <c r="K139" s="180"/>
+      <c r="L139" s="183"/>
+      <c r="M139" s="186"/>
+      <c r="N139" s="183"/>
+      <c r="O139" s="186"/>
+      <c r="P139" s="189"/>
+      <c r="Q139" s="192"/>
+      <c r="R139" s="195"/>
       <c r="S139" s="82"/>
       <c r="T139" s="85"/>
       <c r="U139" s="84"/>
@@ -25541,23 +25544,23 @@
       <c r="EL139" s="93"/>
     </row>
     <row r="140" spans="2:142" ht="9" customHeight="1">
-      <c r="B140" s="245"/>
-      <c r="C140" s="160"/>
-      <c r="D140" s="185"/>
-      <c r="E140" s="188"/>
-      <c r="F140" s="174"/>
-      <c r="G140" s="190"/>
-      <c r="H140" s="190"/>
-      <c r="I140" s="190"/>
-      <c r="J140" s="165"/>
-      <c r="K140" s="165"/>
-      <c r="L140" s="168"/>
-      <c r="M140" s="171"/>
-      <c r="N140" s="168"/>
-      <c r="O140" s="171"/>
-      <c r="P140" s="174"/>
-      <c r="Q140" s="177"/>
-      <c r="R140" s="180"/>
+      <c r="B140" s="201"/>
+      <c r="C140" s="171"/>
+      <c r="D140" s="204"/>
+      <c r="E140" s="207"/>
+      <c r="F140" s="190"/>
+      <c r="G140" s="209"/>
+      <c r="H140" s="209"/>
+      <c r="I140" s="209"/>
+      <c r="J140" s="181"/>
+      <c r="K140" s="181"/>
+      <c r="L140" s="184"/>
+      <c r="M140" s="187"/>
+      <c r="N140" s="184"/>
+      <c r="O140" s="187"/>
+      <c r="P140" s="190"/>
+      <c r="Q140" s="193"/>
+      <c r="R140" s="196"/>
       <c r="S140" s="82"/>
       <c r="T140" s="83"/>
       <c r="U140" s="83"/>
@@ -25684,23 +25687,23 @@
       <c r="EL140" s="136"/>
     </row>
     <row r="141" spans="2:142" ht="9" customHeight="1">
-      <c r="B141" s="236"/>
-      <c r="C141" s="160"/>
-      <c r="D141" s="186"/>
-      <c r="E141" s="189"/>
-      <c r="F141" s="175"/>
-      <c r="G141" s="183"/>
-      <c r="H141" s="183"/>
-      <c r="I141" s="183"/>
-      <c r="J141" s="166"/>
-      <c r="K141" s="166"/>
-      <c r="L141" s="169"/>
-      <c r="M141" s="172"/>
-      <c r="N141" s="169"/>
-      <c r="O141" s="172"/>
-      <c r="P141" s="175"/>
-      <c r="Q141" s="178"/>
-      <c r="R141" s="181"/>
+      <c r="B141" s="202"/>
+      <c r="C141" s="171"/>
+      <c r="D141" s="205"/>
+      <c r="E141" s="208"/>
+      <c r="F141" s="191"/>
+      <c r="G141" s="199"/>
+      <c r="H141" s="199"/>
+      <c r="I141" s="199"/>
+      <c r="J141" s="182"/>
+      <c r="K141" s="182"/>
+      <c r="L141" s="185"/>
+      <c r="M141" s="188"/>
+      <c r="N141" s="185"/>
+      <c r="O141" s="188"/>
+      <c r="P141" s="191"/>
+      <c r="Q141" s="194"/>
+      <c r="R141" s="197"/>
       <c r="S141" s="82"/>
       <c r="T141" s="83"/>
       <c r="U141" s="83"/>
@@ -25827,23 +25830,23 @@
       <c r="EL141" s="94"/>
     </row>
     <row r="142" spans="2:142" ht="9" customHeight="1">
-      <c r="B142" s="244"/>
-      <c r="C142" s="160"/>
-      <c r="D142" s="184"/>
-      <c r="E142" s="187"/>
-      <c r="F142" s="173"/>
-      <c r="G142" s="182"/>
-      <c r="H142" s="182"/>
-      <c r="I142" s="182"/>
-      <c r="J142" s="164"/>
-      <c r="K142" s="164"/>
-      <c r="L142" s="167"/>
-      <c r="M142" s="170"/>
-      <c r="N142" s="167"/>
-      <c r="O142" s="170"/>
-      <c r="P142" s="173"/>
-      <c r="Q142" s="176"/>
-      <c r="R142" s="179"/>
+      <c r="B142" s="200"/>
+      <c r="C142" s="171"/>
+      <c r="D142" s="203"/>
+      <c r="E142" s="206"/>
+      <c r="F142" s="189"/>
+      <c r="G142" s="198"/>
+      <c r="H142" s="198"/>
+      <c r="I142" s="198"/>
+      <c r="J142" s="180"/>
+      <c r="K142" s="180"/>
+      <c r="L142" s="183"/>
+      <c r="M142" s="186"/>
+      <c r="N142" s="183"/>
+      <c r="O142" s="186"/>
+      <c r="P142" s="189"/>
+      <c r="Q142" s="192"/>
+      <c r="R142" s="195"/>
       <c r="S142" s="82"/>
       <c r="T142" s="85"/>
       <c r="U142" s="84"/>
@@ -25970,23 +25973,23 @@
       <c r="EL142" s="93"/>
     </row>
     <row r="143" spans="2:142" ht="9" customHeight="1">
-      <c r="B143" s="245"/>
-      <c r="C143" s="160"/>
-      <c r="D143" s="185"/>
-      <c r="E143" s="188"/>
-      <c r="F143" s="174"/>
-      <c r="G143" s="190"/>
-      <c r="H143" s="190"/>
-      <c r="I143" s="190"/>
-      <c r="J143" s="165"/>
-      <c r="K143" s="165"/>
-      <c r="L143" s="168"/>
-      <c r="M143" s="171"/>
-      <c r="N143" s="168"/>
-      <c r="O143" s="171"/>
-      <c r="P143" s="174"/>
-      <c r="Q143" s="177"/>
-      <c r="R143" s="180"/>
+      <c r="B143" s="201"/>
+      <c r="C143" s="171"/>
+      <c r="D143" s="204"/>
+      <c r="E143" s="207"/>
+      <c r="F143" s="190"/>
+      <c r="G143" s="209"/>
+      <c r="H143" s="209"/>
+      <c r="I143" s="209"/>
+      <c r="J143" s="181"/>
+      <c r="K143" s="181"/>
+      <c r="L143" s="184"/>
+      <c r="M143" s="187"/>
+      <c r="N143" s="184"/>
+      <c r="O143" s="187"/>
+      <c r="P143" s="190"/>
+      <c r="Q143" s="193"/>
+      <c r="R143" s="196"/>
       <c r="S143" s="82"/>
       <c r="T143" s="83"/>
       <c r="U143" s="83"/>
@@ -26113,23 +26116,23 @@
       <c r="EL143" s="136"/>
     </row>
     <row r="144" spans="2:142" ht="9" customHeight="1">
-      <c r="B144" s="236"/>
-      <c r="C144" s="160"/>
-      <c r="D144" s="186"/>
-      <c r="E144" s="189"/>
-      <c r="F144" s="175"/>
-      <c r="G144" s="183"/>
-      <c r="H144" s="183"/>
-      <c r="I144" s="183"/>
-      <c r="J144" s="166"/>
-      <c r="K144" s="166"/>
-      <c r="L144" s="169"/>
-      <c r="M144" s="172"/>
-      <c r="N144" s="169"/>
-      <c r="O144" s="172"/>
-      <c r="P144" s="175"/>
-      <c r="Q144" s="178"/>
-      <c r="R144" s="181"/>
+      <c r="B144" s="202"/>
+      <c r="C144" s="171"/>
+      <c r="D144" s="205"/>
+      <c r="E144" s="208"/>
+      <c r="F144" s="191"/>
+      <c r="G144" s="199"/>
+      <c r="H144" s="199"/>
+      <c r="I144" s="199"/>
+      <c r="J144" s="182"/>
+      <c r="K144" s="182"/>
+      <c r="L144" s="185"/>
+      <c r="M144" s="188"/>
+      <c r="N144" s="185"/>
+      <c r="O144" s="188"/>
+      <c r="P144" s="191"/>
+      <c r="Q144" s="194"/>
+      <c r="R144" s="197"/>
       <c r="S144" s="82"/>
       <c r="T144" s="83"/>
       <c r="U144" s="83"/>
@@ -26256,23 +26259,23 @@
       <c r="EL144" s="94"/>
     </row>
     <row r="145" spans="2:142" ht="9" customHeight="1">
-      <c r="B145" s="244"/>
-      <c r="C145" s="160"/>
-      <c r="D145" s="184"/>
-      <c r="E145" s="187"/>
-      <c r="F145" s="173"/>
-      <c r="G145" s="182"/>
-      <c r="H145" s="182"/>
-      <c r="I145" s="182"/>
-      <c r="J145" s="164"/>
-      <c r="K145" s="164"/>
-      <c r="L145" s="167"/>
-      <c r="M145" s="170"/>
-      <c r="N145" s="167"/>
-      <c r="O145" s="170"/>
-      <c r="P145" s="173"/>
-      <c r="Q145" s="176"/>
-      <c r="R145" s="179"/>
+      <c r="B145" s="200"/>
+      <c r="C145" s="171"/>
+      <c r="D145" s="203"/>
+      <c r="E145" s="206"/>
+      <c r="F145" s="189"/>
+      <c r="G145" s="198"/>
+      <c r="H145" s="198"/>
+      <c r="I145" s="198"/>
+      <c r="J145" s="180"/>
+      <c r="K145" s="180"/>
+      <c r="L145" s="183"/>
+      <c r="M145" s="186"/>
+      <c r="N145" s="183"/>
+      <c r="O145" s="186"/>
+      <c r="P145" s="189"/>
+      <c r="Q145" s="192"/>
+      <c r="R145" s="195"/>
       <c r="S145" s="82"/>
       <c r="T145" s="85"/>
       <c r="U145" s="84"/>
@@ -26399,23 +26402,23 @@
       <c r="EL145" s="93"/>
     </row>
     <row r="146" spans="2:142" ht="9" customHeight="1">
-      <c r="B146" s="245"/>
-      <c r="C146" s="160"/>
-      <c r="D146" s="185"/>
-      <c r="E146" s="188"/>
-      <c r="F146" s="174"/>
-      <c r="G146" s="190"/>
-      <c r="H146" s="190"/>
-      <c r="I146" s="190"/>
-      <c r="J146" s="165"/>
-      <c r="K146" s="165"/>
-      <c r="L146" s="168"/>
-      <c r="M146" s="171"/>
-      <c r="N146" s="168"/>
-      <c r="O146" s="171"/>
-      <c r="P146" s="174"/>
-      <c r="Q146" s="177"/>
-      <c r="R146" s="180"/>
+      <c r="B146" s="201"/>
+      <c r="C146" s="171"/>
+      <c r="D146" s="204"/>
+      <c r="E146" s="207"/>
+      <c r="F146" s="190"/>
+      <c r="G146" s="209"/>
+      <c r="H146" s="209"/>
+      <c r="I146" s="209"/>
+      <c r="J146" s="181"/>
+      <c r="K146" s="181"/>
+      <c r="L146" s="184"/>
+      <c r="M146" s="187"/>
+      <c r="N146" s="184"/>
+      <c r="O146" s="187"/>
+      <c r="P146" s="190"/>
+      <c r="Q146" s="193"/>
+      <c r="R146" s="196"/>
       <c r="S146" s="82"/>
       <c r="T146" s="83"/>
       <c r="U146" s="83"/>
@@ -26542,23 +26545,23 @@
       <c r="EL146" s="136"/>
     </row>
     <row r="147" spans="2:142" ht="9" customHeight="1">
-      <c r="B147" s="236"/>
-      <c r="C147" s="160"/>
-      <c r="D147" s="186"/>
-      <c r="E147" s="189"/>
-      <c r="F147" s="175"/>
-      <c r="G147" s="183"/>
-      <c r="H147" s="183"/>
-      <c r="I147" s="183"/>
-      <c r="J147" s="166"/>
-      <c r="K147" s="166"/>
-      <c r="L147" s="169"/>
-      <c r="M147" s="172"/>
-      <c r="N147" s="169"/>
-      <c r="O147" s="172"/>
-      <c r="P147" s="175"/>
-      <c r="Q147" s="178"/>
-      <c r="R147" s="181"/>
+      <c r="B147" s="202"/>
+      <c r="C147" s="171"/>
+      <c r="D147" s="205"/>
+      <c r="E147" s="208"/>
+      <c r="F147" s="191"/>
+      <c r="G147" s="199"/>
+      <c r="H147" s="199"/>
+      <c r="I147" s="199"/>
+      <c r="J147" s="182"/>
+      <c r="K147" s="182"/>
+      <c r="L147" s="185"/>
+      <c r="M147" s="188"/>
+      <c r="N147" s="185"/>
+      <c r="O147" s="188"/>
+      <c r="P147" s="191"/>
+      <c r="Q147" s="194"/>
+      <c r="R147" s="197"/>
       <c r="S147" s="82"/>
       <c r="T147" s="83"/>
       <c r="U147" s="83"/>
@@ -26691,7 +26694,6 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="1104">
-    <mergeCell ref="P108:P109"/>
     <mergeCell ref="P110:P111"/>
     <mergeCell ref="J57:J58"/>
     <mergeCell ref="P53:P54"/>
@@ -26712,15 +26714,17 @@
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="P31:P32"/>
     <mergeCell ref="P41:P42"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L49:L50"/>
     <mergeCell ref="J65:J66"/>
     <mergeCell ref="K65:K66"/>
     <mergeCell ref="N63:N64"/>
@@ -26744,13 +26748,6 @@
     <mergeCell ref="G53:G54"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:E58"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="G97:G98"/>
     <mergeCell ref="H97:H98"/>
     <mergeCell ref="I97:I98"/>
     <mergeCell ref="J97:J98"/>
@@ -26776,11 +26773,13 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="I57:I58"/>
-    <mergeCell ref="Q120:Q121"/>
-    <mergeCell ref="R120:R121"/>
-    <mergeCell ref="P120:P121"/>
-    <mergeCell ref="P122:P123"/>
-    <mergeCell ref="P124:P126"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
     <mergeCell ref="L122:L123"/>
     <mergeCell ref="M122:M123"/>
     <mergeCell ref="N122:N123"/>
@@ -26808,6 +26807,16 @@
     <mergeCell ref="O45:O46"/>
     <mergeCell ref="Q45:Q46"/>
     <mergeCell ref="R45:R46"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="P108:P109"/>
+    <mergeCell ref="J124:J126"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
     <mergeCell ref="Q116:Q117"/>
     <mergeCell ref="R116:R117"/>
     <mergeCell ref="F116:F117"/>
@@ -26830,31 +26839,11 @@
     <mergeCell ref="M116:M117"/>
     <mergeCell ref="N116:N117"/>
     <mergeCell ref="O116:O117"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="L120:L121"/>
-    <mergeCell ref="M120:M121"/>
-    <mergeCell ref="N120:N121"/>
-    <mergeCell ref="K124:K126"/>
-    <mergeCell ref="L124:L126"/>
-    <mergeCell ref="M124:M126"/>
-    <mergeCell ref="N124:N126"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="H124:H126"/>
-    <mergeCell ref="I124:I126"/>
-    <mergeCell ref="J124:J126"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="Q120:Q121"/>
+    <mergeCell ref="R120:R121"/>
+    <mergeCell ref="P120:P121"/>
+    <mergeCell ref="P122:P123"/>
+    <mergeCell ref="P124:P126"/>
     <mergeCell ref="O120:O121"/>
     <mergeCell ref="K122:K123"/>
     <mergeCell ref="Q112:Q113"/>
@@ -26882,6 +26871,11 @@
     <mergeCell ref="M112:M113"/>
     <mergeCell ref="N112:N113"/>
     <mergeCell ref="O112:O113"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
     <mergeCell ref="Q103:Q104"/>
     <mergeCell ref="R103:R104"/>
     <mergeCell ref="L99:L100"/>
@@ -26942,6 +26936,14 @@
     <mergeCell ref="Q89:Q90"/>
     <mergeCell ref="P89:P90"/>
     <mergeCell ref="F91:F92"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="P83:P84"/>
     <mergeCell ref="G103:G104"/>
     <mergeCell ref="H103:H104"/>
     <mergeCell ref="I103:I104"/>
@@ -26962,8 +26964,22 @@
     <mergeCell ref="M99:M100"/>
     <mergeCell ref="F103:F104"/>
     <mergeCell ref="M103:M104"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="N57:N58"/>
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="G85:G86"/>
     <mergeCell ref="H85:H86"/>
@@ -26976,7 +26992,6 @@
     <mergeCell ref="O85:O86"/>
     <mergeCell ref="Q85:Q86"/>
     <mergeCell ref="P85:P86"/>
-    <mergeCell ref="P87:P88"/>
     <mergeCell ref="J85:J86"/>
     <mergeCell ref="K85:K86"/>
     <mergeCell ref="R83:R84"/>
@@ -26989,13 +27004,16 @@
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="Q81:Q82"/>
     <mergeCell ref="R81:R82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="N83:N84"/>
     <mergeCell ref="O83:O84"/>
@@ -27018,20 +27036,6 @@
     <mergeCell ref="N69:N70"/>
     <mergeCell ref="O75:O76"/>
     <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
     <mergeCell ref="EL8:EL10"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="O15:O16"/>
@@ -27051,17 +27055,6 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="I15:I16"/>
@@ -27083,12 +27076,6 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="Q71:Q72"/>
     <mergeCell ref="R71:R72"/>
     <mergeCell ref="R65:R66"/>
     <mergeCell ref="L65:L66"/>
@@ -27115,6 +27102,12 @@
     <mergeCell ref="F81:F82"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="I79:I80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="F77:F78"/>
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="N17:N18"/>
@@ -27179,10 +27172,6 @@
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O19:O20"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
     <mergeCell ref="Q57:Q58"/>
     <mergeCell ref="R57:R58"/>
     <mergeCell ref="O61:O62"/>
@@ -27202,12 +27191,13 @@
     <mergeCell ref="M47:M48"/>
     <mergeCell ref="N47:N48"/>
     <mergeCell ref="O47:O48"/>
-    <mergeCell ref="L45:L46"/>
     <mergeCell ref="M45:M46"/>
-    <mergeCell ref="L49:L50"/>
     <mergeCell ref="M49:M50"/>
     <mergeCell ref="N49:N50"/>
     <mergeCell ref="O49:O50"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="Q63:Q64"/>
     <mergeCell ref="L47:L48"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
@@ -27225,8 +27215,6 @@
     <mergeCell ref="R31:R32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="K37:K38"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="M17:M18"/>
@@ -27241,6 +27229,7 @@
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
+    <mergeCell ref="Q29:Q30"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E11:E12"/>
@@ -27259,15 +27248,6 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D31:D32"/>
     <mergeCell ref="H91:H92"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="F93:F94"/>
@@ -27282,6 +27262,18 @@
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D61:D62"/>
     <mergeCell ref="J63:J64"/>
     <mergeCell ref="J71:J72"/>
     <mergeCell ref="J67:J68"/>
@@ -27314,8 +27306,6 @@
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="H47:H48"/>
@@ -27347,7 +27337,7 @@
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="O27:O28"/>
-    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="R29:R30"/>
     <mergeCell ref="P29:P30"/>
     <mergeCell ref="G35:G36"/>
@@ -27379,6 +27369,7 @@
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="N31:N32"/>
+    <mergeCell ref="L31:L32"/>
     <mergeCell ref="N23:N24"/>
     <mergeCell ref="O23:O24"/>
     <mergeCell ref="Q23:Q24"/>
@@ -27443,7 +27434,6 @@
     <mergeCell ref="R21:R22"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="L31:L32"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
@@ -27475,8 +27465,7 @@
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="M23:M24"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="E61:E62"/>
@@ -27507,9 +27496,8 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="I49:I50"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="E59:E60"/>
@@ -27539,9 +27527,8 @@
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:C62"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="E67:E68"/>
@@ -27561,8 +27548,6 @@
     <mergeCell ref="Q69:Q70"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="P67:P68"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="K73:K74"/>
     <mergeCell ref="L67:L68"/>
     <mergeCell ref="J79:J80"/>
     <mergeCell ref="K79:K80"/>
@@ -27592,6 +27577,10 @@
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:C88"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="B91:B92"/>
@@ -27610,7 +27599,6 @@
     <mergeCell ref="C97:C98"/>
     <mergeCell ref="D97:D98"/>
     <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
     <mergeCell ref="P97:P98"/>
     <mergeCell ref="B99:B100"/>
     <mergeCell ref="C99:C100"/>
@@ -27660,6 +27648,21 @@
     <mergeCell ref="L127:L129"/>
     <mergeCell ref="M127:M129"/>
     <mergeCell ref="N127:N129"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="M120:M121"/>
+    <mergeCell ref="N120:N121"/>
+    <mergeCell ref="K124:K126"/>
+    <mergeCell ref="L124:L126"/>
+    <mergeCell ref="M124:M126"/>
+    <mergeCell ref="N124:N126"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="H124:H126"/>
+    <mergeCell ref="I124:I126"/>
     <mergeCell ref="O127:O129"/>
     <mergeCell ref="P127:P129"/>
     <mergeCell ref="Q127:Q129"/>
@@ -27828,549 +27831,549 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:F11 B13:F13 B15:F15 B17:F17 B19:F19 B21:F21 B23:F23 B25:F25 B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 B37:F37 B39:F39 B41:F41 B43:F43 B45:F45 B47:F47 B49:F49 B51:F51 B53:F53 B55:F55 B57:F57 B59:F59 B61:F61 K71 B63:F63 B65:F65 B67:F67 B69:F69 B71:F71 K73 B73:F73 K75 K77 K79 K81 K83 B75:F75 B77:E77 B79:E79 B81:E81 B83:E83 K85 B85:F85 K87 K89 B87:F87 B89:F89 B91:F91 B93:D93 B95:F95 B97:F97 B99:D99 B101:D101 B103:F103 B105:F106 K114 B114:F114 J116:K116 J118:K118 J120:K120 J122:K122 J124:K125 B116:F116 B118:F118 B120:F120 B122:F122 B124:F125 L11:O102 F101 F99 F93 G11:I28 I13:I42 G29:G90 Q11:R111 Q114:R126 L105:O111 L114:O126 G122:I126 G114:G121 G91:I108 G110:I110">
-    <cfRule type="expression" dxfId="11" priority="5010" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="5010" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="5011" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="5012" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ11:DM147">
-    <cfRule type="expression" dxfId="157" priority="6090" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="6090" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(CJ$9)=7,WEEKDAY(CJ$9)=1,IF(ISNA(MATCH(CJ$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="6091" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="6091" stopIfTrue="1">
       <formula>IF(AND($D11="",$S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11 P13 P15 P17 P19 P21 P23 P25 P27 P29 P31 P33 P35 P37 P39 P41 P43 P45 P47 P49 P51 P53 P55 P57 P59 P61 P63 P65 P67 P69 P87 P114 P116 P118 P120 P122 P124:P125 P89 P103 P101 P105:P106 P99 P85 P71 P73 P75 P77 P79 P81 P83">
-    <cfRule type="expression" dxfId="155" priority="259" stopIfTrue="1">
+  <conditionalFormatting sqref="P11 P13 P15 P17 P19 P21 P23 P25 P27 P29 P31 P33 P35 P37 P39 P41 P43 P45 P47 P49 P51 P53 P55 P57 P59 P61 P63 P65 P67 P69 P87 P118 P120 P122 P124:P125 P89 P103 P101 P105:P106 P99 P85 P71 P73 P75 P77 P79 P81 P83">
+    <cfRule type="expression" dxfId="152" priority="259" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="260" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="261" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="152" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="189" stopIfTrue="1">
       <formula>IF(AND($D77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="190" stopIfTrue="1">
       <formula>IF(AND($D77&lt;&gt;"",$K77="",$I77&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="191" stopIfTrue="1">
       <formula>IF(OR(AND($D77&lt;&gt;"",$J77&lt;&gt;"",$Q77&lt;100),TODAY()&gt;=$H77),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="149" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="186" stopIfTrue="1">
       <formula>IF(AND($D79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="187" stopIfTrue="1">
       <formula>IF(AND($D79&lt;&gt;"",$K79="",$I79&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="188" stopIfTrue="1">
       <formula>IF(OR(AND($D79&lt;&gt;"",$J79&lt;&gt;"",$Q79&lt;100),TODAY()&gt;=$H79),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="146" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="183" stopIfTrue="1">
       <formula>IF(AND($D81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="184" stopIfTrue="1">
       <formula>IF(AND($D81&lt;&gt;"",$K81="",$I81&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="185" stopIfTrue="1">
       <formula>IF(OR(AND($D81&lt;&gt;"",$J81&lt;&gt;"",$Q81&lt;100),TODAY()&gt;=$H81),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="expression" dxfId="143" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="180" stopIfTrue="1">
       <formula>IF(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="181" stopIfTrue="1">
       <formula>IF(AND($D83&lt;&gt;"",$K83="",$I83&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="182" stopIfTrue="1">
       <formula>IF(OR(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$Q83&lt;100),TODAY()&gt;=$H83),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="140" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="177" stopIfTrue="1">
       <formula>IF(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="178" stopIfTrue="1">
       <formula>IF(AND($D101&lt;&gt;"",$K101="",$I101&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="179" stopIfTrue="1">
       <formula>IF(OR(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$Q101&lt;100),TODAY()&gt;=$H101),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="137" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="174" stopIfTrue="1">
       <formula>IF(AND($D99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="175" stopIfTrue="1">
       <formula>IF(AND($D99&lt;&gt;"",$K99="",$I99&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="176" stopIfTrue="1">
       <formula>IF(OR(AND($D99&lt;&gt;"",$J99&lt;&gt;"",$Q99&lt;100),TODAY()&gt;=$H99),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" dxfId="134" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="171" stopIfTrue="1">
       <formula>IF(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="172" stopIfTrue="1">
       <formula>IF(AND($D93&lt;&gt;"",$K93="",$I93&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="173" stopIfTrue="1">
       <formula>IF(OR(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$Q93&lt;100),TODAY()&gt;=$H93),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J28">
-    <cfRule type="expression" dxfId="131" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="168" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="169" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="170" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K28">
-    <cfRule type="expression" dxfId="128" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="165" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="166" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="167" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H42">
-    <cfRule type="expression" dxfId="125" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="162" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="163" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="164" stopIfTrue="1">
       <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J42">
-    <cfRule type="expression" dxfId="122" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="159" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="160" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="161" stopIfTrue="1">
       <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K42">
-    <cfRule type="expression" dxfId="119" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="156" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="157" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="158" stopIfTrue="1">
       <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H90 I63:I90">
-    <cfRule type="expression" dxfId="116" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="153" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="154" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="155" stopIfTrue="1">
       <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:I62">
-    <cfRule type="expression" dxfId="113" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="150" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="151" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="152" stopIfTrue="1">
       <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:J62">
-    <cfRule type="expression" dxfId="110" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="147" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="148" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="149" stopIfTrue="1">
       <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:K62">
-    <cfRule type="expression" dxfId="107" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="144" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="145" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="146" stopIfTrue="1">
       <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J90">
-    <cfRule type="expression" dxfId="104" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="141" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="142" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="143" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:K70">
-    <cfRule type="expression" dxfId="101" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="138" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="139" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="140" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91:J92">
-    <cfRule type="expression" dxfId="98" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="135" stopIfTrue="1">
       <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="136" stopIfTrue="1">
       <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="137" stopIfTrue="1">
       <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91:K92">
-    <cfRule type="expression" dxfId="95" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="132" stopIfTrue="1">
       <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="133" stopIfTrue="1">
       <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="134" stopIfTrue="1">
       <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K105:K107 K110">
-    <cfRule type="expression" dxfId="92" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="126" stopIfTrue="1">
       <formula>IF(AND($D105&lt;&gt;"",$J105&lt;&gt;"",$K105&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="127" stopIfTrue="1">
       <formula>IF(AND($D105&lt;&gt;"",$K105="",$I105&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="128" stopIfTrue="1">
       <formula>IF(OR(AND($D105&lt;&gt;"",$J105&lt;&gt;"",$Q105&lt;100),TODAY()&gt;=$H105),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93:J107 K103:O104">
-    <cfRule type="expression" dxfId="89" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="120" stopIfTrue="1">
       <formula>IF(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="121" stopIfTrue="1">
       <formula>IF(AND($D93&lt;&gt;"",$K93="",$I93&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="122" stopIfTrue="1">
       <formula>IF(OR(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$Q93&lt;100),TODAY()&gt;=$H93),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P97">
-    <cfRule type="expression" dxfId="86" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="117" stopIfTrue="1">
       <formula>IF(AND($D97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="118" stopIfTrue="1">
       <formula>IF(AND($D97&lt;&gt;"",$K97="",$I97&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="119" stopIfTrue="1">
       <formula>IF(OR(AND($D97&lt;&gt;"",$J97&lt;&gt;"",$Q97&lt;100),TODAY()&gt;=$H97),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93:K100">
-    <cfRule type="expression" dxfId="83" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="114" stopIfTrue="1">
       <formula>IF(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="115" stopIfTrue="1">
       <formula>IF(AND($D93&lt;&gt;"",$K93="",$I93&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="116" stopIfTrue="1">
       <formula>IF(OR(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$Q93&lt;100),TODAY()&gt;=$H93),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K101:K102">
-    <cfRule type="expression" dxfId="80" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="111" stopIfTrue="1">
       <formula>IF(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="112" stopIfTrue="1">
       <formula>IF(AND($D101&lt;&gt;"",$K101="",$I101&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="113" stopIfTrue="1">
       <formula>IF(OR(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$Q101&lt;100),TODAY()&gt;=$H101),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127:K128 B127:F128 Q127:R129 L127:O129 G127:G129">
-    <cfRule type="expression" dxfId="77" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="106" stopIfTrue="1">
       <formula>IF(AND($D127&lt;&gt;"",$J127&lt;&gt;"",$K127&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="107" stopIfTrue="1">
       <formula>IF(AND($D127&lt;&gt;"",$K127="",$I127&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="108" stopIfTrue="1">
       <formula>IF(OR(AND($D127&lt;&gt;"",$J127&lt;&gt;"",$Q127&lt;100),TODAY()&gt;=$H127),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P127:P128">
-    <cfRule type="expression" dxfId="74" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="100" stopIfTrue="1">
       <formula>IF(AND($D127&lt;&gt;"",$J127&lt;&gt;"",$K127&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="101" stopIfTrue="1">
       <formula>IF(AND($D127&lt;&gt;"",$K127="",$I127&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="102" stopIfTrue="1">
       <formula>IF(OR(AND($D127&lt;&gt;"",$J127&lt;&gt;"",$Q127&lt;100),TODAY()&gt;=$H127),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J130:K131 B130:F131 Q130:R132 L130:O132 G130:G132">
-    <cfRule type="expression" dxfId="71" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="95" stopIfTrue="1">
       <formula>IF(AND($D130&lt;&gt;"",$J130&lt;&gt;"",$K130&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="96" stopIfTrue="1">
       <formula>IF(AND($D130&lt;&gt;"",$K130="",$I130&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="97" stopIfTrue="1">
       <formula>IF(OR(AND($D130&lt;&gt;"",$J130&lt;&gt;"",$Q130&lt;100),TODAY()&gt;=$H130),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P130:P131">
-    <cfRule type="expression" dxfId="68" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="89" stopIfTrue="1">
       <formula>IF(AND($D130&lt;&gt;"",$J130&lt;&gt;"",$K130&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="90" stopIfTrue="1">
       <formula>IF(AND($D130&lt;&gt;"",$K130="",$I130&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="91" stopIfTrue="1">
       <formula>IF(OR(AND($D130&lt;&gt;"",$J130&lt;&gt;"",$Q130&lt;100),TODAY()&gt;=$H130),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133:K134 B133:F134 Q133:R135 L133:O135 G133:I135">
-    <cfRule type="expression" dxfId="65" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="84" stopIfTrue="1">
       <formula>IF(AND($D133&lt;&gt;"",$J133&lt;&gt;"",$K133&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="85" stopIfTrue="1">
       <formula>IF(AND($D133&lt;&gt;"",$K133="",$I133&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="86" stopIfTrue="1">
       <formula>IF(OR(AND($D133&lt;&gt;"",$J133&lt;&gt;"",$Q133&lt;100),TODAY()&gt;=$H133),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P133:P134">
-    <cfRule type="expression" dxfId="62" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="78" stopIfTrue="1">
       <formula>IF(AND($D133&lt;&gt;"",$J133&lt;&gt;"",$K133&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="79" stopIfTrue="1">
       <formula>IF(AND($D133&lt;&gt;"",$K133="",$I133&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="80" stopIfTrue="1">
       <formula>IF(OR(AND($D133&lt;&gt;"",$J133&lt;&gt;"",$Q133&lt;100),TODAY()&gt;=$H133),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136:K137 B136:F137 Q136:R138 L136:O138 G136:I138">
-    <cfRule type="expression" dxfId="59" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="73" stopIfTrue="1">
       <formula>IF(AND($D136&lt;&gt;"",$J136&lt;&gt;"",$K136&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="74" stopIfTrue="1">
       <formula>IF(AND($D136&lt;&gt;"",$K136="",$I136&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="75" stopIfTrue="1">
       <formula>IF(OR(AND($D136&lt;&gt;"",$J136&lt;&gt;"",$Q136&lt;100),TODAY()&gt;=$H136),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P136:P137">
-    <cfRule type="expression" dxfId="56" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="67" stopIfTrue="1">
       <formula>IF(AND($D136&lt;&gt;"",$J136&lt;&gt;"",$K136&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="68" stopIfTrue="1">
       <formula>IF(AND($D136&lt;&gt;"",$K136="",$I136&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="69" stopIfTrue="1">
       <formula>IF(OR(AND($D136&lt;&gt;"",$J136&lt;&gt;"",$Q136&lt;100),TODAY()&gt;=$H136),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J139:K140 B139:F140 Q139:R141 L139:O141 G139:I141">
-    <cfRule type="expression" dxfId="53" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="62" stopIfTrue="1">
       <formula>IF(AND($D139&lt;&gt;"",$J139&lt;&gt;"",$K139&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="63" stopIfTrue="1">
       <formula>IF(AND($D139&lt;&gt;"",$K139="",$I139&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="64" stopIfTrue="1">
       <formula>IF(OR(AND($D139&lt;&gt;"",$J139&lt;&gt;"",$Q139&lt;100),TODAY()&gt;=$H139),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P139:P140">
-    <cfRule type="expression" dxfId="50" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="56" stopIfTrue="1">
       <formula>IF(AND($D139&lt;&gt;"",$J139&lt;&gt;"",$K139&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="57" stopIfTrue="1">
       <formula>IF(AND($D139&lt;&gt;"",$K139="",$I139&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="58" stopIfTrue="1">
       <formula>IF(OR(AND($D139&lt;&gt;"",$J139&lt;&gt;"",$Q139&lt;100),TODAY()&gt;=$H139),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J142:K143 B142:F143 Q142:R144 L142:O144 G142:I144">
-    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="51" stopIfTrue="1">
       <formula>IF(AND($D142&lt;&gt;"",$J142&lt;&gt;"",$K142&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="52" stopIfTrue="1">
       <formula>IF(AND($D142&lt;&gt;"",$K142="",$I142&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="53" stopIfTrue="1">
       <formula>IF(OR(AND($D142&lt;&gt;"",$J142&lt;&gt;"",$Q142&lt;100),TODAY()&gt;=$H142),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P142:P143">
-    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="45" stopIfTrue="1">
       <formula>IF(AND($D142&lt;&gt;"",$J142&lt;&gt;"",$K142&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="46" stopIfTrue="1">
       <formula>IF(AND($D142&lt;&gt;"",$K142="",$I142&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="47" stopIfTrue="1">
       <formula>IF(OR(AND($D142&lt;&gt;"",$J142&lt;&gt;"",$Q142&lt;100),TODAY()&gt;=$H142),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145:K146 B145:F146 Q145:R147 L145:O147 G145:I147">
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
       <formula>IF(AND($D145&lt;&gt;"",$J145&lt;&gt;"",$K145&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
       <formula>IF(AND($D145&lt;&gt;"",$K145="",$I145&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="42" stopIfTrue="1">
       <formula>IF(OR(AND($D145&lt;&gt;"",$J145&lt;&gt;"",$Q145&lt;100),TODAY()&gt;=$H145),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P145:P146">
-    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
       <formula>IF(AND($D145&lt;&gt;"",$J145&lt;&gt;"",$K145&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
       <formula>IF(AND($D145&lt;&gt;"",$K145="",$I145&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
       <formula>IF(OR(AND($D145&lt;&gt;"",$J145&lt;&gt;"",$Q145&lt;100),TODAY()&gt;=$H145),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112:F112 Q112:R113 G112:G113 P112 I112:O113 I114:J115 P108 P110">
-    <cfRule type="expression" dxfId="35" priority="6095" stopIfTrue="1">
+  <conditionalFormatting sqref="B112:F112 Q112:R113 G112:G113 P112 I112:O113 I114:J115 P108 P110 P114 P116">
+    <cfRule type="expression" dxfId="32" priority="6095" stopIfTrue="1">
       <formula>IF(AND($D108&lt;&gt;"",#REF!&lt;&gt;"",$K108&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6096" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="6096" stopIfTrue="1">
       <formula>IF(AND($D108&lt;&gt;"",$K108="",$I108&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6097" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="6097" stopIfTrue="1">
       <formula>IF(OR(AND($D108&lt;&gt;"",#REF!&lt;&gt;"",$Q108&lt;100),TODAY()&gt;=$J108),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H115">
-    <cfRule type="expression" dxfId="32" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
       <formula>IF(AND($D114&lt;&gt;"",#REF!&lt;&gt;"",$K114&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>IF(AND($D114&lt;&gt;"",$K114="",$I114&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
       <formula>IF(OR(AND($D114&lt;&gt;"",#REF!&lt;&gt;"",$Q114&lt;100),TODAY()&gt;=$J114),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P95 P93 P91">
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
       <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
       <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:I129">
-    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
       <formula>IF(AND($D127&lt;&gt;"",$J127&lt;&gt;"",$K127&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>IF(AND($D127&lt;&gt;"",$K127="",$I127&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
       <formula>IF(OR(AND($D127&lt;&gt;"",$J127&lt;&gt;"",$Q127&lt;100),TODAY()&gt;=$H127),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130:I132">
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>IF(AND($D130&lt;&gt;"",$J130&lt;&gt;"",$K130&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>IF(AND($D130&lt;&gt;"",$K130="",$I130&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>IF(OR(AND($D130&lt;&gt;"",$J130&lt;&gt;"",$Q130&lt;100),TODAY()&gt;=$H130),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116:I117">
-    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$K116&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",$K116="",$I116&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>IF(OR(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$Q116&lt;100),TODAY()&gt;=$J116),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118:I119">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$K118&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",$K118="",$I118&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>IF(OR(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$Q118&lt;100),TODAY()&gt;=$J118),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120:I121">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$K120&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",$K120="",$I120&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>IF(OR(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$Q120&lt;100),TODAY()&gt;=$J120),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28443,11 +28446,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B3" s="230" t="s">
+      <c r="B3" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="253"/>
     </row>
     <row r="4" spans="2:23" ht="16.5" customHeight="1">
       <c r="B4" s="69" t="s">

--- a/6.Schedule/Schedule.xlsx
+++ b/6.Schedule/Schedule.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="139">
   <si>
     <t>○</t>
     <phoneticPr fontId="5"/>
@@ -519,12 +519,6 @@
   </si>
   <si>
     <t>hiển thị  sản phẩm theo danh mục</t>
-  </si>
-  <si>
-    <t>doing</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2538,9 +2532,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2588,6 +2579,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4367,7 +4361,7 @@
       <pane xSplit="18" ySplit="10" topLeftCell="AD113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="P127" sqref="P127:P129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -5334,32 +5328,32 @@
       </c>
     </row>
     <row r="9" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="212" t="s">
+      <c r="C9" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="218" t="s">
+      <c r="D9" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="220" t="s">
+      <c r="E9" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="216" t="s">
+      <c r="F9" s="215" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="224" t="s">
+      <c r="G9" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="214" t="s">
+      <c r="H9" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="215"/>
-      <c r="J9" s="222" t="s">
+      <c r="I9" s="214"/>
+      <c r="J9" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="223"/>
+      <c r="K9" s="222"/>
       <c r="L9" s="229" t="s">
         <v>16</v>
       </c>
@@ -5368,7 +5362,7 @@
         <v>17</v>
       </c>
       <c r="O9" s="230"/>
-      <c r="P9" s="216" t="s">
+      <c r="P9" s="215" t="s">
         <v>43</v>
       </c>
       <c r="Q9" s="231" t="s">
@@ -5869,12 +5863,12 @@
       <c r="EL9" s="250"/>
     </row>
     <row r="10" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B10" s="213"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="224"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="223"/>
       <c r="H10" s="110" t="s">
         <v>20</v>
       </c>
@@ -5899,7 +5893,7 @@
       <c r="O10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="217"/>
+      <c r="P10" s="216"/>
       <c r="Q10" s="233"/>
       <c r="R10" s="234"/>
       <c r="S10" s="21">
@@ -6235,7 +6229,7 @@
       <c r="EL10" s="250"/>
     </row>
     <row r="11" spans="1:142" ht="9" customHeight="1">
-      <c r="B11" s="211" t="s">
+      <c r="B11" s="224" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="171" t="s">
@@ -21161,13 +21155,15 @@
       <c r="J110" s="165">
         <v>43298</v>
       </c>
-      <c r="K110" s="167"/>
+      <c r="K110" s="167">
+        <v>43305</v>
+      </c>
       <c r="L110" s="146"/>
       <c r="M110" s="146"/>
       <c r="N110" s="146"/>
       <c r="O110" s="146"/>
       <c r="P110" s="189" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="Q110" s="147"/>
       <c r="R110" s="148"/>
@@ -23688,7 +23684,7 @@
       <c r="N127" s="183"/>
       <c r="O127" s="186"/>
       <c r="P127" s="189" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q127" s="192"/>
       <c r="R127" s="195"/>
@@ -26694,21 +26690,6 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="1104">
-    <mergeCell ref="P110:P111"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
     <mergeCell ref="P21:P22"/>
     <mergeCell ref="P23:P24"/>
     <mergeCell ref="P39:P40"/>
@@ -26726,21 +26707,6 @@
     <mergeCell ref="L45:L46"/>
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
     <mergeCell ref="K55:K56"/>
     <mergeCell ref="L55:L56"/>
     <mergeCell ref="M55:M56"/>
@@ -26748,10 +26714,22 @@
     <mergeCell ref="G53:G54"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:E58"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="P110:P111"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="P65:P66"/>
     <mergeCell ref="L97:L98"/>
     <mergeCell ref="M97:M98"/>
     <mergeCell ref="N97:N98"/>
@@ -26780,6 +26758,9 @@
     <mergeCell ref="I61:I62"/>
     <mergeCell ref="J61:J62"/>
     <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
     <mergeCell ref="L122:L123"/>
     <mergeCell ref="M122:M123"/>
     <mergeCell ref="N122:N123"/>
@@ -26940,10 +26921,6 @@
     <mergeCell ref="D95:D96"/>
     <mergeCell ref="D99:D100"/>
     <mergeCell ref="N95:N96"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="P83:P84"/>
     <mergeCell ref="G103:G104"/>
     <mergeCell ref="H103:H104"/>
     <mergeCell ref="I103:I104"/>
@@ -26972,17 +26949,10 @@
     <mergeCell ref="J93:J94"/>
     <mergeCell ref="F97:F98"/>
     <mergeCell ref="G97:G98"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="K97:K98"/>
     <mergeCell ref="I85:I86"/>
     <mergeCell ref="R85:R86"/>
     <mergeCell ref="F85:F86"/>
@@ -27004,23 +26974,10 @@
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="Q81:Q82"/>
     <mergeCell ref="R81:R82"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="P83:P84"/>
     <mergeCell ref="R77:R78"/>
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="G77:G78"/>
@@ -27036,6 +26993,23 @@
     <mergeCell ref="N69:N70"/>
     <mergeCell ref="O75:O76"/>
     <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
     <mergeCell ref="EL8:EL10"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="O15:O16"/>
@@ -27063,13 +27037,10 @@
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P15:P16"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="E17:E18"/>
@@ -27080,12 +27051,28 @@
     <mergeCell ref="R65:R66"/>
     <mergeCell ref="L65:L66"/>
     <mergeCell ref="R67:R68"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
     <mergeCell ref="M65:M66"/>
     <mergeCell ref="N65:N66"/>
     <mergeCell ref="O65:O66"/>
     <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
     <mergeCell ref="R75:R76"/>
     <mergeCell ref="Q77:Q78"/>
     <mergeCell ref="O69:O70"/>
@@ -27108,9 +27095,16 @@
     <mergeCell ref="L79:L80"/>
     <mergeCell ref="K73:K74"/>
     <mergeCell ref="F77:F78"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="N79:N80"/>
     <mergeCell ref="D105:D107"/>
     <mergeCell ref="G105:G107"/>
     <mergeCell ref="H105:H107"/>
@@ -27137,9 +27131,12 @@
     <mergeCell ref="M83:M84"/>
     <mergeCell ref="M71:M72"/>
     <mergeCell ref="N71:N72"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="D89:D90"/>
     <mergeCell ref="BZ2:CB2"/>
     <mergeCell ref="CC2:CE2"/>
     <mergeCell ref="CF2:CH2"/>
@@ -27170,14 +27167,8 @@
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
     <mergeCell ref="Q59:Q60"/>
     <mergeCell ref="Q61:Q62"/>
     <mergeCell ref="P43:P44"/>
@@ -27198,6 +27189,7 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="P61:P62"/>
     <mergeCell ref="L47:L48"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
@@ -27248,13 +27240,7 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="G91:G92"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F63:F64"/>
@@ -27274,19 +27260,16 @@
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="E51:E52"/>
     <mergeCell ref="D61:D62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D55:D56"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="M35:M36"/>
@@ -27304,8 +27287,9 @@
     <mergeCell ref="J45:J46"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="I37:I38"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="H47:H48"/>
@@ -27434,8 +27418,6 @@
     <mergeCell ref="R21:R22"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="E13:E14"/>
@@ -27453,6 +27435,17 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="K17:K18"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="B27:B28"/>
@@ -27505,6 +27498,9 @@
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="H59:H60"/>
     <mergeCell ref="I59:I60"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="E65:E66"/>
@@ -27549,9 +27545,6 @@
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="P67:P68"/>
     <mergeCell ref="L67:L68"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="N79:N80"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="Q83:Q84"/>
     <mergeCell ref="N87:N88"/>
@@ -27581,6 +27574,9 @@
     <mergeCell ref="P87:P88"/>
     <mergeCell ref="L81:L82"/>
     <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="L83:L84"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="B91:B92"/>
@@ -28289,7 +28285,7 @@
       <formula>IF(OR(AND($D145&lt;&gt;"",$J145&lt;&gt;"",$Q145&lt;100),TODAY()&gt;=$H145),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112:F112 Q112:R113 G112:G113 P112 I112:O113 I114:J115 P108 P110 P114 P116">
+  <conditionalFormatting sqref="B112:F112 Q112:R113 G112:G113 P112 I112:O113 I114:J115 P108 P114 P116 P110">
     <cfRule type="expression" dxfId="32" priority="6095" stopIfTrue="1">
       <formula>IF(AND($D108&lt;&gt;"",#REF!&lt;&gt;"",$K108&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>

--- a/6.Schedule/Schedule.xlsx
+++ b/6.Schedule/Schedule.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="142">
   <si>
     <t>○</t>
     <phoneticPr fontId="5"/>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>Tích hợp mạng xã hội vào website</t>
+  </si>
+  <si>
+    <t>doing</t>
   </si>
 </sst>
 </file>
@@ -4574,10 +4577,10 @@
   <dimension ref="A1:EL151"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="10" topLeftCell="S115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="10" topLeftCell="S124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P126" sqref="P126:P127"/>
+      <selection pane="bottomRight" activeCell="J128" sqref="J128:J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -4716,7 +4719,7 @@
       <c r="P2" s="114"/>
       <c r="Q2" s="247">
         <f ca="1">TODAY()</f>
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="R2" s="248"/>
       <c r="S2" s="33"/>
@@ -4850,7 +4853,7 @@
       <c r="EK2" s="38"/>
       <c r="EL2" s="14" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," yyyy/mm/dd")</f>
-        <v>Date： 2018/07/30</v>
+        <v>Date： 2018/07/31</v>
       </c>
     </row>
     <row r="3" spans="1:142" ht="18.75" customHeight="1">
@@ -24072,14 +24075,16 @@
       <c r="I128" s="176">
         <v>43309</v>
       </c>
-      <c r="J128" s="184"/>
+      <c r="J128" s="184">
+        <v>43311</v>
+      </c>
       <c r="K128" s="184"/>
       <c r="L128" s="187"/>
       <c r="M128" s="190"/>
       <c r="N128" s="187"/>
       <c r="O128" s="190"/>
       <c r="P128" s="165" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q128" s="194"/>
       <c r="R128" s="197"/>
@@ -27554,6 +27559,8 @@
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="J63:J64"/>
     <mergeCell ref="J67:J68"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
     <mergeCell ref="P110:P111"/>
     <mergeCell ref="J57:J58"/>
     <mergeCell ref="P53:P54"/>
@@ -27581,16 +27588,11 @@
     <mergeCell ref="M61:M62"/>
     <mergeCell ref="N61:N62"/>
     <mergeCell ref="P108:P109"/>
-    <mergeCell ref="Q97:Q98"/>
-    <mergeCell ref="R97:R98"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="K105:K107"/>
     <mergeCell ref="J59:J60"/>
     <mergeCell ref="K59:K60"/>
     <mergeCell ref="L59:L60"/>
@@ -27608,7 +27610,9 @@
     <mergeCell ref="K65:K66"/>
     <mergeCell ref="N63:N64"/>
     <mergeCell ref="O63:O64"/>
-    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
     <mergeCell ref="Q120:Q121"/>
     <mergeCell ref="R120:R121"/>
     <mergeCell ref="P120:P121"/>
@@ -27663,6 +27667,7 @@
     <mergeCell ref="M116:M117"/>
     <mergeCell ref="N116:N117"/>
     <mergeCell ref="O116:O117"/>
+    <mergeCell ref="J118:J119"/>
     <mergeCell ref="O120:O121"/>
     <mergeCell ref="K126:K127"/>
     <mergeCell ref="Q112:Q113"/>
@@ -27727,12 +27732,6 @@
     <mergeCell ref="K91:K92"/>
     <mergeCell ref="L91:L92"/>
     <mergeCell ref="G93:G94"/>
-    <mergeCell ref="R101:R102"/>
-    <mergeCell ref="O101:O102"/>
-    <mergeCell ref="Q101:Q102"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="O93:O94"/>
     <mergeCell ref="Q93:Q94"/>
     <mergeCell ref="R93:R94"/>
     <mergeCell ref="N93:N94"/>
@@ -27759,8 +27758,12 @@
     <mergeCell ref="D99:D100"/>
     <mergeCell ref="N95:N96"/>
     <mergeCell ref="J89:J90"/>
+    <mergeCell ref="Q97:Q98"/>
+    <mergeCell ref="R97:R98"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E93:E94"/>
     <mergeCell ref="M93:M94"/>
-    <mergeCell ref="M99:M100"/>
     <mergeCell ref="F103:F104"/>
     <mergeCell ref="M103:M104"/>
     <mergeCell ref="G95:G96"/>
@@ -27787,10 +27790,12 @@
     <mergeCell ref="P85:P86"/>
     <mergeCell ref="J85:J86"/>
     <mergeCell ref="K85:K86"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="R101:R102"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="Q101:Q102"/>
+    <mergeCell ref="H89:H90"/>
     <mergeCell ref="E83:E84"/>
     <mergeCell ref="E81:E82"/>
     <mergeCell ref="J81:J82"/>
@@ -27809,6 +27814,11 @@
     <mergeCell ref="I77:I78"/>
     <mergeCell ref="P71:P72"/>
     <mergeCell ref="P77:P78"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
     <mergeCell ref="R69:R70"/>
     <mergeCell ref="O73:O74"/>
     <mergeCell ref="Q73:Q74"/>
@@ -27834,6 +27844,13 @@
     <mergeCell ref="H55:H56"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="J55:J56"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="Q59:Q60"/>
     <mergeCell ref="EL8:EL10"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="O15:O16"/>
@@ -27865,6 +27882,10 @@
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="P15:P16"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="E17:E18"/>
@@ -27893,42 +27914,6 @@
     <mergeCell ref="R37:R38"/>
     <mergeCell ref="N37:N38"/>
     <mergeCell ref="R33:R34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="N79:N80"/>
     <mergeCell ref="D105:D107"/>
     <mergeCell ref="G105:G107"/>
     <mergeCell ref="H105:H107"/>
@@ -27993,7 +27978,6 @@
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q59:Q60"/>
     <mergeCell ref="Q61:Q62"/>
     <mergeCell ref="P43:P44"/>
     <mergeCell ref="P47:P48"/>
@@ -28016,6 +28000,8 @@
     <mergeCell ref="P61:P62"/>
     <mergeCell ref="R61:R62"/>
     <mergeCell ref="O59:O60"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="M57:M58"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
@@ -28067,19 +28053,6 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="H51:H52"/>
     <mergeCell ref="E63:E64"/>
@@ -28097,11 +28070,10 @@
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F77:F78"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="L39:L40"/>
@@ -28118,7 +28090,18 @@
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="K47:K48"/>
-    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
     <mergeCell ref="O31:O32"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
@@ -28149,9 +28132,8 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="D35:D36"/>
     <mergeCell ref="L105:L107"/>
     <mergeCell ref="F67:F68"/>
     <mergeCell ref="F69:F70"/>
@@ -28175,6 +28157,15 @@
     <mergeCell ref="H93:H94"/>
     <mergeCell ref="K89:K90"/>
     <mergeCell ref="L73:L74"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F83:F84"/>
     <mergeCell ref="Q23:Q24"/>
     <mergeCell ref="R23:R24"/>
     <mergeCell ref="D21:D22"/>
@@ -28328,6 +28319,9 @@
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="D53:D54"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="E65:E66"/>
@@ -28352,6 +28346,8 @@
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="C63:C64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="C83:C84"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="E67:E68"/>
@@ -28373,8 +28369,32 @@
     <mergeCell ref="P67:P68"/>
     <mergeCell ref="L67:L68"/>
     <mergeCell ref="D69:D70"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="E71:E72"/>
@@ -28391,27 +28411,6 @@
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="D101:D102"/>
@@ -28431,6 +28430,13 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:C102"/>
     <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="O93:O94"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="E103:E104"/>
@@ -28463,7 +28469,6 @@
     <mergeCell ref="D126:D127"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="I118:I119"/>
-    <mergeCell ref="J118:J119"/>
     <mergeCell ref="E120:E121"/>
     <mergeCell ref="F118:F119"/>
     <mergeCell ref="F120:F121"/>
@@ -29263,112 +29268,112 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J120:J122 K122 J124:K124 J126:K126">
-    <cfRule type="expression" dxfId="2" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$K120&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",$K120="",$I120&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
       <formula>IF(OR(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$Q120&lt;100),TODAY()&gt;=$J120),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120:K121">
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$K120&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",$K120="",$I120&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
       <formula>IF(OR(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$Q120&lt;100),TODAY()&gt;=$J120),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118:J119">
-    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$K118&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",$K118="",$I118&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
       <formula>IF(OR(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$Q118&lt;100),TODAY()&gt;=$J118),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K118:K119">
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$K118&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",$K118="",$I118&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>IF(OR(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$Q118&lt;100),TODAY()&gt;=$J118),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116:J117">
-    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$K116&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",$K116="",$I116&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>IF(OR(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$Q116&lt;100),TODAY()&gt;=$J116),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K116:K117">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$K116&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",$K116="",$I116&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>IF(OR(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$Q116&lt;100),TODAY()&gt;=$J116),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114:K115">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>IF(AND($D114&lt;&gt;"",#REF!&lt;&gt;"",$K114&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(AND($D114&lt;&gt;"",$K114="",$I114&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>IF(OR(AND($D114&lt;&gt;"",#REF!&lt;&gt;"",$Q114&lt;100),TODAY()&gt;=$J114),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:H123">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>IF(AND($D122&lt;&gt;"",#REF!&lt;&gt;"",$K122&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(AND($D122&lt;&gt;"",$K122="",$I122&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>IF(OR(AND($D122&lt;&gt;"",#REF!&lt;&gt;"",$Q122&lt;100),TODAY()&gt;=$J122),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124:H125">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>IF(AND($D124&lt;&gt;"",#REF!&lt;&gt;"",$K124&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(AND($D124&lt;&gt;"",$K124="",$I124&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>IF(OR(AND($D124&lt;&gt;"",#REF!&lt;&gt;"",$Q124&lt;100),TODAY()&gt;=$J124),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122:I125">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>IF(AND($D122&lt;&gt;"",$J122&lt;&gt;"",$K122&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(AND($D122&lt;&gt;"",$K122="",$I122&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>IF(OR(AND($D122&lt;&gt;"",$J122&lt;&gt;"",$Q122&lt;100),TODAY()&gt;=$H122),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/6.Schedule/Schedule.xlsx
+++ b/6.Schedule/Schedule.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="140">
   <si>
     <t>○</t>
     <phoneticPr fontId="5"/>
@@ -234,9 +234,6 @@
   <si>
     <t>Status</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>PROJECT NAME</t>
   </si>
   <si>
     <t>Category</t>
@@ -473,9 +470,6 @@
     <t>Thiết kế menu</t>
   </si>
   <si>
-    <t>Doing</t>
-  </si>
-  <si>
     <t>closed</t>
   </si>
   <si>
@@ -512,9 +506,6 @@
     <t>quản lý hóa đơn bán hàng</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>hiển thị danh mục sản phẩm</t>
   </si>
   <si>
@@ -528,6 +519,9 @@
   </si>
   <si>
     <t>doing</t>
+  </si>
+  <si>
+    <t>Xây dựng website bán đồ thể thao.</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2361,10 +2355,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2381,10 +2371,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2692,6 +2678,10 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calc Currency (0)" xfId="1"/>
@@ -2702,7 +2692,49 @@
     <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="196">
+  <dxfs count="202">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4577,17 +4609,17 @@
   <dimension ref="A1:EL151"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="10" topLeftCell="S124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="10" topLeftCell="S32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J128" sqref="J128:J130"/>
+      <selection pane="bottomRight" activeCell="P137" sqref="P137:P139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="154" customWidth="1"/>
-    <col min="3" max="3" width="15" style="160" customWidth="1"/>
+    <col min="3" max="3" width="15" style="159" customWidth="1"/>
     <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="123" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="112" customWidth="1"/>
@@ -4692,7 +4724,7 @@
     </row>
     <row r="2" spans="1:142" ht="19.5" customHeight="1">
       <c r="B2" s="155"/>
-      <c r="C2" s="161"/>
+      <c r="C2" s="160"/>
       <c r="E2" s="120"/>
       <c r="F2" s="114"/>
       <c r="G2" s="80"/>
@@ -4708,20 +4740,20 @@
       <c r="K2" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="225" t="s">
+      <c r="L2" s="223" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="226"/>
-      <c r="N2" s="225" t="s">
+      <c r="M2" s="224"/>
+      <c r="N2" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="226"/>
+      <c r="O2" s="224"/>
       <c r="P2" s="114"/>
-      <c r="Q2" s="247">
+      <c r="Q2" s="245">
         <f ca="1">TODAY()</f>
-        <v>43312</v>
-      </c>
-      <c r="R2" s="248"/>
+        <v>43315</v>
+      </c>
+      <c r="R2" s="246"/>
       <c r="S2" s="33"/>
       <c r="T2" s="67"/>
       <c r="U2" s="28"/>
@@ -4781,21 +4813,21 @@
       <c r="BW2" s="36"/>
       <c r="BX2" s="36"/>
       <c r="BY2" s="36"/>
-      <c r="BZ2" s="241">
+      <c r="BZ2" s="239">
         <v>0.05</v>
       </c>
-      <c r="CA2" s="242"/>
-      <c r="CB2" s="242"/>
-      <c r="CC2" s="241">
+      <c r="CA2" s="240"/>
+      <c r="CB2" s="240"/>
+      <c r="CC2" s="239">
         <v>0.15</v>
       </c>
-      <c r="CD2" s="242"/>
-      <c r="CE2" s="242"/>
-      <c r="CF2" s="241">
+      <c r="CD2" s="240"/>
+      <c r="CE2" s="240"/>
+      <c r="CF2" s="239">
         <v>0.8</v>
       </c>
-      <c r="CG2" s="242"/>
-      <c r="CH2" s="242"/>
+      <c r="CG2" s="240"/>
+      <c r="CH2" s="240"/>
       <c r="CI2" s="38"/>
       <c r="CJ2" s="38"/>
       <c r="CK2" s="38"/>
@@ -4853,14 +4885,14 @@
       <c r="EK2" s="38"/>
       <c r="EL2" s="14" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," yyyy/mm/dd")</f>
-        <v>Date： 2018/07/31</v>
+        <v>Date： 2018/08/03</v>
       </c>
     </row>
-    <row r="3" spans="1:142" ht="18.75" customHeight="1">
-      <c r="B3" s="156" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="162"/>
+    <row r="3" spans="1:142" ht="13.5" customHeight="1">
+      <c r="B3" s="252" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="252"/>
       <c r="E3" s="121"/>
       <c r="F3" s="117"/>
       <c r="G3" s="81"/>
@@ -4880,19 +4912,19 @@
         <f>COUNTIF(R11:R12,"=◇")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="227">
+      <c r="L3" s="225">
         <f>COUNTIF(R11:R12,"=▲")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="228"/>
-      <c r="N3" s="227">
+      <c r="M3" s="226"/>
+      <c r="N3" s="225">
         <f>COUNTIF(R11:R12,"=★")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="228"/>
+      <c r="O3" s="226"/>
       <c r="P3" s="128"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="249"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="247"/>
       <c r="S3" s="33"/>
       <c r="T3" s="68"/>
       <c r="U3" s="105"/>
@@ -4952,29 +4984,29 @@
       <c r="BW3" s="36"/>
       <c r="BX3" s="36"/>
       <c r="BY3" s="36"/>
-      <c r="BZ3" s="244" t="s">
+      <c r="BZ3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="CA3" s="245"/>
-      <c r="CB3" s="246"/>
-      <c r="CC3" s="243" t="s">
+      <c r="CA3" s="243"/>
+      <c r="CB3" s="244"/>
+      <c r="CC3" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="CD3" s="243"/>
-      <c r="CE3" s="243"/>
-      <c r="CF3" s="244" t="s">
+      <c r="CD3" s="241"/>
+      <c r="CE3" s="241"/>
+      <c r="CF3" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="CG3" s="245"/>
-      <c r="CH3" s="246"/>
+      <c r="CG3" s="243"/>
+      <c r="CH3" s="244"/>
       <c r="EL3" s="29">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:142" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B4" s="157"/>
-      <c r="C4" s="163"/>
+    <row r="4" spans="1:142" ht="9" customHeight="1" thickBot="1">
+      <c r="B4" s="156"/>
+      <c r="C4" s="161"/>
       <c r="D4" s="4"/>
       <c r="E4" s="122"/>
       <c r="F4" s="115"/>
@@ -5115,8 +5147,8 @@
       <c r="EK4" s="39"/>
       <c r="EL4" s="6"/>
     </row>
-    <row r="5" spans="1:142" ht="18.75" customHeight="1" thickTop="1">
-      <c r="C5" s="164"/>
+    <row r="5" spans="1:142" ht="14.25" customHeight="1" thickTop="1">
+      <c r="C5" s="162"/>
       <c r="D5" s="2"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -5129,7 +5161,7 @@
       <c r="Q5" s="129"/>
       <c r="W5" s="40"/>
     </row>
-    <row r="6" spans="1:142" ht="18" customHeight="1">
+    <row r="6" spans="1:142" ht="12" customHeight="1">
       <c r="A6" s="8"/>
       <c r="D6" s="8"/>
       <c r="H6" s="8"/>
@@ -5144,22 +5176,22 @@
     </row>
     <row r="7" spans="1:142" ht="14.25" customHeight="1">
       <c r="A7" s="26"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
       <c r="D7" s="124"/>
       <c r="E7" s="125"/>
       <c r="F7" s="118"/>
       <c r="G7" s="106"/>
-      <c r="H7" s="236" t="s">
+      <c r="H7" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="237"/>
-      <c r="J7" s="237"/>
-      <c r="K7" s="237"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="237"/>
-      <c r="N7" s="237"/>
-      <c r="O7" s="238"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="235"/>
+      <c r="L7" s="235"/>
+      <c r="M7" s="235"/>
+      <c r="N7" s="235"/>
+      <c r="O7" s="236"/>
       <c r="P7" s="118"/>
       <c r="Q7" s="130"/>
       <c r="R7" s="130"/>
@@ -5167,8 +5199,8 @@
     </row>
     <row r="8" spans="1:142" ht="14.25" customHeight="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="126"/>
       <c r="E8" s="127"/>
       <c r="F8" s="116"/>
@@ -5187,16 +5219,16 @@
         <f>IF(MAX(K11:K12)=DATE(1900,1,0),"",MAX(K11:K12))</f>
         <v>43292</v>
       </c>
-      <c r="L8" s="239">
+      <c r="L8" s="237">
         <f>SUM(M11:M115)</f>
         <v>43293</v>
       </c>
-      <c r="M8" s="240"/>
-      <c r="N8" s="239">
+      <c r="M8" s="238"/>
+      <c r="N8" s="237">
         <f>SUM(O11:O115)</f>
         <v>43293</v>
       </c>
-      <c r="O8" s="240"/>
+      <c r="O8" s="238"/>
       <c r="P8" s="116"/>
       <c r="Q8" s="131"/>
       <c r="R8" s="132" t="str">
@@ -5542,52 +5574,52 @@
       <c r="EI8" s="86"/>
       <c r="EJ8" s="86"/>
       <c r="EK8" s="86"/>
-      <c r="EL8" s="250" t="s">
+      <c r="EL8" s="248" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B9" s="211" t="s">
+      <c r="B9" s="209" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="211" t="s">
+      <c r="D9" s="215" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="217" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="213" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="221" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="217" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="219" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="215" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="223" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="213" t="s">
+      <c r="H9" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="214"/>
-      <c r="J9" s="221" t="s">
+      <c r="I9" s="212"/>
+      <c r="J9" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="222"/>
-      <c r="L9" s="229" t="s">
+      <c r="K9" s="220"/>
+      <c r="L9" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="230"/>
-      <c r="N9" s="235" t="s">
+      <c r="M9" s="228"/>
+      <c r="N9" s="233" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="230"/>
-      <c r="P9" s="215" t="s">
+      <c r="O9" s="228"/>
+      <c r="P9" s="213" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="231" t="s">
+      <c r="Q9" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="232"/>
+      <c r="R9" s="230"/>
       <c r="S9" s="27">
         <v>43282</v>
       </c>
@@ -6079,15 +6111,15 @@
         <f t="shared" si="2"/>
         <v>43404</v>
       </c>
-      <c r="EL9" s="250"/>
+      <c r="EL9" s="248"/>
     </row>
     <row r="10" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B10" s="212"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="223"/>
+      <c r="B10" s="210"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="221"/>
       <c r="H10" s="110" t="s">
         <v>20</v>
       </c>
@@ -6112,9 +6144,9 @@
       <c r="O10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="216"/>
-      <c r="Q10" s="233"/>
-      <c r="R10" s="234"/>
+      <c r="P10" s="214"/>
+      <c r="Q10" s="231"/>
+      <c r="R10" s="232"/>
       <c r="S10" s="21">
         <f>S9</f>
         <v>43282</v>
@@ -6445,44 +6477,46 @@
       <c r="EI10" s="87"/>
       <c r="EJ10" s="87"/>
       <c r="EK10" s="87"/>
-      <c r="EL10" s="250"/>
+      <c r="EL10" s="248"/>
     </row>
     <row r="11" spans="1:142" ht="9" customHeight="1">
-      <c r="B11" s="224" t="s">
+      <c r="B11" s="222" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="166" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="201"/>
+      <c r="E11" s="204" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="168" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="206" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="165" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="176">
+      <c r="G11" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="174">
         <v>43291</v>
       </c>
-      <c r="I11" s="176">
+      <c r="I11" s="174">
         <v>43292</v>
       </c>
-      <c r="J11" s="176">
+      <c r="J11" s="174">
         <v>43291</v>
       </c>
-      <c r="K11" s="176">
+      <c r="K11" s="174">
         <v>43292</v>
       </c>
-      <c r="L11" s="187"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="190"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="197"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="188"/>
+      <c r="N11" s="185"/>
+      <c r="O11" s="188"/>
+      <c r="P11" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="195"/>
       <c r="S11" s="82"/>
       <c r="T11" s="85"/>
       <c r="U11" s="84"/>
@@ -6613,23 +6647,23 @@
       <c r="EL11" s="93"/>
     </row>
     <row r="12" spans="1:142" ht="9" customHeight="1">
-      <c r="B12" s="202"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="189"/>
-      <c r="O12" s="192"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="196"/>
-      <c r="R12" s="199"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="197"/>
       <c r="S12" s="82"/>
       <c r="T12" s="83"/>
       <c r="U12" s="83"/>
@@ -6756,35 +6790,37 @@
       <c r="EL12" s="94"/>
     </row>
     <row r="13" spans="1:142" ht="9" customHeight="1">
-      <c r="B13" s="200"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="165" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="176">
+      <c r="B13" s="198"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="174">
         <v>43291</v>
       </c>
-      <c r="I13" s="176">
+      <c r="I13" s="174">
         <v>43292</v>
       </c>
-      <c r="J13" s="176">
+      <c r="J13" s="174">
         <v>43291</v>
       </c>
-      <c r="K13" s="176">
+      <c r="K13" s="174">
         <v>43292</v>
       </c>
-      <c r="L13" s="187"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="190"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="197"/>
+      <c r="L13" s="185"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="185"/>
+      <c r="O13" s="188"/>
+      <c r="P13" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="192"/>
+      <c r="R13" s="195"/>
       <c r="S13" s="82"/>
       <c r="T13" s="85"/>
       <c r="U13" s="84"/>
@@ -6915,23 +6951,23 @@
       <c r="EL13" s="93"/>
     </row>
     <row r="14" spans="1:142" ht="9" customHeight="1">
-      <c r="B14" s="202"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="189"/>
-      <c r="O14" s="192"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="196"/>
-      <c r="R14" s="199"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="190"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="194"/>
+      <c r="R14" s="197"/>
       <c r="S14" s="82"/>
       <c r="T14" s="83"/>
       <c r="U14" s="83"/>
@@ -7058,35 +7094,37 @@
       <c r="EL14" s="94"/>
     </row>
     <row r="15" spans="1:142" ht="9" customHeight="1">
-      <c r="B15" s="200"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="165" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="176">
+      <c r="B15" s="198"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="174">
         <v>43291</v>
       </c>
-      <c r="I15" s="176">
+      <c r="I15" s="174">
         <v>43292</v>
       </c>
-      <c r="J15" s="176">
+      <c r="J15" s="174">
         <v>43291</v>
       </c>
-      <c r="K15" s="176">
+      <c r="K15" s="174">
         <v>43292</v>
       </c>
-      <c r="L15" s="187"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="190"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="194"/>
-      <c r="R15" s="197"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="188"/>
+      <c r="P15" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q15" s="192"/>
+      <c r="R15" s="195"/>
       <c r="S15" s="82"/>
       <c r="T15" s="85"/>
       <c r="U15" s="84"/>
@@ -7213,23 +7251,23 @@
       <c r="EL15" s="93"/>
     </row>
     <row r="16" spans="1:142" ht="9" customHeight="1">
-      <c r="B16" s="202"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="189"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="189"/>
-      <c r="O16" s="192"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="196"/>
-      <c r="R16" s="199"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="190"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="197"/>
       <c r="S16" s="82"/>
       <c r="T16" s="83"/>
       <c r="U16" s="83"/>
@@ -7360,37 +7398,39 @@
       <c r="EL16" s="94"/>
     </row>
     <row r="17" spans="2:142" ht="9" customHeight="1">
-      <c r="B17" s="200"/>
-      <c r="C17" s="168" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="203"/>
-      <c r="E17" s="206" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="165"/>
-      <c r="G17" s="176" t="s">
+      <c r="B17" s="198"/>
+      <c r="C17" s="166" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="201"/>
+      <c r="E17" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="176">
+      <c r="F17" s="163"/>
+      <c r="G17" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="174">
         <v>43291</v>
       </c>
-      <c r="I17" s="176">
+      <c r="I17" s="174">
         <v>43292</v>
       </c>
-      <c r="J17" s="176">
+      <c r="J17" s="174">
         <v>43291</v>
       </c>
-      <c r="K17" s="176">
+      <c r="K17" s="174">
         <v>43292</v>
       </c>
-      <c r="L17" s="187"/>
-      <c r="M17" s="190"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="190"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="194"/>
-      <c r="R17" s="197"/>
+      <c r="L17" s="185"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="185"/>
+      <c r="O17" s="188"/>
+      <c r="P17" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="195"/>
       <c r="S17" s="82"/>
       <c r="T17" s="85"/>
       <c r="U17" s="84"/>
@@ -7519,23 +7559,23 @@
       <c r="EL17" s="93"/>
     </row>
     <row r="18" spans="2:142" ht="9" customHeight="1">
-      <c r="B18" s="202"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="189"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="189"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="196"/>
-      <c r="R18" s="199"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="190"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="197"/>
       <c r="S18" s="82"/>
       <c r="T18" s="83"/>
       <c r="U18" s="83"/>
@@ -7664,37 +7704,39 @@
       <c r="EL18" s="94"/>
     </row>
     <row r="19" spans="2:142" ht="9" customHeight="1">
-      <c r="B19" s="200"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="206" t="s">
+      <c r="B19" s="198"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="204" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="165" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="176">
+      <c r="G19" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="174">
         <v>43291</v>
       </c>
-      <c r="I19" s="176">
+      <c r="I19" s="174">
         <v>43292</v>
       </c>
-      <c r="J19" s="176">
+      <c r="J19" s="174">
         <v>43291</v>
       </c>
-      <c r="K19" s="176">
+      <c r="K19" s="174">
         <v>43292</v>
       </c>
-      <c r="L19" s="187"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="190"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="197"/>
+      <c r="L19" s="185"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="185"/>
+      <c r="O19" s="188"/>
+      <c r="P19" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="195"/>
       <c r="S19" s="82"/>
       <c r="T19" s="85"/>
       <c r="U19" s="84"/>
@@ -7823,23 +7865,23 @@
       <c r="EL19" s="93"/>
     </row>
     <row r="20" spans="2:142" ht="9" customHeight="1">
-      <c r="B20" s="202"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="208"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="189"/>
-      <c r="M20" s="192"/>
-      <c r="N20" s="189"/>
-      <c r="O20" s="192"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="196"/>
-      <c r="R20" s="199"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="187"/>
+      <c r="O20" s="190"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="197"/>
       <c r="S20" s="82"/>
       <c r="T20" s="83"/>
       <c r="U20" s="83"/>
@@ -7968,35 +8010,37 @@
       <c r="EL20" s="94"/>
     </row>
     <row r="21" spans="2:142" ht="9" customHeight="1">
-      <c r="B21" s="200"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="165" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="176">
+      <c r="B21" s="198"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="163" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="174">
         <v>43291</v>
       </c>
-      <c r="I21" s="176">
+      <c r="I21" s="174">
         <v>43292</v>
       </c>
-      <c r="J21" s="176">
+      <c r="J21" s="174">
         <v>43291</v>
       </c>
-      <c r="K21" s="176">
+      <c r="K21" s="174">
         <v>43292</v>
       </c>
-      <c r="L21" s="187"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="190"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="194"/>
-      <c r="R21" s="197"/>
+      <c r="L21" s="185"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="185"/>
+      <c r="O21" s="188"/>
+      <c r="P21" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="195"/>
       <c r="S21" s="82"/>
       <c r="T21" s="85"/>
       <c r="U21" s="84"/>
@@ -8125,23 +8169,23 @@
       <c r="EL21" s="93"/>
     </row>
     <row r="22" spans="2:142" ht="9" customHeight="1">
-      <c r="B22" s="202"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="189"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="189"/>
-      <c r="O22" s="192"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="196"/>
-      <c r="R22" s="199"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="190"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="197"/>
       <c r="S22" s="82"/>
       <c r="T22" s="83"/>
       <c r="U22" s="83"/>
@@ -8268,37 +8312,39 @@
       <c r="EL22" s="94"/>
     </row>
     <row r="23" spans="2:142" ht="9" customHeight="1">
-      <c r="B23" s="200"/>
-      <c r="C23" s="168" t="s">
+      <c r="B23" s="198"/>
+      <c r="C23" s="166" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="201"/>
+      <c r="E23" s="204" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="203"/>
-      <c r="E23" s="206" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="165"/>
-      <c r="G23" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="176">
+      <c r="F23" s="163"/>
+      <c r="G23" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="174">
         <v>43291</v>
       </c>
-      <c r="I23" s="176">
+      <c r="I23" s="174">
         <v>43292</v>
       </c>
-      <c r="J23" s="176">
+      <c r="J23" s="174">
         <v>43291</v>
       </c>
-      <c r="K23" s="176">
+      <c r="K23" s="174">
         <v>43292</v>
       </c>
-      <c r="L23" s="187"/>
-      <c r="M23" s="190"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="190"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="194"/>
-      <c r="R23" s="197"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="188"/>
+      <c r="N23" s="185"/>
+      <c r="O23" s="188"/>
+      <c r="P23" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="195"/>
       <c r="S23" s="82"/>
       <c r="T23" s="85"/>
       <c r="U23" s="84"/>
@@ -8427,23 +8473,23 @@
       <c r="EL23" s="93"/>
     </row>
     <row r="24" spans="2:142" ht="9" customHeight="1">
-      <c r="B24" s="202"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="189"/>
-      <c r="M24" s="192"/>
-      <c r="N24" s="189"/>
-      <c r="O24" s="192"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="196"/>
-      <c r="R24" s="199"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="190"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="194"/>
+      <c r="R24" s="197"/>
       <c r="S24" s="82"/>
       <c r="T24" s="83"/>
       <c r="U24" s="83"/>
@@ -8570,35 +8616,37 @@
       <c r="EL24" s="94"/>
     </row>
     <row r="25" spans="2:142" ht="9" customHeight="1">
-      <c r="B25" s="200"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="206" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="165"/>
-      <c r="G25" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="176">
+      <c r="B25" s="198"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="204" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="163"/>
+      <c r="G25" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="174">
         <v>43291</v>
       </c>
-      <c r="I25" s="176">
+      <c r="I25" s="174">
         <v>43292</v>
       </c>
-      <c r="J25" s="176">
+      <c r="J25" s="174">
         <v>43291</v>
       </c>
-      <c r="K25" s="176">
+      <c r="K25" s="174">
         <v>43292</v>
       </c>
-      <c r="L25" s="187"/>
-      <c r="M25" s="190"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="190"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="194"/>
-      <c r="R25" s="197"/>
+      <c r="L25" s="185"/>
+      <c r="M25" s="188"/>
+      <c r="N25" s="185"/>
+      <c r="O25" s="188"/>
+      <c r="P25" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="192"/>
+      <c r="R25" s="195"/>
       <c r="S25" s="82"/>
       <c r="T25" s="85"/>
       <c r="U25" s="84"/>
@@ -8727,23 +8775,23 @@
       <c r="EL25" s="93"/>
     </row>
     <row r="26" spans="2:142" ht="9" customHeight="1">
-      <c r="B26" s="202"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="189"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="189"/>
-      <c r="O26" s="192"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="196"/>
-      <c r="R26" s="199"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="190"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="197"/>
       <c r="S26" s="82"/>
       <c r="T26" s="83"/>
       <c r="U26" s="83"/>
@@ -8870,35 +8918,37 @@
       <c r="EL26" s="94"/>
     </row>
     <row r="27" spans="2:142" ht="9" customHeight="1">
-      <c r="B27" s="200"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="206" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="165"/>
-      <c r="G27" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="176">
+      <c r="B27" s="198"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="204" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="163"/>
+      <c r="G27" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="174">
         <v>43291</v>
       </c>
-      <c r="I27" s="176">
+      <c r="I27" s="174">
         <v>43292</v>
       </c>
-      <c r="J27" s="176">
+      <c r="J27" s="174">
         <v>43291</v>
       </c>
-      <c r="K27" s="176">
+      <c r="K27" s="174">
         <v>43292</v>
       </c>
-      <c r="L27" s="187"/>
-      <c r="M27" s="190"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="190"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="197"/>
+      <c r="L27" s="185"/>
+      <c r="M27" s="188"/>
+      <c r="N27" s="185"/>
+      <c r="O27" s="188"/>
+      <c r="P27" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q27" s="192"/>
+      <c r="R27" s="195"/>
       <c r="S27" s="82"/>
       <c r="T27" s="85"/>
       <c r="U27" s="84"/>
@@ -9027,23 +9077,23 @@
       <c r="EL27" s="93"/>
     </row>
     <row r="28" spans="2:142" ht="9" customHeight="1">
-      <c r="B28" s="202"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="177"/>
-      <c r="L28" s="189"/>
-      <c r="M28" s="192"/>
-      <c r="N28" s="189"/>
-      <c r="O28" s="192"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="196"/>
-      <c r="R28" s="199"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="190"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="194"/>
+      <c r="R28" s="197"/>
       <c r="S28" s="82"/>
       <c r="T28" s="83"/>
       <c r="U28" s="83"/>
@@ -9170,39 +9220,41 @@
       <c r="EL28" s="94"/>
     </row>
     <row r="29" spans="2:142" ht="9" customHeight="1">
-      <c r="B29" s="200" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="168" t="s">
+      <c r="B29" s="198" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="166" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="201"/>
+      <c r="E29" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="203"/>
-      <c r="E29" s="206" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="165"/>
-      <c r="G29" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="176">
+      <c r="F29" s="163"/>
+      <c r="G29" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="174">
         <v>43293</v>
       </c>
-      <c r="I29" s="176">
+      <c r="I29" s="174">
         <v>43144</v>
       </c>
-      <c r="J29" s="176">
+      <c r="J29" s="174">
         <v>43293</v>
       </c>
-      <c r="K29" s="176">
+      <c r="K29" s="174">
         <v>43144</v>
       </c>
-      <c r="L29" s="187"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="194"/>
-      <c r="R29" s="197"/>
+      <c r="L29" s="185"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="185"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q29" s="192"/>
+      <c r="R29" s="195"/>
       <c r="S29" s="82"/>
       <c r="T29" s="85"/>
       <c r="U29" s="84"/>
@@ -9331,23 +9383,23 @@
       <c r="EL29" s="93"/>
     </row>
     <row r="30" spans="2:142" ht="9" customHeight="1">
-      <c r="B30" s="202"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="189"/>
-      <c r="M30" s="192"/>
-      <c r="N30" s="189"/>
-      <c r="O30" s="192"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="196"/>
-      <c r="R30" s="199"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="190"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="190"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="197"/>
       <c r="S30" s="82"/>
       <c r="T30" s="83"/>
       <c r="U30" s="83"/>
@@ -9474,35 +9526,37 @@
       <c r="EL30" s="94"/>
     </row>
     <row r="31" spans="2:142" ht="9" customHeight="1">
-      <c r="B31" s="200"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="206" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="165"/>
-      <c r="G31" s="176" t="s">
+      <c r="B31" s="198"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="201"/>
+      <c r="E31" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="176">
+      <c r="F31" s="163"/>
+      <c r="G31" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="174">
         <v>43293</v>
       </c>
-      <c r="I31" s="176">
+      <c r="I31" s="174">
         <v>43144</v>
       </c>
-      <c r="J31" s="176">
+      <c r="J31" s="174">
         <v>43293</v>
       </c>
-      <c r="K31" s="176">
+      <c r="K31" s="174">
         <v>43144</v>
       </c>
-      <c r="L31" s="187"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="190"/>
-      <c r="P31" s="165"/>
-      <c r="Q31" s="194"/>
-      <c r="R31" s="197"/>
+      <c r="L31" s="185"/>
+      <c r="M31" s="188"/>
+      <c r="N31" s="185"/>
+      <c r="O31" s="188"/>
+      <c r="P31" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" s="192"/>
+      <c r="R31" s="195"/>
       <c r="S31" s="82"/>
       <c r="T31" s="85"/>
       <c r="U31" s="84"/>
@@ -9631,23 +9685,23 @@
       <c r="EL31" s="93"/>
     </row>
     <row r="32" spans="2:142" ht="9" customHeight="1">
-      <c r="B32" s="202"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="208"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="189"/>
-      <c r="M32" s="192"/>
-      <c r="N32" s="189"/>
-      <c r="O32" s="192"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="196"/>
-      <c r="R32" s="199"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="190"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="194"/>
+      <c r="R32" s="197"/>
       <c r="S32" s="82"/>
       <c r="T32" s="83"/>
       <c r="U32" s="83"/>
@@ -9774,37 +9828,39 @@
       <c r="EL32" s="94"/>
     </row>
     <row r="33" spans="2:142" ht="9" customHeight="1">
-      <c r="B33" s="200"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="206" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="165" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="176">
+      <c r="B33" s="198"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="204" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="163" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="174">
         <v>43293</v>
       </c>
-      <c r="I33" s="176">
+      <c r="I33" s="174">
         <v>43144</v>
       </c>
-      <c r="J33" s="176">
+      <c r="J33" s="174">
         <v>43293</v>
       </c>
-      <c r="K33" s="176">
+      <c r="K33" s="174">
         <v>43144</v>
       </c>
-      <c r="L33" s="187"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="190"/>
-      <c r="P33" s="165"/>
-      <c r="Q33" s="194"/>
-      <c r="R33" s="197"/>
+      <c r="L33" s="185"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="185"/>
+      <c r="O33" s="188"/>
+      <c r="P33" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q33" s="192"/>
+      <c r="R33" s="195"/>
       <c r="S33" s="82"/>
       <c r="T33" s="85"/>
       <c r="U33" s="84"/>
@@ -9931,23 +9987,23 @@
       <c r="EL33" s="93"/>
     </row>
     <row r="34" spans="2:142" ht="9" customHeight="1">
-      <c r="B34" s="202"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="189"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="189"/>
-      <c r="O34" s="192"/>
-      <c r="P34" s="166"/>
-      <c r="Q34" s="196"/>
-      <c r="R34" s="199"/>
+      <c r="B34" s="200"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="187"/>
+      <c r="O34" s="190"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="194"/>
+      <c r="R34" s="197"/>
       <c r="S34" s="82"/>
       <c r="T34" s="83"/>
       <c r="U34" s="83"/>
@@ -10076,35 +10132,37 @@
       <c r="EL34" s="94"/>
     </row>
     <row r="35" spans="2:142" ht="9" customHeight="1">
-      <c r="B35" s="200"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="165" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="176">
+      <c r="B35" s="198"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="163" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="174">
         <v>43293</v>
       </c>
-      <c r="I35" s="176">
+      <c r="I35" s="174">
         <v>43144</v>
       </c>
-      <c r="J35" s="176">
+      <c r="J35" s="174">
         <v>43293</v>
       </c>
-      <c r="K35" s="176">
+      <c r="K35" s="174">
         <v>43144</v>
       </c>
-      <c r="L35" s="187"/>
-      <c r="M35" s="190"/>
-      <c r="N35" s="187"/>
-      <c r="O35" s="190"/>
-      <c r="P35" s="165"/>
-      <c r="Q35" s="194"/>
-      <c r="R35" s="197"/>
+      <c r="L35" s="185"/>
+      <c r="M35" s="188"/>
+      <c r="N35" s="185"/>
+      <c r="O35" s="188"/>
+      <c r="P35" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q35" s="192"/>
+      <c r="R35" s="195"/>
       <c r="S35" s="82"/>
       <c r="T35" s="85"/>
       <c r="U35" s="84"/>
@@ -10231,23 +10289,23 @@
       <c r="EL35" s="93"/>
     </row>
     <row r="36" spans="2:142" ht="9" customHeight="1">
-      <c r="B36" s="202"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="205"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="177"/>
-      <c r="J36" s="177"/>
-      <c r="K36" s="177"/>
-      <c r="L36" s="189"/>
-      <c r="M36" s="192"/>
-      <c r="N36" s="189"/>
-      <c r="O36" s="192"/>
-      <c r="P36" s="166"/>
-      <c r="Q36" s="196"/>
-      <c r="R36" s="199"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="187"/>
+      <c r="O36" s="190"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="194"/>
+      <c r="R36" s="197"/>
       <c r="S36" s="82"/>
       <c r="T36" s="83"/>
       <c r="U36" s="83"/>
@@ -10376,35 +10434,37 @@
       <c r="EL36" s="94"/>
     </row>
     <row r="37" spans="2:142" ht="9" customHeight="1">
-      <c r="B37" s="200"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="165" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="176">
+      <c r="B37" s="198"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="201"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="174">
         <v>43293</v>
       </c>
-      <c r="I37" s="176">
+      <c r="I37" s="174">
         <v>43144</v>
       </c>
-      <c r="J37" s="176">
+      <c r="J37" s="174">
         <v>43293</v>
       </c>
-      <c r="K37" s="176">
+      <c r="K37" s="174">
         <v>43144</v>
       </c>
-      <c r="L37" s="187"/>
-      <c r="M37" s="190"/>
-      <c r="N37" s="187"/>
-      <c r="O37" s="190"/>
-      <c r="P37" s="165"/>
-      <c r="Q37" s="194"/>
-      <c r="R37" s="197"/>
+      <c r="L37" s="185"/>
+      <c r="M37" s="188"/>
+      <c r="N37" s="185"/>
+      <c r="O37" s="188"/>
+      <c r="P37" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q37" s="192"/>
+      <c r="R37" s="195"/>
       <c r="S37" s="82"/>
       <c r="T37" s="85"/>
       <c r="U37" s="84"/>
@@ -10531,23 +10591,23 @@
       <c r="EL37" s="93"/>
     </row>
     <row r="38" spans="2:142" ht="9" customHeight="1">
-      <c r="B38" s="202"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="205"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="177"/>
-      <c r="H38" s="177"/>
-      <c r="I38" s="177"/>
-      <c r="J38" s="177"/>
-      <c r="K38" s="177"/>
-      <c r="L38" s="189"/>
-      <c r="M38" s="192"/>
-      <c r="N38" s="189"/>
-      <c r="O38" s="192"/>
-      <c r="P38" s="166"/>
-      <c r="Q38" s="196"/>
-      <c r="R38" s="199"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="175"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="187"/>
+      <c r="O38" s="190"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="194"/>
+      <c r="R38" s="197"/>
       <c r="S38" s="82"/>
       <c r="T38" s="83"/>
       <c r="U38" s="83"/>
@@ -10676,37 +10736,39 @@
       <c r="EL38" s="94"/>
     </row>
     <row r="39" spans="2:142" ht="9" customHeight="1">
-      <c r="B39" s="200"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="206" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="165" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="176">
+      <c r="B39" s="198"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="204" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="163" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="174">
         <v>43293</v>
       </c>
-      <c r="I39" s="176">
+      <c r="I39" s="174">
         <v>43144</v>
       </c>
-      <c r="J39" s="176">
+      <c r="J39" s="174">
         <v>43293</v>
       </c>
-      <c r="K39" s="176">
+      <c r="K39" s="174">
         <v>43144</v>
       </c>
-      <c r="L39" s="187"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="187"/>
-      <c r="O39" s="190"/>
-      <c r="P39" s="165"/>
-      <c r="Q39" s="194"/>
-      <c r="R39" s="197"/>
+      <c r="L39" s="185"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="185"/>
+      <c r="O39" s="188"/>
+      <c r="P39" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q39" s="192"/>
+      <c r="R39" s="195"/>
       <c r="S39" s="82"/>
       <c r="T39" s="85"/>
       <c r="U39" s="84"/>
@@ -10833,23 +10895,23 @@
       <c r="EL39" s="93"/>
     </row>
     <row r="40" spans="2:142" ht="9" customHeight="1">
-      <c r="B40" s="202"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="177"/>
-      <c r="H40" s="177"/>
-      <c r="I40" s="177"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="177"/>
-      <c r="L40" s="189"/>
-      <c r="M40" s="192"/>
-      <c r="N40" s="189"/>
-      <c r="O40" s="192"/>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="196"/>
-      <c r="R40" s="199"/>
+      <c r="B40" s="200"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="164"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="190"/>
+      <c r="N40" s="187"/>
+      <c r="O40" s="190"/>
+      <c r="P40" s="164"/>
+      <c r="Q40" s="194"/>
+      <c r="R40" s="197"/>
       <c r="S40" s="82"/>
       <c r="T40" s="83"/>
       <c r="U40" s="83"/>
@@ -10978,35 +11040,37 @@
       <c r="EL40" s="94"/>
     </row>
     <row r="41" spans="2:142" ht="9" customHeight="1">
-      <c r="B41" s="200"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="206"/>
-      <c r="F41" s="165" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" s="176">
+      <c r="B41" s="198"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="201"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="163" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="174">
         <v>43293</v>
       </c>
-      <c r="I41" s="176">
+      <c r="I41" s="174">
         <v>43144</v>
       </c>
-      <c r="J41" s="176">
+      <c r="J41" s="174">
         <v>43293</v>
       </c>
-      <c r="K41" s="176">
+      <c r="K41" s="174">
         <v>43144</v>
       </c>
-      <c r="L41" s="187"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="187"/>
-      <c r="O41" s="190"/>
-      <c r="P41" s="165"/>
-      <c r="Q41" s="194"/>
-      <c r="R41" s="197"/>
+      <c r="L41" s="185"/>
+      <c r="M41" s="188"/>
+      <c r="N41" s="185"/>
+      <c r="O41" s="188"/>
+      <c r="P41" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q41" s="192"/>
+      <c r="R41" s="195"/>
       <c r="S41" s="82"/>
       <c r="T41" s="85"/>
       <c r="U41" s="84"/>
@@ -11133,23 +11197,23 @@
       <c r="EL41" s="93"/>
     </row>
     <row r="42" spans="2:142" ht="9" customHeight="1">
-      <c r="B42" s="202"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="205"/>
-      <c r="E42" s="208"/>
-      <c r="F42" s="166"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="177"/>
-      <c r="K42" s="177"/>
-      <c r="L42" s="189"/>
-      <c r="M42" s="192"/>
-      <c r="N42" s="189"/>
-      <c r="O42" s="192"/>
-      <c r="P42" s="166"/>
-      <c r="Q42" s="196"/>
-      <c r="R42" s="199"/>
+      <c r="B42" s="200"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="203"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="175"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="187"/>
+      <c r="M42" s="190"/>
+      <c r="N42" s="187"/>
+      <c r="O42" s="190"/>
+      <c r="P42" s="164"/>
+      <c r="Q42" s="194"/>
+      <c r="R42" s="197"/>
       <c r="S42" s="82"/>
       <c r="T42" s="83"/>
       <c r="U42" s="83"/>
@@ -11278,39 +11342,41 @@
       <c r="EL42" s="94"/>
     </row>
     <row r="43" spans="2:142" ht="9" customHeight="1">
-      <c r="B43" s="200" t="s">
+      <c r="B43" s="198" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="166" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="201"/>
+      <c r="E43" s="204" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="163"/>
+      <c r="G43" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="168" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="203"/>
-      <c r="E43" s="206" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="165"/>
-      <c r="G43" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="176">
+      <c r="H43" s="174">
         <v>43145</v>
       </c>
-      <c r="I43" s="176">
+      <c r="I43" s="174">
         <v>43146</v>
       </c>
-      <c r="J43" s="176">
+      <c r="J43" s="174">
         <v>43144</v>
       </c>
-      <c r="K43" s="176">
+      <c r="K43" s="174">
         <v>43145</v>
       </c>
-      <c r="L43" s="187"/>
-      <c r="M43" s="190"/>
-      <c r="N43" s="187"/>
-      <c r="O43" s="190"/>
-      <c r="P43" s="165"/>
-      <c r="Q43" s="194"/>
-      <c r="R43" s="197"/>
+      <c r="L43" s="185"/>
+      <c r="M43" s="188"/>
+      <c r="N43" s="185"/>
+      <c r="O43" s="188"/>
+      <c r="P43" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q43" s="192"/>
+      <c r="R43" s="195"/>
       <c r="S43" s="82"/>
       <c r="T43" s="85"/>
       <c r="U43" s="84"/>
@@ -11439,23 +11505,23 @@
       <c r="EL43" s="93"/>
     </row>
     <row r="44" spans="2:142" ht="9" customHeight="1">
-      <c r="B44" s="202"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="205"/>
-      <c r="E44" s="208"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="177"/>
-      <c r="J44" s="177"/>
-      <c r="K44" s="177"/>
-      <c r="L44" s="189"/>
-      <c r="M44" s="192"/>
-      <c r="N44" s="189"/>
-      <c r="O44" s="192"/>
-      <c r="P44" s="166"/>
-      <c r="Q44" s="196"/>
-      <c r="R44" s="199"/>
+      <c r="B44" s="200"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="203"/>
+      <c r="E44" s="206"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
+      <c r="L44" s="187"/>
+      <c r="M44" s="190"/>
+      <c r="N44" s="187"/>
+      <c r="O44" s="190"/>
+      <c r="P44" s="164"/>
+      <c r="Q44" s="194"/>
+      <c r="R44" s="197"/>
       <c r="S44" s="82"/>
       <c r="T44" s="83"/>
       <c r="U44" s="83"/>
@@ -11582,37 +11648,39 @@
       <c r="EL44" s="94"/>
     </row>
     <row r="45" spans="2:142" ht="9" customHeight="1">
-      <c r="B45" s="200"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="203"/>
-      <c r="E45" s="206" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="165" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" s="176">
+      <c r="B45" s="198"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="201"/>
+      <c r="E45" s="204" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="174">
         <v>43145</v>
       </c>
-      <c r="I45" s="176">
+      <c r="I45" s="174">
         <v>43146</v>
       </c>
-      <c r="J45" s="176">
+      <c r="J45" s="174">
         <v>43144</v>
       </c>
-      <c r="K45" s="176">
+      <c r="K45" s="174">
         <v>43145</v>
       </c>
-      <c r="L45" s="187"/>
-      <c r="M45" s="190"/>
-      <c r="N45" s="187"/>
-      <c r="O45" s="190"/>
-      <c r="P45" s="165"/>
-      <c r="Q45" s="194"/>
-      <c r="R45" s="197"/>
+      <c r="L45" s="185"/>
+      <c r="M45" s="188"/>
+      <c r="N45" s="185"/>
+      <c r="O45" s="188"/>
+      <c r="P45" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q45" s="192"/>
+      <c r="R45" s="195"/>
       <c r="S45" s="82"/>
       <c r="T45" s="85"/>
       <c r="U45" s="84"/>
@@ -11741,23 +11809,23 @@
       <c r="EL45" s="93"/>
     </row>
     <row r="46" spans="2:142" ht="9" customHeight="1">
-      <c r="B46" s="202"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="205"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="177"/>
-      <c r="J46" s="177"/>
-      <c r="K46" s="177"/>
-      <c r="L46" s="189"/>
-      <c r="M46" s="192"/>
-      <c r="N46" s="189"/>
-      <c r="O46" s="192"/>
-      <c r="P46" s="166"/>
-      <c r="Q46" s="196"/>
-      <c r="R46" s="199"/>
+      <c r="B46" s="200"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="206"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="175"/>
+      <c r="K46" s="175"/>
+      <c r="L46" s="187"/>
+      <c r="M46" s="190"/>
+      <c r="N46" s="187"/>
+      <c r="O46" s="190"/>
+      <c r="P46" s="164"/>
+      <c r="Q46" s="194"/>
+      <c r="R46" s="197"/>
       <c r="S46" s="82"/>
       <c r="T46" s="83"/>
       <c r="U46" s="83"/>
@@ -11884,35 +11952,37 @@
       <c r="EL46" s="94"/>
     </row>
     <row r="47" spans="2:142" ht="9" customHeight="1">
-      <c r="B47" s="200"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="206"/>
-      <c r="F47" s="165" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" s="176">
+      <c r="B47" s="198"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="201"/>
+      <c r="E47" s="204"/>
+      <c r="F47" s="163" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="174">
         <v>43145</v>
       </c>
-      <c r="I47" s="176">
+      <c r="I47" s="174">
         <v>43146</v>
       </c>
-      <c r="J47" s="176">
+      <c r="J47" s="174">
         <v>43144</v>
       </c>
-      <c r="K47" s="176">
+      <c r="K47" s="174">
         <v>43145</v>
       </c>
-      <c r="L47" s="187"/>
-      <c r="M47" s="190"/>
-      <c r="N47" s="187"/>
-      <c r="O47" s="190"/>
-      <c r="P47" s="165"/>
-      <c r="Q47" s="194"/>
-      <c r="R47" s="197"/>
+      <c r="L47" s="185"/>
+      <c r="M47" s="188"/>
+      <c r="N47" s="185"/>
+      <c r="O47" s="188"/>
+      <c r="P47" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q47" s="192"/>
+      <c r="R47" s="195"/>
       <c r="S47" s="82"/>
       <c r="T47" s="85"/>
       <c r="U47" s="84"/>
@@ -12041,23 +12111,23 @@
       <c r="EL47" s="93"/>
     </row>
     <row r="48" spans="2:142" ht="9" customHeight="1">
-      <c r="B48" s="202"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="208"/>
-      <c r="F48" s="166"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="177"/>
-      <c r="J48" s="177"/>
-      <c r="K48" s="177"/>
-      <c r="L48" s="189"/>
-      <c r="M48" s="192"/>
-      <c r="N48" s="189"/>
-      <c r="O48" s="192"/>
-      <c r="P48" s="166"/>
-      <c r="Q48" s="196"/>
-      <c r="R48" s="199"/>
+      <c r="B48" s="200"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="175"/>
+      <c r="I48" s="175"/>
+      <c r="J48" s="175"/>
+      <c r="K48" s="175"/>
+      <c r="L48" s="187"/>
+      <c r="M48" s="190"/>
+      <c r="N48" s="187"/>
+      <c r="O48" s="190"/>
+      <c r="P48" s="164"/>
+      <c r="Q48" s="194"/>
+      <c r="R48" s="197"/>
       <c r="S48" s="82"/>
       <c r="T48" s="83"/>
       <c r="U48" s="83"/>
@@ -12186,35 +12256,37 @@
       <c r="EL48" s="94"/>
     </row>
     <row r="49" spans="2:142" ht="9" customHeight="1">
-      <c r="B49" s="200"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="206"/>
-      <c r="F49" s="165" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H49" s="176">
+      <c r="B49" s="198"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="201"/>
+      <c r="E49" s="204"/>
+      <c r="F49" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="174">
         <v>43145</v>
       </c>
-      <c r="I49" s="176">
+      <c r="I49" s="174">
         <v>43146</v>
       </c>
-      <c r="J49" s="176">
+      <c r="J49" s="174">
         <v>43144</v>
       </c>
-      <c r="K49" s="176">
+      <c r="K49" s="174">
         <v>43145</v>
       </c>
-      <c r="L49" s="187"/>
-      <c r="M49" s="190"/>
-      <c r="N49" s="187"/>
-      <c r="O49" s="190"/>
-      <c r="P49" s="165"/>
-      <c r="Q49" s="194"/>
-      <c r="R49" s="197"/>
+      <c r="L49" s="185"/>
+      <c r="M49" s="188"/>
+      <c r="N49" s="185"/>
+      <c r="O49" s="188"/>
+      <c r="P49" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q49" s="192"/>
+      <c r="R49" s="195"/>
       <c r="S49" s="82"/>
       <c r="T49" s="85"/>
       <c r="U49" s="84"/>
@@ -12341,23 +12413,23 @@
       <c r="EL49" s="93"/>
     </row>
     <row r="50" spans="2:142" ht="9" customHeight="1">
-      <c r="B50" s="202"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="205"/>
-      <c r="E50" s="208"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="177"/>
-      <c r="H50" s="177"/>
-      <c r="I50" s="177"/>
-      <c r="J50" s="177"/>
-      <c r="K50" s="177"/>
-      <c r="L50" s="189"/>
-      <c r="M50" s="192"/>
-      <c r="N50" s="189"/>
-      <c r="O50" s="192"/>
-      <c r="P50" s="166"/>
-      <c r="Q50" s="196"/>
-      <c r="R50" s="199"/>
+      <c r="B50" s="200"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="203"/>
+      <c r="E50" s="206"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="175"/>
+      <c r="J50" s="175"/>
+      <c r="K50" s="175"/>
+      <c r="L50" s="187"/>
+      <c r="M50" s="190"/>
+      <c r="N50" s="187"/>
+      <c r="O50" s="190"/>
+      <c r="P50" s="164"/>
+      <c r="Q50" s="194"/>
+      <c r="R50" s="197"/>
       <c r="S50" s="82"/>
       <c r="T50" s="83"/>
       <c r="U50" s="83"/>
@@ -12488,35 +12560,37 @@
       <c r="EL50" s="94"/>
     </row>
     <row r="51" spans="2:142" ht="9" customHeight="1">
-      <c r="B51" s="200"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="203"/>
-      <c r="E51" s="206"/>
-      <c r="F51" s="165" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="176">
+      <c r="B51" s="198"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="201"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="163" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="174">
         <v>43145</v>
       </c>
-      <c r="I51" s="176">
+      <c r="I51" s="174">
         <v>43146</v>
       </c>
-      <c r="J51" s="176">
+      <c r="J51" s="174">
         <v>43144</v>
       </c>
-      <c r="K51" s="176">
+      <c r="K51" s="174">
         <v>43145</v>
       </c>
-      <c r="L51" s="187"/>
-      <c r="M51" s="190"/>
-      <c r="N51" s="187"/>
-      <c r="O51" s="190"/>
-      <c r="P51" s="165"/>
-      <c r="Q51" s="194"/>
-      <c r="R51" s="197"/>
+      <c r="L51" s="185"/>
+      <c r="M51" s="188"/>
+      <c r="N51" s="185"/>
+      <c r="O51" s="188"/>
+      <c r="P51" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q51" s="192"/>
+      <c r="R51" s="195"/>
       <c r="S51" s="82"/>
       <c r="T51" s="85"/>
       <c r="U51" s="84"/>
@@ -12643,23 +12717,23 @@
       <c r="EL51" s="93"/>
     </row>
     <row r="52" spans="2:142" ht="9" customHeight="1">
-      <c r="B52" s="202"/>
-      <c r="C52" s="168"/>
-      <c r="D52" s="205"/>
-      <c r="E52" s="208"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="177"/>
-      <c r="H52" s="177"/>
-      <c r="I52" s="177"/>
-      <c r="J52" s="177"/>
-      <c r="K52" s="177"/>
-      <c r="L52" s="189"/>
-      <c r="M52" s="192"/>
-      <c r="N52" s="189"/>
-      <c r="O52" s="192"/>
-      <c r="P52" s="166"/>
-      <c r="Q52" s="196"/>
-      <c r="R52" s="199"/>
+      <c r="B52" s="200"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="203"/>
+      <c r="E52" s="206"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="175"/>
+      <c r="J52" s="175"/>
+      <c r="K52" s="175"/>
+      <c r="L52" s="187"/>
+      <c r="M52" s="190"/>
+      <c r="N52" s="187"/>
+      <c r="O52" s="190"/>
+      <c r="P52" s="164"/>
+      <c r="Q52" s="194"/>
+      <c r="R52" s="197"/>
       <c r="S52" s="82"/>
       <c r="T52" s="83"/>
       <c r="U52" s="83"/>
@@ -12788,35 +12862,37 @@
       <c r="EL52" s="94"/>
     </row>
     <row r="53" spans="2:142" ht="9" customHeight="1">
-      <c r="B53" s="200"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="203"/>
-      <c r="E53" s="206" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="165"/>
-      <c r="G53" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="176">
+      <c r="B53" s="198"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="201"/>
+      <c r="E53" s="204" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="163"/>
+      <c r="G53" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="174">
         <v>43145</v>
       </c>
-      <c r="I53" s="176">
+      <c r="I53" s="174">
         <v>43146</v>
       </c>
-      <c r="J53" s="176">
+      <c r="J53" s="174">
         <v>43144</v>
       </c>
-      <c r="K53" s="176">
+      <c r="K53" s="174">
         <v>43145</v>
       </c>
-      <c r="L53" s="187"/>
-      <c r="M53" s="190"/>
-      <c r="N53" s="187"/>
-      <c r="O53" s="190"/>
-      <c r="P53" s="165"/>
-      <c r="Q53" s="194"/>
-      <c r="R53" s="197"/>
+      <c r="L53" s="185"/>
+      <c r="M53" s="188"/>
+      <c r="N53" s="185"/>
+      <c r="O53" s="188"/>
+      <c r="P53" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q53" s="192"/>
+      <c r="R53" s="195"/>
       <c r="S53" s="82"/>
       <c r="T53" s="85"/>
       <c r="U53" s="84"/>
@@ -12945,23 +13021,23 @@
       <c r="EL53" s="93"/>
     </row>
     <row r="54" spans="2:142" ht="9" customHeight="1">
-      <c r="B54" s="202"/>
-      <c r="C54" s="168"/>
-      <c r="D54" s="205"/>
-      <c r="E54" s="208"/>
-      <c r="F54" s="166"/>
-      <c r="G54" s="177"/>
-      <c r="H54" s="177"/>
-      <c r="I54" s="177"/>
-      <c r="J54" s="177"/>
-      <c r="K54" s="177"/>
-      <c r="L54" s="189"/>
-      <c r="M54" s="192"/>
-      <c r="N54" s="189"/>
-      <c r="O54" s="192"/>
-      <c r="P54" s="166"/>
-      <c r="Q54" s="196"/>
-      <c r="R54" s="199"/>
+      <c r="B54" s="200"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="203"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="175"/>
+      <c r="I54" s="175"/>
+      <c r="J54" s="175"/>
+      <c r="K54" s="175"/>
+      <c r="L54" s="187"/>
+      <c r="M54" s="190"/>
+      <c r="N54" s="187"/>
+      <c r="O54" s="190"/>
+      <c r="P54" s="164"/>
+      <c r="Q54" s="194"/>
+      <c r="R54" s="197"/>
       <c r="S54" s="82"/>
       <c r="T54" s="83"/>
       <c r="U54" s="83"/>
@@ -13090,37 +13166,39 @@
       <c r="EL54" s="94"/>
     </row>
     <row r="55" spans="2:142" ht="9" customHeight="1">
-      <c r="B55" s="200"/>
-      <c r="C55" s="168" t="s">
+      <c r="B55" s="198"/>
+      <c r="C55" s="166" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="201"/>
+      <c r="E55" s="204" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="203"/>
-      <c r="E55" s="206" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="165"/>
-      <c r="G55" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" s="176">
+      <c r="F55" s="163"/>
+      <c r="G55" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" s="174">
         <v>43145</v>
       </c>
-      <c r="I55" s="176">
+      <c r="I55" s="174">
         <v>43146</v>
       </c>
-      <c r="J55" s="176">
+      <c r="J55" s="174">
         <v>43144</v>
       </c>
-      <c r="K55" s="176">
+      <c r="K55" s="174">
         <v>43145</v>
       </c>
-      <c r="L55" s="187"/>
-      <c r="M55" s="190"/>
-      <c r="N55" s="187"/>
-      <c r="O55" s="190"/>
-      <c r="P55" s="165"/>
-      <c r="Q55" s="194"/>
-      <c r="R55" s="197"/>
+      <c r="L55" s="185"/>
+      <c r="M55" s="188"/>
+      <c r="N55" s="185"/>
+      <c r="O55" s="188"/>
+      <c r="P55" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q55" s="192"/>
+      <c r="R55" s="195"/>
       <c r="S55" s="82"/>
       <c r="T55" s="85"/>
       <c r="U55" s="84"/>
@@ -13247,23 +13325,23 @@
       <c r="EL55" s="93"/>
     </row>
     <row r="56" spans="2:142" ht="15.75" customHeight="1">
-      <c r="B56" s="202"/>
-      <c r="C56" s="168"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="208"/>
-      <c r="F56" s="166"/>
-      <c r="G56" s="177"/>
-      <c r="H56" s="177"/>
-      <c r="I56" s="177"/>
-      <c r="J56" s="177"/>
-      <c r="K56" s="177"/>
-      <c r="L56" s="189"/>
-      <c r="M56" s="192"/>
-      <c r="N56" s="189"/>
-      <c r="O56" s="192"/>
-      <c r="P56" s="166"/>
-      <c r="Q56" s="196"/>
-      <c r="R56" s="199"/>
+      <c r="B56" s="200"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="203"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="175"/>
+      <c r="H56" s="175"/>
+      <c r="I56" s="175"/>
+      <c r="J56" s="175"/>
+      <c r="K56" s="175"/>
+      <c r="L56" s="187"/>
+      <c r="M56" s="190"/>
+      <c r="N56" s="187"/>
+      <c r="O56" s="190"/>
+      <c r="P56" s="164"/>
+      <c r="Q56" s="194"/>
+      <c r="R56" s="197"/>
       <c r="S56" s="82"/>
       <c r="T56" s="83"/>
       <c r="U56" s="83"/>
@@ -13394,35 +13472,37 @@
       <c r="EL56" s="94"/>
     </row>
     <row r="57" spans="2:142" ht="9" customHeight="1">
-      <c r="B57" s="200"/>
-      <c r="C57" s="168"/>
-      <c r="D57" s="203"/>
-      <c r="E57" s="206" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="165"/>
-      <c r="G57" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" s="176">
+      <c r="B57" s="198"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="204" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="163"/>
+      <c r="G57" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="174">
         <v>43145</v>
       </c>
-      <c r="I57" s="176">
+      <c r="I57" s="174">
         <v>43146</v>
       </c>
-      <c r="J57" s="176">
+      <c r="J57" s="174">
         <v>43144</v>
       </c>
-      <c r="K57" s="176">
+      <c r="K57" s="174">
         <v>43145</v>
       </c>
-      <c r="L57" s="187"/>
-      <c r="M57" s="190"/>
-      <c r="N57" s="187"/>
-      <c r="O57" s="190"/>
-      <c r="P57" s="165"/>
-      <c r="Q57" s="194"/>
-      <c r="R57" s="197"/>
+      <c r="L57" s="185"/>
+      <c r="M57" s="188"/>
+      <c r="N57" s="185"/>
+      <c r="O57" s="188"/>
+      <c r="P57" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q57" s="192"/>
+      <c r="R57" s="195"/>
       <c r="S57" s="82"/>
       <c r="T57" s="85"/>
       <c r="U57" s="84"/>
@@ -13549,23 +13629,23 @@
       <c r="EL57" s="93"/>
     </row>
     <row r="58" spans="2:142" ht="19.5" customHeight="1">
-      <c r="B58" s="202"/>
-      <c r="C58" s="168"/>
-      <c r="D58" s="205"/>
-      <c r="E58" s="208"/>
-      <c r="F58" s="166"/>
-      <c r="G58" s="177"/>
-      <c r="H58" s="177"/>
-      <c r="I58" s="177"/>
-      <c r="J58" s="177"/>
-      <c r="K58" s="177"/>
-      <c r="L58" s="189"/>
-      <c r="M58" s="192"/>
-      <c r="N58" s="189"/>
-      <c r="O58" s="192"/>
-      <c r="P58" s="166"/>
-      <c r="Q58" s="196"/>
-      <c r="R58" s="199"/>
+      <c r="B58" s="200"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="203"/>
+      <c r="E58" s="206"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="175"/>
+      <c r="H58" s="175"/>
+      <c r="I58" s="175"/>
+      <c r="J58" s="175"/>
+      <c r="K58" s="175"/>
+      <c r="L58" s="187"/>
+      <c r="M58" s="190"/>
+      <c r="N58" s="187"/>
+      <c r="O58" s="190"/>
+      <c r="P58" s="164"/>
+      <c r="Q58" s="194"/>
+      <c r="R58" s="197"/>
       <c r="S58" s="82"/>
       <c r="T58" s="83"/>
       <c r="U58" s="83"/>
@@ -13696,35 +13776,37 @@
       <c r="EL58" s="94"/>
     </row>
     <row r="59" spans="2:142" ht="9" customHeight="1">
-      <c r="B59" s="200"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="203"/>
-      <c r="E59" s="206" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" s="165"/>
-      <c r="G59" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" s="176">
+      <c r="B59" s="198"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="201"/>
+      <c r="E59" s="204" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="163"/>
+      <c r="G59" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" s="174">
         <v>43145</v>
       </c>
-      <c r="I59" s="176">
+      <c r="I59" s="174">
         <v>43146</v>
       </c>
-      <c r="J59" s="176">
+      <c r="J59" s="174">
         <v>43144</v>
       </c>
-      <c r="K59" s="176">
+      <c r="K59" s="174">
         <v>43145</v>
       </c>
-      <c r="L59" s="187"/>
-      <c r="M59" s="190"/>
-      <c r="N59" s="187"/>
-      <c r="O59" s="190"/>
-      <c r="P59" s="165"/>
-      <c r="Q59" s="194"/>
-      <c r="R59" s="197"/>
+      <c r="L59" s="185"/>
+      <c r="M59" s="188"/>
+      <c r="N59" s="185"/>
+      <c r="O59" s="188"/>
+      <c r="P59" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q59" s="192"/>
+      <c r="R59" s="195"/>
       <c r="S59" s="82"/>
       <c r="T59" s="85"/>
       <c r="U59" s="84"/>
@@ -13855,23 +13937,23 @@
       <c r="EL59" s="93"/>
     </row>
     <row r="60" spans="2:142" ht="9" customHeight="1">
-      <c r="B60" s="202"/>
-      <c r="C60" s="168"/>
-      <c r="D60" s="205"/>
-      <c r="E60" s="208"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="177"/>
-      <c r="H60" s="177"/>
-      <c r="I60" s="177"/>
-      <c r="J60" s="177"/>
-      <c r="K60" s="177"/>
-      <c r="L60" s="189"/>
-      <c r="M60" s="192"/>
-      <c r="N60" s="189"/>
-      <c r="O60" s="192"/>
-      <c r="P60" s="166"/>
-      <c r="Q60" s="196"/>
-      <c r="R60" s="199"/>
+      <c r="B60" s="200"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="203"/>
+      <c r="E60" s="206"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="175"/>
+      <c r="H60" s="175"/>
+      <c r="I60" s="175"/>
+      <c r="J60" s="175"/>
+      <c r="K60" s="175"/>
+      <c r="L60" s="187"/>
+      <c r="M60" s="190"/>
+      <c r="N60" s="187"/>
+      <c r="O60" s="190"/>
+      <c r="P60" s="164"/>
+      <c r="Q60" s="194"/>
+      <c r="R60" s="197"/>
       <c r="S60" s="82"/>
       <c r="T60" s="83"/>
       <c r="U60" s="83"/>
@@ -13998,35 +14080,37 @@
       <c r="EL60" s="94"/>
     </row>
     <row r="61" spans="2:142" ht="9" customHeight="1">
-      <c r="B61" s="200"/>
-      <c r="C61" s="168"/>
-      <c r="D61" s="203"/>
-      <c r="E61" s="206" t="s">
-        <v>88</v>
-      </c>
-      <c r="F61" s="165"/>
-      <c r="G61" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H61" s="176">
+      <c r="B61" s="198"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="201"/>
+      <c r="E61" s="204" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="163"/>
+      <c r="G61" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61" s="174">
         <v>43145</v>
       </c>
-      <c r="I61" s="176">
+      <c r="I61" s="174">
         <v>43146</v>
       </c>
-      <c r="J61" s="176">
+      <c r="J61" s="174">
         <v>43144</v>
       </c>
-      <c r="K61" s="176">
+      <c r="K61" s="174">
         <v>43145</v>
       </c>
-      <c r="L61" s="187"/>
-      <c r="M61" s="190"/>
-      <c r="N61" s="187"/>
-      <c r="O61" s="190"/>
-      <c r="P61" s="165"/>
-      <c r="Q61" s="194"/>
-      <c r="R61" s="197"/>
+      <c r="L61" s="185"/>
+      <c r="M61" s="188"/>
+      <c r="N61" s="185"/>
+      <c r="O61" s="188"/>
+      <c r="P61" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q61" s="192"/>
+      <c r="R61" s="195"/>
       <c r="S61" s="82"/>
       <c r="T61" s="85"/>
       <c r="U61" s="84"/>
@@ -14153,23 +14237,23 @@
       <c r="EL61" s="93"/>
     </row>
     <row r="62" spans="2:142" ht="9" customHeight="1">
-      <c r="B62" s="202"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="205"/>
-      <c r="E62" s="208"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="177"/>
-      <c r="H62" s="177"/>
-      <c r="I62" s="177"/>
-      <c r="J62" s="177"/>
-      <c r="K62" s="177"/>
-      <c r="L62" s="189"/>
-      <c r="M62" s="192"/>
-      <c r="N62" s="189"/>
-      <c r="O62" s="192"/>
-      <c r="P62" s="166"/>
-      <c r="Q62" s="196"/>
-      <c r="R62" s="199"/>
+      <c r="B62" s="200"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="203"/>
+      <c r="E62" s="206"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="175"/>
+      <c r="H62" s="175"/>
+      <c r="I62" s="175"/>
+      <c r="J62" s="175"/>
+      <c r="K62" s="175"/>
+      <c r="L62" s="187"/>
+      <c r="M62" s="190"/>
+      <c r="N62" s="187"/>
+      <c r="O62" s="190"/>
+      <c r="P62" s="164"/>
+      <c r="Q62" s="194"/>
+      <c r="R62" s="197"/>
       <c r="S62" s="82"/>
       <c r="T62" s="83"/>
       <c r="U62" s="83"/>
@@ -14296,39 +14380,41 @@
       <c r="EL62" s="94"/>
     </row>
     <row r="63" spans="2:142" ht="9" customHeight="1">
-      <c r="B63" s="200" t="s">
+      <c r="B63" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="168" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="203"/>
-      <c r="E63" s="206" t="s">
-        <v>92</v>
-      </c>
-      <c r="F63" s="165"/>
-      <c r="G63" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H63" s="176">
+      <c r="D63" s="201"/>
+      <c r="E63" s="204" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="163"/>
+      <c r="G63" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H63" s="174">
         <v>43147</v>
       </c>
-      <c r="I63" s="176">
+      <c r="I63" s="174">
         <v>43148</v>
       </c>
-      <c r="J63" s="176">
+      <c r="J63" s="174">
         <v>43146</v>
       </c>
-      <c r="K63" s="176">
+      <c r="K63" s="174">
         <v>43147</v>
       </c>
-      <c r="L63" s="187"/>
-      <c r="M63" s="190"/>
-      <c r="N63" s="187"/>
-      <c r="O63" s="190"/>
-      <c r="P63" s="165"/>
-      <c r="Q63" s="194"/>
-      <c r="R63" s="197"/>
+      <c r="L63" s="185"/>
+      <c r="M63" s="188"/>
+      <c r="N63" s="185"/>
+      <c r="O63" s="188"/>
+      <c r="P63" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q63" s="192"/>
+      <c r="R63" s="195"/>
       <c r="S63" s="82"/>
       <c r="T63" s="85"/>
       <c r="U63" s="84"/>
@@ -14455,23 +14541,23 @@
       <c r="EL63" s="93"/>
     </row>
     <row r="64" spans="2:142" ht="15" customHeight="1">
-      <c r="B64" s="202"/>
-      <c r="C64" s="168"/>
-      <c r="D64" s="205"/>
-      <c r="E64" s="208"/>
-      <c r="F64" s="166"/>
-      <c r="G64" s="177"/>
-      <c r="H64" s="177"/>
-      <c r="I64" s="177"/>
-      <c r="J64" s="177"/>
-      <c r="K64" s="177"/>
-      <c r="L64" s="189"/>
-      <c r="M64" s="192"/>
-      <c r="N64" s="189"/>
-      <c r="O64" s="192"/>
-      <c r="P64" s="166"/>
-      <c r="Q64" s="196"/>
-      <c r="R64" s="199"/>
+      <c r="B64" s="200"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="203"/>
+      <c r="E64" s="206"/>
+      <c r="F64" s="164"/>
+      <c r="G64" s="175"/>
+      <c r="H64" s="175"/>
+      <c r="I64" s="175"/>
+      <c r="J64" s="175"/>
+      <c r="K64" s="175"/>
+      <c r="L64" s="187"/>
+      <c r="M64" s="190"/>
+      <c r="N64" s="187"/>
+      <c r="O64" s="190"/>
+      <c r="P64" s="164"/>
+      <c r="Q64" s="194"/>
+      <c r="R64" s="197"/>
       <c r="S64" s="82"/>
       <c r="T64" s="83"/>
       <c r="U64" s="83"/>
@@ -14598,35 +14684,37 @@
       <c r="EL64" s="94"/>
     </row>
     <row r="65" spans="2:142" ht="9" customHeight="1">
-      <c r="B65" s="200"/>
-      <c r="C65" s="168"/>
-      <c r="D65" s="203"/>
-      <c r="E65" s="206" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="165"/>
-      <c r="G65" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H65" s="176">
+      <c r="B65" s="198"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="201"/>
+      <c r="E65" s="204" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="163"/>
+      <c r="G65" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65" s="174">
         <v>43147</v>
       </c>
-      <c r="I65" s="176">
+      <c r="I65" s="174">
         <v>43148</v>
       </c>
-      <c r="J65" s="176">
+      <c r="J65" s="174">
         <v>43146</v>
       </c>
-      <c r="K65" s="176">
+      <c r="K65" s="174">
         <v>43147</v>
       </c>
-      <c r="L65" s="187"/>
-      <c r="M65" s="190"/>
-      <c r="N65" s="187"/>
-      <c r="O65" s="190"/>
-      <c r="P65" s="165"/>
-      <c r="Q65" s="194"/>
-      <c r="R65" s="197"/>
+      <c r="L65" s="185"/>
+      <c r="M65" s="188"/>
+      <c r="N65" s="185"/>
+      <c r="O65" s="188"/>
+      <c r="P65" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q65" s="192"/>
+      <c r="R65" s="195"/>
       <c r="S65" s="82"/>
       <c r="T65" s="85"/>
       <c r="U65" s="84"/>
@@ -14753,23 +14841,23 @@
       <c r="EL65" s="93"/>
     </row>
     <row r="66" spans="2:142" ht="9" customHeight="1">
-      <c r="B66" s="202"/>
-      <c r="C66" s="168"/>
-      <c r="D66" s="205"/>
-      <c r="E66" s="208"/>
-      <c r="F66" s="166"/>
-      <c r="G66" s="177"/>
-      <c r="H66" s="177"/>
-      <c r="I66" s="177"/>
-      <c r="J66" s="177"/>
-      <c r="K66" s="177"/>
-      <c r="L66" s="189"/>
-      <c r="M66" s="192"/>
-      <c r="N66" s="189"/>
-      <c r="O66" s="192"/>
-      <c r="P66" s="166"/>
-      <c r="Q66" s="196"/>
-      <c r="R66" s="199"/>
+      <c r="B66" s="200"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="203"/>
+      <c r="E66" s="206"/>
+      <c r="F66" s="164"/>
+      <c r="G66" s="175"/>
+      <c r="H66" s="175"/>
+      <c r="I66" s="175"/>
+      <c r="J66" s="175"/>
+      <c r="K66" s="175"/>
+      <c r="L66" s="187"/>
+      <c r="M66" s="190"/>
+      <c r="N66" s="187"/>
+      <c r="O66" s="190"/>
+      <c r="P66" s="164"/>
+      <c r="Q66" s="194"/>
+      <c r="R66" s="197"/>
       <c r="S66" s="82"/>
       <c r="T66" s="83"/>
       <c r="U66" s="83"/>
@@ -14896,35 +14984,37 @@
       <c r="EL66" s="94"/>
     </row>
     <row r="67" spans="2:142" ht="9" customHeight="1">
-      <c r="B67" s="200"/>
-      <c r="C67" s="168"/>
-      <c r="D67" s="203"/>
-      <c r="E67" s="206" t="s">
-        <v>91</v>
-      </c>
-      <c r="F67" s="165"/>
-      <c r="G67" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H67" s="176">
+      <c r="B67" s="198"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="201"/>
+      <c r="E67" s="204" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="163"/>
+      <c r="G67" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" s="174">
         <v>43147</v>
       </c>
-      <c r="I67" s="176">
+      <c r="I67" s="174">
         <v>43148</v>
       </c>
-      <c r="J67" s="176">
+      <c r="J67" s="174">
         <v>43146</v>
       </c>
-      <c r="K67" s="176">
+      <c r="K67" s="174">
         <v>43147</v>
       </c>
-      <c r="L67" s="187"/>
-      <c r="M67" s="190"/>
-      <c r="N67" s="187"/>
-      <c r="O67" s="190"/>
-      <c r="P67" s="165"/>
-      <c r="Q67" s="194"/>
-      <c r="R67" s="197"/>
+      <c r="L67" s="185"/>
+      <c r="M67" s="188"/>
+      <c r="N67" s="185"/>
+      <c r="O67" s="188"/>
+      <c r="P67" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q67" s="192"/>
+      <c r="R67" s="195"/>
       <c r="S67" s="82"/>
       <c r="T67" s="85"/>
       <c r="U67" s="84"/>
@@ -15051,23 +15141,23 @@
       <c r="EL67" s="93"/>
     </row>
     <row r="68" spans="2:142" ht="9" customHeight="1">
-      <c r="B68" s="202"/>
-      <c r="C68" s="168"/>
-      <c r="D68" s="205"/>
-      <c r="E68" s="208"/>
-      <c r="F68" s="166"/>
-      <c r="G68" s="177"/>
-      <c r="H68" s="177"/>
-      <c r="I68" s="177"/>
-      <c r="J68" s="177"/>
-      <c r="K68" s="177"/>
-      <c r="L68" s="189"/>
-      <c r="M68" s="192"/>
-      <c r="N68" s="189"/>
-      <c r="O68" s="192"/>
-      <c r="P68" s="166"/>
-      <c r="Q68" s="196"/>
-      <c r="R68" s="199"/>
+      <c r="B68" s="200"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="203"/>
+      <c r="E68" s="206"/>
+      <c r="F68" s="164"/>
+      <c r="G68" s="175"/>
+      <c r="H68" s="175"/>
+      <c r="I68" s="175"/>
+      <c r="J68" s="175"/>
+      <c r="K68" s="175"/>
+      <c r="L68" s="187"/>
+      <c r="M68" s="190"/>
+      <c r="N68" s="187"/>
+      <c r="O68" s="190"/>
+      <c r="P68" s="164"/>
+      <c r="Q68" s="194"/>
+      <c r="R68" s="197"/>
       <c r="S68" s="82"/>
       <c r="T68" s="83"/>
       <c r="U68" s="83"/>
@@ -15194,37 +15284,37 @@
       <c r="EL68" s="94"/>
     </row>
     <row r="69" spans="2:142" ht="9" customHeight="1">
-      <c r="B69" s="200"/>
-      <c r="C69" s="168" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="203"/>
-      <c r="E69" s="206"/>
-      <c r="F69" s="165"/>
-      <c r="G69" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H69" s="176">
+      <c r="B69" s="198"/>
+      <c r="C69" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="201"/>
+      <c r="E69" s="204"/>
+      <c r="F69" s="163"/>
+      <c r="G69" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="174">
         <v>43147</v>
       </c>
-      <c r="I69" s="176">
+      <c r="I69" s="174">
         <v>43148</v>
       </c>
-      <c r="J69" s="176">
+      <c r="J69" s="174">
         <v>43146</v>
       </c>
-      <c r="K69" s="176">
+      <c r="K69" s="174">
         <v>43147</v>
       </c>
-      <c r="L69" s="187"/>
-      <c r="M69" s="190"/>
-      <c r="N69" s="187"/>
-      <c r="O69" s="190"/>
-      <c r="P69" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q69" s="194"/>
-      <c r="R69" s="197"/>
+      <c r="L69" s="185"/>
+      <c r="M69" s="188"/>
+      <c r="N69" s="185"/>
+      <c r="O69" s="188"/>
+      <c r="P69" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q69" s="192"/>
+      <c r="R69" s="195"/>
       <c r="S69" s="82"/>
       <c r="T69" s="85"/>
       <c r="U69" s="84"/>
@@ -15351,23 +15441,23 @@
       <c r="EL69" s="93"/>
     </row>
     <row r="70" spans="2:142" ht="9" customHeight="1">
-      <c r="B70" s="202"/>
-      <c r="C70" s="168"/>
-      <c r="D70" s="205"/>
-      <c r="E70" s="208"/>
-      <c r="F70" s="166"/>
-      <c r="G70" s="177"/>
-      <c r="H70" s="177"/>
-      <c r="I70" s="177"/>
-      <c r="J70" s="177"/>
-      <c r="K70" s="177"/>
-      <c r="L70" s="189"/>
-      <c r="M70" s="192"/>
-      <c r="N70" s="189"/>
-      <c r="O70" s="192"/>
-      <c r="P70" s="166"/>
-      <c r="Q70" s="196"/>
-      <c r="R70" s="199"/>
+      <c r="B70" s="200"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="203"/>
+      <c r="E70" s="206"/>
+      <c r="F70" s="164"/>
+      <c r="G70" s="175"/>
+      <c r="H70" s="175"/>
+      <c r="I70" s="175"/>
+      <c r="J70" s="175"/>
+      <c r="K70" s="175"/>
+      <c r="L70" s="187"/>
+      <c r="M70" s="190"/>
+      <c r="N70" s="187"/>
+      <c r="O70" s="190"/>
+      <c r="P70" s="164"/>
+      <c r="Q70" s="194"/>
+      <c r="R70" s="197"/>
       <c r="S70" s="82"/>
       <c r="T70" s="83"/>
       <c r="U70" s="83"/>
@@ -15494,37 +15584,37 @@
       <c r="EL70" s="94"/>
     </row>
     <row r="71" spans="2:142" ht="9" customHeight="1">
-      <c r="B71" s="200"/>
-      <c r="C71" s="168" t="s">
+      <c r="B71" s="198"/>
+      <c r="C71" s="166" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="201"/>
+      <c r="E71" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="203"/>
-      <c r="E71" s="206" t="s">
-        <v>96</v>
-      </c>
-      <c r="F71" s="165"/>
-      <c r="G71" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H71" s="176">
+      <c r="F71" s="163"/>
+      <c r="G71" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" s="174">
         <v>43147</v>
       </c>
-      <c r="I71" s="176">
+      <c r="I71" s="174">
         <v>43148</v>
       </c>
-      <c r="J71" s="176">
+      <c r="J71" s="174">
         <v>43146</v>
       </c>
-      <c r="K71" s="184"/>
-      <c r="L71" s="187"/>
-      <c r="M71" s="190"/>
-      <c r="N71" s="187"/>
-      <c r="O71" s="190"/>
-      <c r="P71" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q71" s="194"/>
-      <c r="R71" s="197"/>
+      <c r="K71" s="182"/>
+      <c r="L71" s="185"/>
+      <c r="M71" s="188"/>
+      <c r="N71" s="185"/>
+      <c r="O71" s="188"/>
+      <c r="P71" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q71" s="192"/>
+      <c r="R71" s="195"/>
       <c r="S71" s="82"/>
       <c r="T71" s="85"/>
       <c r="U71" s="84"/>
@@ -15651,23 +15741,23 @@
       <c r="EL71" s="93"/>
     </row>
     <row r="72" spans="2:142" ht="9" customHeight="1">
-      <c r="B72" s="202"/>
-      <c r="C72" s="168"/>
-      <c r="D72" s="205"/>
-      <c r="E72" s="208"/>
-      <c r="F72" s="166"/>
-      <c r="G72" s="177"/>
-      <c r="H72" s="177"/>
-      <c r="I72" s="177"/>
-      <c r="J72" s="177"/>
-      <c r="K72" s="186"/>
-      <c r="L72" s="189"/>
-      <c r="M72" s="192"/>
-      <c r="N72" s="189"/>
-      <c r="O72" s="192"/>
-      <c r="P72" s="166"/>
-      <c r="Q72" s="196"/>
-      <c r="R72" s="199"/>
+      <c r="B72" s="200"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="203"/>
+      <c r="E72" s="206"/>
+      <c r="F72" s="164"/>
+      <c r="G72" s="175"/>
+      <c r="H72" s="175"/>
+      <c r="I72" s="175"/>
+      <c r="J72" s="175"/>
+      <c r="K72" s="184"/>
+      <c r="L72" s="187"/>
+      <c r="M72" s="190"/>
+      <c r="N72" s="187"/>
+      <c r="O72" s="190"/>
+      <c r="P72" s="164"/>
+      <c r="Q72" s="194"/>
+      <c r="R72" s="197"/>
       <c r="S72" s="82"/>
       <c r="T72" s="83"/>
       <c r="U72" s="83"/>
@@ -15794,37 +15884,37 @@
       <c r="EL72" s="94"/>
     </row>
     <row r="73" spans="2:142" ht="9" customHeight="1">
-      <c r="B73" s="200"/>
-      <c r="C73" s="168"/>
-      <c r="D73" s="203"/>
-      <c r="E73" s="206" t="s">
+      <c r="B73" s="198"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="201"/>
+      <c r="E73" s="204" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H73" s="176">
+      <c r="G73" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H73" s="174">
         <v>43147</v>
       </c>
-      <c r="I73" s="176">
+      <c r="I73" s="174">
         <v>43148</v>
       </c>
-      <c r="J73" s="176">
+      <c r="J73" s="174">
         <v>43146</v>
       </c>
-      <c r="K73" s="184"/>
-      <c r="L73" s="187"/>
-      <c r="M73" s="190"/>
-      <c r="N73" s="187"/>
-      <c r="O73" s="190"/>
-      <c r="P73" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q73" s="194"/>
-      <c r="R73" s="197"/>
+      <c r="K73" s="182"/>
+      <c r="L73" s="185"/>
+      <c r="M73" s="188"/>
+      <c r="N73" s="185"/>
+      <c r="O73" s="188"/>
+      <c r="P73" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q73" s="192"/>
+      <c r="R73" s="195"/>
       <c r="S73" s="82"/>
       <c r="T73" s="85"/>
       <c r="U73" s="84"/>
@@ -15951,23 +16041,23 @@
       <c r="EL73" s="93"/>
     </row>
     <row r="74" spans="2:142" ht="9" customHeight="1">
-      <c r="B74" s="202"/>
-      <c r="C74" s="168"/>
-      <c r="D74" s="205"/>
-      <c r="E74" s="208"/>
-      <c r="F74" s="166"/>
-      <c r="G74" s="177"/>
-      <c r="H74" s="177"/>
-      <c r="I74" s="177"/>
-      <c r="J74" s="177"/>
-      <c r="K74" s="186"/>
-      <c r="L74" s="189"/>
-      <c r="M74" s="192"/>
-      <c r="N74" s="189"/>
-      <c r="O74" s="192"/>
-      <c r="P74" s="166"/>
-      <c r="Q74" s="196"/>
-      <c r="R74" s="199"/>
+      <c r="B74" s="200"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="203"/>
+      <c r="E74" s="206"/>
+      <c r="F74" s="164"/>
+      <c r="G74" s="175"/>
+      <c r="H74" s="175"/>
+      <c r="I74" s="175"/>
+      <c r="J74" s="175"/>
+      <c r="K74" s="184"/>
+      <c r="L74" s="187"/>
+      <c r="M74" s="190"/>
+      <c r="N74" s="187"/>
+      <c r="O74" s="190"/>
+      <c r="P74" s="164"/>
+      <c r="Q74" s="194"/>
+      <c r="R74" s="197"/>
       <c r="S74" s="82"/>
       <c r="T74" s="83"/>
       <c r="U74" s="83"/>
@@ -16094,35 +16184,35 @@
       <c r="EL74" s="94"/>
     </row>
     <row r="75" spans="2:142" ht="9" customHeight="1">
-      <c r="B75" s="200"/>
-      <c r="C75" s="168"/>
-      <c r="D75" s="203"/>
-      <c r="E75" s="206"/>
-      <c r="F75" s="165" t="s">
-        <v>99</v>
-      </c>
-      <c r="G75" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H75" s="176">
+      <c r="B75" s="198"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="201"/>
+      <c r="E75" s="204"/>
+      <c r="F75" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" s="174">
         <v>43147</v>
       </c>
-      <c r="I75" s="176">
+      <c r="I75" s="174">
         <v>43148</v>
       </c>
-      <c r="J75" s="176">
+      <c r="J75" s="174">
         <v>43146</v>
       </c>
-      <c r="K75" s="184"/>
-      <c r="L75" s="187"/>
-      <c r="M75" s="190"/>
-      <c r="N75" s="187"/>
-      <c r="O75" s="190"/>
-      <c r="P75" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q75" s="194"/>
-      <c r="R75" s="197"/>
+      <c r="K75" s="182"/>
+      <c r="L75" s="185"/>
+      <c r="M75" s="188"/>
+      <c r="N75" s="185"/>
+      <c r="O75" s="188"/>
+      <c r="P75" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q75" s="192"/>
+      <c r="R75" s="195"/>
       <c r="S75" s="82"/>
       <c r="T75" s="85"/>
       <c r="U75" s="84"/>
@@ -16249,23 +16339,23 @@
       <c r="EL75" s="93"/>
     </row>
     <row r="76" spans="2:142" ht="9" customHeight="1">
-      <c r="B76" s="202"/>
-      <c r="C76" s="168"/>
-      <c r="D76" s="205"/>
-      <c r="E76" s="208"/>
-      <c r="F76" s="166"/>
-      <c r="G76" s="177"/>
-      <c r="H76" s="177"/>
-      <c r="I76" s="177"/>
-      <c r="J76" s="177"/>
-      <c r="K76" s="186"/>
-      <c r="L76" s="189"/>
-      <c r="M76" s="192"/>
-      <c r="N76" s="189"/>
-      <c r="O76" s="192"/>
-      <c r="P76" s="166"/>
-      <c r="Q76" s="196"/>
-      <c r="R76" s="199"/>
+      <c r="B76" s="200"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="203"/>
+      <c r="E76" s="206"/>
+      <c r="F76" s="164"/>
+      <c r="G76" s="175"/>
+      <c r="H76" s="175"/>
+      <c r="I76" s="175"/>
+      <c r="J76" s="175"/>
+      <c r="K76" s="184"/>
+      <c r="L76" s="187"/>
+      <c r="M76" s="190"/>
+      <c r="N76" s="187"/>
+      <c r="O76" s="190"/>
+      <c r="P76" s="164"/>
+      <c r="Q76" s="194"/>
+      <c r="R76" s="197"/>
       <c r="S76" s="82"/>
       <c r="T76" s="83"/>
       <c r="U76" s="83"/>
@@ -16392,37 +16482,37 @@
       <c r="EL76" s="94"/>
     </row>
     <row r="77" spans="2:142" ht="9" customHeight="1">
-      <c r="B77" s="200"/>
-      <c r="C77" s="168"/>
-      <c r="D77" s="203"/>
-      <c r="E77" s="206" t="s">
-        <v>100</v>
-      </c>
-      <c r="F77" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" s="176">
+      <c r="B77" s="198"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="201"/>
+      <c r="E77" s="204" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="G77" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" s="174">
         <v>43147</v>
       </c>
-      <c r="I77" s="176">
+      <c r="I77" s="174">
         <v>43148</v>
       </c>
-      <c r="J77" s="176">
+      <c r="J77" s="174">
         <v>43146</v>
       </c>
-      <c r="K77" s="184"/>
-      <c r="L77" s="187"/>
-      <c r="M77" s="190"/>
-      <c r="N77" s="187"/>
-      <c r="O77" s="190"/>
-      <c r="P77" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q77" s="194"/>
-      <c r="R77" s="197"/>
+      <c r="K77" s="182"/>
+      <c r="L77" s="185"/>
+      <c r="M77" s="188"/>
+      <c r="N77" s="185"/>
+      <c r="O77" s="188"/>
+      <c r="P77" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q77" s="192"/>
+      <c r="R77" s="195"/>
       <c r="S77" s="82"/>
       <c r="T77" s="85"/>
       <c r="U77" s="84"/>
@@ -16549,23 +16639,23 @@
       <c r="EL77" s="93"/>
     </row>
     <row r="78" spans="2:142" ht="9" customHeight="1">
-      <c r="B78" s="202"/>
-      <c r="C78" s="168"/>
-      <c r="D78" s="205"/>
-      <c r="E78" s="208"/>
-      <c r="F78" s="166"/>
-      <c r="G78" s="177"/>
-      <c r="H78" s="177"/>
-      <c r="I78" s="177"/>
-      <c r="J78" s="177"/>
-      <c r="K78" s="186"/>
-      <c r="L78" s="189"/>
-      <c r="M78" s="192"/>
-      <c r="N78" s="189"/>
-      <c r="O78" s="192"/>
-      <c r="P78" s="166"/>
-      <c r="Q78" s="196"/>
-      <c r="R78" s="199"/>
+      <c r="B78" s="200"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="203"/>
+      <c r="E78" s="206"/>
+      <c r="F78" s="164"/>
+      <c r="G78" s="175"/>
+      <c r="H78" s="175"/>
+      <c r="I78" s="175"/>
+      <c r="J78" s="175"/>
+      <c r="K78" s="184"/>
+      <c r="L78" s="187"/>
+      <c r="M78" s="190"/>
+      <c r="N78" s="187"/>
+      <c r="O78" s="190"/>
+      <c r="P78" s="164"/>
+      <c r="Q78" s="194"/>
+      <c r="R78" s="197"/>
       <c r="S78" s="82"/>
       <c r="T78" s="83"/>
       <c r="U78" s="83"/>
@@ -16692,35 +16782,35 @@
       <c r="EL78" s="94"/>
     </row>
     <row r="79" spans="2:142" ht="9" customHeight="1">
-      <c r="B79" s="200"/>
-      <c r="C79" s="168"/>
-      <c r="D79" s="203"/>
-      <c r="E79" s="206"/>
-      <c r="F79" s="165" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H79" s="176">
+      <c r="B79" s="198"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="201"/>
+      <c r="E79" s="204"/>
+      <c r="F79" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="174">
         <v>43147</v>
       </c>
-      <c r="I79" s="176">
+      <c r="I79" s="174">
         <v>43148</v>
       </c>
-      <c r="J79" s="176">
+      <c r="J79" s="174">
         <v>43146</v>
       </c>
-      <c r="K79" s="184"/>
-      <c r="L79" s="187"/>
-      <c r="M79" s="190"/>
-      <c r="N79" s="187"/>
-      <c r="O79" s="190"/>
-      <c r="P79" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q79" s="194"/>
-      <c r="R79" s="197"/>
+      <c r="K79" s="182"/>
+      <c r="L79" s="185"/>
+      <c r="M79" s="188"/>
+      <c r="N79" s="185"/>
+      <c r="O79" s="188"/>
+      <c r="P79" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q79" s="192"/>
+      <c r="R79" s="195"/>
       <c r="S79" s="82"/>
       <c r="T79" s="85"/>
       <c r="U79" s="84"/>
@@ -16847,23 +16937,23 @@
       <c r="EL79" s="93"/>
     </row>
     <row r="80" spans="2:142" ht="9" customHeight="1">
-      <c r="B80" s="202"/>
-      <c r="C80" s="168"/>
-      <c r="D80" s="205"/>
-      <c r="E80" s="208"/>
-      <c r="F80" s="166"/>
-      <c r="G80" s="177"/>
-      <c r="H80" s="177"/>
-      <c r="I80" s="177"/>
-      <c r="J80" s="177"/>
-      <c r="K80" s="186"/>
-      <c r="L80" s="189"/>
-      <c r="M80" s="192"/>
-      <c r="N80" s="189"/>
-      <c r="O80" s="192"/>
-      <c r="P80" s="166"/>
-      <c r="Q80" s="196"/>
-      <c r="R80" s="199"/>
+      <c r="B80" s="200"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="203"/>
+      <c r="E80" s="206"/>
+      <c r="F80" s="164"/>
+      <c r="G80" s="175"/>
+      <c r="H80" s="175"/>
+      <c r="I80" s="175"/>
+      <c r="J80" s="175"/>
+      <c r="K80" s="184"/>
+      <c r="L80" s="187"/>
+      <c r="M80" s="190"/>
+      <c r="N80" s="187"/>
+      <c r="O80" s="190"/>
+      <c r="P80" s="164"/>
+      <c r="Q80" s="194"/>
+      <c r="R80" s="197"/>
       <c r="S80" s="82"/>
       <c r="T80" s="83"/>
       <c r="U80" s="83"/>
@@ -16990,37 +17080,37 @@
       <c r="EL80" s="94"/>
     </row>
     <row r="81" spans="2:142" ht="9" customHeight="1">
-      <c r="B81" s="200"/>
-      <c r="C81" s="168"/>
-      <c r="D81" s="203"/>
-      <c r="E81" s="206" t="s">
-        <v>101</v>
-      </c>
-      <c r="F81" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H81" s="176">
+      <c r="B81" s="198"/>
+      <c r="C81" s="166"/>
+      <c r="D81" s="201"/>
+      <c r="E81" s="204" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="G81" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H81" s="174">
         <v>43147</v>
       </c>
-      <c r="I81" s="176">
+      <c r="I81" s="174">
         <v>43148</v>
       </c>
-      <c r="J81" s="176">
+      <c r="J81" s="174">
         <v>43146</v>
       </c>
-      <c r="K81" s="184"/>
-      <c r="L81" s="187"/>
-      <c r="M81" s="190"/>
-      <c r="N81" s="187"/>
-      <c r="O81" s="190"/>
-      <c r="P81" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q81" s="194"/>
-      <c r="R81" s="197"/>
+      <c r="K81" s="182"/>
+      <c r="L81" s="185"/>
+      <c r="M81" s="188"/>
+      <c r="N81" s="185"/>
+      <c r="O81" s="188"/>
+      <c r="P81" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q81" s="192"/>
+      <c r="R81" s="195"/>
       <c r="S81" s="82"/>
       <c r="T81" s="85"/>
       <c r="U81" s="84"/>
@@ -17147,23 +17237,23 @@
       <c r="EL81" s="93"/>
     </row>
     <row r="82" spans="2:142" ht="9" customHeight="1">
-      <c r="B82" s="202"/>
-      <c r="C82" s="168"/>
-      <c r="D82" s="205"/>
-      <c r="E82" s="208"/>
-      <c r="F82" s="166"/>
-      <c r="G82" s="177"/>
-      <c r="H82" s="177"/>
-      <c r="I82" s="177"/>
-      <c r="J82" s="177"/>
-      <c r="K82" s="186"/>
-      <c r="L82" s="189"/>
-      <c r="M82" s="192"/>
-      <c r="N82" s="189"/>
-      <c r="O82" s="192"/>
-      <c r="P82" s="166"/>
-      <c r="Q82" s="196"/>
-      <c r="R82" s="199"/>
+      <c r="B82" s="200"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="203"/>
+      <c r="E82" s="206"/>
+      <c r="F82" s="164"/>
+      <c r="G82" s="175"/>
+      <c r="H82" s="175"/>
+      <c r="I82" s="175"/>
+      <c r="J82" s="175"/>
+      <c r="K82" s="184"/>
+      <c r="L82" s="187"/>
+      <c r="M82" s="190"/>
+      <c r="N82" s="187"/>
+      <c r="O82" s="190"/>
+      <c r="P82" s="164"/>
+      <c r="Q82" s="194"/>
+      <c r="R82" s="197"/>
       <c r="S82" s="82"/>
       <c r="T82" s="83"/>
       <c r="U82" s="83"/>
@@ -17290,35 +17380,35 @@
       <c r="EL82" s="94"/>
     </row>
     <row r="83" spans="2:142" ht="9" customHeight="1">
-      <c r="B83" s="200"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="203"/>
-      <c r="E83" s="206"/>
-      <c r="F83" s="165" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H83" s="176">
+      <c r="B83" s="198"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="201"/>
+      <c r="E83" s="204"/>
+      <c r="F83" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="G83" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" s="174">
         <v>43147</v>
       </c>
-      <c r="I83" s="176">
+      <c r="I83" s="174">
         <v>43148</v>
       </c>
-      <c r="J83" s="176">
+      <c r="J83" s="174">
         <v>43146</v>
       </c>
-      <c r="K83" s="184"/>
-      <c r="L83" s="187"/>
-      <c r="M83" s="190"/>
-      <c r="N83" s="187"/>
-      <c r="O83" s="190"/>
-      <c r="P83" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q83" s="194"/>
-      <c r="R83" s="197"/>
+      <c r="K83" s="182"/>
+      <c r="L83" s="185"/>
+      <c r="M83" s="188"/>
+      <c r="N83" s="185"/>
+      <c r="O83" s="188"/>
+      <c r="P83" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q83" s="192"/>
+      <c r="R83" s="195"/>
       <c r="S83" s="82"/>
       <c r="T83" s="85"/>
       <c r="U83" s="84"/>
@@ -17445,23 +17535,23 @@
       <c r="EL83" s="93"/>
     </row>
     <row r="84" spans="2:142" ht="9" customHeight="1">
-      <c r="B84" s="202"/>
-      <c r="C84" s="168"/>
-      <c r="D84" s="205"/>
-      <c r="E84" s="208"/>
-      <c r="F84" s="166"/>
-      <c r="G84" s="177"/>
-      <c r="H84" s="177"/>
-      <c r="I84" s="177"/>
-      <c r="J84" s="177"/>
-      <c r="K84" s="186"/>
-      <c r="L84" s="189"/>
-      <c r="M84" s="192"/>
-      <c r="N84" s="189"/>
-      <c r="O84" s="192"/>
-      <c r="P84" s="166"/>
-      <c r="Q84" s="196"/>
-      <c r="R84" s="199"/>
+      <c r="B84" s="200"/>
+      <c r="C84" s="166"/>
+      <c r="D84" s="203"/>
+      <c r="E84" s="206"/>
+      <c r="F84" s="164"/>
+      <c r="G84" s="175"/>
+      <c r="H84" s="175"/>
+      <c r="I84" s="175"/>
+      <c r="J84" s="175"/>
+      <c r="K84" s="184"/>
+      <c r="L84" s="187"/>
+      <c r="M84" s="190"/>
+      <c r="N84" s="187"/>
+      <c r="O84" s="190"/>
+      <c r="P84" s="164"/>
+      <c r="Q84" s="194"/>
+      <c r="R84" s="197"/>
       <c r="S84" s="82"/>
       <c r="T84" s="83"/>
       <c r="U84" s="83"/>
@@ -17588,35 +17678,35 @@
       <c r="EL84" s="94"/>
     </row>
     <row r="85" spans="2:142" ht="9" customHeight="1">
-      <c r="B85" s="200"/>
-      <c r="C85" s="168" t="s">
-        <v>102</v>
-      </c>
-      <c r="D85" s="203"/>
-      <c r="E85" s="206"/>
-      <c r="F85" s="165"/>
-      <c r="G85" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H85" s="176">
+      <c r="B85" s="198"/>
+      <c r="C85" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85" s="201"/>
+      <c r="E85" s="204"/>
+      <c r="F85" s="163"/>
+      <c r="G85" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" s="174">
         <v>43147</v>
       </c>
-      <c r="I85" s="176">
+      <c r="I85" s="174">
         <v>43149</v>
       </c>
-      <c r="J85" s="176">
+      <c r="J85" s="174">
         <v>43146</v>
       </c>
-      <c r="K85" s="184"/>
-      <c r="L85" s="187"/>
-      <c r="M85" s="190"/>
-      <c r="N85" s="187"/>
-      <c r="O85" s="190"/>
-      <c r="P85" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q85" s="194"/>
-      <c r="R85" s="197"/>
+      <c r="K85" s="182"/>
+      <c r="L85" s="185"/>
+      <c r="M85" s="188"/>
+      <c r="N85" s="185"/>
+      <c r="O85" s="188"/>
+      <c r="P85" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q85" s="192"/>
+      <c r="R85" s="195"/>
       <c r="S85" s="82"/>
       <c r="T85" s="85"/>
       <c r="U85" s="84"/>
@@ -17743,23 +17833,23 @@
       <c r="EL85" s="93"/>
     </row>
     <row r="86" spans="2:142" ht="9" customHeight="1">
-      <c r="B86" s="202"/>
-      <c r="C86" s="168"/>
-      <c r="D86" s="205"/>
-      <c r="E86" s="208"/>
-      <c r="F86" s="166"/>
-      <c r="G86" s="177"/>
-      <c r="H86" s="177"/>
-      <c r="I86" s="177"/>
-      <c r="J86" s="177"/>
-      <c r="K86" s="186"/>
-      <c r="L86" s="189"/>
-      <c r="M86" s="192"/>
-      <c r="N86" s="189"/>
-      <c r="O86" s="192"/>
-      <c r="P86" s="166"/>
-      <c r="Q86" s="196"/>
-      <c r="R86" s="199"/>
+      <c r="B86" s="200"/>
+      <c r="C86" s="166"/>
+      <c r="D86" s="203"/>
+      <c r="E86" s="206"/>
+      <c r="F86" s="164"/>
+      <c r="G86" s="175"/>
+      <c r="H86" s="175"/>
+      <c r="I86" s="175"/>
+      <c r="J86" s="175"/>
+      <c r="K86" s="184"/>
+      <c r="L86" s="187"/>
+      <c r="M86" s="190"/>
+      <c r="N86" s="187"/>
+      <c r="O86" s="190"/>
+      <c r="P86" s="164"/>
+      <c r="Q86" s="194"/>
+      <c r="R86" s="197"/>
       <c r="S86" s="82"/>
       <c r="T86" s="83"/>
       <c r="U86" s="83"/>
@@ -17886,37 +17976,37 @@
       <c r="EL86" s="94"/>
     </row>
     <row r="87" spans="2:142" ht="9" customHeight="1">
-      <c r="B87" s="200"/>
-      <c r="C87" s="168" t="s">
+      <c r="B87" s="198"/>
+      <c r="C87" s="166" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="201"/>
+      <c r="E87" s="204" t="s">
         <v>103</v>
       </c>
-      <c r="D87" s="203"/>
-      <c r="E87" s="206" t="s">
-        <v>104</v>
-      </c>
-      <c r="F87" s="165"/>
-      <c r="G87" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H87" s="176">
+      <c r="F87" s="163"/>
+      <c r="G87" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H87" s="174">
         <v>43147</v>
       </c>
-      <c r="I87" s="176">
+      <c r="I87" s="174">
         <v>43149</v>
       </c>
-      <c r="J87" s="176">
+      <c r="J87" s="174">
         <v>43146</v>
       </c>
-      <c r="K87" s="184"/>
-      <c r="L87" s="187"/>
-      <c r="M87" s="190"/>
-      <c r="N87" s="187"/>
-      <c r="O87" s="190"/>
-      <c r="P87" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q87" s="194"/>
-      <c r="R87" s="197"/>
+      <c r="K87" s="182"/>
+      <c r="L87" s="185"/>
+      <c r="M87" s="188"/>
+      <c r="N87" s="185"/>
+      <c r="O87" s="188"/>
+      <c r="P87" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q87" s="192"/>
+      <c r="R87" s="195"/>
       <c r="S87" s="82"/>
       <c r="T87" s="85"/>
       <c r="U87" s="84"/>
@@ -18043,23 +18133,23 @@
       <c r="EL87" s="93"/>
     </row>
     <row r="88" spans="2:142" ht="9" customHeight="1">
-      <c r="B88" s="202"/>
-      <c r="C88" s="168"/>
-      <c r="D88" s="205"/>
-      <c r="E88" s="208"/>
-      <c r="F88" s="166"/>
-      <c r="G88" s="177"/>
-      <c r="H88" s="177"/>
-      <c r="I88" s="177"/>
-      <c r="J88" s="177"/>
-      <c r="K88" s="186"/>
-      <c r="L88" s="189"/>
-      <c r="M88" s="192"/>
-      <c r="N88" s="189"/>
-      <c r="O88" s="192"/>
-      <c r="P88" s="166"/>
-      <c r="Q88" s="196"/>
-      <c r="R88" s="199"/>
+      <c r="B88" s="200"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="203"/>
+      <c r="E88" s="206"/>
+      <c r="F88" s="164"/>
+      <c r="G88" s="175"/>
+      <c r="H88" s="175"/>
+      <c r="I88" s="175"/>
+      <c r="J88" s="175"/>
+      <c r="K88" s="184"/>
+      <c r="L88" s="187"/>
+      <c r="M88" s="190"/>
+      <c r="N88" s="187"/>
+      <c r="O88" s="190"/>
+      <c r="P88" s="164"/>
+      <c r="Q88" s="194"/>
+      <c r="R88" s="197"/>
       <c r="S88" s="82"/>
       <c r="T88" s="83"/>
       <c r="U88" s="83"/>
@@ -18186,35 +18276,35 @@
       <c r="EL88" s="94"/>
     </row>
     <row r="89" spans="2:142" ht="9" customHeight="1">
-      <c r="B89" s="200"/>
-      <c r="C89" s="168"/>
-      <c r="D89" s="203"/>
-      <c r="E89" s="206" t="s">
-        <v>105</v>
-      </c>
-      <c r="F89" s="165"/>
-      <c r="G89" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H89" s="176">
+      <c r="B89" s="198"/>
+      <c r="C89" s="166"/>
+      <c r="D89" s="201"/>
+      <c r="E89" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" s="163"/>
+      <c r="G89" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="174">
         <v>43147</v>
       </c>
-      <c r="I89" s="176">
+      <c r="I89" s="174">
         <v>43149</v>
       </c>
-      <c r="J89" s="176">
+      <c r="J89" s="174">
         <v>43146</v>
       </c>
-      <c r="K89" s="184"/>
-      <c r="L89" s="187"/>
-      <c r="M89" s="190"/>
-      <c r="N89" s="187"/>
-      <c r="O89" s="190"/>
-      <c r="P89" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q89" s="194"/>
-      <c r="R89" s="197"/>
+      <c r="K89" s="182"/>
+      <c r="L89" s="185"/>
+      <c r="M89" s="188"/>
+      <c r="N89" s="185"/>
+      <c r="O89" s="188"/>
+      <c r="P89" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q89" s="192"/>
+      <c r="R89" s="195"/>
       <c r="S89" s="82"/>
       <c r="T89" s="85"/>
       <c r="U89" s="84"/>
@@ -18341,23 +18431,23 @@
       <c r="EL89" s="93"/>
     </row>
     <row r="90" spans="2:142" ht="9" customHeight="1">
-      <c r="B90" s="202"/>
-      <c r="C90" s="168"/>
-      <c r="D90" s="205"/>
-      <c r="E90" s="208"/>
-      <c r="F90" s="166"/>
-      <c r="G90" s="177"/>
-      <c r="H90" s="177"/>
-      <c r="I90" s="177"/>
-      <c r="J90" s="177"/>
-      <c r="K90" s="186"/>
-      <c r="L90" s="189"/>
-      <c r="M90" s="192"/>
-      <c r="N90" s="189"/>
-      <c r="O90" s="192"/>
-      <c r="P90" s="166"/>
-      <c r="Q90" s="196"/>
-      <c r="R90" s="199"/>
+      <c r="B90" s="200"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="203"/>
+      <c r="E90" s="206"/>
+      <c r="F90" s="164"/>
+      <c r="G90" s="175"/>
+      <c r="H90" s="175"/>
+      <c r="I90" s="175"/>
+      <c r="J90" s="175"/>
+      <c r="K90" s="184"/>
+      <c r="L90" s="187"/>
+      <c r="M90" s="190"/>
+      <c r="N90" s="187"/>
+      <c r="O90" s="190"/>
+      <c r="P90" s="164"/>
+      <c r="Q90" s="194"/>
+      <c r="R90" s="197"/>
       <c r="S90" s="82"/>
       <c r="T90" s="83"/>
       <c r="U90" s="83"/>
@@ -18484,43 +18574,43 @@
       <c r="EL90" s="94"/>
     </row>
     <row r="91" spans="2:142" ht="9" customHeight="1">
-      <c r="B91" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="C91" s="168" t="s">
+      <c r="B91" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="D91" s="203"/>
-      <c r="E91" s="206" t="s">
+      <c r="C91" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="201"/>
+      <c r="E91" s="204" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="F91" s="165" t="s">
+      <c r="G91" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" s="174">
+        <v>43292</v>
+      </c>
+      <c r="I91" s="174">
+        <v>43293</v>
+      </c>
+      <c r="J91" s="174">
+        <v>43292</v>
+      </c>
+      <c r="K91" s="174">
+        <v>43293</v>
+      </c>
+      <c r="L91" s="185"/>
+      <c r="M91" s="188"/>
+      <c r="N91" s="185"/>
+      <c r="O91" s="188"/>
+      <c r="P91" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="G91" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H91" s="176">
-        <v>43292</v>
-      </c>
-      <c r="I91" s="176">
-        <v>43293</v>
-      </c>
-      <c r="J91" s="176">
-        <v>43292</v>
-      </c>
-      <c r="K91" s="176">
-        <v>43293</v>
-      </c>
-      <c r="L91" s="187"/>
-      <c r="M91" s="190"/>
-      <c r="N91" s="187"/>
-      <c r="O91" s="190"/>
-      <c r="P91" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q91" s="194"/>
-      <c r="R91" s="197"/>
+      <c r="Q91" s="192"/>
+      <c r="R91" s="195"/>
       <c r="S91" s="82"/>
       <c r="T91" s="85"/>
       <c r="U91" s="84"/>
@@ -18647,23 +18737,23 @@
       <c r="EL91" s="93"/>
     </row>
     <row r="92" spans="2:142" ht="9" customHeight="1">
-      <c r="B92" s="202"/>
-      <c r="C92" s="168"/>
-      <c r="D92" s="205"/>
-      <c r="E92" s="208"/>
-      <c r="F92" s="166"/>
-      <c r="G92" s="177"/>
-      <c r="H92" s="177"/>
-      <c r="I92" s="177"/>
-      <c r="J92" s="177"/>
-      <c r="K92" s="177"/>
-      <c r="L92" s="189"/>
-      <c r="M92" s="192"/>
-      <c r="N92" s="189"/>
-      <c r="O92" s="192"/>
-      <c r="P92" s="166"/>
-      <c r="Q92" s="196"/>
-      <c r="R92" s="199"/>
+      <c r="B92" s="200"/>
+      <c r="C92" s="166"/>
+      <c r="D92" s="203"/>
+      <c r="E92" s="206"/>
+      <c r="F92" s="164"/>
+      <c r="G92" s="175"/>
+      <c r="H92" s="175"/>
+      <c r="I92" s="175"/>
+      <c r="J92" s="175"/>
+      <c r="K92" s="175"/>
+      <c r="L92" s="187"/>
+      <c r="M92" s="190"/>
+      <c r="N92" s="187"/>
+      <c r="O92" s="190"/>
+      <c r="P92" s="164"/>
+      <c r="Q92" s="194"/>
+      <c r="R92" s="197"/>
       <c r="S92" s="82"/>
       <c r="T92" s="83"/>
       <c r="U92" s="83"/>
@@ -18790,39 +18880,39 @@
       <c r="EL92" s="94"/>
     </row>
     <row r="93" spans="2:142" ht="9" customHeight="1">
-      <c r="B93" s="200"/>
-      <c r="C93" s="168" t="s">
-        <v>108</v>
-      </c>
-      <c r="D93" s="203"/>
-      <c r="E93" s="206" t="s">
-        <v>121</v>
-      </c>
-      <c r="F93" s="165"/>
-      <c r="G93" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H93" s="176">
+      <c r="B93" s="198"/>
+      <c r="C93" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="201"/>
+      <c r="E93" s="204" t="s">
+        <v>120</v>
+      </c>
+      <c r="F93" s="163"/>
+      <c r="G93" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93" s="174">
         <v>43293</v>
       </c>
-      <c r="I93" s="176">
+      <c r="I93" s="174">
         <v>43296</v>
       </c>
-      <c r="J93" s="176">
+      <c r="J93" s="174">
         <v>43293</v>
       </c>
-      <c r="K93" s="176">
+      <c r="K93" s="174">
         <v>43296</v>
       </c>
-      <c r="L93" s="187"/>
-      <c r="M93" s="190"/>
-      <c r="N93" s="187"/>
-      <c r="O93" s="190"/>
-      <c r="P93" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q93" s="194"/>
-      <c r="R93" s="197"/>
+      <c r="L93" s="185"/>
+      <c r="M93" s="188"/>
+      <c r="N93" s="185"/>
+      <c r="O93" s="188"/>
+      <c r="P93" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q93" s="192"/>
+      <c r="R93" s="195"/>
       <c r="S93" s="82"/>
       <c r="T93" s="85"/>
       <c r="U93" s="84"/>
@@ -18949,23 +19039,23 @@
       <c r="EL93" s="93"/>
     </row>
     <row r="94" spans="2:142" ht="9" customHeight="1">
-      <c r="B94" s="202"/>
-      <c r="C94" s="168"/>
-      <c r="D94" s="205"/>
-      <c r="E94" s="208"/>
-      <c r="F94" s="166"/>
-      <c r="G94" s="177"/>
-      <c r="H94" s="177"/>
-      <c r="I94" s="177"/>
-      <c r="J94" s="177"/>
-      <c r="K94" s="177"/>
-      <c r="L94" s="189"/>
-      <c r="M94" s="192"/>
-      <c r="N94" s="189"/>
-      <c r="O94" s="192"/>
-      <c r="P94" s="166"/>
-      <c r="Q94" s="196"/>
-      <c r="R94" s="199"/>
+      <c r="B94" s="200"/>
+      <c r="C94" s="166"/>
+      <c r="D94" s="203"/>
+      <c r="E94" s="206"/>
+      <c r="F94" s="164"/>
+      <c r="G94" s="175"/>
+      <c r="H94" s="175"/>
+      <c r="I94" s="175"/>
+      <c r="J94" s="175"/>
+      <c r="K94" s="175"/>
+      <c r="L94" s="187"/>
+      <c r="M94" s="190"/>
+      <c r="N94" s="187"/>
+      <c r="O94" s="190"/>
+      <c r="P94" s="164"/>
+      <c r="Q94" s="194"/>
+      <c r="R94" s="197"/>
       <c r="S94" s="82"/>
       <c r="T94" s="83"/>
       <c r="U94" s="83"/>
@@ -19092,39 +19182,39 @@
       <c r="EL94" s="94"/>
     </row>
     <row r="95" spans="2:142" ht="9" customHeight="1">
-      <c r="B95" s="200"/>
-      <c r="C95" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="203"/>
-      <c r="E95" s="206" t="s">
-        <v>120</v>
-      </c>
-      <c r="F95" s="165"/>
-      <c r="G95" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H95" s="176">
+      <c r="B95" s="198"/>
+      <c r="C95" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="201"/>
+      <c r="E95" s="204" t="s">
+        <v>119</v>
+      </c>
+      <c r="F95" s="163"/>
+      <c r="G95" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H95" s="174">
         <v>43294</v>
       </c>
-      <c r="I95" s="176">
+      <c r="I95" s="174">
         <v>43295</v>
       </c>
-      <c r="J95" s="176">
+      <c r="J95" s="174">
         <v>43294</v>
       </c>
-      <c r="K95" s="176">
+      <c r="K95" s="174">
         <v>43296</v>
       </c>
-      <c r="L95" s="187"/>
-      <c r="M95" s="190"/>
-      <c r="N95" s="187"/>
-      <c r="O95" s="190"/>
-      <c r="P95" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q95" s="194"/>
-      <c r="R95" s="197"/>
+      <c r="L95" s="185"/>
+      <c r="M95" s="188"/>
+      <c r="N95" s="185"/>
+      <c r="O95" s="188"/>
+      <c r="P95" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q95" s="192"/>
+      <c r="R95" s="195"/>
       <c r="S95" s="82"/>
       <c r="T95" s="85"/>
       <c r="U95" s="84"/>
@@ -19251,23 +19341,23 @@
       <c r="EL95" s="93"/>
     </row>
     <row r="96" spans="2:142" ht="9" customHeight="1">
-      <c r="B96" s="202"/>
-      <c r="C96" s="168"/>
-      <c r="D96" s="205"/>
-      <c r="E96" s="208"/>
-      <c r="F96" s="166"/>
-      <c r="G96" s="177"/>
-      <c r="H96" s="177"/>
-      <c r="I96" s="177"/>
-      <c r="J96" s="177"/>
-      <c r="K96" s="177"/>
-      <c r="L96" s="189"/>
-      <c r="M96" s="192"/>
-      <c r="N96" s="189"/>
-      <c r="O96" s="192"/>
-      <c r="P96" s="166"/>
-      <c r="Q96" s="196"/>
-      <c r="R96" s="199"/>
+      <c r="B96" s="200"/>
+      <c r="C96" s="166"/>
+      <c r="D96" s="203"/>
+      <c r="E96" s="206"/>
+      <c r="F96" s="164"/>
+      <c r="G96" s="175"/>
+      <c r="H96" s="175"/>
+      <c r="I96" s="175"/>
+      <c r="J96" s="175"/>
+      <c r="K96" s="175"/>
+      <c r="L96" s="187"/>
+      <c r="M96" s="190"/>
+      <c r="N96" s="187"/>
+      <c r="O96" s="190"/>
+      <c r="P96" s="164"/>
+      <c r="Q96" s="194"/>
+      <c r="R96" s="197"/>
       <c r="S96" s="82"/>
       <c r="T96" s="83"/>
       <c r="U96" s="83"/>
@@ -19394,39 +19484,39 @@
       <c r="EL96" s="94"/>
     </row>
     <row r="97" spans="2:142" ht="9" customHeight="1">
-      <c r="B97" s="200"/>
-      <c r="C97" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="D97" s="203"/>
-      <c r="E97" s="206" t="s">
-        <v>118</v>
-      </c>
-      <c r="F97" s="165"/>
-      <c r="G97" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H97" s="176">
+      <c r="B97" s="198"/>
+      <c r="C97" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="201"/>
+      <c r="E97" s="204" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97" s="163"/>
+      <c r="G97" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="174">
         <v>43295</v>
       </c>
-      <c r="I97" s="176">
+      <c r="I97" s="174">
         <v>43296</v>
       </c>
-      <c r="J97" s="176">
+      <c r="J97" s="174">
         <v>43295</v>
       </c>
-      <c r="K97" s="176">
+      <c r="K97" s="174">
         <v>43296</v>
       </c>
-      <c r="L97" s="187"/>
-      <c r="M97" s="190"/>
-      <c r="N97" s="187"/>
-      <c r="O97" s="190"/>
-      <c r="P97" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q97" s="194"/>
-      <c r="R97" s="197"/>
+      <c r="L97" s="185"/>
+      <c r="M97" s="188"/>
+      <c r="N97" s="185"/>
+      <c r="O97" s="188"/>
+      <c r="P97" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q97" s="192"/>
+      <c r="R97" s="195"/>
       <c r="S97" s="82"/>
       <c r="T97" s="85"/>
       <c r="U97" s="84"/>
@@ -19553,23 +19643,23 @@
       <c r="EL97" s="93"/>
     </row>
     <row r="98" spans="2:142" ht="9" customHeight="1">
-      <c r="B98" s="202"/>
-      <c r="C98" s="168"/>
-      <c r="D98" s="205"/>
-      <c r="E98" s="208"/>
-      <c r="F98" s="166"/>
-      <c r="G98" s="177"/>
-      <c r="H98" s="177"/>
-      <c r="I98" s="177"/>
-      <c r="J98" s="177"/>
-      <c r="K98" s="177"/>
-      <c r="L98" s="189"/>
-      <c r="M98" s="192"/>
-      <c r="N98" s="189"/>
-      <c r="O98" s="192"/>
-      <c r="P98" s="166"/>
-      <c r="Q98" s="196"/>
-      <c r="R98" s="199"/>
+      <c r="B98" s="200"/>
+      <c r="C98" s="166"/>
+      <c r="D98" s="203"/>
+      <c r="E98" s="206"/>
+      <c r="F98" s="164"/>
+      <c r="G98" s="175"/>
+      <c r="H98" s="175"/>
+      <c r="I98" s="175"/>
+      <c r="J98" s="175"/>
+      <c r="K98" s="175"/>
+      <c r="L98" s="187"/>
+      <c r="M98" s="190"/>
+      <c r="N98" s="187"/>
+      <c r="O98" s="190"/>
+      <c r="P98" s="164"/>
+      <c r="Q98" s="194"/>
+      <c r="R98" s="197"/>
       <c r="S98" s="82"/>
       <c r="T98" s="83"/>
       <c r="U98" s="83"/>
@@ -19696,39 +19786,39 @@
       <c r="EL98" s="94"/>
     </row>
     <row r="99" spans="2:142" ht="9" customHeight="1">
-      <c r="B99" s="200"/>
-      <c r="C99" s="168" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" s="203"/>
-      <c r="E99" s="206" t="s">
-        <v>119</v>
-      </c>
-      <c r="F99" s="165"/>
-      <c r="G99" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H99" s="176">
+      <c r="B99" s="198"/>
+      <c r="C99" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="201"/>
+      <c r="E99" s="204" t="s">
+        <v>118</v>
+      </c>
+      <c r="F99" s="163"/>
+      <c r="G99" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H99" s="174">
         <v>43296</v>
       </c>
-      <c r="I99" s="176">
+      <c r="I99" s="174">
         <v>43296</v>
       </c>
-      <c r="J99" s="176">
+      <c r="J99" s="174">
         <v>43296</v>
       </c>
-      <c r="K99" s="176">
+      <c r="K99" s="174">
         <v>43296</v>
       </c>
-      <c r="L99" s="187"/>
-      <c r="M99" s="190"/>
-      <c r="N99" s="187"/>
-      <c r="O99" s="190"/>
-      <c r="P99" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q99" s="194"/>
-      <c r="R99" s="197"/>
+      <c r="L99" s="185"/>
+      <c r="M99" s="188"/>
+      <c r="N99" s="185"/>
+      <c r="O99" s="188"/>
+      <c r="P99" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q99" s="192"/>
+      <c r="R99" s="195"/>
       <c r="S99" s="82"/>
       <c r="T99" s="85"/>
       <c r="U99" s="84"/>
@@ -19855,23 +19945,23 @@
       <c r="EL99" s="93"/>
     </row>
     <row r="100" spans="2:142" ht="9" customHeight="1">
-      <c r="B100" s="202"/>
-      <c r="C100" s="168"/>
-      <c r="D100" s="205"/>
-      <c r="E100" s="208"/>
-      <c r="F100" s="166"/>
-      <c r="G100" s="177"/>
-      <c r="H100" s="177"/>
-      <c r="I100" s="177"/>
-      <c r="J100" s="177"/>
-      <c r="K100" s="177"/>
-      <c r="L100" s="189"/>
-      <c r="M100" s="192"/>
-      <c r="N100" s="189"/>
-      <c r="O100" s="192"/>
-      <c r="P100" s="166"/>
-      <c r="Q100" s="196"/>
-      <c r="R100" s="199"/>
+      <c r="B100" s="200"/>
+      <c r="C100" s="166"/>
+      <c r="D100" s="203"/>
+      <c r="E100" s="206"/>
+      <c r="F100" s="164"/>
+      <c r="G100" s="175"/>
+      <c r="H100" s="175"/>
+      <c r="I100" s="175"/>
+      <c r="J100" s="175"/>
+      <c r="K100" s="175"/>
+      <c r="L100" s="187"/>
+      <c r="M100" s="190"/>
+      <c r="N100" s="187"/>
+      <c r="O100" s="190"/>
+      <c r="P100" s="164"/>
+      <c r="Q100" s="194"/>
+      <c r="R100" s="197"/>
       <c r="S100" s="82"/>
       <c r="T100" s="83"/>
       <c r="U100" s="83"/>
@@ -19998,39 +20088,39 @@
       <c r="EL100" s="94"/>
     </row>
     <row r="101" spans="2:142" ht="9" customHeight="1">
-      <c r="B101" s="200"/>
-      <c r="C101" s="168" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" s="203"/>
-      <c r="E101" s="206" t="s">
-        <v>117</v>
-      </c>
-      <c r="F101" s="165"/>
-      <c r="G101" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H101" s="176">
+      <c r="B101" s="198"/>
+      <c r="C101" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" s="201"/>
+      <c r="E101" s="204" t="s">
+        <v>116</v>
+      </c>
+      <c r="F101" s="163"/>
+      <c r="G101" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101" s="174">
         <v>43292</v>
       </c>
-      <c r="I101" s="176">
+      <c r="I101" s="174">
         <v>43293</v>
       </c>
-      <c r="J101" s="176">
+      <c r="J101" s="174">
         <v>43292</v>
       </c>
-      <c r="K101" s="176">
+      <c r="K101" s="174">
         <v>43293</v>
       </c>
-      <c r="L101" s="187"/>
-      <c r="M101" s="190"/>
-      <c r="N101" s="187"/>
-      <c r="O101" s="190"/>
-      <c r="P101" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q101" s="194"/>
-      <c r="R101" s="197"/>
+      <c r="L101" s="185"/>
+      <c r="M101" s="188"/>
+      <c r="N101" s="185"/>
+      <c r="O101" s="188"/>
+      <c r="P101" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q101" s="192"/>
+      <c r="R101" s="195"/>
       <c r="S101" s="82"/>
       <c r="T101" s="85"/>
       <c r="U101" s="84"/>
@@ -20157,23 +20247,23 @@
       <c r="EL101" s="93"/>
     </row>
     <row r="102" spans="2:142" ht="9" customHeight="1">
-      <c r="B102" s="202"/>
-      <c r="C102" s="168"/>
-      <c r="D102" s="205"/>
-      <c r="E102" s="208"/>
-      <c r="F102" s="166"/>
-      <c r="G102" s="177"/>
-      <c r="H102" s="177"/>
-      <c r="I102" s="177"/>
-      <c r="J102" s="177"/>
-      <c r="K102" s="177"/>
-      <c r="L102" s="189"/>
-      <c r="M102" s="192"/>
-      <c r="N102" s="189"/>
-      <c r="O102" s="192"/>
-      <c r="P102" s="166"/>
-      <c r="Q102" s="196"/>
-      <c r="R102" s="199"/>
+      <c r="B102" s="200"/>
+      <c r="C102" s="166"/>
+      <c r="D102" s="203"/>
+      <c r="E102" s="206"/>
+      <c r="F102" s="164"/>
+      <c r="G102" s="175"/>
+      <c r="H102" s="175"/>
+      <c r="I102" s="175"/>
+      <c r="J102" s="175"/>
+      <c r="K102" s="175"/>
+      <c r="L102" s="187"/>
+      <c r="M102" s="190"/>
+      <c r="N102" s="187"/>
+      <c r="O102" s="190"/>
+      <c r="P102" s="164"/>
+      <c r="Q102" s="194"/>
+      <c r="R102" s="197"/>
       <c r="S102" s="82"/>
       <c r="T102" s="83"/>
       <c r="U102" s="83"/>
@@ -20300,47 +20390,47 @@
       <c r="EL102" s="94"/>
     </row>
     <row r="103" spans="2:142" ht="9" customHeight="1">
-      <c r="B103" s="200"/>
-      <c r="C103" s="168" t="s">
-        <v>113</v>
-      </c>
-      <c r="D103" s="203"/>
-      <c r="E103" s="206" t="s">
-        <v>115</v>
-      </c>
-      <c r="F103" s="165"/>
-      <c r="G103" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H103" s="176">
+      <c r="B103" s="198"/>
+      <c r="C103" s="166" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" s="201"/>
+      <c r="E103" s="204" t="s">
+        <v>114</v>
+      </c>
+      <c r="F103" s="163"/>
+      <c r="G103" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H103" s="174">
         <v>43293</v>
       </c>
-      <c r="I103" s="176">
+      <c r="I103" s="174">
         <v>43293</v>
       </c>
-      <c r="J103" s="176">
+      <c r="J103" s="174">
         <v>43293</v>
       </c>
-      <c r="K103" s="176">
+      <c r="K103" s="174">
         <v>43293</v>
       </c>
-      <c r="L103" s="176">
+      <c r="L103" s="174">
         <v>43293</v>
       </c>
-      <c r="M103" s="176">
+      <c r="M103" s="174">
         <v>43293</v>
       </c>
-      <c r="N103" s="176">
+      <c r="N103" s="174">
         <v>43293</v>
       </c>
-      <c r="O103" s="176">
+      <c r="O103" s="174">
         <v>43293</v>
       </c>
-      <c r="P103" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q103" s="194"/>
-      <c r="R103" s="197"/>
+      <c r="P103" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q103" s="192"/>
+      <c r="R103" s="195"/>
       <c r="S103" s="82"/>
       <c r="T103" s="85"/>
       <c r="U103" s="84"/>
@@ -20467,23 +20557,23 @@
       <c r="EL103" s="93"/>
     </row>
     <row r="104" spans="2:142" ht="9" customHeight="1">
-      <c r="B104" s="202"/>
-      <c r="C104" s="168"/>
-      <c r="D104" s="205"/>
-      <c r="E104" s="208"/>
-      <c r="F104" s="166"/>
-      <c r="G104" s="177"/>
-      <c r="H104" s="177"/>
-      <c r="I104" s="177"/>
-      <c r="J104" s="177"/>
-      <c r="K104" s="177"/>
-      <c r="L104" s="177"/>
-      <c r="M104" s="177"/>
-      <c r="N104" s="177"/>
-      <c r="O104" s="177"/>
-      <c r="P104" s="166"/>
-      <c r="Q104" s="196"/>
-      <c r="R104" s="199"/>
+      <c r="B104" s="200"/>
+      <c r="C104" s="166"/>
+      <c r="D104" s="203"/>
+      <c r="E104" s="206"/>
+      <c r="F104" s="164"/>
+      <c r="G104" s="175"/>
+      <c r="H104" s="175"/>
+      <c r="I104" s="175"/>
+      <c r="J104" s="175"/>
+      <c r="K104" s="175"/>
+      <c r="L104" s="175"/>
+      <c r="M104" s="175"/>
+      <c r="N104" s="175"/>
+      <c r="O104" s="175"/>
+      <c r="P104" s="164"/>
+      <c r="Q104" s="194"/>
+      <c r="R104" s="197"/>
       <c r="S104" s="82"/>
       <c r="T104" s="83"/>
       <c r="U104" s="83"/>
@@ -20610,39 +20700,39 @@
       <c r="EL104" s="94"/>
     </row>
     <row r="105" spans="2:142" ht="9" customHeight="1">
-      <c r="B105" s="200"/>
-      <c r="C105" s="168" t="s">
-        <v>114</v>
-      </c>
-      <c r="D105" s="203"/>
-      <c r="E105" s="206" t="s">
-        <v>116</v>
-      </c>
-      <c r="F105" s="165"/>
-      <c r="G105" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H105" s="176">
+      <c r="B105" s="198"/>
+      <c r="C105" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="201"/>
+      <c r="E105" s="204" t="s">
+        <v>115</v>
+      </c>
+      <c r="F105" s="163"/>
+      <c r="G105" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H105" s="174">
         <v>43292</v>
       </c>
-      <c r="I105" s="176">
+      <c r="I105" s="174">
         <v>43293</v>
       </c>
-      <c r="J105" s="176">
+      <c r="J105" s="174">
         <v>43292</v>
       </c>
-      <c r="K105" s="176">
+      <c r="K105" s="174">
         <v>43294</v>
       </c>
-      <c r="L105" s="187"/>
-      <c r="M105" s="190"/>
-      <c r="N105" s="187"/>
-      <c r="O105" s="190"/>
-      <c r="P105" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q105" s="194"/>
-      <c r="R105" s="197"/>
+      <c r="L105" s="185"/>
+      <c r="M105" s="188"/>
+      <c r="N105" s="185"/>
+      <c r="O105" s="188"/>
+      <c r="P105" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q105" s="192"/>
+      <c r="R105" s="195"/>
       <c r="S105" s="82"/>
       <c r="T105" s="85"/>
       <c r="U105" s="84"/>
@@ -20769,23 +20859,23 @@
       <c r="EL105" s="93"/>
     </row>
     <row r="106" spans="2:142" ht="9" customHeight="1">
-      <c r="B106" s="201"/>
-      <c r="C106" s="168"/>
-      <c r="D106" s="204"/>
-      <c r="E106" s="207"/>
-      <c r="F106" s="193"/>
-      <c r="G106" s="209"/>
-      <c r="H106" s="209"/>
-      <c r="I106" s="209"/>
-      <c r="J106" s="209"/>
-      <c r="K106" s="209"/>
-      <c r="L106" s="188"/>
-      <c r="M106" s="191"/>
-      <c r="N106" s="188"/>
-      <c r="O106" s="191"/>
-      <c r="P106" s="193"/>
-      <c r="Q106" s="195"/>
-      <c r="R106" s="198"/>
+      <c r="B106" s="199"/>
+      <c r="C106" s="166"/>
+      <c r="D106" s="202"/>
+      <c r="E106" s="205"/>
+      <c r="F106" s="191"/>
+      <c r="G106" s="207"/>
+      <c r="H106" s="207"/>
+      <c r="I106" s="207"/>
+      <c r="J106" s="207"/>
+      <c r="K106" s="207"/>
+      <c r="L106" s="186"/>
+      <c r="M106" s="189"/>
+      <c r="N106" s="186"/>
+      <c r="O106" s="189"/>
+      <c r="P106" s="191"/>
+      <c r="Q106" s="193"/>
+      <c r="R106" s="196"/>
       <c r="S106" s="82"/>
       <c r="T106" s="83"/>
       <c r="U106" s="83"/>
@@ -20912,23 +21002,23 @@
       <c r="EL106" s="136"/>
     </row>
     <row r="107" spans="2:142" ht="13.5" customHeight="1">
-      <c r="B107" s="202"/>
-      <c r="C107" s="168"/>
-      <c r="D107" s="205"/>
-      <c r="E107" s="208"/>
-      <c r="F107" s="166"/>
-      <c r="G107" s="177"/>
-      <c r="H107" s="177"/>
-      <c r="I107" s="177"/>
-      <c r="J107" s="177"/>
-      <c r="K107" s="177"/>
-      <c r="L107" s="189"/>
-      <c r="M107" s="192"/>
-      <c r="N107" s="189"/>
-      <c r="O107" s="192"/>
-      <c r="P107" s="166"/>
-      <c r="Q107" s="196"/>
-      <c r="R107" s="199"/>
+      <c r="B107" s="200"/>
+      <c r="C107" s="166"/>
+      <c r="D107" s="203"/>
+      <c r="E107" s="206"/>
+      <c r="F107" s="164"/>
+      <c r="G107" s="175"/>
+      <c r="H107" s="175"/>
+      <c r="I107" s="175"/>
+      <c r="J107" s="175"/>
+      <c r="K107" s="175"/>
+      <c r="L107" s="187"/>
+      <c r="M107" s="190"/>
+      <c r="N107" s="187"/>
+      <c r="O107" s="190"/>
+      <c r="P107" s="164"/>
+      <c r="Q107" s="194"/>
+      <c r="R107" s="197"/>
       <c r="S107" s="82"/>
       <c r="T107" s="83"/>
       <c r="U107" s="83"/>
@@ -21055,34 +21145,34 @@
       <c r="EL107" s="136"/>
     </row>
     <row r="108" spans="2:142" s="145" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B108" s="169"/>
-      <c r="C108" s="168" t="s">
-        <v>137</v>
-      </c>
-      <c r="D108" s="171"/>
-      <c r="E108" s="173"/>
-      <c r="F108" s="173"/>
-      <c r="G108" s="178" t="s">
-        <v>55</v>
-      </c>
-      <c r="H108" s="178">
+      <c r="B108" s="167"/>
+      <c r="C108" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="D108" s="169"/>
+      <c r="E108" s="171"/>
+      <c r="F108" s="171"/>
+      <c r="G108" s="176" t="s">
+        <v>54</v>
+      </c>
+      <c r="H108" s="176">
         <v>43298</v>
       </c>
-      <c r="I108" s="178">
+      <c r="I108" s="176">
         <v>43299</v>
       </c>
-      <c r="J108" s="178">
+      <c r="J108" s="176">
         <v>43298</v>
       </c>
-      <c r="K108" s="178">
+      <c r="K108" s="176">
         <v>43299</v>
       </c>
       <c r="L108" s="146"/>
       <c r="M108" s="146"/>
       <c r="N108" s="146"/>
       <c r="O108" s="146"/>
-      <c r="P108" s="165" t="s">
-        <v>124</v>
+      <c r="P108" s="163" t="s">
+        <v>122</v>
       </c>
       <c r="Q108" s="147"/>
       <c r="R108" s="148"/>
@@ -21212,21 +21302,21 @@
       <c r="EL108" s="153"/>
     </row>
     <row r="109" spans="2:142" s="145" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B109" s="170"/>
-      <c r="C109" s="168"/>
-      <c r="D109" s="172"/>
-      <c r="E109" s="174"/>
-      <c r="F109" s="174"/>
-      <c r="G109" s="179"/>
-      <c r="H109" s="179"/>
-      <c r="I109" s="179"/>
-      <c r="J109" s="179"/>
-      <c r="K109" s="179"/>
+      <c r="B109" s="168"/>
+      <c r="C109" s="166"/>
+      <c r="D109" s="170"/>
+      <c r="E109" s="172"/>
+      <c r="F109" s="172"/>
+      <c r="G109" s="177"/>
+      <c r="H109" s="177"/>
+      <c r="I109" s="177"/>
+      <c r="J109" s="177"/>
+      <c r="K109" s="177"/>
       <c r="L109" s="146"/>
       <c r="M109" s="146"/>
       <c r="N109" s="146"/>
       <c r="O109" s="146"/>
-      <c r="P109" s="166"/>
+      <c r="P109" s="164"/>
       <c r="Q109" s="147"/>
       <c r="R109" s="148"/>
       <c r="S109" s="149"/>
@@ -21355,34 +21445,34 @@
       <c r="EL109" s="153"/>
     </row>
     <row r="110" spans="2:142" s="145" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B110" s="167"/>
-      <c r="C110" s="182" t="s">
-        <v>138</v>
-      </c>
-      <c r="D110" s="175"/>
-      <c r="E110" s="173"/>
-      <c r="F110" s="173"/>
-      <c r="G110" s="180" t="s">
-        <v>55</v>
-      </c>
-      <c r="H110" s="178">
+      <c r="B110" s="165"/>
+      <c r="C110" s="180" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="173"/>
+      <c r="E110" s="171"/>
+      <c r="F110" s="171"/>
+      <c r="G110" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="H110" s="176">
         <v>43298</v>
       </c>
-      <c r="I110" s="178">
+      <c r="I110" s="176">
         <v>43299</v>
       </c>
-      <c r="J110" s="178">
+      <c r="J110" s="176">
         <v>43298</v>
       </c>
-      <c r="K110" s="180">
+      <c r="K110" s="178">
         <v>43305</v>
       </c>
       <c r="L110" s="146"/>
       <c r="M110" s="146"/>
       <c r="N110" s="146"/>
       <c r="O110" s="146"/>
-      <c r="P110" s="165" t="s">
-        <v>124</v>
+      <c r="P110" s="163" t="s">
+        <v>122</v>
       </c>
       <c r="Q110" s="147"/>
       <c r="R110" s="148"/>
@@ -21512,21 +21602,21 @@
       <c r="EL110" s="153"/>
     </row>
     <row r="111" spans="2:142" s="145" customFormat="1" ht="21" customHeight="1">
-      <c r="B111" s="167"/>
-      <c r="C111" s="183"/>
-      <c r="D111" s="172"/>
-      <c r="E111" s="174"/>
-      <c r="F111" s="174"/>
-      <c r="G111" s="181"/>
-      <c r="H111" s="179"/>
-      <c r="I111" s="179"/>
-      <c r="J111" s="179"/>
-      <c r="K111" s="181"/>
+      <c r="B111" s="165"/>
+      <c r="C111" s="181"/>
+      <c r="D111" s="170"/>
+      <c r="E111" s="172"/>
+      <c r="F111" s="172"/>
+      <c r="G111" s="179"/>
+      <c r="H111" s="177"/>
+      <c r="I111" s="177"/>
+      <c r="J111" s="177"/>
+      <c r="K111" s="179"/>
       <c r="L111" s="146"/>
       <c r="M111" s="146"/>
       <c r="N111" s="146"/>
       <c r="O111" s="146"/>
-      <c r="P111" s="166"/>
+      <c r="P111" s="164"/>
       <c r="Q111" s="147"/>
       <c r="R111" s="148"/>
       <c r="S111" s="149"/>
@@ -21655,39 +21745,39 @@
       <c r="EL111" s="153"/>
     </row>
     <row r="112" spans="2:142" ht="9.75" customHeight="1">
-      <c r="B112" s="210" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" s="168" t="s">
+      <c r="B112" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="D112" s="203"/>
-      <c r="E112" s="206"/>
-      <c r="F112" s="165"/>
-      <c r="G112" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H112" s="176">
+      <c r="C112" s="166" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="201"/>
+      <c r="E112" s="204"/>
+      <c r="F112" s="163"/>
+      <c r="G112" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H112" s="174">
         <v>43298</v>
       </c>
-      <c r="I112" s="176">
+      <c r="I112" s="174">
         <v>37456</v>
       </c>
-      <c r="J112" s="176">
+      <c r="J112" s="174">
         <v>43302</v>
       </c>
-      <c r="K112" s="176">
+      <c r="K112" s="174">
         <v>37459</v>
       </c>
-      <c r="L112" s="187"/>
-      <c r="M112" s="190"/>
-      <c r="N112" s="187"/>
-      <c r="O112" s="190"/>
-      <c r="P112" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q112" s="194"/>
-      <c r="R112" s="197"/>
+      <c r="L112" s="185"/>
+      <c r="M112" s="188"/>
+      <c r="N112" s="185"/>
+      <c r="O112" s="188"/>
+      <c r="P112" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q112" s="192"/>
+      <c r="R112" s="195"/>
       <c r="S112" s="82"/>
       <c r="T112" s="139"/>
       <c r="U112" s="140"/>
@@ -21814,23 +21904,23 @@
       <c r="EL112" s="136"/>
     </row>
     <row r="113" spans="2:142" ht="27" customHeight="1">
-      <c r="B113" s="202"/>
-      <c r="C113" s="168"/>
-      <c r="D113" s="205"/>
-      <c r="E113" s="208"/>
-      <c r="F113" s="166"/>
-      <c r="G113" s="177"/>
-      <c r="H113" s="177"/>
-      <c r="I113" s="177"/>
-      <c r="J113" s="177"/>
-      <c r="K113" s="177"/>
-      <c r="L113" s="189"/>
-      <c r="M113" s="192"/>
-      <c r="N113" s="189"/>
-      <c r="O113" s="192"/>
-      <c r="P113" s="166"/>
-      <c r="Q113" s="196"/>
-      <c r="R113" s="199"/>
+      <c r="B113" s="200"/>
+      <c r="C113" s="166"/>
+      <c r="D113" s="203"/>
+      <c r="E113" s="206"/>
+      <c r="F113" s="164"/>
+      <c r="G113" s="175"/>
+      <c r="H113" s="175"/>
+      <c r="I113" s="175"/>
+      <c r="J113" s="175"/>
+      <c r="K113" s="175"/>
+      <c r="L113" s="187"/>
+      <c r="M113" s="190"/>
+      <c r="N113" s="187"/>
+      <c r="O113" s="190"/>
+      <c r="P113" s="164"/>
+      <c r="Q113" s="194"/>
+      <c r="R113" s="197"/>
       <c r="S113" s="82"/>
       <c r="T113" s="83"/>
       <c r="U113" s="83"/>
@@ -21957,37 +22047,37 @@
       <c r="EL113" s="94"/>
     </row>
     <row r="114" spans="2:142" ht="9" customHeight="1">
-      <c r="B114" s="200"/>
-      <c r="C114" s="168" t="s">
-        <v>126</v>
-      </c>
-      <c r="D114" s="203"/>
-      <c r="E114" s="206"/>
-      <c r="F114" s="165"/>
-      <c r="G114" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H114" s="176">
+      <c r="B114" s="198"/>
+      <c r="C114" s="166" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="201"/>
+      <c r="E114" s="204"/>
+      <c r="F114" s="163"/>
+      <c r="G114" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H114" s="174">
         <v>37456</v>
       </c>
-      <c r="I114" s="176">
+      <c r="I114" s="174">
         <v>37457</v>
       </c>
-      <c r="J114" s="176">
+      <c r="J114" s="174">
         <v>43303</v>
       </c>
-      <c r="K114" s="176">
+      <c r="K114" s="174">
         <v>43303</v>
       </c>
-      <c r="L114" s="187"/>
-      <c r="M114" s="190"/>
-      <c r="N114" s="187"/>
-      <c r="O114" s="190"/>
-      <c r="P114" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q114" s="194"/>
-      <c r="R114" s="197"/>
+      <c r="L114" s="185"/>
+      <c r="M114" s="188"/>
+      <c r="N114" s="185"/>
+      <c r="O114" s="188"/>
+      <c r="P114" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q114" s="192"/>
+      <c r="R114" s="195"/>
       <c r="S114" s="82"/>
       <c r="T114" s="85"/>
       <c r="U114" s="84"/>
@@ -22114,23 +22204,23 @@
       <c r="EL114" s="93"/>
     </row>
     <row r="115" spans="2:142" ht="9" customHeight="1">
-      <c r="B115" s="202"/>
-      <c r="C115" s="168"/>
-      <c r="D115" s="205"/>
-      <c r="E115" s="208"/>
-      <c r="F115" s="166"/>
-      <c r="G115" s="177"/>
-      <c r="H115" s="177"/>
-      <c r="I115" s="177"/>
-      <c r="J115" s="177"/>
-      <c r="K115" s="177"/>
-      <c r="L115" s="189"/>
-      <c r="M115" s="192"/>
-      <c r="N115" s="189"/>
-      <c r="O115" s="192"/>
-      <c r="P115" s="166"/>
-      <c r="Q115" s="196"/>
-      <c r="R115" s="199"/>
+      <c r="B115" s="200"/>
+      <c r="C115" s="166"/>
+      <c r="D115" s="203"/>
+      <c r="E115" s="206"/>
+      <c r="F115" s="164"/>
+      <c r="G115" s="175"/>
+      <c r="H115" s="175"/>
+      <c r="I115" s="175"/>
+      <c r="J115" s="175"/>
+      <c r="K115" s="175"/>
+      <c r="L115" s="187"/>
+      <c r="M115" s="190"/>
+      <c r="N115" s="187"/>
+      <c r="O115" s="190"/>
+      <c r="P115" s="164"/>
+      <c r="Q115" s="194"/>
+      <c r="R115" s="197"/>
       <c r="S115" s="82"/>
       <c r="T115" s="83"/>
       <c r="U115" s="83"/>
@@ -22257,37 +22347,37 @@
       <c r="EL115" s="94"/>
     </row>
     <row r="116" spans="2:142" ht="9" customHeight="1">
-      <c r="B116" s="200"/>
-      <c r="C116" s="168" t="s">
-        <v>128</v>
-      </c>
-      <c r="D116" s="203"/>
-      <c r="E116" s="206"/>
-      <c r="F116" s="165"/>
-      <c r="G116" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H116" s="176">
+      <c r="B116" s="198"/>
+      <c r="C116" s="166" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="201"/>
+      <c r="E116" s="204"/>
+      <c r="F116" s="163"/>
+      <c r="G116" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H116" s="174">
         <v>37459</v>
       </c>
-      <c r="I116" s="176">
+      <c r="I116" s="174">
         <v>37460</v>
       </c>
-      <c r="J116" s="176">
+      <c r="J116" s="174">
         <v>37459</v>
       </c>
-      <c r="K116" s="176">
+      <c r="K116" s="174">
         <v>37460</v>
       </c>
-      <c r="L116" s="187"/>
-      <c r="M116" s="190"/>
-      <c r="N116" s="187"/>
-      <c r="O116" s="190"/>
-      <c r="P116" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q116" s="194"/>
-      <c r="R116" s="197"/>
+      <c r="L116" s="185"/>
+      <c r="M116" s="188"/>
+      <c r="N116" s="185"/>
+      <c r="O116" s="188"/>
+      <c r="P116" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q116" s="192"/>
+      <c r="R116" s="195"/>
       <c r="S116" s="82"/>
       <c r="T116" s="85"/>
       <c r="U116" s="84"/>
@@ -22414,23 +22504,23 @@
       <c r="EL116" s="93"/>
     </row>
     <row r="117" spans="2:142" ht="9" customHeight="1">
-      <c r="B117" s="202"/>
-      <c r="C117" s="168"/>
-      <c r="D117" s="205"/>
-      <c r="E117" s="208"/>
-      <c r="F117" s="166"/>
-      <c r="G117" s="177"/>
-      <c r="H117" s="177"/>
-      <c r="I117" s="177"/>
-      <c r="J117" s="177"/>
-      <c r="K117" s="177"/>
-      <c r="L117" s="189"/>
-      <c r="M117" s="192"/>
-      <c r="N117" s="189"/>
-      <c r="O117" s="192"/>
-      <c r="P117" s="166"/>
-      <c r="Q117" s="196"/>
-      <c r="R117" s="199"/>
+      <c r="B117" s="200"/>
+      <c r="C117" s="166"/>
+      <c r="D117" s="203"/>
+      <c r="E117" s="206"/>
+      <c r="F117" s="164"/>
+      <c r="G117" s="175"/>
+      <c r="H117" s="175"/>
+      <c r="I117" s="175"/>
+      <c r="J117" s="175"/>
+      <c r="K117" s="175"/>
+      <c r="L117" s="187"/>
+      <c r="M117" s="190"/>
+      <c r="N117" s="187"/>
+      <c r="O117" s="190"/>
+      <c r="P117" s="164"/>
+      <c r="Q117" s="194"/>
+      <c r="R117" s="197"/>
       <c r="S117" s="82"/>
       <c r="T117" s="83"/>
       <c r="U117" s="83"/>
@@ -22557,37 +22647,37 @@
       <c r="EL117" s="94"/>
     </row>
     <row r="118" spans="2:142" ht="9" customHeight="1">
-      <c r="B118" s="200"/>
-      <c r="C118" s="168" t="s">
-        <v>129</v>
-      </c>
-      <c r="D118" s="203"/>
-      <c r="E118" s="206"/>
-      <c r="F118" s="165"/>
-      <c r="G118" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H118" s="176">
+      <c r="B118" s="198"/>
+      <c r="C118" s="166" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" s="201"/>
+      <c r="E118" s="204"/>
+      <c r="F118" s="163"/>
+      <c r="G118" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118" s="174">
         <v>37460</v>
       </c>
-      <c r="I118" s="176">
+      <c r="I118" s="174">
         <v>37461</v>
       </c>
-      <c r="J118" s="176">
+      <c r="J118" s="174">
         <v>37460</v>
       </c>
-      <c r="K118" s="176">
+      <c r="K118" s="174">
         <v>37461</v>
       </c>
-      <c r="L118" s="187"/>
-      <c r="M118" s="190"/>
-      <c r="N118" s="187"/>
-      <c r="O118" s="190"/>
-      <c r="P118" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q118" s="194"/>
-      <c r="R118" s="197"/>
+      <c r="L118" s="185"/>
+      <c r="M118" s="188"/>
+      <c r="N118" s="185"/>
+      <c r="O118" s="188"/>
+      <c r="P118" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q118" s="192"/>
+      <c r="R118" s="195"/>
       <c r="S118" s="82"/>
       <c r="T118" s="85"/>
       <c r="U118" s="84"/>
@@ -22714,23 +22804,23 @@
       <c r="EL118" s="93"/>
     </row>
     <row r="119" spans="2:142" ht="15.75" customHeight="1">
-      <c r="B119" s="202"/>
-      <c r="C119" s="168"/>
-      <c r="D119" s="205"/>
-      <c r="E119" s="208"/>
-      <c r="F119" s="166"/>
-      <c r="G119" s="177"/>
-      <c r="H119" s="177"/>
-      <c r="I119" s="177"/>
-      <c r="J119" s="177"/>
-      <c r="K119" s="177"/>
-      <c r="L119" s="189"/>
-      <c r="M119" s="192"/>
-      <c r="N119" s="189"/>
-      <c r="O119" s="192"/>
-      <c r="P119" s="166"/>
-      <c r="Q119" s="196"/>
-      <c r="R119" s="199"/>
+      <c r="B119" s="200"/>
+      <c r="C119" s="166"/>
+      <c r="D119" s="203"/>
+      <c r="E119" s="206"/>
+      <c r="F119" s="164"/>
+      <c r="G119" s="175"/>
+      <c r="H119" s="175"/>
+      <c r="I119" s="175"/>
+      <c r="J119" s="175"/>
+      <c r="K119" s="175"/>
+      <c r="L119" s="187"/>
+      <c r="M119" s="190"/>
+      <c r="N119" s="187"/>
+      <c r="O119" s="190"/>
+      <c r="P119" s="164"/>
+      <c r="Q119" s="194"/>
+      <c r="R119" s="197"/>
       <c r="S119" s="82"/>
       <c r="T119" s="83"/>
       <c r="U119" s="83"/>
@@ -22857,37 +22947,37 @@
       <c r="EL119" s="94"/>
     </row>
     <row r="120" spans="2:142" ht="9" customHeight="1">
-      <c r="B120" s="200"/>
-      <c r="C120" s="168" t="s">
-        <v>130</v>
-      </c>
-      <c r="D120" s="203"/>
-      <c r="E120" s="206"/>
-      <c r="F120" s="165"/>
-      <c r="G120" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H120" s="176">
+      <c r="B120" s="198"/>
+      <c r="C120" s="166" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="201"/>
+      <c r="E120" s="204"/>
+      <c r="F120" s="163"/>
+      <c r="G120" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H120" s="174">
         <v>37461</v>
       </c>
-      <c r="I120" s="176">
+      <c r="I120" s="174">
         <v>37462</v>
       </c>
-      <c r="J120" s="176">
+      <c r="J120" s="174">
         <v>37461</v>
       </c>
-      <c r="K120" s="176">
+      <c r="K120" s="174">
         <v>37462</v>
       </c>
-      <c r="L120" s="187"/>
-      <c r="M120" s="190"/>
-      <c r="N120" s="187"/>
-      <c r="O120" s="190"/>
-      <c r="P120" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q120" s="194"/>
-      <c r="R120" s="197"/>
+      <c r="L120" s="185"/>
+      <c r="M120" s="188"/>
+      <c r="N120" s="185"/>
+      <c r="O120" s="188"/>
+      <c r="P120" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q120" s="192"/>
+      <c r="R120" s="195"/>
       <c r="S120" s="82"/>
       <c r="T120" s="85"/>
       <c r="U120" s="84"/>
@@ -23014,23 +23104,23 @@
       <c r="EL120" s="93"/>
     </row>
     <row r="121" spans="2:142" ht="14.25" customHeight="1">
-      <c r="B121" s="202"/>
-      <c r="C121" s="168"/>
-      <c r="D121" s="205"/>
-      <c r="E121" s="208"/>
-      <c r="F121" s="166"/>
-      <c r="G121" s="177"/>
-      <c r="H121" s="177"/>
-      <c r="I121" s="177"/>
-      <c r="J121" s="177"/>
-      <c r="K121" s="177"/>
-      <c r="L121" s="189"/>
-      <c r="M121" s="192"/>
-      <c r="N121" s="189"/>
-      <c r="O121" s="192"/>
-      <c r="P121" s="166"/>
-      <c r="Q121" s="196"/>
-      <c r="R121" s="199"/>
+      <c r="B121" s="200"/>
+      <c r="C121" s="166"/>
+      <c r="D121" s="203"/>
+      <c r="E121" s="206"/>
+      <c r="F121" s="164"/>
+      <c r="G121" s="175"/>
+      <c r="H121" s="175"/>
+      <c r="I121" s="175"/>
+      <c r="J121" s="175"/>
+      <c r="K121" s="175"/>
+      <c r="L121" s="187"/>
+      <c r="M121" s="190"/>
+      <c r="N121" s="187"/>
+      <c r="O121" s="190"/>
+      <c r="P121" s="164"/>
+      <c r="Q121" s="194"/>
+      <c r="R121" s="197"/>
       <c r="S121" s="82"/>
       <c r="T121" s="83"/>
       <c r="U121" s="83"/>
@@ -23157,34 +23247,34 @@
       <c r="EL121" s="136"/>
     </row>
     <row r="122" spans="2:142" s="145" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B122" s="169"/>
-      <c r="C122" s="168" t="s">
-        <v>139</v>
-      </c>
-      <c r="D122" s="171"/>
-      <c r="E122" s="173"/>
-      <c r="F122" s="173"/>
-      <c r="G122" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H122" s="176">
+      <c r="B122" s="167"/>
+      <c r="C122" s="166" t="s">
+        <v>136</v>
+      </c>
+      <c r="D122" s="169"/>
+      <c r="E122" s="171"/>
+      <c r="F122" s="171"/>
+      <c r="G122" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H122" s="174">
         <v>37462</v>
       </c>
-      <c r="I122" s="176">
+      <c r="I122" s="174">
         <v>43307</v>
       </c>
-      <c r="J122" s="178">
+      <c r="J122" s="176">
         <v>43310</v>
       </c>
-      <c r="K122" s="178">
+      <c r="K122" s="176">
         <v>43310</v>
       </c>
       <c r="L122" s="146"/>
       <c r="M122" s="146"/>
       <c r="N122" s="146"/>
       <c r="O122" s="146"/>
-      <c r="P122" s="165" t="s">
-        <v>124</v>
+      <c r="P122" s="163" t="s">
+        <v>122</v>
       </c>
       <c r="Q122" s="147"/>
       <c r="R122" s="148"/>
@@ -23314,21 +23404,21 @@
       <c r="EL122" s="153"/>
     </row>
     <row r="123" spans="2:142" s="145" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B123" s="170"/>
-      <c r="C123" s="168"/>
-      <c r="D123" s="172"/>
-      <c r="E123" s="174"/>
-      <c r="F123" s="174"/>
-      <c r="G123" s="177"/>
-      <c r="H123" s="177"/>
-      <c r="I123" s="177"/>
-      <c r="J123" s="179"/>
-      <c r="K123" s="179"/>
+      <c r="B123" s="168"/>
+      <c r="C123" s="166"/>
+      <c r="D123" s="170"/>
+      <c r="E123" s="172"/>
+      <c r="F123" s="172"/>
+      <c r="G123" s="175"/>
+      <c r="H123" s="175"/>
+      <c r="I123" s="175"/>
+      <c r="J123" s="177"/>
+      <c r="K123" s="177"/>
       <c r="L123" s="146"/>
       <c r="M123" s="146"/>
       <c r="N123" s="146"/>
       <c r="O123" s="146"/>
-      <c r="P123" s="166"/>
+      <c r="P123" s="164"/>
       <c r="Q123" s="147"/>
       <c r="R123" s="148"/>
       <c r="S123" s="149"/>
@@ -23457,34 +23547,34 @@
       <c r="EL123" s="153"/>
     </row>
     <row r="124" spans="2:142" s="145" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B124" s="167"/>
-      <c r="C124" s="168" t="s">
-        <v>140</v>
-      </c>
-      <c r="D124" s="175"/>
-      <c r="E124" s="173"/>
-      <c r="F124" s="173"/>
-      <c r="G124" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H124" s="176">
+      <c r="B124" s="165"/>
+      <c r="C124" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" s="173"/>
+      <c r="E124" s="171"/>
+      <c r="F124" s="171"/>
+      <c r="G124" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H124" s="174">
         <v>37462</v>
       </c>
-      <c r="I124" s="176">
+      <c r="I124" s="174">
         <v>43307</v>
       </c>
-      <c r="J124" s="178">
+      <c r="J124" s="176">
         <v>43311</v>
       </c>
-      <c r="K124" s="178">
+      <c r="K124" s="176">
         <v>43311</v>
       </c>
       <c r="L124" s="146"/>
       <c r="M124" s="146"/>
       <c r="N124" s="146"/>
       <c r="O124" s="146"/>
-      <c r="P124" s="165" t="s">
-        <v>124</v>
+      <c r="P124" s="163" t="s">
+        <v>122</v>
       </c>
       <c r="Q124" s="147"/>
       <c r="R124" s="148"/>
@@ -23614,21 +23704,21 @@
       <c r="EL124" s="153"/>
     </row>
     <row r="125" spans="2:142" s="145" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B125" s="167"/>
-      <c r="C125" s="168"/>
-      <c r="D125" s="172"/>
-      <c r="E125" s="174"/>
-      <c r="F125" s="174"/>
-      <c r="G125" s="177"/>
-      <c r="H125" s="177"/>
-      <c r="I125" s="177"/>
-      <c r="J125" s="179"/>
-      <c r="K125" s="179"/>
+      <c r="B125" s="165"/>
+      <c r="C125" s="166"/>
+      <c r="D125" s="170"/>
+      <c r="E125" s="172"/>
+      <c r="F125" s="172"/>
+      <c r="G125" s="175"/>
+      <c r="H125" s="175"/>
+      <c r="I125" s="175"/>
+      <c r="J125" s="177"/>
+      <c r="K125" s="177"/>
       <c r="L125" s="146"/>
       <c r="M125" s="146"/>
       <c r="N125" s="146"/>
       <c r="O125" s="146"/>
-      <c r="P125" s="166"/>
+      <c r="P125" s="164"/>
       <c r="Q125" s="147"/>
       <c r="R125" s="148"/>
       <c r="S125" s="149"/>
@@ -23757,39 +23847,39 @@
       <c r="EL125" s="153"/>
     </row>
     <row r="126" spans="2:142" ht="9" customHeight="1">
-      <c r="B126" s="210" t="s">
-        <v>131</v>
-      </c>
-      <c r="C126" s="168" t="s">
-        <v>132</v>
-      </c>
-      <c r="D126" s="203"/>
-      <c r="E126" s="206"/>
-      <c r="F126" s="165"/>
-      <c r="G126" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H126" s="176">
+      <c r="B126" s="208" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="D126" s="201"/>
+      <c r="E126" s="204"/>
+      <c r="F126" s="163"/>
+      <c r="G126" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H126" s="174">
         <v>43307</v>
       </c>
-      <c r="I126" s="176">
+      <c r="I126" s="174">
         <v>43308</v>
       </c>
-      <c r="J126" s="178">
+      <c r="J126" s="176">
         <v>43311</v>
       </c>
-      <c r="K126" s="178">
+      <c r="K126" s="176">
         <v>43311</v>
       </c>
-      <c r="L126" s="187"/>
-      <c r="M126" s="190"/>
-      <c r="N126" s="187"/>
-      <c r="O126" s="190"/>
-      <c r="P126" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q126" s="194"/>
-      <c r="R126" s="197"/>
+      <c r="L126" s="185"/>
+      <c r="M126" s="188"/>
+      <c r="N126" s="185"/>
+      <c r="O126" s="188"/>
+      <c r="P126" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q126" s="192"/>
+      <c r="R126" s="195"/>
       <c r="S126" s="82"/>
       <c r="T126" s="139"/>
       <c r="U126" s="140"/>
@@ -23916,23 +24006,23 @@
       <c r="EL126" s="136"/>
     </row>
     <row r="127" spans="2:142" ht="24" customHeight="1">
-      <c r="B127" s="202"/>
-      <c r="C127" s="168"/>
-      <c r="D127" s="205"/>
-      <c r="E127" s="208"/>
-      <c r="F127" s="166"/>
-      <c r="G127" s="177"/>
-      <c r="H127" s="177"/>
-      <c r="I127" s="177"/>
-      <c r="J127" s="179"/>
-      <c r="K127" s="179"/>
-      <c r="L127" s="189"/>
-      <c r="M127" s="192"/>
-      <c r="N127" s="189"/>
-      <c r="O127" s="192"/>
-      <c r="P127" s="166"/>
-      <c r="Q127" s="196"/>
-      <c r="R127" s="199"/>
+      <c r="B127" s="200"/>
+      <c r="C127" s="166"/>
+      <c r="D127" s="203"/>
+      <c r="E127" s="206"/>
+      <c r="F127" s="164"/>
+      <c r="G127" s="175"/>
+      <c r="H127" s="175"/>
+      <c r="I127" s="175"/>
+      <c r="J127" s="177"/>
+      <c r="K127" s="177"/>
+      <c r="L127" s="187"/>
+      <c r="M127" s="190"/>
+      <c r="N127" s="187"/>
+      <c r="O127" s="190"/>
+      <c r="P127" s="164"/>
+      <c r="Q127" s="194"/>
+      <c r="R127" s="197"/>
       <c r="S127" s="82"/>
       <c r="T127" s="83"/>
       <c r="U127" s="83"/>
@@ -24059,35 +24149,37 @@
       <c r="EL127" s="94"/>
     </row>
     <row r="128" spans="2:142" ht="9" customHeight="1">
-      <c r="B128" s="200"/>
-      <c r="C128" s="168" t="s">
-        <v>133</v>
-      </c>
-      <c r="D128" s="203"/>
-      <c r="E128" s="206"/>
-      <c r="F128" s="165"/>
-      <c r="G128" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H128" s="176">
+      <c r="B128" s="198"/>
+      <c r="C128" s="166" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="201"/>
+      <c r="E128" s="204"/>
+      <c r="F128" s="163"/>
+      <c r="G128" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H128" s="174">
         <v>43308</v>
       </c>
-      <c r="I128" s="176">
+      <c r="I128" s="174">
         <v>43309</v>
       </c>
-      <c r="J128" s="184">
+      <c r="J128" s="182">
         <v>43311</v>
       </c>
-      <c r="K128" s="184"/>
-      <c r="L128" s="187"/>
-      <c r="M128" s="190"/>
-      <c r="N128" s="187"/>
-      <c r="O128" s="190"/>
-      <c r="P128" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q128" s="194"/>
-      <c r="R128" s="197"/>
+      <c r="K128" s="182">
+        <v>43313</v>
+      </c>
+      <c r="L128" s="185"/>
+      <c r="M128" s="188"/>
+      <c r="N128" s="185"/>
+      <c r="O128" s="188"/>
+      <c r="P128" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q128" s="192"/>
+      <c r="R128" s="195"/>
       <c r="S128" s="82"/>
       <c r="T128" s="85"/>
       <c r="U128" s="84"/>
@@ -24214,23 +24306,23 @@
       <c r="EL128" s="93"/>
     </row>
     <row r="129" spans="2:142" ht="9" customHeight="1">
-      <c r="B129" s="201"/>
-      <c r="C129" s="168"/>
-      <c r="D129" s="204"/>
-      <c r="E129" s="207"/>
-      <c r="F129" s="193"/>
-      <c r="G129" s="209"/>
-      <c r="H129" s="209"/>
-      <c r="I129" s="209"/>
-      <c r="J129" s="185"/>
-      <c r="K129" s="185"/>
-      <c r="L129" s="188"/>
-      <c r="M129" s="191"/>
-      <c r="N129" s="188"/>
-      <c r="O129" s="191"/>
-      <c r="P129" s="193"/>
-      <c r="Q129" s="195"/>
-      <c r="R129" s="198"/>
+      <c r="B129" s="199"/>
+      <c r="C129" s="166"/>
+      <c r="D129" s="202"/>
+      <c r="E129" s="205"/>
+      <c r="F129" s="191"/>
+      <c r="G129" s="207"/>
+      <c r="H129" s="207"/>
+      <c r="I129" s="207"/>
+      <c r="J129" s="183"/>
+      <c r="K129" s="183"/>
+      <c r="L129" s="186"/>
+      <c r="M129" s="189"/>
+      <c r="N129" s="186"/>
+      <c r="O129" s="189"/>
+      <c r="P129" s="191"/>
+      <c r="Q129" s="193"/>
+      <c r="R129" s="196"/>
       <c r="S129" s="82"/>
       <c r="T129" s="83"/>
       <c r="U129" s="83"/>
@@ -24357,23 +24449,23 @@
       <c r="EL129" s="136"/>
     </row>
     <row r="130" spans="2:142" ht="9" customHeight="1">
-      <c r="B130" s="202"/>
-      <c r="C130" s="168"/>
-      <c r="D130" s="205"/>
-      <c r="E130" s="208"/>
-      <c r="F130" s="166"/>
-      <c r="G130" s="177"/>
-      <c r="H130" s="177"/>
-      <c r="I130" s="177"/>
-      <c r="J130" s="186"/>
-      <c r="K130" s="186"/>
-      <c r="L130" s="189"/>
-      <c r="M130" s="192"/>
-      <c r="N130" s="189"/>
-      <c r="O130" s="192"/>
-      <c r="P130" s="166"/>
-      <c r="Q130" s="196"/>
-      <c r="R130" s="199"/>
+      <c r="B130" s="200"/>
+      <c r="C130" s="166"/>
+      <c r="D130" s="203"/>
+      <c r="E130" s="206"/>
+      <c r="F130" s="164"/>
+      <c r="G130" s="175"/>
+      <c r="H130" s="175"/>
+      <c r="I130" s="175"/>
+      <c r="J130" s="184"/>
+      <c r="K130" s="184"/>
+      <c r="L130" s="187"/>
+      <c r="M130" s="190"/>
+      <c r="N130" s="187"/>
+      <c r="O130" s="190"/>
+      <c r="P130" s="164"/>
+      <c r="Q130" s="194"/>
+      <c r="R130" s="197"/>
       <c r="S130" s="82"/>
       <c r="T130" s="83"/>
       <c r="U130" s="83"/>
@@ -24500,33 +24592,35 @@
       <c r="EL130" s="94"/>
     </row>
     <row r="131" spans="2:142" ht="9" customHeight="1">
-      <c r="B131" s="200"/>
-      <c r="C131" s="168" t="s">
-        <v>134</v>
-      </c>
-      <c r="D131" s="203"/>
-      <c r="E131" s="206"/>
-      <c r="F131" s="165"/>
-      <c r="G131" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H131" s="176">
+      <c r="B131" s="198"/>
+      <c r="C131" s="166" t="s">
+        <v>132</v>
+      </c>
+      <c r="D131" s="201"/>
+      <c r="E131" s="204"/>
+      <c r="F131" s="163"/>
+      <c r="G131" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H131" s="174">
         <v>43309</v>
       </c>
-      <c r="I131" s="176">
+      <c r="I131" s="174">
         <v>43310</v>
       </c>
-      <c r="J131" s="184"/>
-      <c r="K131" s="184"/>
-      <c r="L131" s="187"/>
-      <c r="M131" s="190"/>
-      <c r="N131" s="187"/>
-      <c r="O131" s="190"/>
-      <c r="P131" s="165" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q131" s="194"/>
-      <c r="R131" s="197"/>
+      <c r="J131" s="182">
+        <v>43311</v>
+      </c>
+      <c r="K131" s="182"/>
+      <c r="L131" s="185"/>
+      <c r="M131" s="188"/>
+      <c r="N131" s="185"/>
+      <c r="O131" s="188"/>
+      <c r="P131" s="163" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q131" s="192"/>
+      <c r="R131" s="195"/>
       <c r="S131" s="82"/>
       <c r="T131" s="85"/>
       <c r="U131" s="84"/>
@@ -24653,23 +24747,23 @@
       <c r="EL131" s="93"/>
     </row>
     <row r="132" spans="2:142" ht="9" customHeight="1">
-      <c r="B132" s="201"/>
-      <c r="C132" s="168"/>
-      <c r="D132" s="204"/>
-      <c r="E132" s="207"/>
-      <c r="F132" s="193"/>
-      <c r="G132" s="209"/>
-      <c r="H132" s="209"/>
-      <c r="I132" s="209"/>
-      <c r="J132" s="185"/>
-      <c r="K132" s="185"/>
-      <c r="L132" s="188"/>
-      <c r="M132" s="191"/>
-      <c r="N132" s="188"/>
-      <c r="O132" s="191"/>
-      <c r="P132" s="193"/>
-      <c r="Q132" s="195"/>
-      <c r="R132" s="198"/>
+      <c r="B132" s="199"/>
+      <c r="C132" s="166"/>
+      <c r="D132" s="202"/>
+      <c r="E132" s="205"/>
+      <c r="F132" s="191"/>
+      <c r="G132" s="207"/>
+      <c r="H132" s="207"/>
+      <c r="I132" s="207"/>
+      <c r="J132" s="183"/>
+      <c r="K132" s="183"/>
+      <c r="L132" s="186"/>
+      <c r="M132" s="189"/>
+      <c r="N132" s="186"/>
+      <c r="O132" s="189"/>
+      <c r="P132" s="191"/>
+      <c r="Q132" s="193"/>
+      <c r="R132" s="196"/>
       <c r="S132" s="82"/>
       <c r="T132" s="83"/>
       <c r="U132" s="83"/>
@@ -24796,23 +24890,23 @@
       <c r="EL132" s="136"/>
     </row>
     <row r="133" spans="2:142" ht="9" customHeight="1">
-      <c r="B133" s="202"/>
-      <c r="C133" s="168"/>
-      <c r="D133" s="205"/>
-      <c r="E133" s="208"/>
-      <c r="F133" s="166"/>
-      <c r="G133" s="177"/>
-      <c r="H133" s="177"/>
-      <c r="I133" s="177"/>
-      <c r="J133" s="186"/>
-      <c r="K133" s="186"/>
-      <c r="L133" s="189"/>
-      <c r="M133" s="192"/>
-      <c r="N133" s="189"/>
-      <c r="O133" s="192"/>
-      <c r="P133" s="166"/>
-      <c r="Q133" s="196"/>
-      <c r="R133" s="199"/>
+      <c r="B133" s="200"/>
+      <c r="C133" s="166"/>
+      <c r="D133" s="203"/>
+      <c r="E133" s="206"/>
+      <c r="F133" s="164"/>
+      <c r="G133" s="175"/>
+      <c r="H133" s="175"/>
+      <c r="I133" s="175"/>
+      <c r="J133" s="184"/>
+      <c r="K133" s="184"/>
+      <c r="L133" s="187"/>
+      <c r="M133" s="190"/>
+      <c r="N133" s="187"/>
+      <c r="O133" s="190"/>
+      <c r="P133" s="164"/>
+      <c r="Q133" s="194"/>
+      <c r="R133" s="197"/>
       <c r="S133" s="82"/>
       <c r="T133" s="83"/>
       <c r="U133" s="83"/>
@@ -24939,33 +25033,37 @@
       <c r="EL133" s="94"/>
     </row>
     <row r="134" spans="2:142" ht="9" customHeight="1">
-      <c r="B134" s="200"/>
-      <c r="C134" s="168" t="s">
-        <v>135</v>
-      </c>
-      <c r="D134" s="203"/>
-      <c r="E134" s="206"/>
-      <c r="F134" s="165"/>
-      <c r="G134" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="H134" s="176">
+      <c r="B134" s="198"/>
+      <c r="C134" s="166" t="s">
+        <v>133</v>
+      </c>
+      <c r="D134" s="201"/>
+      <c r="E134" s="204"/>
+      <c r="F134" s="163"/>
+      <c r="G134" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H134" s="174">
         <v>43310</v>
       </c>
-      <c r="I134" s="176">
+      <c r="I134" s="174">
         <v>43311</v>
       </c>
-      <c r="J134" s="184"/>
-      <c r="K134" s="184"/>
-      <c r="L134" s="187"/>
-      <c r="M134" s="190"/>
-      <c r="N134" s="187"/>
-      <c r="O134" s="190"/>
-      <c r="P134" s="165" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q134" s="194"/>
-      <c r="R134" s="197"/>
+      <c r="J134" s="182">
+        <v>43311</v>
+      </c>
+      <c r="K134" s="182">
+        <v>43313</v>
+      </c>
+      <c r="L134" s="185"/>
+      <c r="M134" s="188"/>
+      <c r="N134" s="185"/>
+      <c r="O134" s="188"/>
+      <c r="P134" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q134" s="192"/>
+      <c r="R134" s="195"/>
       <c r="S134" s="82"/>
       <c r="T134" s="85"/>
       <c r="U134" s="84"/>
@@ -25092,23 +25190,23 @@
       <c r="EL134" s="93"/>
     </row>
     <row r="135" spans="2:142" ht="9" customHeight="1">
-      <c r="B135" s="201"/>
-      <c r="C135" s="168"/>
-      <c r="D135" s="204"/>
-      <c r="E135" s="207"/>
-      <c r="F135" s="193"/>
-      <c r="G135" s="209"/>
-      <c r="H135" s="209"/>
-      <c r="I135" s="209"/>
-      <c r="J135" s="185"/>
-      <c r="K135" s="185"/>
-      <c r="L135" s="188"/>
-      <c r="M135" s="191"/>
-      <c r="N135" s="188"/>
-      <c r="O135" s="191"/>
-      <c r="P135" s="193"/>
-      <c r="Q135" s="195"/>
-      <c r="R135" s="198"/>
+      <c r="B135" s="199"/>
+      <c r="C135" s="166"/>
+      <c r="D135" s="202"/>
+      <c r="E135" s="205"/>
+      <c r="F135" s="191"/>
+      <c r="G135" s="207"/>
+      <c r="H135" s="207"/>
+      <c r="I135" s="207"/>
+      <c r="J135" s="183"/>
+      <c r="K135" s="183"/>
+      <c r="L135" s="186"/>
+      <c r="M135" s="189"/>
+      <c r="N135" s="186"/>
+      <c r="O135" s="189"/>
+      <c r="P135" s="191"/>
+      <c r="Q135" s="193"/>
+      <c r="R135" s="196"/>
       <c r="S135" s="82"/>
       <c r="T135" s="83"/>
       <c r="U135" s="83"/>
@@ -25235,23 +25333,23 @@
       <c r="EL135" s="136"/>
     </row>
     <row r="136" spans="2:142" ht="9" customHeight="1">
-      <c r="B136" s="202"/>
-      <c r="C136" s="168"/>
-      <c r="D136" s="205"/>
-      <c r="E136" s="208"/>
-      <c r="F136" s="166"/>
-      <c r="G136" s="177"/>
-      <c r="H136" s="177"/>
-      <c r="I136" s="177"/>
-      <c r="J136" s="186"/>
-      <c r="K136" s="186"/>
-      <c r="L136" s="189"/>
-      <c r="M136" s="192"/>
-      <c r="N136" s="189"/>
-      <c r="O136" s="192"/>
-      <c r="P136" s="166"/>
-      <c r="Q136" s="196"/>
-      <c r="R136" s="199"/>
+      <c r="B136" s="200"/>
+      <c r="C136" s="166"/>
+      <c r="D136" s="203"/>
+      <c r="E136" s="206"/>
+      <c r="F136" s="164"/>
+      <c r="G136" s="175"/>
+      <c r="H136" s="175"/>
+      <c r="I136" s="175"/>
+      <c r="J136" s="184"/>
+      <c r="K136" s="184"/>
+      <c r="L136" s="187"/>
+      <c r="M136" s="190"/>
+      <c r="N136" s="187"/>
+      <c r="O136" s="190"/>
+      <c r="P136" s="164"/>
+      <c r="Q136" s="194"/>
+      <c r="R136" s="197"/>
       <c r="S136" s="82"/>
       <c r="T136" s="83"/>
       <c r="U136" s="83"/>
@@ -25378,23 +25476,23 @@
       <c r="EL136" s="94"/>
     </row>
     <row r="137" spans="2:142" ht="9" customHeight="1">
-      <c r="B137" s="200"/>
-      <c r="C137" s="168"/>
-      <c r="D137" s="203"/>
-      <c r="E137" s="206"/>
-      <c r="F137" s="165"/>
-      <c r="G137" s="176"/>
-      <c r="H137" s="176"/>
-      <c r="I137" s="176"/>
-      <c r="J137" s="184"/>
-      <c r="K137" s="184"/>
-      <c r="L137" s="187"/>
-      <c r="M137" s="190"/>
-      <c r="N137" s="187"/>
-      <c r="O137" s="190"/>
-      <c r="P137" s="165"/>
-      <c r="Q137" s="194"/>
-      <c r="R137" s="197"/>
+      <c r="B137" s="198"/>
+      <c r="C137" s="166"/>
+      <c r="D137" s="201"/>
+      <c r="E137" s="204"/>
+      <c r="F137" s="163"/>
+      <c r="G137" s="174"/>
+      <c r="H137" s="174"/>
+      <c r="I137" s="174"/>
+      <c r="J137" s="182"/>
+      <c r="K137" s="182"/>
+      <c r="L137" s="185"/>
+      <c r="M137" s="188"/>
+      <c r="N137" s="185"/>
+      <c r="O137" s="188"/>
+      <c r="P137" s="163"/>
+      <c r="Q137" s="192"/>
+      <c r="R137" s="195"/>
       <c r="S137" s="82"/>
       <c r="T137" s="85"/>
       <c r="U137" s="84"/>
@@ -25521,23 +25619,23 @@
       <c r="EL137" s="93"/>
     </row>
     <row r="138" spans="2:142" ht="9" customHeight="1">
-      <c r="B138" s="201"/>
-      <c r="C138" s="168"/>
-      <c r="D138" s="204"/>
-      <c r="E138" s="207"/>
-      <c r="F138" s="193"/>
-      <c r="G138" s="209"/>
-      <c r="H138" s="209"/>
-      <c r="I138" s="209"/>
-      <c r="J138" s="185"/>
-      <c r="K138" s="185"/>
-      <c r="L138" s="188"/>
-      <c r="M138" s="191"/>
-      <c r="N138" s="188"/>
-      <c r="O138" s="191"/>
-      <c r="P138" s="193"/>
-      <c r="Q138" s="195"/>
-      <c r="R138" s="198"/>
+      <c r="B138" s="199"/>
+      <c r="C138" s="166"/>
+      <c r="D138" s="202"/>
+      <c r="E138" s="205"/>
+      <c r="F138" s="191"/>
+      <c r="G138" s="207"/>
+      <c r="H138" s="207"/>
+      <c r="I138" s="207"/>
+      <c r="J138" s="183"/>
+      <c r="K138" s="183"/>
+      <c r="L138" s="186"/>
+      <c r="M138" s="189"/>
+      <c r="N138" s="186"/>
+      <c r="O138" s="189"/>
+      <c r="P138" s="191"/>
+      <c r="Q138" s="193"/>
+      <c r="R138" s="196"/>
       <c r="S138" s="82"/>
       <c r="T138" s="83"/>
       <c r="U138" s="83"/>
@@ -25664,23 +25762,23 @@
       <c r="EL138" s="136"/>
     </row>
     <row r="139" spans="2:142" ht="9" customHeight="1">
-      <c r="B139" s="202"/>
-      <c r="C139" s="168"/>
-      <c r="D139" s="205"/>
-      <c r="E139" s="208"/>
-      <c r="F139" s="166"/>
-      <c r="G139" s="177"/>
-      <c r="H139" s="177"/>
-      <c r="I139" s="177"/>
-      <c r="J139" s="186"/>
-      <c r="K139" s="186"/>
-      <c r="L139" s="189"/>
-      <c r="M139" s="192"/>
-      <c r="N139" s="189"/>
-      <c r="O139" s="192"/>
-      <c r="P139" s="166"/>
-      <c r="Q139" s="196"/>
-      <c r="R139" s="199"/>
+      <c r="B139" s="200"/>
+      <c r="C139" s="166"/>
+      <c r="D139" s="203"/>
+      <c r="E139" s="206"/>
+      <c r="F139" s="164"/>
+      <c r="G139" s="175"/>
+      <c r="H139" s="175"/>
+      <c r="I139" s="175"/>
+      <c r="J139" s="184"/>
+      <c r="K139" s="184"/>
+      <c r="L139" s="187"/>
+      <c r="M139" s="190"/>
+      <c r="N139" s="187"/>
+      <c r="O139" s="190"/>
+      <c r="P139" s="164"/>
+      <c r="Q139" s="194"/>
+      <c r="R139" s="197"/>
       <c r="S139" s="82"/>
       <c r="T139" s="83"/>
       <c r="U139" s="83"/>
@@ -25807,23 +25905,23 @@
       <c r="EL139" s="94"/>
     </row>
     <row r="140" spans="2:142" ht="9" customHeight="1">
-      <c r="B140" s="200"/>
-      <c r="C140" s="168"/>
-      <c r="D140" s="203"/>
-      <c r="E140" s="206"/>
-      <c r="F140" s="165"/>
-      <c r="G140" s="176"/>
-      <c r="H140" s="176"/>
-      <c r="I140" s="176"/>
-      <c r="J140" s="184"/>
-      <c r="K140" s="184"/>
-      <c r="L140" s="187"/>
-      <c r="M140" s="190"/>
-      <c r="N140" s="187"/>
-      <c r="O140" s="190"/>
-      <c r="P140" s="165"/>
-      <c r="Q140" s="194"/>
-      <c r="R140" s="197"/>
+      <c r="B140" s="198"/>
+      <c r="C140" s="166"/>
+      <c r="D140" s="201"/>
+      <c r="E140" s="204"/>
+      <c r="F140" s="163"/>
+      <c r="G140" s="174"/>
+      <c r="H140" s="174"/>
+      <c r="I140" s="174"/>
+      <c r="J140" s="182"/>
+      <c r="K140" s="182"/>
+      <c r="L140" s="185"/>
+      <c r="M140" s="188"/>
+      <c r="N140" s="185"/>
+      <c r="O140" s="188"/>
+      <c r="P140" s="163"/>
+      <c r="Q140" s="192"/>
+      <c r="R140" s="195"/>
       <c r="S140" s="82"/>
       <c r="T140" s="85"/>
       <c r="U140" s="84"/>
@@ -25950,23 +26048,23 @@
       <c r="EL140" s="93"/>
     </row>
     <row r="141" spans="2:142" ht="9" customHeight="1">
-      <c r="B141" s="201"/>
-      <c r="C141" s="168"/>
-      <c r="D141" s="204"/>
-      <c r="E141" s="207"/>
-      <c r="F141" s="193"/>
-      <c r="G141" s="209"/>
-      <c r="H141" s="209"/>
-      <c r="I141" s="209"/>
-      <c r="J141" s="185"/>
-      <c r="K141" s="185"/>
-      <c r="L141" s="188"/>
-      <c r="M141" s="191"/>
-      <c r="N141" s="188"/>
-      <c r="O141" s="191"/>
-      <c r="P141" s="193"/>
-      <c r="Q141" s="195"/>
-      <c r="R141" s="198"/>
+      <c r="B141" s="199"/>
+      <c r="C141" s="166"/>
+      <c r="D141" s="202"/>
+      <c r="E141" s="205"/>
+      <c r="F141" s="191"/>
+      <c r="G141" s="207"/>
+      <c r="H141" s="207"/>
+      <c r="I141" s="207"/>
+      <c r="J141" s="183"/>
+      <c r="K141" s="183"/>
+      <c r="L141" s="186"/>
+      <c r="M141" s="189"/>
+      <c r="N141" s="186"/>
+      <c r="O141" s="189"/>
+      <c r="P141" s="191"/>
+      <c r="Q141" s="193"/>
+      <c r="R141" s="196"/>
       <c r="S141" s="82"/>
       <c r="T141" s="83"/>
       <c r="U141" s="83"/>
@@ -26093,23 +26191,23 @@
       <c r="EL141" s="136"/>
     </row>
     <row r="142" spans="2:142" ht="9" customHeight="1">
-      <c r="B142" s="202"/>
-      <c r="C142" s="168"/>
-      <c r="D142" s="205"/>
-      <c r="E142" s="208"/>
-      <c r="F142" s="166"/>
-      <c r="G142" s="177"/>
-      <c r="H142" s="177"/>
-      <c r="I142" s="177"/>
-      <c r="J142" s="186"/>
-      <c r="K142" s="186"/>
-      <c r="L142" s="189"/>
-      <c r="M142" s="192"/>
-      <c r="N142" s="189"/>
-      <c r="O142" s="192"/>
-      <c r="P142" s="166"/>
-      <c r="Q142" s="196"/>
-      <c r="R142" s="199"/>
+      <c r="B142" s="200"/>
+      <c r="C142" s="166"/>
+      <c r="D142" s="203"/>
+      <c r="E142" s="206"/>
+      <c r="F142" s="164"/>
+      <c r="G142" s="175"/>
+      <c r="H142" s="175"/>
+      <c r="I142" s="175"/>
+      <c r="J142" s="184"/>
+      <c r="K142" s="184"/>
+      <c r="L142" s="187"/>
+      <c r="M142" s="190"/>
+      <c r="N142" s="187"/>
+      <c r="O142" s="190"/>
+      <c r="P142" s="164"/>
+      <c r="Q142" s="194"/>
+      <c r="R142" s="197"/>
       <c r="S142" s="82"/>
       <c r="T142" s="83"/>
       <c r="U142" s="83"/>
@@ -26236,23 +26334,23 @@
       <c r="EL142" s="94"/>
     </row>
     <row r="143" spans="2:142" ht="9" customHeight="1">
-      <c r="B143" s="200"/>
-      <c r="C143" s="168"/>
-      <c r="D143" s="203"/>
-      <c r="E143" s="206"/>
-      <c r="F143" s="165"/>
-      <c r="G143" s="176"/>
-      <c r="H143" s="176"/>
-      <c r="I143" s="176"/>
-      <c r="J143" s="184"/>
-      <c r="K143" s="184"/>
-      <c r="L143" s="187"/>
-      <c r="M143" s="190"/>
-      <c r="N143" s="187"/>
-      <c r="O143" s="190"/>
-      <c r="P143" s="165"/>
-      <c r="Q143" s="194"/>
-      <c r="R143" s="197"/>
+      <c r="B143" s="198"/>
+      <c r="C143" s="166"/>
+      <c r="D143" s="201"/>
+      <c r="E143" s="204"/>
+      <c r="F143" s="163"/>
+      <c r="G143" s="174"/>
+      <c r="H143" s="174"/>
+      <c r="I143" s="174"/>
+      <c r="J143" s="182"/>
+      <c r="K143" s="182"/>
+      <c r="L143" s="185"/>
+      <c r="M143" s="188"/>
+      <c r="N143" s="185"/>
+      <c r="O143" s="188"/>
+      <c r="P143" s="163"/>
+      <c r="Q143" s="192"/>
+      <c r="R143" s="195"/>
       <c r="S143" s="82"/>
       <c r="T143" s="85"/>
       <c r="U143" s="84"/>
@@ -26379,23 +26477,23 @@
       <c r="EL143" s="93"/>
     </row>
     <row r="144" spans="2:142" ht="9" customHeight="1">
-      <c r="B144" s="201"/>
-      <c r="C144" s="168"/>
-      <c r="D144" s="204"/>
-      <c r="E144" s="207"/>
-      <c r="F144" s="193"/>
-      <c r="G144" s="209"/>
-      <c r="H144" s="209"/>
-      <c r="I144" s="209"/>
-      <c r="J144" s="185"/>
-      <c r="K144" s="185"/>
-      <c r="L144" s="188"/>
-      <c r="M144" s="191"/>
-      <c r="N144" s="188"/>
-      <c r="O144" s="191"/>
-      <c r="P144" s="193"/>
-      <c r="Q144" s="195"/>
-      <c r="R144" s="198"/>
+      <c r="B144" s="199"/>
+      <c r="C144" s="166"/>
+      <c r="D144" s="202"/>
+      <c r="E144" s="205"/>
+      <c r="F144" s="191"/>
+      <c r="G144" s="207"/>
+      <c r="H144" s="207"/>
+      <c r="I144" s="207"/>
+      <c r="J144" s="183"/>
+      <c r="K144" s="183"/>
+      <c r="L144" s="186"/>
+      <c r="M144" s="189"/>
+      <c r="N144" s="186"/>
+      <c r="O144" s="189"/>
+      <c r="P144" s="191"/>
+      <c r="Q144" s="193"/>
+      <c r="R144" s="196"/>
       <c r="S144" s="82"/>
       <c r="T144" s="83"/>
       <c r="U144" s="83"/>
@@ -26522,23 +26620,23 @@
       <c r="EL144" s="136"/>
     </row>
     <row r="145" spans="2:142" ht="9" customHeight="1">
-      <c r="B145" s="202"/>
-      <c r="C145" s="168"/>
-      <c r="D145" s="205"/>
-      <c r="E145" s="208"/>
-      <c r="F145" s="166"/>
-      <c r="G145" s="177"/>
-      <c r="H145" s="177"/>
-      <c r="I145" s="177"/>
-      <c r="J145" s="186"/>
-      <c r="K145" s="186"/>
-      <c r="L145" s="189"/>
-      <c r="M145" s="192"/>
-      <c r="N145" s="189"/>
-      <c r="O145" s="192"/>
-      <c r="P145" s="166"/>
-      <c r="Q145" s="196"/>
-      <c r="R145" s="199"/>
+      <c r="B145" s="200"/>
+      <c r="C145" s="166"/>
+      <c r="D145" s="203"/>
+      <c r="E145" s="206"/>
+      <c r="F145" s="164"/>
+      <c r="G145" s="175"/>
+      <c r="H145" s="175"/>
+      <c r="I145" s="175"/>
+      <c r="J145" s="184"/>
+      <c r="K145" s="184"/>
+      <c r="L145" s="187"/>
+      <c r="M145" s="190"/>
+      <c r="N145" s="187"/>
+      <c r="O145" s="190"/>
+      <c r="P145" s="164"/>
+      <c r="Q145" s="194"/>
+      <c r="R145" s="197"/>
       <c r="S145" s="82"/>
       <c r="T145" s="83"/>
       <c r="U145" s="83"/>
@@ -26665,23 +26763,23 @@
       <c r="EL145" s="94"/>
     </row>
     <row r="146" spans="2:142" ht="9" customHeight="1">
-      <c r="B146" s="200"/>
-      <c r="C146" s="168"/>
-      <c r="D146" s="203"/>
-      <c r="E146" s="206"/>
-      <c r="F146" s="165"/>
-      <c r="G146" s="176"/>
-      <c r="H146" s="176"/>
-      <c r="I146" s="176"/>
-      <c r="J146" s="184"/>
-      <c r="K146" s="184"/>
-      <c r="L146" s="187"/>
-      <c r="M146" s="190"/>
-      <c r="N146" s="187"/>
-      <c r="O146" s="190"/>
-      <c r="P146" s="165"/>
-      <c r="Q146" s="194"/>
-      <c r="R146" s="197"/>
+      <c r="B146" s="198"/>
+      <c r="C146" s="166"/>
+      <c r="D146" s="201"/>
+      <c r="E146" s="204"/>
+      <c r="F146" s="163"/>
+      <c r="G146" s="174"/>
+      <c r="H146" s="174"/>
+      <c r="I146" s="174"/>
+      <c r="J146" s="182"/>
+      <c r="K146" s="182"/>
+      <c r="L146" s="185"/>
+      <c r="M146" s="188"/>
+      <c r="N146" s="185"/>
+      <c r="O146" s="188"/>
+      <c r="P146" s="163"/>
+      <c r="Q146" s="192"/>
+      <c r="R146" s="195"/>
       <c r="S146" s="82"/>
       <c r="T146" s="85"/>
       <c r="U146" s="84"/>
@@ -26808,23 +26906,23 @@
       <c r="EL146" s="93"/>
     </row>
     <row r="147" spans="2:142" ht="9" customHeight="1">
-      <c r="B147" s="201"/>
-      <c r="C147" s="168"/>
-      <c r="D147" s="204"/>
-      <c r="E147" s="207"/>
-      <c r="F147" s="193"/>
-      <c r="G147" s="209"/>
-      <c r="H147" s="209"/>
-      <c r="I147" s="209"/>
-      <c r="J147" s="185"/>
-      <c r="K147" s="185"/>
-      <c r="L147" s="188"/>
-      <c r="M147" s="191"/>
-      <c r="N147" s="188"/>
-      <c r="O147" s="191"/>
-      <c r="P147" s="193"/>
-      <c r="Q147" s="195"/>
-      <c r="R147" s="198"/>
+      <c r="B147" s="199"/>
+      <c r="C147" s="166"/>
+      <c r="D147" s="202"/>
+      <c r="E147" s="205"/>
+      <c r="F147" s="191"/>
+      <c r="G147" s="207"/>
+      <c r="H147" s="207"/>
+      <c r="I147" s="207"/>
+      <c r="J147" s="183"/>
+      <c r="K147" s="183"/>
+      <c r="L147" s="186"/>
+      <c r="M147" s="189"/>
+      <c r="N147" s="186"/>
+      <c r="O147" s="189"/>
+      <c r="P147" s="191"/>
+      <c r="Q147" s="193"/>
+      <c r="R147" s="196"/>
       <c r="S147" s="82"/>
       <c r="T147" s="83"/>
       <c r="U147" s="83"/>
@@ -26951,23 +27049,23 @@
       <c r="EL147" s="136"/>
     </row>
     <row r="148" spans="2:142" ht="9" customHeight="1">
-      <c r="B148" s="202"/>
-      <c r="C148" s="168"/>
-      <c r="D148" s="205"/>
-      <c r="E148" s="208"/>
-      <c r="F148" s="166"/>
-      <c r="G148" s="177"/>
-      <c r="H148" s="177"/>
-      <c r="I148" s="177"/>
-      <c r="J148" s="186"/>
-      <c r="K148" s="186"/>
-      <c r="L148" s="189"/>
-      <c r="M148" s="192"/>
-      <c r="N148" s="189"/>
-      <c r="O148" s="192"/>
-      <c r="P148" s="166"/>
-      <c r="Q148" s="196"/>
-      <c r="R148" s="199"/>
+      <c r="B148" s="200"/>
+      <c r="C148" s="166"/>
+      <c r="D148" s="203"/>
+      <c r="E148" s="206"/>
+      <c r="F148" s="164"/>
+      <c r="G148" s="175"/>
+      <c r="H148" s="175"/>
+      <c r="I148" s="175"/>
+      <c r="J148" s="184"/>
+      <c r="K148" s="184"/>
+      <c r="L148" s="187"/>
+      <c r="M148" s="190"/>
+      <c r="N148" s="187"/>
+      <c r="O148" s="190"/>
+      <c r="P148" s="164"/>
+      <c r="Q148" s="194"/>
+      <c r="R148" s="197"/>
       <c r="S148" s="82"/>
       <c r="T148" s="83"/>
       <c r="U148" s="83"/>
@@ -27094,23 +27192,23 @@
       <c r="EL148" s="94"/>
     </row>
     <row r="149" spans="2:142" ht="9" customHeight="1">
-      <c r="B149" s="200"/>
-      <c r="C149" s="168"/>
-      <c r="D149" s="203"/>
-      <c r="E149" s="206"/>
-      <c r="F149" s="165"/>
-      <c r="G149" s="176"/>
-      <c r="H149" s="176"/>
-      <c r="I149" s="176"/>
-      <c r="J149" s="184"/>
-      <c r="K149" s="184"/>
-      <c r="L149" s="187"/>
-      <c r="M149" s="190"/>
-      <c r="N149" s="187"/>
-      <c r="O149" s="190"/>
-      <c r="P149" s="165"/>
-      <c r="Q149" s="194"/>
-      <c r="R149" s="197"/>
+      <c r="B149" s="198"/>
+      <c r="C149" s="166"/>
+      <c r="D149" s="201"/>
+      <c r="E149" s="204"/>
+      <c r="F149" s="163"/>
+      <c r="G149" s="174"/>
+      <c r="H149" s="174"/>
+      <c r="I149" s="174"/>
+      <c r="J149" s="182"/>
+      <c r="K149" s="182"/>
+      <c r="L149" s="185"/>
+      <c r="M149" s="188"/>
+      <c r="N149" s="185"/>
+      <c r="O149" s="188"/>
+      <c r="P149" s="163"/>
+      <c r="Q149" s="192"/>
+      <c r="R149" s="195"/>
       <c r="S149" s="82"/>
       <c r="T149" s="85"/>
       <c r="U149" s="84"/>
@@ -27237,23 +27335,23 @@
       <c r="EL149" s="93"/>
     </row>
     <row r="150" spans="2:142" ht="9" customHeight="1">
-      <c r="B150" s="201"/>
-      <c r="C150" s="168"/>
-      <c r="D150" s="204"/>
-      <c r="E150" s="207"/>
-      <c r="F150" s="193"/>
-      <c r="G150" s="209"/>
-      <c r="H150" s="209"/>
-      <c r="I150" s="209"/>
-      <c r="J150" s="185"/>
-      <c r="K150" s="185"/>
-      <c r="L150" s="188"/>
-      <c r="M150" s="191"/>
-      <c r="N150" s="188"/>
-      <c r="O150" s="191"/>
-      <c r="P150" s="193"/>
-      <c r="Q150" s="195"/>
-      <c r="R150" s="198"/>
+      <c r="B150" s="199"/>
+      <c r="C150" s="166"/>
+      <c r="D150" s="202"/>
+      <c r="E150" s="205"/>
+      <c r="F150" s="191"/>
+      <c r="G150" s="207"/>
+      <c r="H150" s="207"/>
+      <c r="I150" s="207"/>
+      <c r="J150" s="183"/>
+      <c r="K150" s="183"/>
+      <c r="L150" s="186"/>
+      <c r="M150" s="189"/>
+      <c r="N150" s="186"/>
+      <c r="O150" s="189"/>
+      <c r="P150" s="191"/>
+      <c r="Q150" s="193"/>
+      <c r="R150" s="196"/>
       <c r="S150" s="82"/>
       <c r="T150" s="83"/>
       <c r="U150" s="83"/>
@@ -27380,23 +27478,23 @@
       <c r="EL150" s="136"/>
     </row>
     <row r="151" spans="2:142" ht="9" customHeight="1">
-      <c r="B151" s="202"/>
-      <c r="C151" s="168"/>
-      <c r="D151" s="205"/>
-      <c r="E151" s="208"/>
-      <c r="F151" s="166"/>
-      <c r="G151" s="177"/>
-      <c r="H151" s="177"/>
-      <c r="I151" s="177"/>
-      <c r="J151" s="186"/>
-      <c r="K151" s="186"/>
-      <c r="L151" s="189"/>
-      <c r="M151" s="192"/>
-      <c r="N151" s="189"/>
-      <c r="O151" s="192"/>
-      <c r="P151" s="166"/>
-      <c r="Q151" s="196"/>
-      <c r="R151" s="199"/>
+      <c r="B151" s="200"/>
+      <c r="C151" s="166"/>
+      <c r="D151" s="203"/>
+      <c r="E151" s="206"/>
+      <c r="F151" s="164"/>
+      <c r="G151" s="175"/>
+      <c r="H151" s="175"/>
+      <c r="I151" s="175"/>
+      <c r="J151" s="184"/>
+      <c r="K151" s="184"/>
+      <c r="L151" s="187"/>
+      <c r="M151" s="190"/>
+      <c r="N151" s="187"/>
+      <c r="O151" s="190"/>
+      <c r="P151" s="164"/>
+      <c r="Q151" s="194"/>
+      <c r="R151" s="197"/>
       <c r="S151" s="82"/>
       <c r="T151" s="83"/>
       <c r="U151" s="83"/>
@@ -27528,7 +27626,8 @@
     <filterColumn colId="16" showButton="0"/>
   </autoFilter>
   <dataConsolidate/>
-  <mergeCells count="1126">
+  <mergeCells count="1127">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="P21:P22"/>
     <mergeCell ref="P23:P24"/>
     <mergeCell ref="P39:P40"/>
@@ -27593,13 +27692,6 @@
     <mergeCell ref="I105:I107"/>
     <mergeCell ref="J105:J107"/>
     <mergeCell ref="K105:K107"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
     <mergeCell ref="Q87:Q88"/>
     <mergeCell ref="R87:R88"/>
     <mergeCell ref="G61:G62"/>
@@ -27613,6 +27705,17 @@
     <mergeCell ref="R83:R84"/>
     <mergeCell ref="G81:G82"/>
     <mergeCell ref="H81:H82"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="M73:M74"/>
     <mergeCell ref="Q120:Q121"/>
     <mergeCell ref="R120:R121"/>
     <mergeCell ref="P120:P121"/>
@@ -27796,10 +27899,6 @@
     <mergeCell ref="O101:O102"/>
     <mergeCell ref="Q101:Q102"/>
     <mergeCell ref="H89:H90"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
     <mergeCell ref="Q81:Q82"/>
     <mergeCell ref="R81:R82"/>
     <mergeCell ref="N81:N82"/>
@@ -27819,18 +27918,15 @@
     <mergeCell ref="G73:G74"/>
     <mergeCell ref="H73:H74"/>
     <mergeCell ref="I73:I74"/>
-    <mergeCell ref="R69:R70"/>
     <mergeCell ref="O73:O74"/>
     <mergeCell ref="Q73:Q74"/>
     <mergeCell ref="R73:R74"/>
     <mergeCell ref="K77:K78"/>
-    <mergeCell ref="N69:N70"/>
     <mergeCell ref="O75:O76"/>
     <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="P73:P74"/>
     <mergeCell ref="K43:K44"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="P45:P46"/>
@@ -27844,13 +27940,18 @@
     <mergeCell ref="H55:H56"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="J55:J56"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
     <mergeCell ref="EL8:EL10"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="O15:O16"/>
@@ -27882,10 +27983,6 @@
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="P15:P16"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="E17:E18"/>
@@ -27914,6 +28011,10 @@
     <mergeCell ref="R37:R38"/>
     <mergeCell ref="N37:N38"/>
     <mergeCell ref="R33:R34"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P50"/>
     <mergeCell ref="D105:D107"/>
     <mergeCell ref="G105:G107"/>
     <mergeCell ref="H105:H107"/>
@@ -27978,11 +28079,6 @@
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="P51:P52"/>
     <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="R63:R64"/>
     <mergeCell ref="Q49:Q50"/>
@@ -28002,6 +28098,7 @@
     <mergeCell ref="O59:O60"/>
     <mergeCell ref="R59:R60"/>
     <mergeCell ref="M57:M58"/>
+    <mergeCell ref="Q59:Q60"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
@@ -28053,8 +28150,6 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="H51:H52"/>
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="H63:H64"/>
@@ -28074,10 +28169,7 @@
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="F77:F78"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="D77:D78"/>
     <mergeCell ref="N39:N40"/>
     <mergeCell ref="O39:O40"/>
     <mergeCell ref="E41:E42"/>
@@ -28103,6 +28195,13 @@
     <mergeCell ref="J35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="J43:J44"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="D33:D34"/>
@@ -28125,11 +28224,13 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="I29:I30"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="M37:M38"/>
@@ -28157,8 +28258,11 @@
     <mergeCell ref="H93:H94"/>
     <mergeCell ref="K89:K90"/>
     <mergeCell ref="L73:L74"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="H51:H52"/>
     <mergeCell ref="G83:G84"/>
     <mergeCell ref="H83:H84"/>
     <mergeCell ref="I83:I84"/>
@@ -28189,15 +28293,8 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -28230,6 +28327,7 @@
     <mergeCell ref="R21:R22"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="E13:E14"/>
@@ -28258,6 +28356,10 @@
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="B27:B28"/>
@@ -28289,7 +28391,7 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F65:F66"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="I43:I44"/>
@@ -28321,7 +28423,14 @@
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="H49:H50"/>
     <mergeCell ref="F63:F64"/>
-    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="E65:E66"/>
@@ -28346,8 +28455,6 @@
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="C63:C64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="C83:C84"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="E67:E68"/>
@@ -28369,19 +28476,6 @@
     <mergeCell ref="P67:P68"/>
     <mergeCell ref="L67:L68"/>
     <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="M73:M74"/>
     <mergeCell ref="Q71:Q72"/>
     <mergeCell ref="P87:P88"/>
     <mergeCell ref="L81:L82"/>
@@ -28411,6 +28505,9 @@
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D81:D82"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="D101:D102"/>
@@ -28437,6 +28534,8 @@
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="I89:I90"/>
     <mergeCell ref="O93:O94"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="E103:E104"/>
@@ -28658,165 +28757,187 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="S8:EK8">
-    <cfRule type="expression" dxfId="195" priority="1897" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="1903" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="1898" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="1904" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:EK10">
-    <cfRule type="expression" dxfId="193" priority="1905" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="1911" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="1906" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="1912" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="1907" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="1913" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:EK151">
-    <cfRule type="expression" dxfId="190" priority="3587" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="3593" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="3588" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="3594" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="3589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="3595" stopIfTrue="1">
       <formula>IF(AND($D11="",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:F11 B13:F13 B15:F15 B17:F17 B19:F19 B21:F21 B23:F23 B25:F25 B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 B37:F37 B39:F39 B41:F41 B43:F43 B45:F45 B47:F47 B49:F49 B51:F51 B53:F53 B55:F55 B57:F57 B59:F59 B61:F61 K71 B63:F63 B65:F65 B67:F67 B69:F69 B71:F71 K73 B73:F73 K75 K77 K79 K81 K83 B75:F75 B77:E77 B79:E79 B81:E81 B83:E83 K85 B85:F85 K87 K89 B87:F87 B89:F89 B91:F91 B93:D93 B95:F95 B97:F97 B99:D99 B101:D101 B103:F103 B105:F106 B114:F114 J128:K129 B116:F116 B118:F118 B120:F120 B126:F126 B128:F129 L11:O102 F101 F99 F93 G11:I28 I13:I42 G29:G90 Q11:R111 Q114:R130 L105:O111 L114:O130 G126:I130 G91:I108 G110:I110 G114:G125">
-    <cfRule type="expression" dxfId="187" priority="5040" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="5046" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="5041" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="5047" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="5042" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="5048" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ11:DM151">
-    <cfRule type="expression" dxfId="184" priority="6120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="6126" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(CJ$9)=7,WEEKDAY(CJ$9)=1,IF(ISNA(MATCH(CJ$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="6121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="6127" stopIfTrue="1">
       <formula>IF(AND($D11="",$S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11 P13 P15 P17 P19 P21 P23 P25 P27 P29 P31 P33 P35 P37 P39 P41 P43 P45 P47 P49 P51 P53 P55 P57 P59 P61 P63 P65 P67 P69 P87 P89 P103 P101 P105:P106 P99 P85 P71 P73 P75 P77 P79 P81 P83">
-    <cfRule type="expression" dxfId="182" priority="289" stopIfTrue="1">
+  <conditionalFormatting sqref="P11 P105:P106 P13 P15 P17 P19 P21 P23 P25 P27 P29 P31 P33 P35 P37 P39 P41 P43 P45 P47 P49 P51 P53 P55 P57 P59 P61 P63 P65 P67 P69 P71 P73 P75 P77 P79 P81 P83 P85 P87 P89 P91 P93 P95 P97 P99 P101 P103">
+    <cfRule type="expression" dxfId="188" priority="295" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="296" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="297" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="179" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="225" stopIfTrue="1">
       <formula>IF(AND($D77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="226" stopIfTrue="1">
       <formula>IF(AND($D77&lt;&gt;"",$K77="",$I77&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="227" stopIfTrue="1">
       <formula>IF(OR(AND($D77&lt;&gt;"",$J77&lt;&gt;"",$Q77&lt;100),TODAY()&gt;=$H77),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="176" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="222" stopIfTrue="1">
       <formula>IF(AND($D79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="223" stopIfTrue="1">
       <formula>IF(AND($D79&lt;&gt;"",$K79="",$I79&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="224" stopIfTrue="1">
       <formula>IF(OR(AND($D79&lt;&gt;"",$J79&lt;&gt;"",$Q79&lt;100),TODAY()&gt;=$H79),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="173" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="219" stopIfTrue="1">
       <formula>IF(AND($D81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="220" stopIfTrue="1">
       <formula>IF(AND($D81&lt;&gt;"",$K81="",$I81&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="221" stopIfTrue="1">
       <formula>IF(OR(AND($D81&lt;&gt;"",$J81&lt;&gt;"",$Q81&lt;100),TODAY()&gt;=$H81),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="expression" dxfId="170" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="216" stopIfTrue="1">
       <formula>IF(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="217" stopIfTrue="1">
       <formula>IF(AND($D83&lt;&gt;"",$K83="",$I83&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="218" stopIfTrue="1">
       <formula>IF(OR(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$Q83&lt;100),TODAY()&gt;=$H83),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="167" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="213" stopIfTrue="1">
       <formula>IF(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="214" stopIfTrue="1">
       <formula>IF(AND($D101&lt;&gt;"",$K101="",$I101&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="215" stopIfTrue="1">
       <formula>IF(OR(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$Q101&lt;100),TODAY()&gt;=$H101),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="164" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="210" stopIfTrue="1">
       <formula>IF(AND($D99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="211" stopIfTrue="1">
       <formula>IF(AND($D99&lt;&gt;"",$K99="",$I99&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="212" stopIfTrue="1">
       <formula>IF(OR(AND($D99&lt;&gt;"",$J99&lt;&gt;"",$Q99&lt;100),TODAY()&gt;=$H99),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" dxfId="161" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="207" stopIfTrue="1">
       <formula>IF(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="208" stopIfTrue="1">
       <formula>IF(AND($D93&lt;&gt;"",$K93="",$I93&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="209" stopIfTrue="1">
       <formula>IF(OR(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$Q93&lt;100),TODAY()&gt;=$H93),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J28">
-    <cfRule type="expression" dxfId="158" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="204" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="205" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="206" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K28">
-    <cfRule type="expression" dxfId="155" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="201" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="202" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="203" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H42">
+    <cfRule type="expression" dxfId="158" priority="198" stopIfTrue="1">
+      <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="199" stopIfTrue="1">
+      <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="200" stopIfTrue="1">
+      <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J42">
+    <cfRule type="expression" dxfId="155" priority="195" stopIfTrue="1">
+      <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="196" stopIfTrue="1">
+      <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="197" stopIfTrue="1">
+      <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K42">
     <cfRule type="expression" dxfId="152" priority="192" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
@@ -28827,29 +28948,29 @@
       <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J42">
+  <conditionalFormatting sqref="H43:H90 I63:I90">
     <cfRule type="expression" dxfId="149" priority="189" stopIfTrue="1">
-      <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
+      <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="148" priority="190" stopIfTrue="1">
-      <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="147" priority="191" stopIfTrue="1">
-      <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K42">
+  <conditionalFormatting sqref="I43:I62">
     <cfRule type="expression" dxfId="146" priority="186" stopIfTrue="1">
-      <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
+      <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="145" priority="187" stopIfTrue="1">
-      <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="144" priority="188" stopIfTrue="1">
-      <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H90 I63:I90">
+  <conditionalFormatting sqref="J43:J62">
     <cfRule type="expression" dxfId="143" priority="183" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
@@ -28860,7 +28981,7 @@
       <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:I62">
+  <conditionalFormatting sqref="K43:K62">
     <cfRule type="expression" dxfId="140" priority="180" stopIfTrue="1">
       <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
@@ -28871,84 +28992,73 @@
       <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:J62">
+  <conditionalFormatting sqref="J63:J90">
     <cfRule type="expression" dxfId="137" priority="177" stopIfTrue="1">
-      <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
+      <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="136" priority="178" stopIfTrue="1">
-      <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="135" priority="179" stopIfTrue="1">
-      <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43:K62">
-    <cfRule type="expression" dxfId="134" priority="174" stopIfTrue="1">
-      <formula>IF(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;""),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="175" stopIfTrue="1">
-      <formula>IF(AND($D43&lt;&gt;"",$K43="",$I43&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="176" stopIfTrue="1">
-      <formula>IF(OR(AND($D43&lt;&gt;"",$J43&lt;&gt;"",$Q43&lt;100),TODAY()&gt;=$H43),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J90">
-    <cfRule type="expression" dxfId="131" priority="171" stopIfTrue="1">
-      <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="172" stopIfTrue="1">
-      <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="173" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:K70">
-    <cfRule type="expression" dxfId="128" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="174" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="175" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="176" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91:J92">
-    <cfRule type="expression" dxfId="125" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="171" stopIfTrue="1">
       <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="172" stopIfTrue="1">
       <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="173" stopIfTrue="1">
       <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91:K92">
-    <cfRule type="expression" dxfId="122" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="168" stopIfTrue="1">
       <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="169" stopIfTrue="1">
       <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="170" stopIfTrue="1">
       <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K105:K107 K110">
-    <cfRule type="expression" dxfId="119" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="162" stopIfTrue="1">
       <formula>IF(AND($D105&lt;&gt;"",$J105&lt;&gt;"",$K105&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="163" stopIfTrue="1">
       <formula>IF(AND($D105&lt;&gt;"",$K105="",$I105&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="164" stopIfTrue="1">
       <formula>IF(OR(AND($D105&lt;&gt;"",$J105&lt;&gt;"",$Q105&lt;100),TODAY()&gt;=$H105),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93:J107 K103:O104">
+    <cfRule type="expression" dxfId="122" priority="156" stopIfTrue="1">
+      <formula>IF(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="157" stopIfTrue="1">
+      <formula>IF(AND($D93&lt;&gt;"",$K93="",$I93&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="158" stopIfTrue="1">
+      <formula>IF(OR(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$Q93&lt;100),TODAY()&gt;=$H93),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K93:K100">
     <cfRule type="expression" dxfId="116" priority="150" stopIfTrue="1">
       <formula>IF(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
@@ -28959,422 +29069,411 @@
       <formula>IF(OR(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$Q93&lt;100),TODAY()&gt;=$H93),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P97">
+  <conditionalFormatting sqref="K101:K102">
     <cfRule type="expression" dxfId="113" priority="147" stopIfTrue="1">
-      <formula>IF(AND($D97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;""),TRUE,FALSE)</formula>
+      <formula>IF(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="112" priority="148" stopIfTrue="1">
-      <formula>IF(AND($D97&lt;&gt;"",$K97="",$I97&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($D101&lt;&gt;"",$K101="",$I101&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="111" priority="149" stopIfTrue="1">
-      <formula>IF(OR(AND($D97&lt;&gt;"",$J97&lt;&gt;"",$Q97&lt;100),TODAY()&gt;=$H97),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K93:K100">
-    <cfRule type="expression" dxfId="110" priority="144" stopIfTrue="1">
-      <formula>IF(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;""),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="145" stopIfTrue="1">
-      <formula>IF(AND($D93&lt;&gt;"",$K93="",$I93&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="146" stopIfTrue="1">
-      <formula>IF(OR(AND($D93&lt;&gt;"",$J93&lt;&gt;"",$Q93&lt;100),TODAY()&gt;=$H93),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K101:K102">
-    <cfRule type="expression" dxfId="107" priority="141" stopIfTrue="1">
-      <formula>IF(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;""),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="142" stopIfTrue="1">
-      <formula>IF(AND($D101&lt;&gt;"",$K101="",$I101&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="143" stopIfTrue="1">
       <formula>IF(OR(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$Q101&lt;100),TODAY()&gt;=$H101),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J131:K132 B131:F132 Q131:R133 L131:O133 G131:G133">
-    <cfRule type="expression" dxfId="104" priority="136" stopIfTrue="1">
+  <conditionalFormatting sqref="K131:K132 B131:F132 Q131:R133 L131:O133 G131:G133">
+    <cfRule type="expression" dxfId="110" priority="142" stopIfTrue="1">
       <formula>IF(AND($D131&lt;&gt;"",$J131&lt;&gt;"",$K131&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="143" stopIfTrue="1">
       <formula>IF(AND($D131&lt;&gt;"",$K131="",$I131&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="144" stopIfTrue="1">
       <formula>IF(OR(AND($D131&lt;&gt;"",$J131&lt;&gt;"",$Q131&lt;100),TODAY()&gt;=$H131),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P131:P132 P128:P129">
-    <cfRule type="expression" dxfId="101" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="136" stopIfTrue="1">
       <formula>IF(AND($D128&lt;&gt;"",$J128&lt;&gt;"",$K128&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="137" stopIfTrue="1">
       <formula>IF(AND($D128&lt;&gt;"",$K128="",$I128&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="138" stopIfTrue="1">
       <formula>IF(OR(AND($D128&lt;&gt;"",$J128&lt;&gt;"",$Q128&lt;100),TODAY()&gt;=$H128),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J134:K135 B134:F135 Q134:R136 L134:O136 G134:G136">
-    <cfRule type="expression" dxfId="98" priority="125" stopIfTrue="1">
+  <conditionalFormatting sqref="K134:K135 B134:F135 Q134:R136 L134:O136 G134:G136">
+    <cfRule type="expression" dxfId="104" priority="131" stopIfTrue="1">
       <formula>IF(AND($D134&lt;&gt;"",$J134&lt;&gt;"",$K134&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="132" stopIfTrue="1">
       <formula>IF(AND($D134&lt;&gt;"",$K134="",$I134&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="133" stopIfTrue="1">
       <formula>IF(OR(AND($D134&lt;&gt;"",$J134&lt;&gt;"",$Q134&lt;100),TODAY()&gt;=$H134),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P134:P135">
-    <cfRule type="expression" dxfId="95" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="125" stopIfTrue="1">
       <formula>IF(AND($D134&lt;&gt;"",$J134&lt;&gt;"",$K134&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="126" stopIfTrue="1">
       <formula>IF(AND($D134&lt;&gt;"",$K134="",$I134&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="127" stopIfTrue="1">
       <formula>IF(OR(AND($D134&lt;&gt;"",$J134&lt;&gt;"",$Q134&lt;100),TODAY()&gt;=$H134),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J137:K138 B137:F138 Q137:R139 L137:O139 G137:I139">
-    <cfRule type="expression" dxfId="92" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="120" stopIfTrue="1">
       <formula>IF(AND($D137&lt;&gt;"",$J137&lt;&gt;"",$K137&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="121" stopIfTrue="1">
       <formula>IF(AND($D137&lt;&gt;"",$K137="",$I137&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="122" stopIfTrue="1">
       <formula>IF(OR(AND($D137&lt;&gt;"",$J137&lt;&gt;"",$Q137&lt;100),TODAY()&gt;=$H137),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P137:P138">
-    <cfRule type="expression" dxfId="89" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="114" stopIfTrue="1">
       <formula>IF(AND($D137&lt;&gt;"",$J137&lt;&gt;"",$K137&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="115" stopIfTrue="1">
       <formula>IF(AND($D137&lt;&gt;"",$K137="",$I137&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="116" stopIfTrue="1">
       <formula>IF(OR(AND($D137&lt;&gt;"",$J137&lt;&gt;"",$Q137&lt;100),TODAY()&gt;=$H137),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140:K141 B140:F141 Q140:R142 L140:O142 G140:I142">
-    <cfRule type="expression" dxfId="86" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="109" stopIfTrue="1">
       <formula>IF(AND($D140&lt;&gt;"",$J140&lt;&gt;"",$K140&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="110" stopIfTrue="1">
       <formula>IF(AND($D140&lt;&gt;"",$K140="",$I140&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="111" stopIfTrue="1">
       <formula>IF(OR(AND($D140&lt;&gt;"",$J140&lt;&gt;"",$Q140&lt;100),TODAY()&gt;=$H140),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P140:P141">
-    <cfRule type="expression" dxfId="83" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="103" stopIfTrue="1">
       <formula>IF(AND($D140&lt;&gt;"",$J140&lt;&gt;"",$K140&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="104" stopIfTrue="1">
       <formula>IF(AND($D140&lt;&gt;"",$K140="",$I140&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="105" stopIfTrue="1">
       <formula>IF(OR(AND($D140&lt;&gt;"",$J140&lt;&gt;"",$Q140&lt;100),TODAY()&gt;=$H140),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J143:K144 B143:F144 Q143:R145 L143:O145 G143:I145">
-    <cfRule type="expression" dxfId="80" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="98" stopIfTrue="1">
       <formula>IF(AND($D143&lt;&gt;"",$J143&lt;&gt;"",$K143&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="99" stopIfTrue="1">
       <formula>IF(AND($D143&lt;&gt;"",$K143="",$I143&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="100" stopIfTrue="1">
       <formula>IF(OR(AND($D143&lt;&gt;"",$J143&lt;&gt;"",$Q143&lt;100),TODAY()&gt;=$H143),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P143:P144">
-    <cfRule type="expression" dxfId="77" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="92" stopIfTrue="1">
       <formula>IF(AND($D143&lt;&gt;"",$J143&lt;&gt;"",$K143&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="93" stopIfTrue="1">
       <formula>IF(AND($D143&lt;&gt;"",$K143="",$I143&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="94" stopIfTrue="1">
       <formula>IF(OR(AND($D143&lt;&gt;"",$J143&lt;&gt;"",$Q143&lt;100),TODAY()&gt;=$H143),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146:K147 B146:F147 Q146:R148 L146:O148 G146:I148">
-    <cfRule type="expression" dxfId="74" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="87" stopIfTrue="1">
       <formula>IF(AND($D146&lt;&gt;"",$J146&lt;&gt;"",$K146&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="88" stopIfTrue="1">
       <formula>IF(AND($D146&lt;&gt;"",$K146="",$I146&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="89" stopIfTrue="1">
       <formula>IF(OR(AND($D146&lt;&gt;"",$J146&lt;&gt;"",$Q146&lt;100),TODAY()&gt;=$H146),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P146:P147">
-    <cfRule type="expression" dxfId="71" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="81" stopIfTrue="1">
       <formula>IF(AND($D146&lt;&gt;"",$J146&lt;&gt;"",$K146&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="82" stopIfTrue="1">
       <formula>IF(AND($D146&lt;&gt;"",$K146="",$I146&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
       <formula>IF(OR(AND($D146&lt;&gt;"",$J146&lt;&gt;"",$Q146&lt;100),TODAY()&gt;=$H146),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149:K150 B149:F150 Q149:R151 L149:O151 G149:I151">
-    <cfRule type="expression" dxfId="68" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="76" stopIfTrue="1">
       <formula>IF(AND($D149&lt;&gt;"",$J149&lt;&gt;"",$K149&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="77" stopIfTrue="1">
       <formula>IF(AND($D149&lt;&gt;"",$K149="",$I149&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="78" stopIfTrue="1">
       <formula>IF(OR(AND($D149&lt;&gt;"",$J149&lt;&gt;"",$Q149&lt;100),TODAY()&gt;=$H149),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P149:P150">
-    <cfRule type="expression" dxfId="65" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="70" stopIfTrue="1">
       <formula>IF(AND($D149&lt;&gt;"",$J149&lt;&gt;"",$K149&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="71" stopIfTrue="1">
       <formula>IF(AND($D149&lt;&gt;"",$K149="",$I149&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="72" stopIfTrue="1">
       <formula>IF(OR(AND($D149&lt;&gt;"",$J149&lt;&gt;"",$Q149&lt;100),TODAY()&gt;=$H149),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:F112 Q112:R113 G112:G113 P112 I112:O113 I114:J115 P108 P114 P116 P110 P118 P120 P122 P124 P126">
-    <cfRule type="expression" dxfId="62" priority="6125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="6131" stopIfTrue="1">
       <formula>IF(AND($D108&lt;&gt;"",#REF!&lt;&gt;"",$K108&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="6126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="6132" stopIfTrue="1">
       <formula>IF(AND($D108&lt;&gt;"",$K108="",$I108&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="6127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="6133" stopIfTrue="1">
       <formula>IF(OR(AND($D108&lt;&gt;"",#REF!&lt;&gt;"",$Q108&lt;100),TODAY()&gt;=$J108),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H115">
-    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="64" stopIfTrue="1">
       <formula>IF(AND($D114&lt;&gt;"",#REF!&lt;&gt;"",$K114&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
       <formula>IF(AND($D114&lt;&gt;"",$K114="",$I114&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="66" stopIfTrue="1">
       <formula>IF(OR(AND($D114&lt;&gt;"",#REF!&lt;&gt;"",$Q114&lt;100),TODAY()&gt;=$J114),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P95 P93 P91">
-    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
-      <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
-      <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
-      <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H131:I133">
-    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
       <formula>IF(AND($D131&lt;&gt;"",$J131&lt;&gt;"",$K131&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
       <formula>IF(AND($D131&lt;&gt;"",$K131="",$I131&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
       <formula>IF(OR(AND($D131&lt;&gt;"",$J131&lt;&gt;"",$Q131&lt;100),TODAY()&gt;=$H131),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134:I136">
-    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
       <formula>IF(AND($D134&lt;&gt;"",$J134&lt;&gt;"",$K134&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
       <formula>IF(AND($D134&lt;&gt;"",$K134="",$I134&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
       <formula>IF(OR(AND($D134&lt;&gt;"",$J134&lt;&gt;"",$Q134&lt;100),TODAY()&gt;=$H134),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116:I117">
-    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$K116&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",$K116="",$I116&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
       <formula>IF(OR(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$Q116&lt;100),TODAY()&gt;=$J116),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118:I119">
-    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$K118&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",$K118="",$I118&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
       <formula>IF(OR(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$Q118&lt;100),TODAY()&gt;=$J118),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120:I121">
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$K120&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",$K120="",$I120&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
       <formula>IF(OR(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$Q120&lt;100),TODAY()&gt;=$J120),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108">
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
       <formula>IF(AND($D108&lt;&gt;"",$J108&lt;&gt;"",$K108&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
       <formula>IF(AND($D108&lt;&gt;"",$K108="",$I108&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
       <formula>IF(OR(AND($D108&lt;&gt;"",$J108&lt;&gt;"",$Q108&lt;100),TODAY()&gt;=$H108),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K108">
-    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
       <formula>IF(AND($D108&lt;&gt;"",$J108&lt;&gt;"",$K108&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>IF(AND($D108&lt;&gt;"",$K108="",$I108&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
       <formula>IF(OR(AND($D108&lt;&gt;"",$J108&lt;&gt;"",$Q108&lt;100),TODAY()&gt;=$H108),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J110">
-    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
       <formula>IF(AND($D110&lt;&gt;"",$J110&lt;&gt;"",$K110&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
       <formula>IF(AND($D110&lt;&gt;"",$K110="",$I110&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
       <formula>IF(OR(AND($D110&lt;&gt;"",$J110&lt;&gt;"",$Q110&lt;100),TODAY()&gt;=$H110),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J120:J122 K122 J124:K124 J126:K126">
-    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$K120&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",$K120="",$I120&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
       <formula>IF(OR(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$Q120&lt;100),TODAY()&gt;=$J120),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120:K121">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$K120&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
       <formula>IF(AND($D120&lt;&gt;"",$K120="",$I120&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
       <formula>IF(OR(AND($D120&lt;&gt;"",#REF!&lt;&gt;"",$Q120&lt;100),TODAY()&gt;=$J120),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118:J119">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$K118&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",$K118="",$I118&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
       <formula>IF(OR(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$Q118&lt;100),TODAY()&gt;=$J118),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K118:K119">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$K118&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>IF(AND($D118&lt;&gt;"",$K118="",$I118&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
       <formula>IF(OR(AND($D118&lt;&gt;"",#REF!&lt;&gt;"",$Q118&lt;100),TODAY()&gt;=$J118),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116:J117">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$K116&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",$K116="",$I116&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
       <formula>IF(OR(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$Q116&lt;100),TODAY()&gt;=$J116),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K116:K117">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$K116&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>IF(AND($D116&lt;&gt;"",$K116="",$I116&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>IF(OR(AND($D116&lt;&gt;"",#REF!&lt;&gt;"",$Q116&lt;100),TODAY()&gt;=$J116),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114:K115">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>IF(AND($D114&lt;&gt;"",#REF!&lt;&gt;"",$K114&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>IF(AND($D114&lt;&gt;"",$K114="",$I114&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>IF(OR(AND($D114&lt;&gt;"",#REF!&lt;&gt;"",$Q114&lt;100),TODAY()&gt;=$J114),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:H123">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+      <formula>IF(AND($D122&lt;&gt;"",#REF!&lt;&gt;"",$K122&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>IF(AND($D122&lt;&gt;"",$K122="",$I122&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+      <formula>IF(OR(AND($D122&lt;&gt;"",#REF!&lt;&gt;"",$Q122&lt;100),TODAY()&gt;=$J122),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H124:H125">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+      <formula>IF(AND($D124&lt;&gt;"",#REF!&lt;&gt;"",$K124&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>IF(AND($D124&lt;&gt;"",$K124="",$I124&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>IF(OR(AND($D124&lt;&gt;"",#REF!&lt;&gt;"",$Q124&lt;100),TODAY()&gt;=$J124),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I122:I125">
     <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
-      <formula>IF(AND($D122&lt;&gt;"",#REF!&lt;&gt;"",$K122&lt;&gt;""),TRUE,FALSE)</formula>
+      <formula>IF(AND($D122&lt;&gt;"",$J122&lt;&gt;"",$K122&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(AND($D122&lt;&gt;"",$K122="",$I122&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>IF(OR(AND($D122&lt;&gt;"",#REF!&lt;&gt;"",$Q122&lt;100),TODAY()&gt;=$J122),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($D122&lt;&gt;"",$J122&lt;&gt;"",$Q122&lt;100),TODAY()&gt;=$H122),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124:H125">
+  <conditionalFormatting sqref="J131:J132">
     <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>IF(AND($D124&lt;&gt;"",#REF!&lt;&gt;"",$K124&lt;&gt;""),TRUE,FALSE)</formula>
+      <formula>IF(AND($D131&lt;&gt;"",$J131&lt;&gt;"",$K131&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>IF(AND($D124&lt;&gt;"",$K124="",$I124&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($D131&lt;&gt;"",$K131="",$I131&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>IF(OR(AND($D124&lt;&gt;"",#REF!&lt;&gt;"",$Q124&lt;100),TODAY()&gt;=$J124),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($D131&lt;&gt;"",$J131&lt;&gt;"",$Q131&lt;100),TODAY()&gt;=$H131),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I122:I125">
+  <conditionalFormatting sqref="J134:J135">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>IF(AND($D122&lt;&gt;"",$J122&lt;&gt;"",$K122&lt;&gt;""),TRUE,FALSE)</formula>
+      <formula>IF(AND($D134&lt;&gt;"",$J134&lt;&gt;"",$K134&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(AND($D122&lt;&gt;"",$K122="",$I122&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($D134&lt;&gt;"",$K134="",$I134&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>IF(OR(AND($D122&lt;&gt;"",$J122&lt;&gt;"",$Q122&lt;100),TODAY()&gt;=$H122),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($D134&lt;&gt;"",$J134&lt;&gt;"",$Q134&lt;100),TODAY()&gt;=$H134),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -29413,11 +29512,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="252"/>
-      <c r="D3" s="253"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="251"/>
     </row>
     <row r="4" spans="2:23" ht="16.5" customHeight="1">
       <c r="B4" s="69" t="s">
@@ -29438,7 +29537,7 @@
         <v>43345</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="52"/>
